--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>Total 2012</t>
   </si>
@@ -290,7 +290,10 @@
     <t>Total 2019</t>
   </si>
   <si>
-    <t>Enero de 2012 a Noviembre de 2020</t>
+    <t>Enero de 2012 a Diciembre de 2020</t>
+  </si>
+  <si>
+    <t>Total 2020</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -585,17 +588,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,12 +612,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -952,9 +959,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL71"/>
+  <dimension ref="A1:DN71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1035,179 +1042,184 @@
     <col min="111" max="111" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:116" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>2012</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="21" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <v>2013</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="21" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="26">
         <v>2014</v>
       </c>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="21" t="s">
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AO6" s="25">
+      <c r="AO6" s="26">
         <v>2015</v>
       </c>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="21" t="s">
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="25">
+      <c r="BB6" s="26">
         <v>2016</v>
       </c>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="26"/>
-      <c r="BE6" s="26"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="26"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6" s="26"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="21" t="s">
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="27"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="27"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BO6" s="25">
+      <c r="BO6" s="26">
         <v>2017</v>
       </c>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="26"/>
-      <c r="BS6" s="26"/>
-      <c r="BT6" s="26"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="26"/>
-      <c r="BW6" s="26"/>
-      <c r="BX6" s="26"/>
-      <c r="BY6" s="26"/>
-      <c r="BZ6" s="26"/>
-      <c r="CA6" s="21" t="s">
+      <c r="BP6" s="27"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="27"/>
+      <c r="BU6" s="27"/>
+      <c r="BV6" s="27"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
+      <c r="BY6" s="27"/>
+      <c r="BZ6" s="27"/>
+      <c r="CA6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="CB6" s="25">
+      <c r="CB6" s="26">
         <v>2018</v>
       </c>
-      <c r="CC6" s="26"/>
-      <c r="CD6" s="26"/>
-      <c r="CE6" s="26"/>
-      <c r="CF6" s="26"/>
-      <c r="CG6" s="26"/>
-      <c r="CH6" s="26"/>
-      <c r="CI6" s="26"/>
-      <c r="CJ6" s="26"/>
-      <c r="CK6" s="26"/>
-      <c r="CL6" s="26"/>
-      <c r="CM6" s="26"/>
-      <c r="CN6" s="26" t="s">
+      <c r="CC6" s="27"/>
+      <c r="CD6" s="27"/>
+      <c r="CE6" s="27"/>
+      <c r="CF6" s="27"/>
+      <c r="CG6" s="27"/>
+      <c r="CH6" s="27"/>
+      <c r="CI6" s="27"/>
+      <c r="CJ6" s="27"/>
+      <c r="CK6" s="27"/>
+      <c r="CL6" s="27"/>
+      <c r="CM6" s="27"/>
+      <c r="CN6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CO6" s="25">
+      <c r="CO6" s="26">
         <v>2019</v>
       </c>
-      <c r="CP6" s="26"/>
-      <c r="CQ6" s="26"/>
-      <c r="CR6" s="26"/>
-      <c r="CS6" s="26"/>
-      <c r="CT6" s="26"/>
-      <c r="CU6" s="26"/>
-      <c r="CV6" s="26"/>
-      <c r="CW6" s="26"/>
-      <c r="CX6" s="26"/>
-      <c r="CY6" s="26"/>
+      <c r="CP6" s="27"/>
+      <c r="CQ6" s="27"/>
+      <c r="CR6" s="27"/>
+      <c r="CS6" s="27"/>
+      <c r="CT6" s="27"/>
+      <c r="CU6" s="27"/>
+      <c r="CV6" s="27"/>
+      <c r="CW6" s="27"/>
+      <c r="CX6" s="27"/>
+      <c r="CY6" s="27"/>
       <c r="CZ6" s="12"/>
-      <c r="DA6" s="26" t="s">
+      <c r="DA6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="DB6" s="23">
+      <c r="DB6" s="29">
         <v>2020</v>
       </c>
-      <c r="DC6" s="24"/>
-      <c r="DD6" s="24"/>
-      <c r="DE6" s="24"/>
-      <c r="DF6" s="24"/>
-      <c r="DG6" s="24"/>
-      <c r="DH6" s="24"/>
-      <c r="DI6" s="24"/>
-      <c r="DJ6" s="24"/>
-      <c r="DK6" s="24"/>
-      <c r="DL6" s="24"/>
+      <c r="DC6" s="30"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="30"/>
+      <c r="DF6" s="30"/>
+      <c r="DG6" s="30"/>
+      <c r="DH6" s="30"/>
+      <c r="DI6" s="30"/>
+      <c r="DJ6" s="30"/>
+      <c r="DK6" s="30"/>
+      <c r="DL6" s="30"/>
+      <c r="DM6" s="30"/>
+      <c r="DN6" s="27" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1256,7 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1293,7 @@
       <c r="Z7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="22"/>
+      <c r="AA7" s="23"/>
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1330,7 @@
       <c r="AM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="22"/>
+      <c r="AN7" s="23"/>
       <c r="AO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1367,7 @@
       <c r="AZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA7" s="22"/>
+      <c r="BA7" s="23"/>
       <c r="BB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1404,7 @@
       <c r="BM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN7" s="22"/>
+      <c r="BN7" s="23"/>
       <c r="BO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1441,7 @@
       <c r="BZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA7" s="22"/>
+      <c r="CA7" s="23"/>
       <c r="CB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1478,7 @@
       <c r="CM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN7" s="27"/>
+      <c r="CN7" s="28"/>
       <c r="CO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1515,7 @@
       <c r="CZ7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA7" s="27"/>
+      <c r="DA7" s="28"/>
       <c r="DB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1537,8 +1549,12 @@
       <c r="DL7" s="20" t="s">
         <v>17</v>
       </c>
+      <c r="DM7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="DN7" s="28"/>
     </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1850,41 +1866,47 @@
       <c r="DA8" s="2">
         <v>12602</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" s="31">
         <v>3978</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" s="31">
         <v>3886</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" s="31">
         <v>1693</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" s="31">
         <v>7</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" s="31">
         <v>1</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" s="31">
         <v>2</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" s="31">
         <v>89</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" s="31">
         <v>5</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" s="31">
         <v>8</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" s="31">
         <v>11</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" s="31">
         <v>168</v>
       </c>
+      <c r="DM8" s="31">
+        <v>1138</v>
+      </c>
+      <c r="DN8" s="31">
+        <v>10986</v>
+      </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2200,41 +2222,47 @@
       <c r="DA9" s="2">
         <v>59163</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" s="31">
         <v>4579</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" s="31">
         <v>3954</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" s="31">
         <v>2760</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" s="31">
         <v>320</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" s="31">
         <v>575</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" s="31">
         <v>1036</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" s="31">
         <v>1298</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" s="31">
         <v>2272</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" s="31">
         <v>2553</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" s="31">
         <v>3148</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" s="31">
         <v>3449</v>
       </c>
+      <c r="DM9" s="31">
+        <v>6293</v>
+      </c>
+      <c r="DN9" s="31">
+        <v>32237</v>
+      </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2550,41 +2578,47 @@
       <c r="DA10" s="2">
         <v>11372</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" s="31">
         <v>1108</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" s="31">
         <v>1219</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" s="31">
         <v>801</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" s="31">
         <v>41</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" s="31">
         <v>81</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" s="31">
         <v>627</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" s="31">
         <v>815</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" s="31">
         <v>576</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" s="31">
         <v>910</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" s="31">
         <v>1823</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" s="31">
         <v>2230</v>
       </c>
+      <c r="DM10" s="31">
+        <v>2690</v>
+      </c>
+      <c r="DN10" s="31">
+        <v>12921</v>
+      </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2892,29 +2926,37 @@
       <c r="DA11" s="2">
         <v>183</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" s="31">
         <v>14</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" s="31">
         <v>24</v>
       </c>
-      <c r="DE11">
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31">
         <v>4</v>
       </c>
-      <c r="DG11">
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31">
         <v>2</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" s="31">
         <v>2</v>
       </c>
-      <c r="DJ11">
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31">
         <v>8</v>
       </c>
-      <c r="DL11">
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31">
         <v>2</v>
       </c>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="31">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -3230,41 +3272,47 @@
       <c r="DA12" s="2">
         <v>7889646</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" s="31">
         <v>738933</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" s="31">
         <v>765887</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" s="31">
         <v>399697</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" s="31">
         <v>1124</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" s="31">
         <v>1676</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" s="31">
         <v>23036</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" s="31">
         <v>112431</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" s="31">
         <v>142416</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" s="31">
         <v>146574</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" s="31">
         <v>210691</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" s="31">
         <v>289059</v>
       </c>
+      <c r="DM12" s="31">
+        <v>406582</v>
+      </c>
+      <c r="DN12" s="31">
+        <v>3238106</v>
+      </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -3492,26 +3540,37 @@
       <c r="DA13" s="2">
         <v>74</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" s="31">
         <v>7</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" s="31">
         <v>8</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" s="31">
         <v>5</v>
       </c>
-      <c r="DI13">
+      <c r="DE13" s="31"/>
+      <c r="DF13" s="31"/>
+      <c r="DG13" s="31"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31">
         <v>4</v>
       </c>
-      <c r="DK13">
+      <c r="DJ13" s="31"/>
+      <c r="DK13" s="31">
         <v>3</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" s="31">
         <v>2</v>
       </c>
+      <c r="DM13" s="31">
+        <v>2</v>
+      </c>
+      <c r="DN13" s="31">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3659,23 +3718,33 @@
       <c r="DA14" s="2">
         <v>2037</v>
       </c>
-      <c r="DC14">
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="31">
         <v>210</v>
       </c>
-      <c r="DI14">
+      <c r="DD14" s="31"/>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="31"/>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="31">
         <v>174</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" s="31">
         <v>415</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" s="31">
         <v>232</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" s="31">
         <v>147</v>
       </c>
+      <c r="DM14" s="31"/>
+      <c r="DN14" s="31">
+        <v>1178</v>
+      </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3991,41 +4060,47 @@
       <c r="DA15" s="2">
         <v>32016</v>
       </c>
-      <c r="DB15">
+      <c r="DB15" s="31">
         <v>2367</v>
       </c>
-      <c r="DC15">
+      <c r="DC15" s="31">
         <v>2534</v>
       </c>
-      <c r="DD15">
+      <c r="DD15" s="31">
         <v>1456</v>
       </c>
-      <c r="DE15">
+      <c r="DE15" s="31">
         <v>219</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" s="31">
         <v>318</v>
       </c>
-      <c r="DG15">
+      <c r="DG15" s="31">
         <v>582</v>
       </c>
-      <c r="DH15">
+      <c r="DH15" s="31">
         <v>763</v>
       </c>
-      <c r="DI15">
+      <c r="DI15" s="31">
         <v>983</v>
       </c>
-      <c r="DJ15">
+      <c r="DJ15" s="31">
         <v>1096</v>
       </c>
-      <c r="DK15">
+      <c r="DK15" s="31">
         <v>1549</v>
       </c>
-      <c r="DL15">
+      <c r="DL15" s="31">
         <v>1362</v>
       </c>
+      <c r="DM15" s="31">
+        <v>2107</v>
+      </c>
+      <c r="DN15" s="31">
+        <v>15336</v>
+      </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -4323,26 +4398,37 @@
       <c r="DA16" s="2">
         <v>35</v>
       </c>
-      <c r="DB16">
+      <c r="DB16" s="31">
         <v>22</v>
       </c>
-      <c r="DC16">
+      <c r="DC16" s="31">
         <v>7</v>
       </c>
-      <c r="DH16">
+      <c r="DD16" s="31"/>
+      <c r="DE16" s="31"/>
+      <c r="DF16" s="31"/>
+      <c r="DG16" s="31"/>
+      <c r="DH16" s="31">
         <v>1</v>
       </c>
-      <c r="DI16">
+      <c r="DI16" s="31">
         <v>1</v>
       </c>
-      <c r="DK16">
+      <c r="DJ16" s="31"/>
+      <c r="DK16" s="31">
         <v>1</v>
       </c>
-      <c r="DL16">
+      <c r="DL16" s="31">
         <v>4</v>
       </c>
+      <c r="DM16" s="31">
+        <v>13</v>
+      </c>
+      <c r="DN16" s="31">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -4658,41 +4744,47 @@
       <c r="DA17" s="2">
         <v>4989201</v>
       </c>
-      <c r="DB17">
+      <c r="DB17" s="31">
         <v>406562</v>
       </c>
-      <c r="DC17">
+      <c r="DC17" s="31">
         <v>407086</v>
       </c>
-      <c r="DD17">
+      <c r="DD17" s="31">
         <v>209321</v>
       </c>
-      <c r="DE17">
+      <c r="DE17" s="31">
         <v>8338</v>
       </c>
-      <c r="DF17">
+      <c r="DF17" s="31">
         <v>9526</v>
       </c>
-      <c r="DG17">
+      <c r="DG17" s="31">
         <v>23384</v>
       </c>
-      <c r="DH17">
+      <c r="DH17" s="31">
         <v>43189</v>
       </c>
-      <c r="DI17">
+      <c r="DI17" s="31">
         <v>59715</v>
       </c>
-      <c r="DJ17">
+      <c r="DJ17" s="31">
         <v>69064</v>
       </c>
-      <c r="DK17">
+      <c r="DK17" s="31">
         <v>103589</v>
       </c>
-      <c r="DL17">
+      <c r="DL17" s="31">
         <v>110011</v>
       </c>
+      <c r="DM17" s="31">
+        <v>184537</v>
+      </c>
+      <c r="DN17" s="31">
+        <v>1634322</v>
+      </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -4986,41 +5078,47 @@
       <c r="DA18" s="2">
         <v>30</v>
       </c>
-      <c r="DB18">
+      <c r="DB18" s="31">
         <v>1</v>
       </c>
-      <c r="DC18">
+      <c r="DC18" s="31">
         <v>3</v>
       </c>
-      <c r="DD18">
+      <c r="DD18" s="31">
         <v>6</v>
       </c>
-      <c r="DE18">
+      <c r="DE18" s="31">
         <v>35</v>
       </c>
-      <c r="DF18">
+      <c r="DF18" s="31">
         <v>72</v>
       </c>
-      <c r="DG18">
+      <c r="DG18" s="31">
         <v>46</v>
       </c>
-      <c r="DH18">
+      <c r="DH18" s="31">
         <v>34</v>
       </c>
-      <c r="DI18">
+      <c r="DI18" s="31">
         <v>45</v>
       </c>
-      <c r="DJ18">
+      <c r="DJ18" s="31">
         <v>47</v>
       </c>
-      <c r="DK18">
+      <c r="DK18" s="31">
         <v>72</v>
       </c>
-      <c r="DL18">
+      <c r="DL18" s="31">
         <v>55</v>
       </c>
+      <c r="DM18" s="31">
+        <v>46</v>
+      </c>
+      <c r="DN18" s="31">
+        <v>462</v>
+      </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -5336,41 +5434,47 @@
       <c r="DA19" s="2">
         <v>364</v>
       </c>
-      <c r="DB19">
+      <c r="DB19" s="31">
         <v>42</v>
       </c>
-      <c r="DC19">
+      <c r="DC19" s="31">
         <v>33</v>
       </c>
-      <c r="DD19">
+      <c r="DD19" s="31">
         <v>24</v>
       </c>
-      <c r="DE19">
+      <c r="DE19" s="31">
         <v>4</v>
       </c>
-      <c r="DF19">
+      <c r="DF19" s="31">
         <v>2</v>
       </c>
-      <c r="DG19">
+      <c r="DG19" s="31">
         <v>3</v>
       </c>
-      <c r="DH19">
+      <c r="DH19" s="31">
         <v>16</v>
       </c>
-      <c r="DI19">
+      <c r="DI19" s="31">
         <v>22</v>
       </c>
-      <c r="DJ19">
+      <c r="DJ19" s="31">
         <v>19</v>
       </c>
-      <c r="DK19">
+      <c r="DK19" s="31">
         <v>56</v>
       </c>
-      <c r="DL19">
+      <c r="DL19" s="31">
         <v>46</v>
       </c>
+      <c r="DM19" s="31">
+        <v>20</v>
+      </c>
+      <c r="DN19" s="31">
+        <v>287</v>
+      </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -5686,38 +5790,45 @@
       <c r="DA20" s="2">
         <v>1248</v>
       </c>
-      <c r="DB20">
+      <c r="DB20" s="31">
         <v>225</v>
       </c>
-      <c r="DC20">
+      <c r="DC20" s="31">
         <v>219</v>
       </c>
-      <c r="DD20">
+      <c r="DD20" s="31">
         <v>75</v>
       </c>
-      <c r="DF20">
+      <c r="DE20" s="31"/>
+      <c r="DF20" s="31">
         <v>6</v>
       </c>
-      <c r="DG20">
+      <c r="DG20" s="31">
         <v>5</v>
       </c>
-      <c r="DH20">
+      <c r="DH20" s="31">
         <v>2</v>
       </c>
-      <c r="DI20">
+      <c r="DI20" s="31">
         <v>13</v>
       </c>
-      <c r="DJ20">
+      <c r="DJ20" s="31">
         <v>14</v>
       </c>
-      <c r="DK20">
+      <c r="DK20" s="31">
         <v>64</v>
       </c>
-      <c r="DL20">
+      <c r="DL20" s="31">
         <v>53</v>
       </c>
+      <c r="DM20" s="31">
+        <v>72</v>
+      </c>
+      <c r="DN20" s="31">
+        <v>748</v>
+      </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -6033,41 +6144,47 @@
       <c r="DA21" s="2">
         <v>186</v>
       </c>
-      <c r="DB21">
+      <c r="DB21" s="31">
         <v>10</v>
       </c>
-      <c r="DC21">
+      <c r="DC21" s="31">
         <v>13</v>
       </c>
-      <c r="DD21">
+      <c r="DD21" s="31">
         <v>16</v>
       </c>
-      <c r="DE21">
+      <c r="DE21" s="31">
         <v>5</v>
       </c>
-      <c r="DF21">
+      <c r="DF21" s="31">
         <v>8</v>
       </c>
-      <c r="DG21">
+      <c r="DG21" s="31">
         <v>11</v>
       </c>
-      <c r="DH21">
+      <c r="DH21" s="31">
         <v>11</v>
       </c>
-      <c r="DI21">
+      <c r="DI21" s="31">
         <v>13</v>
       </c>
-      <c r="DJ21">
+      <c r="DJ21" s="31">
         <v>6</v>
       </c>
-      <c r="DK21">
+      <c r="DK21" s="31">
         <v>12</v>
       </c>
-      <c r="DL21">
+      <c r="DL21" s="31">
         <v>8</v>
       </c>
+      <c r="DM21" s="31">
+        <v>16</v>
+      </c>
+      <c r="DN21" s="31">
+        <v>129</v>
+      </c>
     </row>
-    <row r="22" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -6383,41 +6500,47 @@
       <c r="DA22" s="2">
         <v>178634</v>
       </c>
-      <c r="DB22">
+      <c r="DB22" s="31">
         <v>21150</v>
       </c>
-      <c r="DC22">
+      <c r="DC22" s="31">
         <v>24528</v>
       </c>
-      <c r="DD22">
+      <c r="DD22" s="31">
         <v>15510</v>
       </c>
-      <c r="DE22">
+      <c r="DE22" s="31">
         <v>52</v>
       </c>
-      <c r="DF22">
+      <c r="DF22" s="31">
         <v>67</v>
       </c>
-      <c r="DG22">
+      <c r="DG22" s="31">
         <v>1169</v>
       </c>
-      <c r="DH22">
+      <c r="DH22" s="31">
         <v>4824</v>
       </c>
-      <c r="DI22">
+      <c r="DI22" s="31">
         <v>3919</v>
       </c>
-      <c r="DJ22">
+      <c r="DJ22" s="31">
         <v>3655</v>
       </c>
-      <c r="DK22">
+      <c r="DK22" s="31">
         <v>5923</v>
       </c>
-      <c r="DL22">
+      <c r="DL22" s="31">
         <v>7582</v>
       </c>
+      <c r="DM22" s="31">
+        <v>10934</v>
+      </c>
+      <c r="DN22" s="31">
+        <v>99313</v>
+      </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -6705,32 +6828,41 @@
       <c r="DA23" s="2">
         <v>123</v>
       </c>
-      <c r="DB23">
+      <c r="DB23" s="31">
         <v>22</v>
       </c>
-      <c r="DD23">
+      <c r="DC23" s="31"/>
+      <c r="DD23" s="31">
         <v>16</v>
       </c>
-      <c r="DF23">
+      <c r="DE23" s="31"/>
+      <c r="DF23" s="31">
         <v>7</v>
       </c>
-      <c r="DG23">
+      <c r="DG23" s="31">
         <v>4</v>
       </c>
-      <c r="DI23">
+      <c r="DH23" s="31"/>
+      <c r="DI23" s="31">
         <v>12</v>
       </c>
-      <c r="DJ23">
+      <c r="DJ23" s="31">
         <v>6</v>
       </c>
-      <c r="DK23">
+      <c r="DK23" s="31">
         <v>7</v>
       </c>
-      <c r="DL23">
+      <c r="DL23" s="31">
         <v>17</v>
       </c>
+      <c r="DM23" s="31">
+        <v>3</v>
+      </c>
+      <c r="DN23" s="31">
+        <v>94</v>
+      </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -7030,35 +7162,43 @@
       <c r="DA24" s="2">
         <v>2265</v>
       </c>
-      <c r="DB24">
+      <c r="DB24" s="31">
         <v>192</v>
       </c>
-      <c r="DC24">
+      <c r="DC24" s="31">
         <v>160</v>
       </c>
-      <c r="DD24">
+      <c r="DD24" s="31">
         <v>160</v>
       </c>
-      <c r="DF24">
+      <c r="DE24" s="31"/>
+      <c r="DF24" s="31">
         <v>2</v>
       </c>
-      <c r="DG24">
+      <c r="DG24" s="31">
         <v>9</v>
       </c>
-      <c r="DI24">
+      <c r="DH24" s="31"/>
+      <c r="DI24" s="31">
         <v>2</v>
       </c>
-      <c r="DJ24">
+      <c r="DJ24" s="31">
         <v>5</v>
       </c>
-      <c r="DK24">
+      <c r="DK24" s="31">
         <v>7</v>
       </c>
-      <c r="DL24">
+      <c r="DL24" s="31">
         <v>138</v>
       </c>
+      <c r="DM24" s="31">
+        <v>241</v>
+      </c>
+      <c r="DN24" s="31">
+        <v>916</v>
+      </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -7374,41 +7514,47 @@
       <c r="DA25" s="2">
         <v>2678</v>
       </c>
-      <c r="DB25">
+      <c r="DB25" s="31">
         <v>238</v>
       </c>
-      <c r="DC25">
+      <c r="DC25" s="31">
         <v>187</v>
       </c>
-      <c r="DD25">
+      <c r="DD25" s="31">
         <v>110</v>
       </c>
-      <c r="DE25">
+      <c r="DE25" s="31">
         <v>21</v>
       </c>
-      <c r="DF25">
+      <c r="DF25" s="31">
         <v>46</v>
       </c>
-      <c r="DG25">
+      <c r="DG25" s="31">
         <v>113</v>
       </c>
-      <c r="DH25">
+      <c r="DH25" s="31">
         <v>93</v>
       </c>
-      <c r="DI25">
+      <c r="DI25" s="31">
         <v>190</v>
       </c>
-      <c r="DJ25">
+      <c r="DJ25" s="31">
         <v>150</v>
       </c>
-      <c r="DK25">
+      <c r="DK25" s="31">
         <v>204</v>
       </c>
-      <c r="DL25">
+      <c r="DL25" s="31">
         <v>151</v>
       </c>
+      <c r="DM25" s="31">
+        <v>144</v>
+      </c>
+      <c r="DN25" s="31">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -7724,41 +7870,47 @@
       <c r="DA26" s="2">
         <v>21817</v>
       </c>
-      <c r="DB26">
+      <c r="DB26" s="31">
         <v>1444</v>
       </c>
-      <c r="DC26">
+      <c r="DC26" s="31">
         <v>1437</v>
       </c>
-      <c r="DD26">
+      <c r="DD26" s="31">
         <v>1539</v>
       </c>
-      <c r="DE26">
+      <c r="DE26" s="31">
         <v>213</v>
       </c>
-      <c r="DF26">
+      <c r="DF26" s="31">
         <v>350</v>
       </c>
-      <c r="DG26">
+      <c r="DG26" s="31">
         <v>625</v>
       </c>
-      <c r="DH26">
+      <c r="DH26" s="31">
         <v>1522</v>
       </c>
-      <c r="DI26">
+      <c r="DI26" s="31">
         <v>1087</v>
       </c>
-      <c r="DJ26">
+      <c r="DJ26" s="31">
         <v>1210</v>
       </c>
-      <c r="DK26">
+      <c r="DK26" s="31">
         <v>1327</v>
       </c>
-      <c r="DL26">
+      <c r="DL26" s="31">
         <v>1172</v>
       </c>
+      <c r="DM26" s="31">
+        <v>1793</v>
+      </c>
+      <c r="DN26" s="31">
+        <v>13719</v>
+      </c>
     </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -8048,20 +8200,33 @@
       <c r="DA27" s="2">
         <v>239</v>
       </c>
-      <c r="DI27">
+      <c r="DB27" s="31"/>
+      <c r="DC27" s="31"/>
+      <c r="DD27" s="31"/>
+      <c r="DE27" s="31"/>
+      <c r="DF27" s="31"/>
+      <c r="DG27" s="31"/>
+      <c r="DH27" s="31"/>
+      <c r="DI27" s="31">
         <v>59</v>
       </c>
-      <c r="DJ27">
+      <c r="DJ27" s="31">
         <v>36</v>
       </c>
-      <c r="DK27">
+      <c r="DK27" s="31">
         <v>138</v>
       </c>
-      <c r="DL27">
+      <c r="DL27" s="31">
         <v>238</v>
       </c>
+      <c r="DM27" s="31">
+        <v>123</v>
+      </c>
+      <c r="DN27" s="31">
+        <v>594</v>
+      </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -8377,41 +8542,47 @@
       <c r="DA28" s="2">
         <v>1128155</v>
       </c>
-      <c r="DB28">
+      <c r="DB28" s="31">
         <v>94172</v>
       </c>
-      <c r="DC28">
+      <c r="DC28" s="31">
         <v>80335</v>
       </c>
-      <c r="DD28">
+      <c r="DD28" s="31">
         <v>51843</v>
       </c>
-      <c r="DE28">
+      <c r="DE28" s="31">
         <v>6193</v>
       </c>
-      <c r="DF28">
+      <c r="DF28" s="31">
         <v>8648</v>
       </c>
-      <c r="DG28">
+      <c r="DG28" s="31">
         <v>33065</v>
       </c>
-      <c r="DH28">
+      <c r="DH28" s="31">
         <v>49440</v>
       </c>
-      <c r="DI28">
+      <c r="DI28" s="31">
         <v>41688</v>
       </c>
-      <c r="DJ28">
+      <c r="DJ28" s="31">
         <v>46407</v>
       </c>
-      <c r="DK28">
+      <c r="DK28" s="31">
         <v>53027</v>
       </c>
-      <c r="DL28">
+      <c r="DL28" s="31">
         <v>55366</v>
       </c>
+      <c r="DM28" s="31">
+        <v>100145</v>
+      </c>
+      <c r="DN28" s="31">
+        <v>620329</v>
+      </c>
     </row>
-    <row r="29" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -8727,41 +8898,47 @@
       <c r="DA29" s="2">
         <v>1791</v>
       </c>
-      <c r="DB29">
+      <c r="DB29" s="31">
         <v>129</v>
       </c>
-      <c r="DC29">
+      <c r="DC29" s="31">
         <v>135</v>
       </c>
-      <c r="DD29">
+      <c r="DD29" s="31">
         <v>53</v>
       </c>
-      <c r="DE29">
+      <c r="DE29" s="31">
         <v>8</v>
       </c>
-      <c r="DF29">
+      <c r="DF29" s="31">
         <v>39</v>
       </c>
-      <c r="DG29">
+      <c r="DG29" s="31">
         <v>50</v>
       </c>
-      <c r="DH29">
+      <c r="DH29" s="31">
         <v>32</v>
       </c>
-      <c r="DI29">
+      <c r="DI29" s="31">
         <v>36</v>
       </c>
-      <c r="DJ29">
+      <c r="DJ29" s="31">
         <v>69</v>
       </c>
-      <c r="DK29">
+      <c r="DK29" s="31">
         <v>85</v>
       </c>
-      <c r="DL29">
+      <c r="DL29" s="31">
         <v>67</v>
       </c>
+      <c r="DM29" s="31">
+        <v>59</v>
+      </c>
+      <c r="DN29" s="31">
+        <v>762</v>
+      </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -9077,41 +9254,47 @@
       <c r="DA30" s="2">
         <v>15109</v>
       </c>
-      <c r="DB30">
+      <c r="DB30" s="31">
         <v>2316</v>
       </c>
-      <c r="DC30">
+      <c r="DC30" s="31">
         <v>1894</v>
       </c>
-      <c r="DD30">
+      <c r="DD30" s="31">
         <v>964</v>
       </c>
-      <c r="DE30">
+      <c r="DE30" s="31">
         <v>49</v>
       </c>
-      <c r="DF30">
+      <c r="DF30" s="31">
         <v>131</v>
       </c>
-      <c r="DG30">
+      <c r="DG30" s="31">
         <v>268</v>
       </c>
-      <c r="DH30">
+      <c r="DH30" s="31">
         <v>327</v>
       </c>
-      <c r="DI30">
+      <c r="DI30" s="31">
         <v>59</v>
       </c>
-      <c r="DJ30">
+      <c r="DJ30" s="31">
         <v>253</v>
       </c>
-      <c r="DK30">
+      <c r="DK30" s="31">
         <v>462</v>
       </c>
-      <c r="DL30">
+      <c r="DL30" s="31">
         <v>725</v>
       </c>
+      <c r="DM30" s="31">
+        <v>1118</v>
+      </c>
+      <c r="DN30" s="31">
+        <v>8566</v>
+      </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -9427,35 +9610,43 @@
       <c r="DA31" s="2">
         <v>61356</v>
       </c>
-      <c r="DB31">
+      <c r="DB31" s="31">
         <v>13948</v>
       </c>
-      <c r="DC31">
+      <c r="DC31" s="31">
         <v>14210</v>
       </c>
-      <c r="DD31">
+      <c r="DD31" s="31">
         <v>5298</v>
       </c>
-      <c r="DE31">
+      <c r="DE31" s="31">
         <v>3</v>
       </c>
-      <c r="DG31">
+      <c r="DF31" s="31"/>
+      <c r="DG31" s="31">
         <v>34</v>
       </c>
-      <c r="DH31">
+      <c r="DH31" s="31">
         <v>88</v>
       </c>
-      <c r="DI31">
+      <c r="DI31" s="31">
         <v>5</v>
       </c>
-      <c r="DJ31">
+      <c r="DJ31" s="31">
         <v>3</v>
       </c>
-      <c r="DL31">
+      <c r="DK31" s="31"/>
+      <c r="DL31" s="31">
         <v>154</v>
       </c>
+      <c r="DM31" s="31">
+        <v>731</v>
+      </c>
+      <c r="DN31" s="31">
+        <v>34474</v>
+      </c>
     </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -9771,41 +9962,47 @@
       <c r="DA32" s="2">
         <v>1606</v>
       </c>
-      <c r="DB32">
+      <c r="DB32" s="31">
         <v>100</v>
       </c>
-      <c r="DC32">
+      <c r="DC32" s="31">
         <v>92</v>
       </c>
-      <c r="DD32">
+      <c r="DD32" s="31">
         <v>152</v>
       </c>
-      <c r="DE32">
+      <c r="DE32" s="31">
         <v>24</v>
       </c>
-      <c r="DF32">
+      <c r="DF32" s="31">
         <v>19</v>
       </c>
-      <c r="DG32">
+      <c r="DG32" s="31">
         <v>96</v>
       </c>
-      <c r="DH32">
+      <c r="DH32" s="31">
         <v>70</v>
       </c>
-      <c r="DI32">
+      <c r="DI32" s="31">
         <v>79</v>
       </c>
-      <c r="DJ32">
+      <c r="DJ32" s="31">
         <v>36</v>
       </c>
-      <c r="DK32">
+      <c r="DK32" s="31">
         <v>174</v>
       </c>
-      <c r="DL32">
+      <c r="DL32" s="31">
         <v>221</v>
       </c>
+      <c r="DM32" s="31">
+        <v>458</v>
+      </c>
+      <c r="DN32" s="31">
+        <v>1521</v>
+      </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -10121,41 +10318,47 @@
       <c r="DA33" s="2">
         <v>34680</v>
       </c>
-      <c r="DB33">
+      <c r="DB33" s="31">
         <v>3176</v>
       </c>
-      <c r="DC33">
+      <c r="DC33" s="31">
         <v>5435</v>
       </c>
-      <c r="DD33">
+      <c r="DD33" s="31">
         <v>2486</v>
       </c>
-      <c r="DE33">
+      <c r="DE33" s="31">
         <v>40</v>
       </c>
-      <c r="DF33">
+      <c r="DF33" s="31">
         <v>38</v>
       </c>
-      <c r="DG33">
+      <c r="DG33" s="31">
         <v>456</v>
       </c>
-      <c r="DH33">
+      <c r="DH33" s="31">
         <v>496</v>
       </c>
-      <c r="DI33">
+      <c r="DI33" s="31">
         <v>499</v>
       </c>
-      <c r="DJ33">
+      <c r="DJ33" s="31">
         <v>653</v>
       </c>
-      <c r="DK33">
+      <c r="DK33" s="31">
         <v>1642</v>
       </c>
-      <c r="DL33">
+      <c r="DL33" s="31">
         <v>1694</v>
       </c>
+      <c r="DM33" s="31">
+        <v>1393</v>
+      </c>
+      <c r="DN33" s="31">
+        <v>18008</v>
+      </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
@@ -10471,41 +10674,47 @@
       <c r="DA34" s="2">
         <v>1791769</v>
       </c>
-      <c r="DB34">
+      <c r="DB34" s="31">
         <v>166549</v>
       </c>
-      <c r="DC34">
+      <c r="DC34" s="31">
         <v>179033</v>
       </c>
-      <c r="DD34">
+      <c r="DD34" s="31">
         <v>93052</v>
       </c>
-      <c r="DE34">
+      <c r="DE34" s="31">
         <v>594</v>
       </c>
-      <c r="DF34">
+      <c r="DF34" s="31">
         <v>1300</v>
       </c>
-      <c r="DG34">
+      <c r="DG34" s="31">
         <v>13084</v>
       </c>
-      <c r="DH34">
+      <c r="DH34" s="31">
         <v>42603</v>
       </c>
-      <c r="DI34">
+      <c r="DI34" s="31">
         <v>46009</v>
       </c>
-      <c r="DJ34">
+      <c r="DJ34" s="31">
         <v>51101</v>
       </c>
-      <c r="DK34">
+      <c r="DK34" s="31">
         <v>95338</v>
       </c>
-      <c r="DL34">
+      <c r="DL34" s="31">
         <v>103094</v>
       </c>
+      <c r="DM34" s="31">
+        <v>108864</v>
+      </c>
+      <c r="DN34" s="31">
+        <v>900621</v>
+      </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
@@ -10759,35 +10968,43 @@
       <c r="DA35" s="2">
         <v>203</v>
       </c>
-      <c r="DB35">
+      <c r="DB35" s="31">
         <v>24</v>
       </c>
-      <c r="DC35">
+      <c r="DC35" s="31">
         <v>26</v>
       </c>
-      <c r="DD35">
+      <c r="DD35" s="31">
         <v>7</v>
       </c>
-      <c r="DF35">
+      <c r="DE35" s="31"/>
+      <c r="DF35" s="31">
         <v>2</v>
       </c>
-      <c r="DH35">
+      <c r="DG35" s="31"/>
+      <c r="DH35" s="31">
         <v>12</v>
       </c>
-      <c r="DI35">
+      <c r="DI35" s="31">
         <v>3</v>
       </c>
-      <c r="DJ35">
+      <c r="DJ35" s="31">
         <v>4</v>
       </c>
-      <c r="DK35">
+      <c r="DK35" s="31">
         <v>4</v>
       </c>
-      <c r="DL35">
+      <c r="DL35" s="31">
         <v>8</v>
       </c>
+      <c r="DM35" s="31">
+        <v>8</v>
+      </c>
+      <c r="DN35" s="31">
+        <v>98</v>
+      </c>
     </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -11103,41 +11320,47 @@
       <c r="DA36" s="2">
         <v>29391</v>
       </c>
-      <c r="DB36">
+      <c r="DB36" s="31">
         <v>4615</v>
       </c>
-      <c r="DC36">
+      <c r="DC36" s="31">
         <v>3614</v>
       </c>
-      <c r="DD36">
+      <c r="DD36" s="31">
         <v>1457</v>
       </c>
-      <c r="DE36">
+      <c r="DE36" s="31">
         <v>36</v>
       </c>
-      <c r="DF36">
+      <c r="DF36" s="31">
         <v>12</v>
       </c>
-      <c r="DG36">
+      <c r="DG36" s="31">
         <v>345</v>
       </c>
-      <c r="DH36">
+      <c r="DH36" s="31">
         <v>314</v>
       </c>
-      <c r="DI36">
+      <c r="DI36" s="31">
         <v>304</v>
       </c>
-      <c r="DJ36">
+      <c r="DJ36" s="31">
         <v>293</v>
       </c>
-      <c r="DK36">
+      <c r="DK36" s="31">
         <v>485</v>
       </c>
-      <c r="DL36">
+      <c r="DL36" s="31">
         <v>467</v>
       </c>
+      <c r="DM36" s="31">
+        <v>738</v>
+      </c>
+      <c r="DN36" s="31">
+        <v>12680</v>
+      </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>48</v>
       </c>
@@ -11451,35 +11674,43 @@
       <c r="DA37" s="2">
         <v>458</v>
       </c>
-      <c r="DB37">
+      <c r="DB37" s="31">
         <v>22</v>
       </c>
-      <c r="DC37">
+      <c r="DC37" s="31">
         <v>11</v>
       </c>
-      <c r="DD37">
+      <c r="DD37" s="31">
         <v>3</v>
       </c>
-      <c r="DG37">
+      <c r="DE37" s="31"/>
+      <c r="DF37" s="31"/>
+      <c r="DG37" s="31">
         <v>9</v>
       </c>
-      <c r="DH37">
+      <c r="DH37" s="31">
         <v>13</v>
       </c>
-      <c r="DI37">
+      <c r="DI37" s="31">
         <v>40</v>
       </c>
-      <c r="DJ37">
+      <c r="DJ37" s="31">
         <v>107</v>
       </c>
-      <c r="DK37">
+      <c r="DK37" s="31">
         <v>2</v>
       </c>
-      <c r="DL37">
+      <c r="DL37" s="31">
         <v>59</v>
       </c>
+      <c r="DM37" s="31">
+        <v>38</v>
+      </c>
+      <c r="DN37" s="31">
+        <v>304</v>
+      </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -11795,41 +12026,47 @@
       <c r="DA38" s="2">
         <v>134191</v>
       </c>
-      <c r="DB38">
+      <c r="DB38" s="31">
         <v>22555</v>
       </c>
-      <c r="DC38">
+      <c r="DC38" s="31">
         <v>22306</v>
       </c>
-      <c r="DD38">
+      <c r="DD38" s="31">
         <v>9945</v>
       </c>
-      <c r="DE38">
+      <c r="DE38" s="31">
         <v>102</v>
       </c>
-      <c r="DF38">
+      <c r="DF38" s="31">
         <v>74</v>
       </c>
-      <c r="DG38">
+      <c r="DG38" s="31">
         <v>529</v>
       </c>
-      <c r="DH38">
+      <c r="DH38" s="31">
         <v>1181</v>
       </c>
-      <c r="DI38">
+      <c r="DI38" s="31">
         <v>1178</v>
       </c>
-      <c r="DJ38">
+      <c r="DJ38" s="31">
         <v>1475</v>
       </c>
-      <c r="DK38">
+      <c r="DK38" s="31">
         <v>2910</v>
       </c>
-      <c r="DL38">
+      <c r="DL38" s="31">
         <v>4079</v>
       </c>
+      <c r="DM38" s="31">
+        <v>6395</v>
+      </c>
+      <c r="DN38" s="31">
+        <v>72729</v>
+      </c>
     </row>
-    <row r="39" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
@@ -12145,41 +12382,47 @@
       <c r="DA39" s="2">
         <v>57763</v>
       </c>
-      <c r="DB39">
+      <c r="DB39" s="31">
         <v>6733</v>
       </c>
-      <c r="DC39">
+      <c r="DC39" s="31">
         <v>6841</v>
       </c>
-      <c r="DD39">
+      <c r="DD39" s="31">
         <v>3552</v>
       </c>
-      <c r="DE39">
+      <c r="DE39" s="31">
         <v>78</v>
       </c>
-      <c r="DF39">
+      <c r="DF39" s="31">
         <v>52</v>
       </c>
-      <c r="DG39">
+      <c r="DG39" s="31">
         <v>399</v>
       </c>
-      <c r="DH39">
+      <c r="DH39" s="31">
         <v>521</v>
       </c>
-      <c r="DI39">
+      <c r="DI39" s="31">
         <v>38</v>
       </c>
-      <c r="DJ39">
+      <c r="DJ39" s="31">
         <v>64</v>
       </c>
-      <c r="DK39">
+      <c r="DK39" s="31">
         <v>580</v>
       </c>
-      <c r="DL39">
+      <c r="DL39" s="31">
         <v>981</v>
       </c>
+      <c r="DM39" s="31">
+        <v>3057</v>
+      </c>
+      <c r="DN39" s="31">
+        <v>22896</v>
+      </c>
     </row>
-    <row r="40" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
@@ -12495,41 +12738,47 @@
       <c r="DA40" s="2">
         <v>1280</v>
       </c>
-      <c r="DB40">
+      <c r="DB40" s="31">
         <v>129</v>
       </c>
-      <c r="DC40">
+      <c r="DC40" s="31">
         <v>85</v>
       </c>
-      <c r="DD40">
+      <c r="DD40" s="31">
         <v>45</v>
       </c>
-      <c r="DE40">
+      <c r="DE40" s="31">
         <v>44</v>
       </c>
-      <c r="DF40">
+      <c r="DF40" s="31">
         <v>7</v>
       </c>
-      <c r="DG40">
+      <c r="DG40" s="31">
         <v>15</v>
       </c>
-      <c r="DH40">
+      <c r="DH40" s="31">
         <v>12</v>
       </c>
-      <c r="DI40">
+      <c r="DI40" s="31">
         <v>31</v>
       </c>
-      <c r="DJ40">
+      <c r="DJ40" s="31">
         <v>39</v>
       </c>
-      <c r="DK40">
+      <c r="DK40" s="31">
         <v>30</v>
       </c>
-      <c r="DL40">
+      <c r="DL40" s="31">
         <v>55</v>
       </c>
+      <c r="DM40" s="31">
+        <v>40</v>
+      </c>
+      <c r="DN40" s="31">
+        <v>532</v>
+      </c>
     </row>
-    <row r="41" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
@@ -12733,8 +12982,21 @@
       <c r="DA41" s="2">
         <v>12</v>
       </c>
+      <c r="DB41" s="31"/>
+      <c r="DC41" s="31"/>
+      <c r="DD41" s="31"/>
+      <c r="DE41" s="31"/>
+      <c r="DF41" s="31"/>
+      <c r="DG41" s="31"/>
+      <c r="DH41" s="31"/>
+      <c r="DI41" s="31"/>
+      <c r="DJ41" s="31"/>
+      <c r="DK41" s="31"/>
+      <c r="DL41" s="31"/>
+      <c r="DM41" s="31"/>
+      <c r="DN41" s="31"/>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -13050,32 +13312,41 @@
       <c r="DA42" s="2">
         <v>1183</v>
       </c>
-      <c r="DB42">
+      <c r="DB42" s="31">
         <v>57</v>
       </c>
-      <c r="DC42">
+      <c r="DC42" s="31">
         <v>79</v>
       </c>
-      <c r="DD42">
+      <c r="DD42" s="31">
         <v>7</v>
       </c>
-      <c r="DG42">
+      <c r="DE42" s="31"/>
+      <c r="DF42" s="31"/>
+      <c r="DG42" s="31">
         <v>4</v>
       </c>
-      <c r="DI42">
+      <c r="DH42" s="31"/>
+      <c r="DI42" s="31">
         <v>5</v>
       </c>
-      <c r="DJ42">
+      <c r="DJ42" s="31">
         <v>4</v>
       </c>
-      <c r="DK42">
+      <c r="DK42" s="31">
         <v>6</v>
       </c>
-      <c r="DL42">
+      <c r="DL42" s="31">
         <v>10</v>
       </c>
+      <c r="DM42" s="31">
+        <v>15</v>
+      </c>
+      <c r="DN42" s="31">
+        <v>187</v>
+      </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
@@ -13391,41 +13662,47 @@
       <c r="DA43" s="2">
         <v>288573</v>
       </c>
-      <c r="DB43">
+      <c r="DB43" s="31">
         <v>21769</v>
       </c>
-      <c r="DC43">
+      <c r="DC43" s="31">
         <v>22914</v>
       </c>
-      <c r="DD43">
+      <c r="DD43" s="31">
         <v>11901</v>
       </c>
-      <c r="DE43">
+      <c r="DE43" s="31">
         <v>604</v>
       </c>
-      <c r="DF43">
+      <c r="DF43" s="31">
         <v>804</v>
       </c>
-      <c r="DG43">
+      <c r="DG43" s="31">
         <v>2476</v>
       </c>
-      <c r="DH43">
+      <c r="DH43" s="31">
         <v>2935</v>
       </c>
-      <c r="DI43">
+      <c r="DI43" s="31">
         <v>3667</v>
       </c>
-      <c r="DJ43">
+      <c r="DJ43" s="31">
         <v>5306</v>
       </c>
-      <c r="DK43">
+      <c r="DK43" s="31">
         <v>6263</v>
       </c>
-      <c r="DL43">
+      <c r="DL43" s="31">
         <v>6389</v>
       </c>
+      <c r="DM43" s="31">
+        <v>10073</v>
+      </c>
+      <c r="DN43" s="31">
+        <v>95101</v>
+      </c>
     </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
@@ -13741,41 +14018,47 @@
       <c r="DA44" s="2">
         <v>104538</v>
       </c>
-      <c r="DB44">
+      <c r="DB44" s="31">
         <v>8801</v>
       </c>
-      <c r="DC44">
+      <c r="DC44" s="31">
         <v>7680</v>
       </c>
-      <c r="DD44">
+      <c r="DD44" s="31">
         <v>5250</v>
       </c>
-      <c r="DE44">
+      <c r="DE44" s="31">
         <v>610</v>
       </c>
-      <c r="DF44">
+      <c r="DF44" s="31">
         <v>547</v>
       </c>
-      <c r="DG44">
+      <c r="DG44" s="31">
         <v>1165</v>
       </c>
-      <c r="DH44">
+      <c r="DH44" s="31">
         <v>3563</v>
       </c>
-      <c r="DI44">
+      <c r="DI44" s="31">
         <v>4258</v>
       </c>
-      <c r="DJ44">
+      <c r="DJ44" s="31">
         <v>4908</v>
       </c>
-      <c r="DK44">
+      <c r="DK44" s="31">
         <v>5638</v>
       </c>
-      <c r="DL44">
+      <c r="DL44" s="31">
         <v>6804</v>
       </c>
+      <c r="DM44" s="31">
+        <v>11708</v>
+      </c>
+      <c r="DN44" s="31">
+        <v>60932</v>
+      </c>
     </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -14091,41 +14374,47 @@
       <c r="DA45" s="2">
         <v>37730</v>
       </c>
-      <c r="DB45">
+      <c r="DB45" s="31">
         <v>3193</v>
       </c>
-      <c r="DC45">
+      <c r="DC45" s="31">
         <v>4223</v>
       </c>
-      <c r="DD45">
+      <c r="DD45" s="31">
         <v>2943</v>
       </c>
-      <c r="DE45">
+      <c r="DE45" s="31">
         <v>29</v>
       </c>
-      <c r="DF45">
+      <c r="DF45" s="31">
         <v>658</v>
       </c>
-      <c r="DG45">
+      <c r="DG45" s="31">
         <v>2081</v>
       </c>
-      <c r="DH45">
+      <c r="DH45" s="31">
         <v>583</v>
       </c>
-      <c r="DI45">
+      <c r="DI45" s="31">
         <v>844</v>
       </c>
-      <c r="DJ45">
+      <c r="DJ45" s="31">
         <v>1012</v>
       </c>
-      <c r="DK45">
+      <c r="DK45" s="31">
         <v>1469</v>
       </c>
-      <c r="DL45">
+      <c r="DL45" s="31">
         <v>1869</v>
       </c>
+      <c r="DM45" s="31">
+        <v>2545</v>
+      </c>
+      <c r="DN45" s="31">
+        <v>21449</v>
+      </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -14393,41 +14682,47 @@
       <c r="DA46" s="2">
         <v>229</v>
       </c>
-      <c r="DB46">
+      <c r="DB46" s="31">
         <v>29</v>
       </c>
-      <c r="DC46">
+      <c r="DC46" s="31">
         <v>24</v>
       </c>
-      <c r="DD46">
+      <c r="DD46" s="31">
         <v>15</v>
       </c>
-      <c r="DE46">
+      <c r="DE46" s="31">
         <v>1</v>
       </c>
-      <c r="DF46">
+      <c r="DF46" s="31">
         <v>4</v>
       </c>
-      <c r="DG46">
+      <c r="DG46" s="31">
         <v>3</v>
       </c>
-      <c r="DH46">
+      <c r="DH46" s="31">
         <v>1</v>
       </c>
-      <c r="DI46">
+      <c r="DI46" s="31">
         <v>13</v>
       </c>
-      <c r="DJ46">
+      <c r="DJ46" s="31">
         <v>11</v>
       </c>
-      <c r="DK46">
+      <c r="DK46" s="31">
         <v>28</v>
       </c>
-      <c r="DL46">
+      <c r="DL46" s="31">
         <v>29</v>
       </c>
+      <c r="DM46" s="31">
+        <v>29</v>
+      </c>
+      <c r="DN46" s="31">
+        <v>187</v>
+      </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
@@ -14733,38 +15028,45 @@
       <c r="DA47" s="2">
         <v>171</v>
       </c>
-      <c r="DB47">
+      <c r="DB47" s="31">
         <v>15</v>
       </c>
-      <c r="DC47">
+      <c r="DC47" s="31">
         <v>14</v>
       </c>
-      <c r="DD47">
+      <c r="DD47" s="31">
         <v>8</v>
       </c>
-      <c r="DF47">
+      <c r="DE47" s="31"/>
+      <c r="DF47" s="31">
         <v>1</v>
       </c>
-      <c r="DG47">
+      <c r="DG47" s="31">
         <v>3</v>
       </c>
-      <c r="DH47">
+      <c r="DH47" s="31">
         <v>5</v>
       </c>
-      <c r="DI47">
+      <c r="DI47" s="31">
         <v>9</v>
       </c>
-      <c r="DJ47">
+      <c r="DJ47" s="31">
         <v>7</v>
       </c>
-      <c r="DK47">
+      <c r="DK47" s="31">
         <v>38</v>
       </c>
-      <c r="DL47">
+      <c r="DL47" s="31">
         <v>4</v>
       </c>
+      <c r="DM47" s="31">
+        <v>36</v>
+      </c>
+      <c r="DN47" s="31">
+        <v>140</v>
+      </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
@@ -15080,32 +15382,41 @@
       <c r="DA48" s="2">
         <v>36952</v>
       </c>
-      <c r="DB48">
+      <c r="DB48" s="31">
         <v>4012</v>
       </c>
-      <c r="DC48">
+      <c r="DC48" s="31">
         <v>3807</v>
       </c>
-      <c r="DD48">
+      <c r="DD48" s="31">
         <v>1728</v>
       </c>
-      <c r="DH48">
+      <c r="DE48" s="31"/>
+      <c r="DF48" s="31"/>
+      <c r="DG48" s="31"/>
+      <c r="DH48" s="31">
         <v>6</v>
       </c>
-      <c r="DI48">
+      <c r="DI48" s="31">
         <v>482</v>
       </c>
-      <c r="DJ48">
+      <c r="DJ48" s="31">
         <v>957</v>
       </c>
-      <c r="DK48">
+      <c r="DK48" s="31">
         <v>1299</v>
       </c>
-      <c r="DL48">
+      <c r="DL48" s="31">
         <v>1305</v>
       </c>
+      <c r="DM48" s="31">
+        <v>2052</v>
+      </c>
+      <c r="DN48" s="31">
+        <v>15648</v>
+      </c>
     </row>
-    <row r="49" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -15387,41 +15698,47 @@
       <c r="DA49" s="2">
         <v>747</v>
       </c>
-      <c r="DB49">
+      <c r="DB49" s="31">
         <v>34</v>
       </c>
-      <c r="DC49">
+      <c r="DC49" s="31">
         <v>69</v>
       </c>
-      <c r="DD49">
+      <c r="DD49" s="31">
         <v>19</v>
       </c>
-      <c r="DE49">
+      <c r="DE49" s="31">
         <v>6</v>
       </c>
-      <c r="DF49">
+      <c r="DF49" s="31">
         <v>2</v>
       </c>
-      <c r="DG49">
+      <c r="DG49" s="31">
         <v>11</v>
       </c>
-      <c r="DH49">
+      <c r="DH49" s="31">
         <v>7</v>
       </c>
-      <c r="DI49">
+      <c r="DI49" s="31">
         <v>10</v>
       </c>
-      <c r="DJ49">
+      <c r="DJ49" s="31">
         <v>28</v>
       </c>
-      <c r="DK49">
+      <c r="DK49" s="31">
         <v>3</v>
       </c>
-      <c r="DL49">
+      <c r="DL49" s="31">
         <v>14</v>
       </c>
+      <c r="DM49" s="31">
+        <v>26</v>
+      </c>
+      <c r="DN49" s="31">
+        <v>229</v>
+      </c>
     </row>
-    <row r="50" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
@@ -15721,38 +16038,45 @@
       <c r="DA50" s="2">
         <v>10227</v>
       </c>
-      <c r="DB50">
+      <c r="DB50" s="31">
         <v>922</v>
       </c>
-      <c r="DC50">
+      <c r="DC50" s="31">
         <v>821</v>
       </c>
-      <c r="DD50">
+      <c r="DD50" s="31">
         <v>392</v>
       </c>
-      <c r="DF50">
+      <c r="DE50" s="31"/>
+      <c r="DF50" s="31">
         <v>2</v>
       </c>
-      <c r="DG50">
+      <c r="DG50" s="31">
         <v>10</v>
       </c>
-      <c r="DH50">
+      <c r="DH50" s="31">
         <v>8</v>
       </c>
-      <c r="DI50">
+      <c r="DI50" s="31">
         <v>180</v>
       </c>
-      <c r="DJ50">
+      <c r="DJ50" s="31">
         <v>136</v>
       </c>
-      <c r="DK50">
+      <c r="DK50" s="31">
         <v>208</v>
       </c>
-      <c r="DL50">
+      <c r="DL50" s="31">
         <v>280</v>
       </c>
+      <c r="DM50" s="31">
+        <v>320</v>
+      </c>
+      <c r="DN50" s="31">
+        <v>3279</v>
+      </c>
     </row>
-    <row r="51" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>62</v>
       </c>
@@ -15996,23 +16320,33 @@
       <c r="DA51" s="2">
         <v>59</v>
       </c>
-      <c r="DB51">
+      <c r="DB51" s="31">
         <v>6</v>
       </c>
-      <c r="DH51">
+      <c r="DC51" s="31"/>
+      <c r="DD51" s="31"/>
+      <c r="DE51" s="31"/>
+      <c r="DF51" s="31"/>
+      <c r="DG51" s="31"/>
+      <c r="DH51" s="31">
         <v>1</v>
       </c>
-      <c r="DI51">
+      <c r="DI51" s="31">
         <v>3</v>
       </c>
-      <c r="DJ51">
+      <c r="DJ51" s="31">
         <v>4</v>
       </c>
-      <c r="DK51">
+      <c r="DK51" s="31">
         <v>10</v>
       </c>
+      <c r="DL51" s="31"/>
+      <c r="DM51" s="31"/>
+      <c r="DN51" s="31">
+        <v>24</v>
+      </c>
     </row>
-    <row r="52" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
@@ -16312,41 +16646,47 @@
       <c r="DA52" s="2">
         <v>871</v>
       </c>
-      <c r="DB52">
+      <c r="DB52" s="31">
         <v>57</v>
       </c>
-      <c r="DC52">
+      <c r="DC52" s="31">
         <v>56</v>
       </c>
-      <c r="DD52">
+      <c r="DD52" s="31">
         <v>39</v>
       </c>
-      <c r="DE52">
+      <c r="DE52" s="31">
         <v>3</v>
       </c>
-      <c r="DF52">
+      <c r="DF52" s="31">
         <v>7</v>
       </c>
-      <c r="DG52">
+      <c r="DG52" s="31">
         <v>24</v>
       </c>
-      <c r="DH52">
+      <c r="DH52" s="31">
         <v>14</v>
       </c>
-      <c r="DI52">
+      <c r="DI52" s="31">
         <v>28</v>
       </c>
-      <c r="DJ52">
+      <c r="DJ52" s="31">
         <v>42</v>
       </c>
-      <c r="DK52">
+      <c r="DK52" s="31">
         <v>46</v>
       </c>
-      <c r="DL52">
+      <c r="DL52" s="31">
         <v>67</v>
       </c>
+      <c r="DM52" s="31">
+        <v>60</v>
+      </c>
+      <c r="DN52" s="31">
+        <v>443</v>
+      </c>
     </row>
-    <row r="53" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>64</v>
       </c>
@@ -16662,41 +17002,47 @@
       <c r="DA53" s="2">
         <v>1515681</v>
       </c>
-      <c r="DB53">
+      <c r="DB53" s="31">
         <v>196302</v>
       </c>
-      <c r="DC53">
+      <c r="DC53" s="31">
         <v>196129</v>
       </c>
-      <c r="DD53">
+      <c r="DD53" s="31">
         <v>94928</v>
       </c>
-      <c r="DE53">
+      <c r="DE53" s="31">
         <v>773</v>
       </c>
-      <c r="DF53">
+      <c r="DF53" s="31">
         <v>1827</v>
       </c>
-      <c r="DG53">
+      <c r="DG53" s="31">
         <v>6978</v>
       </c>
-      <c r="DH53">
+      <c r="DH53" s="31">
         <v>16395</v>
       </c>
-      <c r="DI53">
+      <c r="DI53" s="31">
         <v>15869</v>
       </c>
-      <c r="DJ53">
+      <c r="DJ53" s="31">
         <v>20954</v>
       </c>
-      <c r="DK53">
+      <c r="DK53" s="31">
         <v>48291</v>
       </c>
-      <c r="DL53">
+      <c r="DL53" s="31">
         <v>61860</v>
       </c>
+      <c r="DM53" s="31">
+        <v>74432</v>
+      </c>
+      <c r="DN53" s="31">
+        <v>734738</v>
+      </c>
     </row>
-    <row r="54" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
@@ -17012,41 +17358,47 @@
       <c r="DA54" s="2">
         <v>119477</v>
       </c>
-      <c r="DB54">
+      <c r="DB54" s="31">
         <v>8042</v>
       </c>
-      <c r="DC54">
+      <c r="DC54" s="31">
         <v>8619</v>
       </c>
-      <c r="DD54">
+      <c r="DD54" s="31">
         <v>4819</v>
       </c>
-      <c r="DE54">
+      <c r="DE54" s="31">
         <v>243</v>
       </c>
-      <c r="DF54">
+      <c r="DF54" s="31">
         <v>475</v>
       </c>
-      <c r="DG54">
+      <c r="DG54" s="31">
         <v>965</v>
       </c>
-      <c r="DH54">
+      <c r="DH54" s="31">
         <v>1702</v>
       </c>
-      <c r="DI54">
+      <c r="DI54" s="31">
         <v>1585</v>
       </c>
-      <c r="DJ54">
+      <c r="DJ54" s="31">
         <v>2131</v>
       </c>
-      <c r="DK54">
+      <c r="DK54" s="31">
         <v>2655</v>
       </c>
-      <c r="DL54">
+      <c r="DL54" s="31">
         <v>2948</v>
       </c>
+      <c r="DM54" s="31">
+        <v>5191</v>
+      </c>
+      <c r="DN54" s="31">
+        <v>39375</v>
+      </c>
     </row>
-    <row r="55" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>66</v>
       </c>
@@ -17362,41 +17714,47 @@
       <c r="DA55" s="2">
         <v>122</v>
       </c>
-      <c r="DB55">
+      <c r="DB55" s="31">
         <v>20</v>
       </c>
-      <c r="DC55">
+      <c r="DC55" s="31">
         <v>19</v>
       </c>
-      <c r="DD55">
+      <c r="DD55" s="31">
         <v>6</v>
       </c>
-      <c r="DE55">
+      <c r="DE55" s="31">
         <v>7</v>
       </c>
-      <c r="DF55">
+      <c r="DF55" s="31">
         <v>8</v>
       </c>
-      <c r="DG55">
+      <c r="DG55" s="31">
         <v>14</v>
       </c>
-      <c r="DH55">
+      <c r="DH55" s="31">
         <v>13</v>
       </c>
-      <c r="DI55">
+      <c r="DI55" s="31">
         <v>4</v>
       </c>
-      <c r="DJ55">
+      <c r="DJ55" s="31">
         <v>11</v>
       </c>
-      <c r="DK55">
+      <c r="DK55" s="31">
         <v>17</v>
       </c>
-      <c r="DL55">
+      <c r="DL55" s="31">
         <v>33</v>
       </c>
+      <c r="DM55" s="31">
+        <v>27</v>
+      </c>
+      <c r="DN55" s="31">
+        <v>179</v>
+      </c>
     </row>
-    <row r="56" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>67</v>
       </c>
@@ -17712,41 +18070,47 @@
       <c r="DA56" s="2">
         <v>1298</v>
       </c>
-      <c r="DB56">
+      <c r="DB56" s="31">
         <v>63</v>
       </c>
-      <c r="DC56">
+      <c r="DC56" s="31">
         <v>79</v>
       </c>
-      <c r="DD56">
+      <c r="DD56" s="31">
         <v>62</v>
       </c>
-      <c r="DE56">
+      <c r="DE56" s="31">
         <v>3</v>
       </c>
-      <c r="DF56">
+      <c r="DF56" s="31">
         <v>6</v>
       </c>
-      <c r="DG56">
+      <c r="DG56" s="31">
         <v>25</v>
       </c>
-      <c r="DH56">
+      <c r="DH56" s="31">
         <v>27</v>
       </c>
-      <c r="DI56">
+      <c r="DI56" s="31">
         <v>71</v>
       </c>
-      <c r="DJ56">
+      <c r="DJ56" s="31">
         <v>105</v>
       </c>
-      <c r="DK56">
+      <c r="DK56" s="31">
         <v>153</v>
       </c>
-      <c r="DL56">
+      <c r="DL56" s="31">
         <v>177</v>
       </c>
+      <c r="DM56" s="31">
+        <v>221</v>
+      </c>
+      <c r="DN56" s="31">
+        <v>992</v>
+      </c>
     </row>
-    <row r="57" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>68</v>
       </c>
@@ -18062,41 +18426,47 @@
       <c r="DA57" s="2">
         <v>2068</v>
       </c>
-      <c r="DB57">
+      <c r="DB57" s="31">
         <v>83</v>
       </c>
-      <c r="DC57">
+      <c r="DC57" s="31">
         <v>118</v>
       </c>
-      <c r="DD57">
+      <c r="DD57" s="31">
         <v>51</v>
       </c>
-      <c r="DE57">
+      <c r="DE57" s="31">
         <v>11</v>
       </c>
-      <c r="DF57">
+      <c r="DF57" s="31">
         <v>48</v>
       </c>
-      <c r="DG57">
+      <c r="DG57" s="31">
         <v>80</v>
       </c>
-      <c r="DH57">
+      <c r="DH57" s="31">
         <v>57</v>
       </c>
-      <c r="DI57">
+      <c r="DI57" s="31">
         <v>33</v>
       </c>
-      <c r="DJ57">
+      <c r="DJ57" s="31">
         <v>127</v>
       </c>
-      <c r="DK57">
+      <c r="DK57" s="31">
         <v>136</v>
       </c>
-      <c r="DL57">
+      <c r="DL57" s="31">
         <v>156</v>
       </c>
+      <c r="DM57" s="31">
+        <v>74</v>
+      </c>
+      <c r="DN57" s="31">
+        <v>974</v>
+      </c>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>69</v>
       </c>
@@ -18412,41 +18782,47 @@
       <c r="DA58" s="2">
         <v>52092</v>
       </c>
-      <c r="DB58">
+      <c r="DB58" s="31">
         <v>3321</v>
       </c>
-      <c r="DC58">
+      <c r="DC58" s="31">
         <v>3329</v>
       </c>
-      <c r="DD58">
+      <c r="DD58" s="31">
         <v>2512</v>
       </c>
-      <c r="DE58">
+      <c r="DE58" s="31">
         <v>165</v>
       </c>
-      <c r="DF58">
+      <c r="DF58" s="31">
         <v>401</v>
       </c>
-      <c r="DG58">
+      <c r="DG58" s="31">
         <v>573</v>
       </c>
-      <c r="DH58">
+      <c r="DH58" s="31">
         <v>1581</v>
       </c>
-      <c r="DI58">
+      <c r="DI58" s="31">
         <v>1412</v>
       </c>
-      <c r="DJ58">
+      <c r="DJ58" s="31">
         <v>1667</v>
       </c>
-      <c r="DK58">
+      <c r="DK58" s="31">
         <v>2107</v>
       </c>
-      <c r="DL58">
+      <c r="DL58" s="31">
         <v>2087</v>
       </c>
+      <c r="DM58" s="31">
+        <v>3477</v>
+      </c>
+      <c r="DN58" s="31">
+        <v>22632</v>
+      </c>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -18762,41 +19138,47 @@
       <c r="DA59" s="2">
         <v>202001</v>
       </c>
-      <c r="DB59">
+      <c r="DB59" s="31">
         <v>14648</v>
       </c>
-      <c r="DC59">
+      <c r="DC59" s="31">
         <v>13132</v>
       </c>
-      <c r="DD59">
+      <c r="DD59" s="31">
         <v>7671</v>
       </c>
-      <c r="DE59">
+      <c r="DE59" s="31">
         <v>939</v>
       </c>
-      <c r="DF59">
+      <c r="DF59" s="31">
         <v>1470</v>
       </c>
-      <c r="DG59">
+      <c r="DG59" s="31">
         <v>2431</v>
       </c>
-      <c r="DH59">
+      <c r="DH59" s="31">
         <v>5425</v>
       </c>
-      <c r="DI59">
+      <c r="DI59" s="31">
         <v>5403</v>
       </c>
-      <c r="DJ59">
+      <c r="DJ59" s="31">
         <v>6702</v>
       </c>
-      <c r="DK59">
+      <c r="DK59" s="31">
         <v>7541</v>
       </c>
-      <c r="DL59">
+      <c r="DL59" s="31">
         <v>8093</v>
       </c>
+      <c r="DM59" s="31">
+        <v>14640</v>
+      </c>
+      <c r="DN59" s="31">
+        <v>88095</v>
+      </c>
     </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
@@ -19112,41 +19494,47 @@
       <c r="DA60" s="2">
         <v>9791</v>
       </c>
-      <c r="DB60">
+      <c r="DB60" s="31">
         <v>749</v>
       </c>
-      <c r="DC60">
+      <c r="DC60" s="31">
         <v>842</v>
       </c>
-      <c r="DD60">
+      <c r="DD60" s="31">
         <v>486</v>
       </c>
-      <c r="DE60">
+      <c r="DE60" s="31">
         <v>11</v>
       </c>
-      <c r="DF60">
+      <c r="DF60" s="31">
         <v>13</v>
       </c>
-      <c r="DG60">
+      <c r="DG60" s="31">
         <v>31</v>
       </c>
-      <c r="DH60">
+      <c r="DH60" s="31">
         <v>18</v>
       </c>
-      <c r="DI60">
+      <c r="DI60" s="31">
         <v>41</v>
       </c>
-      <c r="DJ60">
+      <c r="DJ60" s="31">
         <v>365</v>
       </c>
-      <c r="DK60">
+      <c r="DK60" s="31">
         <v>376</v>
       </c>
-      <c r="DL60">
+      <c r="DL60" s="31">
         <v>427</v>
       </c>
+      <c r="DM60" s="31">
+        <v>638</v>
+      </c>
+      <c r="DN60" s="31">
+        <v>3997</v>
+      </c>
     </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
@@ -19462,41 +19850,47 @@
       <c r="DA61" s="2">
         <v>2013</v>
       </c>
-      <c r="DB61">
+      <c r="DB61" s="31">
         <v>212</v>
       </c>
-      <c r="DC61">
+      <c r="DC61" s="31">
         <v>202</v>
       </c>
-      <c r="DD61">
+      <c r="DD61" s="31">
         <v>275</v>
       </c>
-      <c r="DE61">
+      <c r="DE61" s="31">
         <v>91</v>
       </c>
-      <c r="DF61">
+      <c r="DF61" s="31">
         <v>35</v>
       </c>
-      <c r="DG61">
+      <c r="DG61" s="31">
         <v>88</v>
       </c>
-      <c r="DH61">
+      <c r="DH61" s="31">
         <v>156</v>
       </c>
-      <c r="DI61">
+      <c r="DI61" s="31">
         <v>159</v>
       </c>
-      <c r="DJ61">
+      <c r="DJ61" s="31">
         <v>148</v>
       </c>
-      <c r="DK61">
+      <c r="DK61" s="31">
         <v>170</v>
       </c>
-      <c r="DL61">
+      <c r="DL61" s="31">
         <v>131</v>
       </c>
+      <c r="DM61" s="31">
+        <v>144</v>
+      </c>
+      <c r="DN61" s="31">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
@@ -19812,41 +20206,47 @@
       <c r="DA62" s="2">
         <v>20362</v>
       </c>
-      <c r="DB62">
+      <c r="DB62" s="31">
         <v>1393</v>
       </c>
-      <c r="DC62">
+      <c r="DC62" s="31">
         <v>165</v>
       </c>
-      <c r="DD62">
+      <c r="DD62" s="31">
         <v>265</v>
       </c>
-      <c r="DE62">
+      <c r="DE62" s="31">
         <v>101</v>
       </c>
-      <c r="DF62">
+      <c r="DF62" s="31">
         <v>96</v>
       </c>
-      <c r="DG62">
+      <c r="DG62" s="31">
         <v>132</v>
       </c>
-      <c r="DH62">
+      <c r="DH62" s="31">
         <v>145</v>
       </c>
-      <c r="DI62">
+      <c r="DI62" s="31">
         <v>167</v>
       </c>
-      <c r="DJ62">
+      <c r="DJ62" s="31">
         <v>171</v>
       </c>
-      <c r="DK62">
+      <c r="DK62" s="31">
         <v>204</v>
       </c>
-      <c r="DL62">
+      <c r="DL62" s="31">
         <v>163</v>
       </c>
+      <c r="DM62" s="31">
+        <v>171</v>
+      </c>
+      <c r="DN62" s="31">
+        <v>3173</v>
+      </c>
     </row>
-    <row r="63" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>74</v>
       </c>
@@ -20162,41 +20562,47 @@
       <c r="DA63" s="2">
         <v>7986</v>
       </c>
-      <c r="DB63">
+      <c r="DB63" s="31">
         <v>466</v>
       </c>
-      <c r="DC63">
+      <c r="DC63" s="31">
         <v>721</v>
       </c>
-      <c r="DD63">
+      <c r="DD63" s="31">
         <v>862</v>
       </c>
-      <c r="DE63">
+      <c r="DE63" s="31">
         <v>277</v>
       </c>
-      <c r="DF63">
+      <c r="DF63" s="31">
         <v>425</v>
       </c>
-      <c r="DG63">
+      <c r="DG63" s="31">
         <v>171</v>
       </c>
-      <c r="DH63">
+      <c r="DH63" s="31">
         <v>183</v>
       </c>
-      <c r="DI63">
+      <c r="DI63" s="31">
         <v>229</v>
       </c>
-      <c r="DJ63">
+      <c r="DJ63" s="31">
         <v>1100</v>
       </c>
-      <c r="DK63">
+      <c r="DK63" s="31">
         <v>599</v>
       </c>
-      <c r="DL63">
+      <c r="DL63" s="31">
         <v>368</v>
       </c>
+      <c r="DM63" s="31">
+        <v>698</v>
+      </c>
+      <c r="DN63" s="31">
+        <v>6099</v>
+      </c>
     </row>
-    <row r="64" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
@@ -20512,41 +20918,47 @@
       <c r="DA64" s="2">
         <v>13139</v>
       </c>
-      <c r="DB64">
+      <c r="DB64" s="31">
         <v>864</v>
       </c>
-      <c r="DC64">
+      <c r="DC64" s="31">
         <v>936</v>
       </c>
-      <c r="DD64">
+      <c r="DD64" s="31">
         <v>390</v>
       </c>
-      <c r="DE64">
+      <c r="DE64" s="31">
         <v>34</v>
       </c>
-      <c r="DF64">
+      <c r="DF64" s="31">
         <v>123</v>
       </c>
-      <c r="DG64">
+      <c r="DG64" s="31">
         <v>223</v>
       </c>
-      <c r="DH64">
+      <c r="DH64" s="31">
         <v>421</v>
       </c>
-      <c r="DI64">
+      <c r="DI64" s="31">
         <v>19</v>
       </c>
-      <c r="DJ64">
+      <c r="DJ64" s="31">
         <v>362</v>
       </c>
-      <c r="DK64">
+      <c r="DK64" s="31">
         <v>400</v>
       </c>
-      <c r="DL64">
+      <c r="DL64" s="31">
         <v>418</v>
       </c>
+      <c r="DM64" s="31">
+        <v>812</v>
+      </c>
+      <c r="DN64" s="31">
+        <v>5002</v>
+      </c>
     </row>
-    <row r="65" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
@@ -20794,20 +21206,33 @@
       <c r="DA65" s="2">
         <v>53</v>
       </c>
-      <c r="DC65">
+      <c r="DB65" s="31"/>
+      <c r="DC65" s="31">
         <v>2</v>
       </c>
-      <c r="DD65">
+      <c r="DD65" s="31">
         <v>2</v>
       </c>
-      <c r="DF65">
+      <c r="DE65" s="31"/>
+      <c r="DF65" s="31">
         <v>4</v>
       </c>
-      <c r="DH65">
+      <c r="DG65" s="31"/>
+      <c r="DH65" s="31">
         <v>1</v>
       </c>
+      <c r="DI65" s="31"/>
+      <c r="DJ65" s="31"/>
+      <c r="DK65" s="31"/>
+      <c r="DL65" s="31"/>
+      <c r="DM65" s="31">
+        <v>5</v>
+      </c>
+      <c r="DN65" s="31">
+        <v>14</v>
+      </c>
     </row>
-    <row r="66" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
@@ -21101,20 +21526,33 @@
       <c r="DA66" s="2">
         <v>2835</v>
       </c>
-      <c r="DB66">
+      <c r="DB66" s="31">
         <v>234</v>
       </c>
-      <c r="DC66">
+      <c r="DC66" s="31">
         <v>185</v>
       </c>
-      <c r="DD66">
+      <c r="DD66" s="31">
         <v>104</v>
       </c>
-      <c r="DL66">
+      <c r="DE66" s="31"/>
+      <c r="DF66" s="31"/>
+      <c r="DG66" s="31"/>
+      <c r="DH66" s="31"/>
+      <c r="DI66" s="31"/>
+      <c r="DJ66" s="31"/>
+      <c r="DK66" s="31"/>
+      <c r="DL66" s="31">
         <v>165</v>
       </c>
+      <c r="DM66" s="31">
+        <v>354</v>
+      </c>
+      <c r="DN66" s="31">
+        <v>1042</v>
+      </c>
     </row>
-    <row r="67" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
@@ -21430,41 +21868,47 @@
       <c r="DA67" s="2">
         <v>9454</v>
       </c>
-      <c r="DB67">
+      <c r="DB67" s="31">
         <v>848</v>
       </c>
-      <c r="DC67">
+      <c r="DC67" s="31">
         <v>890</v>
       </c>
-      <c r="DD67">
+      <c r="DD67" s="31">
         <v>569</v>
       </c>
-      <c r="DE67">
+      <c r="DE67" s="31">
         <v>39</v>
       </c>
-      <c r="DF67">
+      <c r="DF67" s="31">
         <v>375</v>
       </c>
-      <c r="DG67">
+      <c r="DG67" s="31">
         <v>124</v>
       </c>
-      <c r="DH67">
+      <c r="DH67" s="31">
         <v>11</v>
       </c>
-      <c r="DI67">
+      <c r="DI67" s="31">
         <v>9</v>
       </c>
-      <c r="DJ67">
+      <c r="DJ67" s="31">
         <v>10</v>
       </c>
-      <c r="DK67">
+      <c r="DK67" s="31">
         <v>202</v>
       </c>
-      <c r="DL67">
+      <c r="DL67" s="31">
         <v>351</v>
       </c>
+      <c r="DM67" s="31">
+        <v>469</v>
+      </c>
+      <c r="DN67" s="31">
+        <v>3897</v>
+      </c>
     </row>
-    <row r="68" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -21774,32 +22218,41 @@
       <c r="DA68" s="2">
         <v>113</v>
       </c>
-      <c r="DC68">
+      <c r="DB68" s="31"/>
+      <c r="DC68" s="31">
         <v>5</v>
       </c>
-      <c r="DF68">
+      <c r="DD68" s="31"/>
+      <c r="DE68" s="31"/>
+      <c r="DF68" s="31">
         <v>1</v>
       </c>
-      <c r="DG68">
+      <c r="DG68" s="31">
         <v>83</v>
       </c>
-      <c r="DH68">
+      <c r="DH68" s="31">
         <v>48</v>
       </c>
-      <c r="DI68">
+      <c r="DI68" s="31">
         <v>72</v>
       </c>
-      <c r="DJ68">
+      <c r="DJ68" s="31">
         <v>40</v>
       </c>
-      <c r="DK68">
+      <c r="DK68" s="31">
         <v>44</v>
       </c>
-      <c r="DL68">
+      <c r="DL68" s="31">
         <v>33</v>
       </c>
+      <c r="DM68" s="31">
+        <v>28</v>
+      </c>
+      <c r="DN68" s="31">
+        <v>354</v>
+      </c>
     </row>
-    <row r="69" spans="1:116" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
@@ -22115,41 +22568,47 @@
       <c r="DA69" s="2">
         <v>41153</v>
       </c>
-      <c r="DB69">
+      <c r="DB69" s="31">
         <v>2753</v>
       </c>
-      <c r="DC69">
+      <c r="DC69" s="31">
         <v>2159</v>
       </c>
-      <c r="DD69">
+      <c r="DD69" s="31">
         <v>1947</v>
       </c>
-      <c r="DE69">
+      <c r="DE69" s="31">
         <v>106</v>
       </c>
-      <c r="DF69">
+      <c r="DF69" s="31">
         <v>16</v>
       </c>
-      <c r="DG69">
+      <c r="DG69" s="31">
         <v>301</v>
       </c>
-      <c r="DH69">
+      <c r="DH69" s="31">
         <v>1342</v>
       </c>
-      <c r="DI69">
+      <c r="DI69" s="31">
         <v>1251</v>
       </c>
-      <c r="DJ69">
+      <c r="DJ69" s="31">
         <v>1470</v>
       </c>
-      <c r="DK69">
+      <c r="DK69" s="31">
         <v>1930</v>
       </c>
-      <c r="DL69">
+      <c r="DL69" s="31">
         <v>1671</v>
       </c>
+      <c r="DM69" s="31">
+        <v>3731</v>
+      </c>
+      <c r="DN69" s="31">
+        <v>18677</v>
+      </c>
     </row>
-    <row r="70" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>81</v>
       </c>
@@ -22465,41 +22924,47 @@
       <c r="DA70" s="2">
         <v>96842</v>
       </c>
-      <c r="DB70">
+      <c r="DB70" s="31">
         <v>19943</v>
       </c>
-      <c r="DC70">
+      <c r="DC70" s="31">
         <v>19094</v>
       </c>
-      <c r="DD70">
+      <c r="DD70" s="31">
         <v>7175</v>
       </c>
-      <c r="DE70">
+      <c r="DE70" s="31">
         <v>29</v>
       </c>
-      <c r="DF70">
+      <c r="DF70" s="31">
         <v>5</v>
       </c>
-      <c r="DG70">
+      <c r="DG70" s="31">
         <v>257</v>
       </c>
-      <c r="DH70">
+      <c r="DH70" s="31">
         <v>360</v>
       </c>
-      <c r="DI70">
+      <c r="DI70" s="31">
         <v>356</v>
       </c>
-      <c r="DJ70">
+      <c r="DJ70" s="31">
         <v>445</v>
       </c>
-      <c r="DK70">
+      <c r="DK70" s="31">
         <v>1032</v>
       </c>
-      <c r="DL70">
+      <c r="DL70" s="31">
         <v>1684</v>
       </c>
+      <c r="DM70" s="31">
+        <v>3201</v>
+      </c>
+      <c r="DN70" s="31">
+        <v>53581</v>
+      </c>
     </row>
-    <row r="71" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
@@ -22848,9 +23313,19 @@
       <c r="DL71" s="10">
         <v>680400</v>
       </c>
+      <c r="DM71" s="10">
+        <v>974975</v>
+      </c>
+      <c r="DN71" s="10">
+        <v>7938902</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="CO6:CY6"/>
+    <mergeCell ref="DA6:DA7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="DB6:DM6"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="CB6:CM6"/>
@@ -22866,9 +23341,6 @@
     <mergeCell ref="BA6:BA7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="CO6:CY6"/>
-    <mergeCell ref="DA6:DA7"/>
-    <mergeCell ref="DB6:DL6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A71">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>Total 2012</t>
   </si>
@@ -290,10 +290,10 @@
     <t>Total 2019</t>
   </si>
   <si>
-    <t>Enero de 2012 a Diciembre de 2020</t>
+    <t>Total 2020</t>
   </si>
   <si>
-    <t>Total 2020</t>
+    <t>Enero de 2012 a Enero de 2021</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -570,22 +570,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,22 +592,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -959,9 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN71"/>
+  <dimension ref="A1:DO71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1045,181 +1020,184 @@
     <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>2013</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>2014</v>
+      </c>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>2015</v>
+      </c>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO6" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="16">
+        <v>2018</v>
+      </c>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO6" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="12"/>
+      <c r="DA6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB6" s="16">
+        <v>2020</v>
+      </c>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="DO6" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="6" spans="1:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="26">
-        <v>2012</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>2013</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="26">
-        <v>2014</v>
-      </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="26">
-        <v>2015</v>
-      </c>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB6" s="26">
-        <v>2016</v>
-      </c>
-      <c r="BC6" s="27"/>
-      <c r="BD6" s="27"/>
-      <c r="BE6" s="27"/>
-      <c r="BF6" s="27"/>
-      <c r="BG6" s="27"/>
-      <c r="BH6" s="27"/>
-      <c r="BI6" s="27"/>
-      <c r="BJ6" s="27"/>
-      <c r="BK6" s="27"/>
-      <c r="BL6" s="27"/>
-      <c r="BM6" s="27"/>
-      <c r="BN6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO6" s="26">
-        <v>2017</v>
-      </c>
-      <c r="BP6" s="27"/>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
-      <c r="BS6" s="27"/>
-      <c r="BT6" s="27"/>
-      <c r="BU6" s="27"/>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
-      <c r="BY6" s="27"/>
-      <c r="BZ6" s="27"/>
-      <c r="CA6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB6" s="26">
-        <v>2018</v>
-      </c>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="27"/>
-      <c r="CE6" s="27"/>
-      <c r="CF6" s="27"/>
-      <c r="CG6" s="27"/>
-      <c r="CH6" s="27"/>
-      <c r="CI6" s="27"/>
-      <c r="CJ6" s="27"/>
-      <c r="CK6" s="27"/>
-      <c r="CL6" s="27"/>
-      <c r="CM6" s="27"/>
-      <c r="CN6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO6" s="26">
-        <v>2019</v>
-      </c>
-      <c r="CP6" s="27"/>
-      <c r="CQ6" s="27"/>
-      <c r="CR6" s="27"/>
-      <c r="CS6" s="27"/>
-      <c r="CT6" s="27"/>
-      <c r="CU6" s="27"/>
-      <c r="CV6" s="27"/>
-      <c r="CW6" s="27"/>
-      <c r="CX6" s="27"/>
-      <c r="CY6" s="27"/>
-      <c r="CZ6" s="12"/>
-      <c r="DA6" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="DB6" s="29">
-        <v>2020</v>
-      </c>
-      <c r="DC6" s="30"/>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="30"/>
-      <c r="DF6" s="30"/>
-      <c r="DG6" s="30"/>
-      <c r="DH6" s="30"/>
-      <c r="DI6" s="30"/>
-      <c r="DJ6" s="30"/>
-      <c r="DK6" s="30"/>
-      <c r="DL6" s="30"/>
-      <c r="DM6" s="30"/>
-      <c r="DN6" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1234,7 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1271,7 @@
       <c r="Z7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="23"/>
+      <c r="AA7" s="20"/>
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1308,7 @@
       <c r="AM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="23"/>
+      <c r="AN7" s="20"/>
       <c r="AO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1345,7 @@
       <c r="AZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA7" s="23"/>
+      <c r="BA7" s="20"/>
       <c r="BB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1382,7 @@
       <c r="BM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN7" s="23"/>
+      <c r="BN7" s="20"/>
       <c r="BO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1419,7 @@
       <c r="BZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA7" s="23"/>
+      <c r="CA7" s="20"/>
       <c r="CB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1456,7 @@
       <c r="CM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN7" s="28"/>
+      <c r="CN7" s="18"/>
       <c r="CO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1493,7 @@
       <c r="CZ7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA7" s="28"/>
+      <c r="DA7" s="18"/>
       <c r="DB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1531,30 +1509,33 @@
       <c r="DF7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="DG7" s="15" t="s">
+      <c r="DG7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="DH7" s="16" t="s">
+      <c r="DH7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="DI7" s="17" t="s">
+      <c r="DI7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="DJ7" s="18" t="s">
+      <c r="DJ7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="DK7" s="19" t="s">
+      <c r="DK7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="DL7" s="20" t="s">
+      <c r="DL7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="DM7" s="21" t="s">
+      <c r="DM7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN7" s="28"/>
+      <c r="DN7" s="20"/>
+      <c r="DO7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1866,47 +1847,50 @@
       <c r="DA8" s="2">
         <v>12602</v>
       </c>
-      <c r="DB8" s="31">
+      <c r="DB8" s="15">
         <v>3978</v>
       </c>
-      <c r="DC8" s="31">
+      <c r="DC8" s="15">
         <v>3886</v>
       </c>
-      <c r="DD8" s="31">
+      <c r="DD8" s="15">
         <v>1693</v>
       </c>
-      <c r="DE8" s="31">
+      <c r="DE8" s="15">
         <v>7</v>
       </c>
-      <c r="DF8" s="31">
+      <c r="DF8" s="15">
         <v>1</v>
       </c>
-      <c r="DG8" s="31">
+      <c r="DG8" s="15">
         <v>2</v>
       </c>
-      <c r="DH8" s="31">
+      <c r="DH8" s="15">
         <v>89</v>
       </c>
-      <c r="DI8" s="31">
+      <c r="DI8" s="15">
         <v>5</v>
       </c>
-      <c r="DJ8" s="31">
+      <c r="DJ8" s="15">
         <v>8</v>
       </c>
-      <c r="DK8" s="31">
+      <c r="DK8" s="15">
         <v>11</v>
       </c>
-      <c r="DL8" s="31">
+      <c r="DL8" s="15">
         <v>168</v>
       </c>
-      <c r="DM8" s="31">
+      <c r="DM8" s="15">
         <v>1138</v>
       </c>
-      <c r="DN8" s="31">
+      <c r="DN8" s="15">
         <v>10986</v>
       </c>
+      <c r="DO8" s="15">
+        <v>617</v>
+      </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2222,47 +2206,50 @@
       <c r="DA9" s="2">
         <v>59163</v>
       </c>
-      <c r="DB9" s="31">
+      <c r="DB9" s="15">
         <v>4579</v>
       </c>
-      <c r="DC9" s="31">
+      <c r="DC9" s="15">
         <v>3954</v>
       </c>
-      <c r="DD9" s="31">
+      <c r="DD9" s="15">
         <v>2760</v>
       </c>
-      <c r="DE9" s="31">
+      <c r="DE9" s="15">
         <v>320</v>
       </c>
-      <c r="DF9" s="31">
+      <c r="DF9" s="15">
         <v>575</v>
       </c>
-      <c r="DG9" s="31">
+      <c r="DG9" s="15">
         <v>1036</v>
       </c>
-      <c r="DH9" s="31">
+      <c r="DH9" s="15">
         <v>1298</v>
       </c>
-      <c r="DI9" s="31">
+      <c r="DI9" s="15">
         <v>2272</v>
       </c>
-      <c r="DJ9" s="31">
+      <c r="DJ9" s="15">
         <v>2553</v>
       </c>
-      <c r="DK9" s="31">
+      <c r="DK9" s="15">
         <v>3148</v>
       </c>
-      <c r="DL9" s="31">
+      <c r="DL9" s="15">
         <v>3449</v>
       </c>
-      <c r="DM9" s="31">
+      <c r="DM9" s="15">
         <v>6293</v>
       </c>
-      <c r="DN9" s="31">
+      <c r="DN9" s="15">
         <v>32237</v>
       </c>
+      <c r="DO9" s="15">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2578,47 +2565,50 @@
       <c r="DA10" s="2">
         <v>11372</v>
       </c>
-      <c r="DB10" s="31">
+      <c r="DB10" s="15">
         <v>1108</v>
       </c>
-      <c r="DC10" s="31">
+      <c r="DC10" s="15">
         <v>1219</v>
       </c>
-      <c r="DD10" s="31">
+      <c r="DD10" s="15">
         <v>801</v>
       </c>
-      <c r="DE10" s="31">
+      <c r="DE10" s="15">
         <v>41</v>
       </c>
-      <c r="DF10" s="31">
+      <c r="DF10" s="15">
         <v>81</v>
       </c>
-      <c r="DG10" s="31">
+      <c r="DG10" s="15">
         <v>627</v>
       </c>
-      <c r="DH10" s="31">
+      <c r="DH10" s="15">
         <v>815</v>
       </c>
-      <c r="DI10" s="31">
+      <c r="DI10" s="15">
         <v>576</v>
       </c>
-      <c r="DJ10" s="31">
+      <c r="DJ10" s="15">
         <v>910</v>
       </c>
-      <c r="DK10" s="31">
+      <c r="DK10" s="15">
         <v>1823</v>
       </c>
-      <c r="DL10" s="31">
+      <c r="DL10" s="15">
         <v>2230</v>
       </c>
-      <c r="DM10" s="31">
+      <c r="DM10" s="15">
         <v>2690</v>
       </c>
-      <c r="DN10" s="31">
+      <c r="DN10" s="15">
         <v>12921</v>
       </c>
+      <c r="DO10" s="15">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2926,37 +2916,40 @@
       <c r="DA11" s="2">
         <v>183</v>
       </c>
-      <c r="DB11" s="31">
+      <c r="DB11" s="15">
         <v>14</v>
       </c>
-      <c r="DC11" s="31">
+      <c r="DC11" s="15">
         <v>24</v>
       </c>
-      <c r="DD11" s="31"/>
-      <c r="DE11" s="31">
+      <c r="DD11" s="15"/>
+      <c r="DE11" s="15">
         <v>4</v>
       </c>
-      <c r="DF11" s="31"/>
-      <c r="DG11" s="31">
+      <c r="DF11" s="15"/>
+      <c r="DG11" s="15">
         <v>2</v>
       </c>
-      <c r="DH11" s="31">
+      <c r="DH11" s="15">
         <v>2</v>
       </c>
-      <c r="DI11" s="31"/>
-      <c r="DJ11" s="31">
+      <c r="DI11" s="15"/>
+      <c r="DJ11" s="15">
         <v>8</v>
       </c>
-      <c r="DK11" s="31"/>
-      <c r="DL11" s="31">
+      <c r="DK11" s="15"/>
+      <c r="DL11" s="15">
         <v>2</v>
       </c>
-      <c r="DM11" s="31"/>
-      <c r="DN11" s="31">
+      <c r="DM11" s="15"/>
+      <c r="DN11" s="15">
         <v>56</v>
       </c>
+      <c r="DO11" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -3272,47 +3265,50 @@
       <c r="DA12" s="2">
         <v>7889646</v>
       </c>
-      <c r="DB12" s="31">
+      <c r="DB12" s="15">
         <v>738933</v>
       </c>
-      <c r="DC12" s="31">
+      <c r="DC12" s="15">
         <v>765887</v>
       </c>
-      <c r="DD12" s="31">
+      <c r="DD12" s="15">
         <v>399697</v>
       </c>
-      <c r="DE12" s="31">
+      <c r="DE12" s="15">
         <v>1124</v>
       </c>
-      <c r="DF12" s="31">
+      <c r="DF12" s="15">
         <v>1676</v>
       </c>
-      <c r="DG12" s="31">
+      <c r="DG12" s="15">
         <v>23036</v>
       </c>
-      <c r="DH12" s="31">
+      <c r="DH12" s="15">
         <v>112431</v>
       </c>
-      <c r="DI12" s="31">
+      <c r="DI12" s="15">
         <v>142416</v>
       </c>
-      <c r="DJ12" s="31">
+      <c r="DJ12" s="15">
         <v>146574</v>
       </c>
-      <c r="DK12" s="31">
+      <c r="DK12" s="15">
         <v>210691</v>
       </c>
-      <c r="DL12" s="31">
+      <c r="DL12" s="15">
         <v>289059</v>
       </c>
-      <c r="DM12" s="31">
+      <c r="DM12" s="15">
         <v>406582</v>
       </c>
-      <c r="DN12" s="31">
+      <c r="DN12" s="15">
         <v>3238106</v>
       </c>
+      <c r="DO12" s="15">
+        <v>305516</v>
+      </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -3540,37 +3536,40 @@
       <c r="DA13" s="2">
         <v>74</v>
       </c>
-      <c r="DB13" s="31">
+      <c r="DB13" s="15">
         <v>7</v>
       </c>
-      <c r="DC13" s="31">
+      <c r="DC13" s="15">
         <v>8</v>
       </c>
-      <c r="DD13" s="31">
+      <c r="DD13" s="15">
         <v>5</v>
       </c>
-      <c r="DE13" s="31"/>
-      <c r="DF13" s="31"/>
-      <c r="DG13" s="31"/>
-      <c r="DH13" s="31"/>
-      <c r="DI13" s="31">
+      <c r="DE13" s="15"/>
+      <c r="DF13" s="15"/>
+      <c r="DG13" s="15"/>
+      <c r="DH13" s="15"/>
+      <c r="DI13" s="15">
         <v>4</v>
       </c>
-      <c r="DJ13" s="31"/>
-      <c r="DK13" s="31">
+      <c r="DJ13" s="15"/>
+      <c r="DK13" s="15">
         <v>3</v>
       </c>
-      <c r="DL13" s="31">
+      <c r="DL13" s="15">
         <v>2</v>
       </c>
-      <c r="DM13" s="31">
+      <c r="DM13" s="15">
         <v>2</v>
       </c>
-      <c r="DN13" s="31">
+      <c r="DN13" s="15">
         <v>31</v>
       </c>
+      <c r="DO13" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3718,33 +3717,34 @@
       <c r="DA14" s="2">
         <v>2037</v>
       </c>
-      <c r="DB14" s="31"/>
-      <c r="DC14" s="31">
+      <c r="DB14" s="15"/>
+      <c r="DC14" s="15">
         <v>210</v>
       </c>
-      <c r="DD14" s="31"/>
-      <c r="DE14" s="31"/>
-      <c r="DF14" s="31"/>
-      <c r="DG14" s="31"/>
-      <c r="DH14" s="31"/>
-      <c r="DI14" s="31">
+      <c r="DD14" s="15"/>
+      <c r="DE14" s="15"/>
+      <c r="DF14" s="15"/>
+      <c r="DG14" s="15"/>
+      <c r="DH14" s="15"/>
+      <c r="DI14" s="15">
         <v>174</v>
       </c>
-      <c r="DJ14" s="31">
+      <c r="DJ14" s="15">
         <v>415</v>
       </c>
-      <c r="DK14" s="31">
+      <c r="DK14" s="15">
         <v>232</v>
       </c>
-      <c r="DL14" s="31">
+      <c r="DL14" s="15">
         <v>147</v>
       </c>
-      <c r="DM14" s="31"/>
-      <c r="DN14" s="31">
+      <c r="DM14" s="15"/>
+      <c r="DN14" s="15">
         <v>1178</v>
       </c>
+      <c r="DO14" s="15"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -4060,47 +4060,50 @@
       <c r="DA15" s="2">
         <v>32016</v>
       </c>
-      <c r="DB15" s="31">
+      <c r="DB15" s="15">
         <v>2367</v>
       </c>
-      <c r="DC15" s="31">
+      <c r="DC15" s="15">
         <v>2534</v>
       </c>
-      <c r="DD15" s="31">
+      <c r="DD15" s="15">
         <v>1456</v>
       </c>
-      <c r="DE15" s="31">
+      <c r="DE15" s="15">
         <v>219</v>
       </c>
-      <c r="DF15" s="31">
+      <c r="DF15" s="15">
         <v>318</v>
       </c>
-      <c r="DG15" s="31">
+      <c r="DG15" s="15">
         <v>582</v>
       </c>
-      <c r="DH15" s="31">
+      <c r="DH15" s="15">
         <v>763</v>
       </c>
-      <c r="DI15" s="31">
+      <c r="DI15" s="15">
         <v>983</v>
       </c>
-      <c r="DJ15" s="31">
+      <c r="DJ15" s="15">
         <v>1096</v>
       </c>
-      <c r="DK15" s="31">
+      <c r="DK15" s="15">
         <v>1549</v>
       </c>
-      <c r="DL15" s="31">
+      <c r="DL15" s="15">
         <v>1362</v>
       </c>
-      <c r="DM15" s="31">
+      <c r="DM15" s="15">
         <v>2107</v>
       </c>
-      <c r="DN15" s="31">
+      <c r="DN15" s="15">
         <v>15336</v>
       </c>
+      <c r="DO15" s="15">
+        <v>1424</v>
+      </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -4398,37 +4401,40 @@
       <c r="DA16" s="2">
         <v>35</v>
       </c>
-      <c r="DB16" s="31">
+      <c r="DB16" s="15">
         <v>22</v>
       </c>
-      <c r="DC16" s="31">
+      <c r="DC16" s="15">
         <v>7</v>
       </c>
-      <c r="DD16" s="31"/>
-      <c r="DE16" s="31"/>
-      <c r="DF16" s="31"/>
-      <c r="DG16" s="31"/>
-      <c r="DH16" s="31">
+      <c r="DD16" s="15"/>
+      <c r="DE16" s="15"/>
+      <c r="DF16" s="15"/>
+      <c r="DG16" s="15"/>
+      <c r="DH16" s="15">
         <v>1</v>
       </c>
-      <c r="DI16" s="31">
+      <c r="DI16" s="15">
         <v>1</v>
       </c>
-      <c r="DJ16" s="31"/>
-      <c r="DK16" s="31">
+      <c r="DJ16" s="15"/>
+      <c r="DK16" s="15">
         <v>1</v>
       </c>
-      <c r="DL16" s="31">
+      <c r="DL16" s="15">
         <v>4</v>
       </c>
-      <c r="DM16" s="31">
+      <c r="DM16" s="15">
         <v>13</v>
       </c>
-      <c r="DN16" s="31">
+      <c r="DN16" s="15">
         <v>49</v>
       </c>
+      <c r="DO16" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -4744,47 +4750,50 @@
       <c r="DA17" s="2">
         <v>4989201</v>
       </c>
-      <c r="DB17" s="31">
+      <c r="DB17" s="15">
         <v>406562</v>
       </c>
-      <c r="DC17" s="31">
+      <c r="DC17" s="15">
         <v>407086</v>
       </c>
-      <c r="DD17" s="31">
+      <c r="DD17" s="15">
         <v>209321</v>
       </c>
-      <c r="DE17" s="31">
+      <c r="DE17" s="15">
         <v>8338</v>
       </c>
-      <c r="DF17" s="31">
+      <c r="DF17" s="15">
         <v>9526</v>
       </c>
-      <c r="DG17" s="31">
+      <c r="DG17" s="15">
         <v>23384</v>
       </c>
-      <c r="DH17" s="31">
+      <c r="DH17" s="15">
         <v>43189</v>
       </c>
-      <c r="DI17" s="31">
+      <c r="DI17" s="15">
         <v>59715</v>
       </c>
-      <c r="DJ17" s="31">
+      <c r="DJ17" s="15">
         <v>69064</v>
       </c>
-      <c r="DK17" s="31">
+      <c r="DK17" s="15">
         <v>103589</v>
       </c>
-      <c r="DL17" s="31">
+      <c r="DL17" s="15">
         <v>110011</v>
       </c>
-      <c r="DM17" s="31">
+      <c r="DM17" s="15">
         <v>184537</v>
       </c>
-      <c r="DN17" s="31">
+      <c r="DN17" s="15">
         <v>1634322</v>
       </c>
+      <c r="DO17" s="15">
+        <v>124134</v>
+      </c>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -5078,47 +5087,50 @@
       <c r="DA18" s="2">
         <v>30</v>
       </c>
-      <c r="DB18" s="31">
+      <c r="DB18" s="15">
         <v>1</v>
       </c>
-      <c r="DC18" s="31">
+      <c r="DC18" s="15">
         <v>3</v>
       </c>
-      <c r="DD18" s="31">
+      <c r="DD18" s="15">
         <v>6</v>
       </c>
-      <c r="DE18" s="31">
+      <c r="DE18" s="15">
         <v>35</v>
       </c>
-      <c r="DF18" s="31">
+      <c r="DF18" s="15">
         <v>72</v>
       </c>
-      <c r="DG18" s="31">
+      <c r="DG18" s="15">
         <v>46</v>
       </c>
-      <c r="DH18" s="31">
+      <c r="DH18" s="15">
         <v>34</v>
       </c>
-      <c r="DI18" s="31">
+      <c r="DI18" s="15">
         <v>45</v>
       </c>
-      <c r="DJ18" s="31">
+      <c r="DJ18" s="15">
         <v>47</v>
       </c>
-      <c r="DK18" s="31">
+      <c r="DK18" s="15">
         <v>72</v>
       </c>
-      <c r="DL18" s="31">
+      <c r="DL18" s="15">
         <v>55</v>
       </c>
-      <c r="DM18" s="31">
+      <c r="DM18" s="15">
         <v>46</v>
       </c>
-      <c r="DN18" s="31">
+      <c r="DN18" s="15">
         <v>462</v>
       </c>
+      <c r="DO18" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -5434,47 +5446,50 @@
       <c r="DA19" s="2">
         <v>364</v>
       </c>
-      <c r="DB19" s="31">
+      <c r="DB19" s="15">
         <v>42</v>
       </c>
-      <c r="DC19" s="31">
+      <c r="DC19" s="15">
         <v>33</v>
       </c>
-      <c r="DD19" s="31">
+      <c r="DD19" s="15">
         <v>24</v>
       </c>
-      <c r="DE19" s="31">
+      <c r="DE19" s="15">
         <v>4</v>
       </c>
-      <c r="DF19" s="31">
+      <c r="DF19" s="15">
         <v>2</v>
       </c>
-      <c r="DG19" s="31">
+      <c r="DG19" s="15">
         <v>3</v>
       </c>
-      <c r="DH19" s="31">
+      <c r="DH19" s="15">
         <v>16</v>
       </c>
-      <c r="DI19" s="31">
+      <c r="DI19" s="15">
         <v>22</v>
       </c>
-      <c r="DJ19" s="31">
+      <c r="DJ19" s="15">
         <v>19</v>
       </c>
-      <c r="DK19" s="31">
+      <c r="DK19" s="15">
         <v>56</v>
       </c>
-      <c r="DL19" s="31">
+      <c r="DL19" s="15">
         <v>46</v>
       </c>
-      <c r="DM19" s="31">
+      <c r="DM19" s="15">
         <v>20</v>
       </c>
-      <c r="DN19" s="31">
+      <c r="DN19" s="15">
         <v>287</v>
       </c>
+      <c r="DO19" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -5790,45 +5805,48 @@
       <c r="DA20" s="2">
         <v>1248</v>
       </c>
-      <c r="DB20" s="31">
+      <c r="DB20" s="15">
         <v>225</v>
       </c>
-      <c r="DC20" s="31">
+      <c r="DC20" s="15">
         <v>219</v>
       </c>
-      <c r="DD20" s="31">
+      <c r="DD20" s="15">
         <v>75</v>
       </c>
-      <c r="DE20" s="31"/>
-      <c r="DF20" s="31">
+      <c r="DE20" s="15"/>
+      <c r="DF20" s="15">
         <v>6</v>
       </c>
-      <c r="DG20" s="31">
+      <c r="DG20" s="15">
         <v>5</v>
       </c>
-      <c r="DH20" s="31">
+      <c r="DH20" s="15">
         <v>2</v>
       </c>
-      <c r="DI20" s="31">
+      <c r="DI20" s="15">
         <v>13</v>
       </c>
-      <c r="DJ20" s="31">
+      <c r="DJ20" s="15">
         <v>14</v>
       </c>
-      <c r="DK20" s="31">
+      <c r="DK20" s="15">
         <v>64</v>
       </c>
-      <c r="DL20" s="31">
+      <c r="DL20" s="15">
         <v>53</v>
       </c>
-      <c r="DM20" s="31">
+      <c r="DM20" s="15">
         <v>72</v>
       </c>
-      <c r="DN20" s="31">
+      <c r="DN20" s="15">
         <v>748</v>
       </c>
+      <c r="DO20" s="15">
+        <v>95</v>
+      </c>
     </row>
-    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -6144,47 +6162,50 @@
       <c r="DA21" s="2">
         <v>186</v>
       </c>
-      <c r="DB21" s="31">
+      <c r="DB21" s="15">
         <v>10</v>
       </c>
-      <c r="DC21" s="31">
+      <c r="DC21" s="15">
         <v>13</v>
       </c>
-      <c r="DD21" s="31">
+      <c r="DD21" s="15">
         <v>16</v>
       </c>
-      <c r="DE21" s="31">
+      <c r="DE21" s="15">
         <v>5</v>
       </c>
-      <c r="DF21" s="31">
+      <c r="DF21" s="15">
         <v>8</v>
       </c>
-      <c r="DG21" s="31">
+      <c r="DG21" s="15">
         <v>11</v>
       </c>
-      <c r="DH21" s="31">
+      <c r="DH21" s="15">
         <v>11</v>
       </c>
-      <c r="DI21" s="31">
+      <c r="DI21" s="15">
         <v>13</v>
       </c>
-      <c r="DJ21" s="31">
+      <c r="DJ21" s="15">
         <v>6</v>
       </c>
-      <c r="DK21" s="31">
+      <c r="DK21" s="15">
         <v>12</v>
       </c>
-      <c r="DL21" s="31">
+      <c r="DL21" s="15">
         <v>8</v>
       </c>
-      <c r="DM21" s="31">
+      <c r="DM21" s="15">
         <v>16</v>
       </c>
-      <c r="DN21" s="31">
+      <c r="DN21" s="15">
         <v>129</v>
       </c>
+      <c r="DO21" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -6500,47 +6521,50 @@
       <c r="DA22" s="2">
         <v>178634</v>
       </c>
-      <c r="DB22" s="31">
+      <c r="DB22" s="15">
         <v>21150</v>
       </c>
-      <c r="DC22" s="31">
+      <c r="DC22" s="15">
         <v>24528</v>
       </c>
-      <c r="DD22" s="31">
+      <c r="DD22" s="15">
         <v>15510</v>
       </c>
-      <c r="DE22" s="31">
+      <c r="DE22" s="15">
         <v>52</v>
       </c>
-      <c r="DF22" s="31">
+      <c r="DF22" s="15">
         <v>67</v>
       </c>
-      <c r="DG22" s="31">
+      <c r="DG22" s="15">
         <v>1169</v>
       </c>
-      <c r="DH22" s="31">
+      <c r="DH22" s="15">
         <v>4824</v>
       </c>
-      <c r="DI22" s="31">
+      <c r="DI22" s="15">
         <v>3919</v>
       </c>
-      <c r="DJ22" s="31">
+      <c r="DJ22" s="15">
         <v>3655</v>
       </c>
-      <c r="DK22" s="31">
+      <c r="DK22" s="15">
         <v>5923</v>
       </c>
-      <c r="DL22" s="31">
+      <c r="DL22" s="15">
         <v>7582</v>
       </c>
-      <c r="DM22" s="31">
+      <c r="DM22" s="15">
         <v>10934</v>
       </c>
-      <c r="DN22" s="31">
+      <c r="DN22" s="15">
         <v>99313</v>
       </c>
+      <c r="DO22" s="15">
+        <v>7281</v>
+      </c>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -6828,41 +6852,44 @@
       <c r="DA23" s="2">
         <v>123</v>
       </c>
-      <c r="DB23" s="31">
+      <c r="DB23" s="15">
         <v>22</v>
       </c>
-      <c r="DC23" s="31"/>
-      <c r="DD23" s="31">
+      <c r="DC23" s="15"/>
+      <c r="DD23" s="15">
         <v>16</v>
       </c>
-      <c r="DE23" s="31"/>
-      <c r="DF23" s="31">
+      <c r="DE23" s="15"/>
+      <c r="DF23" s="15">
         <v>7</v>
       </c>
-      <c r="DG23" s="31">
+      <c r="DG23" s="15">
         <v>4</v>
       </c>
-      <c r="DH23" s="31"/>
-      <c r="DI23" s="31">
+      <c r="DH23" s="15"/>
+      <c r="DI23" s="15">
         <v>12</v>
       </c>
-      <c r="DJ23" s="31">
+      <c r="DJ23" s="15">
         <v>6</v>
       </c>
-      <c r="DK23" s="31">
+      <c r="DK23" s="15">
         <v>7</v>
       </c>
-      <c r="DL23" s="31">
+      <c r="DL23" s="15">
         <v>17</v>
       </c>
-      <c r="DM23" s="31">
+      <c r="DM23" s="15">
         <v>3</v>
       </c>
-      <c r="DN23" s="31">
+      <c r="DN23" s="15">
         <v>94</v>
       </c>
+      <c r="DO23" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -7162,43 +7189,46 @@
       <c r="DA24" s="2">
         <v>2265</v>
       </c>
-      <c r="DB24" s="31">
+      <c r="DB24" s="15">
         <v>192</v>
       </c>
-      <c r="DC24" s="31">
+      <c r="DC24" s="15">
         <v>160</v>
       </c>
-      <c r="DD24" s="31">
+      <c r="DD24" s="15">
         <v>160</v>
       </c>
-      <c r="DE24" s="31"/>
-      <c r="DF24" s="31">
+      <c r="DE24" s="15"/>
+      <c r="DF24" s="15">
         <v>2</v>
       </c>
-      <c r="DG24" s="31">
+      <c r="DG24" s="15">
         <v>9</v>
       </c>
-      <c r="DH24" s="31"/>
-      <c r="DI24" s="31">
+      <c r="DH24" s="15"/>
+      <c r="DI24" s="15">
         <v>2</v>
       </c>
-      <c r="DJ24" s="31">
+      <c r="DJ24" s="15">
         <v>5</v>
       </c>
-      <c r="DK24" s="31">
+      <c r="DK24" s="15">
         <v>7</v>
       </c>
-      <c r="DL24" s="31">
+      <c r="DL24" s="15">
         <v>138</v>
       </c>
-      <c r="DM24" s="31">
+      <c r="DM24" s="15">
         <v>241</v>
       </c>
-      <c r="DN24" s="31">
+      <c r="DN24" s="15">
         <v>916</v>
       </c>
+      <c r="DO24" s="15">
+        <v>123</v>
+      </c>
     </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -7514,47 +7544,50 @@
       <c r="DA25" s="2">
         <v>2678</v>
       </c>
-      <c r="DB25" s="31">
+      <c r="DB25" s="15">
         <v>238</v>
       </c>
-      <c r="DC25" s="31">
+      <c r="DC25" s="15">
         <v>187</v>
       </c>
-      <c r="DD25" s="31">
+      <c r="DD25" s="15">
         <v>110</v>
       </c>
-      <c r="DE25" s="31">
+      <c r="DE25" s="15">
         <v>21</v>
       </c>
-      <c r="DF25" s="31">
+      <c r="DF25" s="15">
         <v>46</v>
       </c>
-      <c r="DG25" s="31">
+      <c r="DG25" s="15">
         <v>113</v>
       </c>
-      <c r="DH25" s="31">
+      <c r="DH25" s="15">
         <v>93</v>
       </c>
-      <c r="DI25" s="31">
+      <c r="DI25" s="15">
         <v>190</v>
       </c>
-      <c r="DJ25" s="31">
+      <c r="DJ25" s="15">
         <v>150</v>
       </c>
-      <c r="DK25" s="31">
+      <c r="DK25" s="15">
         <v>204</v>
       </c>
-      <c r="DL25" s="31">
+      <c r="DL25" s="15">
         <v>151</v>
       </c>
-      <c r="DM25" s="31">
+      <c r="DM25" s="15">
         <v>144</v>
       </c>
-      <c r="DN25" s="31">
+      <c r="DN25" s="15">
         <v>1647</v>
       </c>
+      <c r="DO25" s="15">
+        <v>177</v>
+      </c>
     </row>
-    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -7870,47 +7903,50 @@
       <c r="DA26" s="2">
         <v>21817</v>
       </c>
-      <c r="DB26" s="31">
+      <c r="DB26" s="15">
         <v>1444</v>
       </c>
-      <c r="DC26" s="31">
+      <c r="DC26" s="15">
         <v>1437</v>
       </c>
-      <c r="DD26" s="31">
+      <c r="DD26" s="15">
         <v>1539</v>
       </c>
-      <c r="DE26" s="31">
+      <c r="DE26" s="15">
         <v>213</v>
       </c>
-      <c r="DF26" s="31">
+      <c r="DF26" s="15">
         <v>350</v>
       </c>
-      <c r="DG26" s="31">
+      <c r="DG26" s="15">
         <v>625</v>
       </c>
-      <c r="DH26" s="31">
+      <c r="DH26" s="15">
         <v>1522</v>
       </c>
-      <c r="DI26" s="31">
+      <c r="DI26" s="15">
         <v>1087</v>
       </c>
-      <c r="DJ26" s="31">
+      <c r="DJ26" s="15">
         <v>1210</v>
       </c>
-      <c r="DK26" s="31">
+      <c r="DK26" s="15">
         <v>1327</v>
       </c>
-      <c r="DL26" s="31">
+      <c r="DL26" s="15">
         <v>1172</v>
       </c>
-      <c r="DM26" s="31">
+      <c r="DM26" s="15">
         <v>1793</v>
       </c>
-      <c r="DN26" s="31">
+      <c r="DN26" s="15">
         <v>13719</v>
       </c>
+      <c r="DO26" s="15">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -8200,33 +8236,36 @@
       <c r="DA27" s="2">
         <v>239</v>
       </c>
-      <c r="DB27" s="31"/>
-      <c r="DC27" s="31"/>
-      <c r="DD27" s="31"/>
-      <c r="DE27" s="31"/>
-      <c r="DF27" s="31"/>
-      <c r="DG27" s="31"/>
-      <c r="DH27" s="31"/>
-      <c r="DI27" s="31">
+      <c r="DB27" s="15"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="15"/>
+      <c r="DE27" s="15"/>
+      <c r="DF27" s="15"/>
+      <c r="DG27" s="15"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="15">
         <v>59</v>
       </c>
-      <c r="DJ27" s="31">
+      <c r="DJ27" s="15">
         <v>36</v>
       </c>
-      <c r="DK27" s="31">
+      <c r="DK27" s="15">
         <v>138</v>
       </c>
-      <c r="DL27" s="31">
+      <c r="DL27" s="15">
         <v>238</v>
       </c>
-      <c r="DM27" s="31">
+      <c r="DM27" s="15">
         <v>123</v>
       </c>
-      <c r="DN27" s="31">
+      <c r="DN27" s="15">
         <v>594</v>
       </c>
+      <c r="DO27" s="15">
+        <v>107</v>
+      </c>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -8542,47 +8581,50 @@
       <c r="DA28" s="2">
         <v>1128155</v>
       </c>
-      <c r="DB28" s="31">
+      <c r="DB28" s="15">
         <v>94172</v>
       </c>
-      <c r="DC28" s="31">
+      <c r="DC28" s="15">
         <v>80335</v>
       </c>
-      <c r="DD28" s="31">
+      <c r="DD28" s="15">
         <v>51843</v>
       </c>
-      <c r="DE28" s="31">
+      <c r="DE28" s="15">
         <v>6193</v>
       </c>
-      <c r="DF28" s="31">
+      <c r="DF28" s="15">
         <v>8648</v>
       </c>
-      <c r="DG28" s="31">
+      <c r="DG28" s="15">
         <v>33065</v>
       </c>
-      <c r="DH28" s="31">
+      <c r="DH28" s="15">
         <v>49440</v>
       </c>
-      <c r="DI28" s="31">
+      <c r="DI28" s="15">
         <v>41688</v>
       </c>
-      <c r="DJ28" s="31">
+      <c r="DJ28" s="15">
         <v>46407</v>
       </c>
-      <c r="DK28" s="31">
+      <c r="DK28" s="15">
         <v>53027</v>
       </c>
-      <c r="DL28" s="31">
+      <c r="DL28" s="15">
         <v>55366</v>
       </c>
-      <c r="DM28" s="31">
+      <c r="DM28" s="15">
         <v>100145</v>
       </c>
-      <c r="DN28" s="31">
+      <c r="DN28" s="15">
         <v>620329</v>
       </c>
+      <c r="DO28" s="15">
+        <v>48323</v>
+      </c>
     </row>
-    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -8898,47 +8940,50 @@
       <c r="DA29" s="2">
         <v>1791</v>
       </c>
-      <c r="DB29" s="31">
+      <c r="DB29" s="15">
         <v>129</v>
       </c>
-      <c r="DC29" s="31">
+      <c r="DC29" s="15">
         <v>135</v>
       </c>
-      <c r="DD29" s="31">
+      <c r="DD29" s="15">
         <v>53</v>
       </c>
-      <c r="DE29" s="31">
+      <c r="DE29" s="15">
         <v>8</v>
       </c>
-      <c r="DF29" s="31">
+      <c r="DF29" s="15">
         <v>39</v>
       </c>
-      <c r="DG29" s="31">
+      <c r="DG29" s="15">
         <v>50</v>
       </c>
-      <c r="DH29" s="31">
+      <c r="DH29" s="15">
         <v>32</v>
       </c>
-      <c r="DI29" s="31">
+      <c r="DI29" s="15">
         <v>36</v>
       </c>
-      <c r="DJ29" s="31">
+      <c r="DJ29" s="15">
         <v>69</v>
       </c>
-      <c r="DK29" s="31">
+      <c r="DK29" s="15">
         <v>85</v>
       </c>
-      <c r="DL29" s="31">
+      <c r="DL29" s="15">
         <v>67</v>
       </c>
-      <c r="DM29" s="31">
+      <c r="DM29" s="15">
         <v>59</v>
       </c>
-      <c r="DN29" s="31">
+      <c r="DN29" s="15">
         <v>762</v>
       </c>
+      <c r="DO29" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -9254,47 +9299,50 @@
       <c r="DA30" s="2">
         <v>15109</v>
       </c>
-      <c r="DB30" s="31">
+      <c r="DB30" s="15">
         <v>2316</v>
       </c>
-      <c r="DC30" s="31">
+      <c r="DC30" s="15">
         <v>1894</v>
       </c>
-      <c r="DD30" s="31">
+      <c r="DD30" s="15">
         <v>964</v>
       </c>
-      <c r="DE30" s="31">
+      <c r="DE30" s="15">
         <v>49</v>
       </c>
-      <c r="DF30" s="31">
+      <c r="DF30" s="15">
         <v>131</v>
       </c>
-      <c r="DG30" s="31">
+      <c r="DG30" s="15">
         <v>268</v>
       </c>
-      <c r="DH30" s="31">
+      <c r="DH30" s="15">
         <v>327</v>
       </c>
-      <c r="DI30" s="31">
+      <c r="DI30" s="15">
         <v>59</v>
       </c>
-      <c r="DJ30" s="31">
+      <c r="DJ30" s="15">
         <v>253</v>
       </c>
-      <c r="DK30" s="31">
+      <c r="DK30" s="15">
         <v>462</v>
       </c>
-      <c r="DL30" s="31">
+      <c r="DL30" s="15">
         <v>725</v>
       </c>
-      <c r="DM30" s="31">
+      <c r="DM30" s="15">
         <v>1118</v>
       </c>
-      <c r="DN30" s="31">
+      <c r="DN30" s="15">
         <v>8566</v>
       </c>
+      <c r="DO30" s="15">
+        <v>1308</v>
+      </c>
     </row>
-    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -9610,43 +9658,46 @@
       <c r="DA31" s="2">
         <v>61356</v>
       </c>
-      <c r="DB31" s="31">
+      <c r="DB31" s="15">
         <v>13948</v>
       </c>
-      <c r="DC31" s="31">
+      <c r="DC31" s="15">
         <v>14210</v>
       </c>
-      <c r="DD31" s="31">
+      <c r="DD31" s="15">
         <v>5298</v>
       </c>
-      <c r="DE31" s="31">
+      <c r="DE31" s="15">
         <v>3</v>
       </c>
-      <c r="DF31" s="31"/>
-      <c r="DG31" s="31">
+      <c r="DF31" s="15"/>
+      <c r="DG31" s="15">
         <v>34</v>
       </c>
-      <c r="DH31" s="31">
+      <c r="DH31" s="15">
         <v>88</v>
       </c>
-      <c r="DI31" s="31">
+      <c r="DI31" s="15">
         <v>5</v>
       </c>
-      <c r="DJ31" s="31">
+      <c r="DJ31" s="15">
         <v>3</v>
       </c>
-      <c r="DK31" s="31"/>
-      <c r="DL31" s="31">
+      <c r="DK31" s="15"/>
+      <c r="DL31" s="15">
         <v>154</v>
       </c>
-      <c r="DM31" s="31">
+      <c r="DM31" s="15">
         <v>731</v>
       </c>
-      <c r="DN31" s="31">
+      <c r="DN31" s="15">
         <v>34474</v>
       </c>
+      <c r="DO31" s="15">
+        <v>906</v>
+      </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -9962,47 +10013,50 @@
       <c r="DA32" s="2">
         <v>1606</v>
       </c>
-      <c r="DB32" s="31">
+      <c r="DB32" s="15">
         <v>100</v>
       </c>
-      <c r="DC32" s="31">
+      <c r="DC32" s="15">
         <v>92</v>
       </c>
-      <c r="DD32" s="31">
+      <c r="DD32" s="15">
         <v>152</v>
       </c>
-      <c r="DE32" s="31">
+      <c r="DE32" s="15">
         <v>24</v>
       </c>
-      <c r="DF32" s="31">
+      <c r="DF32" s="15">
         <v>19</v>
       </c>
-      <c r="DG32" s="31">
+      <c r="DG32" s="15">
         <v>96</v>
       </c>
-      <c r="DH32" s="31">
+      <c r="DH32" s="15">
         <v>70</v>
       </c>
-      <c r="DI32" s="31">
+      <c r="DI32" s="15">
         <v>79</v>
       </c>
-      <c r="DJ32" s="31">
+      <c r="DJ32" s="15">
         <v>36</v>
       </c>
-      <c r="DK32" s="31">
+      <c r="DK32" s="15">
         <v>174</v>
       </c>
-      <c r="DL32" s="31">
+      <c r="DL32" s="15">
         <v>221</v>
       </c>
-      <c r="DM32" s="31">
+      <c r="DM32" s="15">
         <v>458</v>
       </c>
-      <c r="DN32" s="31">
+      <c r="DN32" s="15">
         <v>1521</v>
       </c>
+      <c r="DO32" s="15">
+        <v>488</v>
+      </c>
     </row>
-    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -10318,47 +10372,50 @@
       <c r="DA33" s="2">
         <v>34680</v>
       </c>
-      <c r="DB33" s="31">
+      <c r="DB33" s="15">
         <v>3176</v>
       </c>
-      <c r="DC33" s="31">
+      <c r="DC33" s="15">
         <v>5435</v>
       </c>
-      <c r="DD33" s="31">
+      <c r="DD33" s="15">
         <v>2486</v>
       </c>
-      <c r="DE33" s="31">
+      <c r="DE33" s="15">
         <v>40</v>
       </c>
-      <c r="DF33" s="31">
+      <c r="DF33" s="15">
         <v>38</v>
       </c>
-      <c r="DG33" s="31">
+      <c r="DG33" s="15">
         <v>456</v>
       </c>
-      <c r="DH33" s="31">
+      <c r="DH33" s="15">
         <v>496</v>
       </c>
-      <c r="DI33" s="31">
+      <c r="DI33" s="15">
         <v>499</v>
       </c>
-      <c r="DJ33" s="31">
+      <c r="DJ33" s="15">
         <v>653</v>
       </c>
-      <c r="DK33" s="31">
+      <c r="DK33" s="15">
         <v>1642</v>
       </c>
-      <c r="DL33" s="31">
+      <c r="DL33" s="15">
         <v>1694</v>
       </c>
-      <c r="DM33" s="31">
+      <c r="DM33" s="15">
         <v>1393</v>
       </c>
-      <c r="DN33" s="31">
+      <c r="DN33" s="15">
         <v>18008</v>
       </c>
+      <c r="DO33" s="15">
+        <v>1026</v>
+      </c>
     </row>
-    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
@@ -10674,47 +10731,50 @@
       <c r="DA34" s="2">
         <v>1791769</v>
       </c>
-      <c r="DB34" s="31">
+      <c r="DB34" s="15">
         <v>166549</v>
       </c>
-      <c r="DC34" s="31">
+      <c r="DC34" s="15">
         <v>179033</v>
       </c>
-      <c r="DD34" s="31">
+      <c r="DD34" s="15">
         <v>93052</v>
       </c>
-      <c r="DE34" s="31">
+      <c r="DE34" s="15">
         <v>594</v>
       </c>
-      <c r="DF34" s="31">
+      <c r="DF34" s="15">
         <v>1300</v>
       </c>
-      <c r="DG34" s="31">
+      <c r="DG34" s="15">
         <v>13084</v>
       </c>
-      <c r="DH34" s="31">
+      <c r="DH34" s="15">
         <v>42603</v>
       </c>
-      <c r="DI34" s="31">
+      <c r="DI34" s="15">
         <v>46009</v>
       </c>
-      <c r="DJ34" s="31">
+      <c r="DJ34" s="15">
         <v>51101</v>
       </c>
-      <c r="DK34" s="31">
+      <c r="DK34" s="15">
         <v>95338</v>
       </c>
-      <c r="DL34" s="31">
+      <c r="DL34" s="15">
         <v>103094</v>
       </c>
-      <c r="DM34" s="31">
+      <c r="DM34" s="15">
         <v>108864</v>
       </c>
-      <c r="DN34" s="31">
+      <c r="DN34" s="15">
         <v>900621</v>
       </c>
+      <c r="DO34" s="15">
+        <v>72204</v>
+      </c>
     </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
@@ -10968,43 +11028,46 @@
       <c r="DA35" s="2">
         <v>203</v>
       </c>
-      <c r="DB35" s="31">
+      <c r="DB35" s="15">
         <v>24</v>
       </c>
-      <c r="DC35" s="31">
+      <c r="DC35" s="15">
         <v>26</v>
       </c>
-      <c r="DD35" s="31">
+      <c r="DD35" s="15">
         <v>7</v>
       </c>
-      <c r="DE35" s="31"/>
-      <c r="DF35" s="31">
+      <c r="DE35" s="15"/>
+      <c r="DF35" s="15">
         <v>2</v>
       </c>
-      <c r="DG35" s="31"/>
-      <c r="DH35" s="31">
+      <c r="DG35" s="15"/>
+      <c r="DH35" s="15">
         <v>12</v>
       </c>
-      <c r="DI35" s="31">
+      <c r="DI35" s="15">
         <v>3</v>
       </c>
-      <c r="DJ35" s="31">
+      <c r="DJ35" s="15">
         <v>4</v>
       </c>
-      <c r="DK35" s="31">
+      <c r="DK35" s="15">
         <v>4</v>
       </c>
-      <c r="DL35" s="31">
+      <c r="DL35" s="15">
         <v>8</v>
       </c>
-      <c r="DM35" s="31">
+      <c r="DM35" s="15">
         <v>8</v>
       </c>
-      <c r="DN35" s="31">
+      <c r="DN35" s="15">
         <v>98</v>
       </c>
+      <c r="DO35" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -11320,47 +11383,50 @@
       <c r="DA36" s="2">
         <v>29391</v>
       </c>
-      <c r="DB36" s="31">
+      <c r="DB36" s="15">
         <v>4615</v>
       </c>
-      <c r="DC36" s="31">
+      <c r="DC36" s="15">
         <v>3614</v>
       </c>
-      <c r="DD36" s="31">
+      <c r="DD36" s="15">
         <v>1457</v>
       </c>
-      <c r="DE36" s="31">
+      <c r="DE36" s="15">
         <v>36</v>
       </c>
-      <c r="DF36" s="31">
+      <c r="DF36" s="15">
         <v>12</v>
       </c>
-      <c r="DG36" s="31">
+      <c r="DG36" s="15">
         <v>345</v>
       </c>
-      <c r="DH36" s="31">
+      <c r="DH36" s="15">
         <v>314</v>
       </c>
-      <c r="DI36" s="31">
+      <c r="DI36" s="15">
         <v>304</v>
       </c>
-      <c r="DJ36" s="31">
+      <c r="DJ36" s="15">
         <v>293</v>
       </c>
-      <c r="DK36" s="31">
+      <c r="DK36" s="15">
         <v>485</v>
       </c>
-      <c r="DL36" s="31">
+      <c r="DL36" s="15">
         <v>467</v>
       </c>
-      <c r="DM36" s="31">
+      <c r="DM36" s="15">
         <v>738</v>
       </c>
-      <c r="DN36" s="31">
+      <c r="DN36" s="15">
         <v>12680</v>
       </c>
+      <c r="DO36" s="15">
+        <v>1079</v>
+      </c>
     </row>
-    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>48</v>
       </c>
@@ -11674,43 +11740,46 @@
       <c r="DA37" s="2">
         <v>458</v>
       </c>
-      <c r="DB37" s="31">
+      <c r="DB37" s="15">
         <v>22</v>
       </c>
-      <c r="DC37" s="31">
+      <c r="DC37" s="15">
         <v>11</v>
       </c>
-      <c r="DD37" s="31">
+      <c r="DD37" s="15">
         <v>3</v>
       </c>
-      <c r="DE37" s="31"/>
-      <c r="DF37" s="31"/>
-      <c r="DG37" s="31">
+      <c r="DE37" s="15"/>
+      <c r="DF37" s="15"/>
+      <c r="DG37" s="15">
         <v>9</v>
       </c>
-      <c r="DH37" s="31">
+      <c r="DH37" s="15">
         <v>13</v>
       </c>
-      <c r="DI37" s="31">
+      <c r="DI37" s="15">
         <v>40</v>
       </c>
-      <c r="DJ37" s="31">
+      <c r="DJ37" s="15">
         <v>107</v>
       </c>
-      <c r="DK37" s="31">
+      <c r="DK37" s="15">
         <v>2</v>
       </c>
-      <c r="DL37" s="31">
+      <c r="DL37" s="15">
         <v>59</v>
       </c>
-      <c r="DM37" s="31">
+      <c r="DM37" s="15">
         <v>38</v>
       </c>
-      <c r="DN37" s="31">
+      <c r="DN37" s="15">
         <v>304</v>
       </c>
+      <c r="DO37" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -12026,47 +12095,50 @@
       <c r="DA38" s="2">
         <v>134191</v>
       </c>
-      <c r="DB38" s="31">
+      <c r="DB38" s="15">
         <v>22555</v>
       </c>
-      <c r="DC38" s="31">
+      <c r="DC38" s="15">
         <v>22306</v>
       </c>
-      <c r="DD38" s="31">
+      <c r="DD38" s="15">
         <v>9945</v>
       </c>
-      <c r="DE38" s="31">
+      <c r="DE38" s="15">
         <v>102</v>
       </c>
-      <c r="DF38" s="31">
+      <c r="DF38" s="15">
         <v>74</v>
       </c>
-      <c r="DG38" s="31">
+      <c r="DG38" s="15">
         <v>529</v>
       </c>
-      <c r="DH38" s="31">
+      <c r="DH38" s="15">
         <v>1181</v>
       </c>
-      <c r="DI38" s="31">
+      <c r="DI38" s="15">
         <v>1178</v>
       </c>
-      <c r="DJ38" s="31">
+      <c r="DJ38" s="15">
         <v>1475</v>
       </c>
-      <c r="DK38" s="31">
+      <c r="DK38" s="15">
         <v>2910</v>
       </c>
-      <c r="DL38" s="31">
+      <c r="DL38" s="15">
         <v>4079</v>
       </c>
-      <c r="DM38" s="31">
+      <c r="DM38" s="15">
         <v>6395</v>
       </c>
-      <c r="DN38" s="31">
+      <c r="DN38" s="15">
         <v>72729</v>
       </c>
+      <c r="DO38" s="15">
+        <v>4451</v>
+      </c>
     </row>
-    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
@@ -12382,47 +12454,50 @@
       <c r="DA39" s="2">
         <v>57763</v>
       </c>
-      <c r="DB39" s="31">
+      <c r="DB39" s="15">
         <v>6733</v>
       </c>
-      <c r="DC39" s="31">
+      <c r="DC39" s="15">
         <v>6841</v>
       </c>
-      <c r="DD39" s="31">
+      <c r="DD39" s="15">
         <v>3552</v>
       </c>
-      <c r="DE39" s="31">
+      <c r="DE39" s="15">
         <v>78</v>
       </c>
-      <c r="DF39" s="31">
+      <c r="DF39" s="15">
         <v>52</v>
       </c>
-      <c r="DG39" s="31">
+      <c r="DG39" s="15">
         <v>399</v>
       </c>
-      <c r="DH39" s="31">
+      <c r="DH39" s="15">
         <v>521</v>
       </c>
-      <c r="DI39" s="31">
+      <c r="DI39" s="15">
         <v>38</v>
       </c>
-      <c r="DJ39" s="31">
+      <c r="DJ39" s="15">
         <v>64</v>
       </c>
-      <c r="DK39" s="31">
+      <c r="DK39" s="15">
         <v>580</v>
       </c>
-      <c r="DL39" s="31">
+      <c r="DL39" s="15">
         <v>981</v>
       </c>
-      <c r="DM39" s="31">
+      <c r="DM39" s="15">
         <v>3057</v>
       </c>
-      <c r="DN39" s="31">
+      <c r="DN39" s="15">
         <v>22896</v>
       </c>
+      <c r="DO39" s="15">
+        <v>1583</v>
+      </c>
     </row>
-    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
@@ -12738,47 +12813,50 @@
       <c r="DA40" s="2">
         <v>1280</v>
       </c>
-      <c r="DB40" s="31">
+      <c r="DB40" s="15">
         <v>129</v>
       </c>
-      <c r="DC40" s="31">
+      <c r="DC40" s="15">
         <v>85</v>
       </c>
-      <c r="DD40" s="31">
+      <c r="DD40" s="15">
         <v>45</v>
       </c>
-      <c r="DE40" s="31">
+      <c r="DE40" s="15">
         <v>44</v>
       </c>
-      <c r="DF40" s="31">
+      <c r="DF40" s="15">
         <v>7</v>
       </c>
-      <c r="DG40" s="31">
+      <c r="DG40" s="15">
         <v>15</v>
       </c>
-      <c r="DH40" s="31">
+      <c r="DH40" s="15">
         <v>12</v>
       </c>
-      <c r="DI40" s="31">
+      <c r="DI40" s="15">
         <v>31</v>
       </c>
-      <c r="DJ40" s="31">
+      <c r="DJ40" s="15">
         <v>39</v>
       </c>
-      <c r="DK40" s="31">
+      <c r="DK40" s="15">
         <v>30</v>
       </c>
-      <c r="DL40" s="31">
+      <c r="DL40" s="15">
         <v>55</v>
       </c>
-      <c r="DM40" s="31">
+      <c r="DM40" s="15">
         <v>40</v>
       </c>
-      <c r="DN40" s="31">
+      <c r="DN40" s="15">
         <v>532</v>
       </c>
+      <c r="DO40" s="15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
@@ -12982,21 +13060,22 @@
       <c r="DA41" s="2">
         <v>12</v>
       </c>
-      <c r="DB41" s="31"/>
-      <c r="DC41" s="31"/>
-      <c r="DD41" s="31"/>
-      <c r="DE41" s="31"/>
-      <c r="DF41" s="31"/>
-      <c r="DG41" s="31"/>
-      <c r="DH41" s="31"/>
-      <c r="DI41" s="31"/>
-      <c r="DJ41" s="31"/>
-      <c r="DK41" s="31"/>
-      <c r="DL41" s="31"/>
-      <c r="DM41" s="31"/>
-      <c r="DN41" s="31"/>
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="15"/>
+      <c r="DE41" s="15"/>
+      <c r="DF41" s="15"/>
+      <c r="DG41" s="15"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="15"/>
+      <c r="DJ41" s="15"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="15"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="15"/>
+      <c r="DO41" s="15"/>
     </row>
-    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -13312,41 +13391,44 @@
       <c r="DA42" s="2">
         <v>1183</v>
       </c>
-      <c r="DB42" s="31">
+      <c r="DB42" s="15">
         <v>57</v>
       </c>
-      <c r="DC42" s="31">
+      <c r="DC42" s="15">
         <v>79</v>
       </c>
-      <c r="DD42" s="31">
+      <c r="DD42" s="15">
         <v>7</v>
       </c>
-      <c r="DE42" s="31"/>
-      <c r="DF42" s="31"/>
-      <c r="DG42" s="31">
+      <c r="DE42" s="15"/>
+      <c r="DF42" s="15"/>
+      <c r="DG42" s="15">
         <v>4</v>
       </c>
-      <c r="DH42" s="31"/>
-      <c r="DI42" s="31">
+      <c r="DH42" s="15"/>
+      <c r="DI42" s="15">
         <v>5</v>
       </c>
-      <c r="DJ42" s="31">
+      <c r="DJ42" s="15">
         <v>4</v>
       </c>
-      <c r="DK42" s="31">
+      <c r="DK42" s="15">
         <v>6</v>
       </c>
-      <c r="DL42" s="31">
+      <c r="DL42" s="15">
         <v>10</v>
       </c>
-      <c r="DM42" s="31">
+      <c r="DM42" s="15">
         <v>15</v>
       </c>
-      <c r="DN42" s="31">
+      <c r="DN42" s="15">
         <v>187</v>
       </c>
+      <c r="DO42" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
@@ -13662,47 +13744,50 @@
       <c r="DA43" s="2">
         <v>288573</v>
       </c>
-      <c r="DB43" s="31">
+      <c r="DB43" s="15">
         <v>21769</v>
       </c>
-      <c r="DC43" s="31">
+      <c r="DC43" s="15">
         <v>22914</v>
       </c>
-      <c r="DD43" s="31">
+      <c r="DD43" s="15">
         <v>11901</v>
       </c>
-      <c r="DE43" s="31">
+      <c r="DE43" s="15">
         <v>604</v>
       </c>
-      <c r="DF43" s="31">
+      <c r="DF43" s="15">
         <v>804</v>
       </c>
-      <c r="DG43" s="31">
+      <c r="DG43" s="15">
         <v>2476</v>
       </c>
-      <c r="DH43" s="31">
+      <c r="DH43" s="15">
         <v>2935</v>
       </c>
-      <c r="DI43" s="31">
+      <c r="DI43" s="15">
         <v>3667</v>
       </c>
-      <c r="DJ43" s="31">
+      <c r="DJ43" s="15">
         <v>5306</v>
       </c>
-      <c r="DK43" s="31">
+      <c r="DK43" s="15">
         <v>6263</v>
       </c>
-      <c r="DL43" s="31">
+      <c r="DL43" s="15">
         <v>6389</v>
       </c>
-      <c r="DM43" s="31">
+      <c r="DM43" s="15">
         <v>10073</v>
       </c>
-      <c r="DN43" s="31">
+      <c r="DN43" s="15">
         <v>95101</v>
       </c>
+      <c r="DO43" s="15">
+        <v>5224</v>
+      </c>
     </row>
-    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
@@ -14018,47 +14103,50 @@
       <c r="DA44" s="2">
         <v>104538</v>
       </c>
-      <c r="DB44" s="31">
+      <c r="DB44" s="15">
         <v>8801</v>
       </c>
-      <c r="DC44" s="31">
+      <c r="DC44" s="15">
         <v>7680</v>
       </c>
-      <c r="DD44" s="31">
+      <c r="DD44" s="15">
         <v>5250</v>
       </c>
-      <c r="DE44" s="31">
+      <c r="DE44" s="15">
         <v>610</v>
       </c>
-      <c r="DF44" s="31">
+      <c r="DF44" s="15">
         <v>547</v>
       </c>
-      <c r="DG44" s="31">
+      <c r="DG44" s="15">
         <v>1165</v>
       </c>
-      <c r="DH44" s="31">
+      <c r="DH44" s="15">
         <v>3563</v>
       </c>
-      <c r="DI44" s="31">
+      <c r="DI44" s="15">
         <v>4258</v>
       </c>
-      <c r="DJ44" s="31">
+      <c r="DJ44" s="15">
         <v>4908</v>
       </c>
-      <c r="DK44" s="31">
+      <c r="DK44" s="15">
         <v>5638</v>
       </c>
-      <c r="DL44" s="31">
+      <c r="DL44" s="15">
         <v>6804</v>
       </c>
-      <c r="DM44" s="31">
+      <c r="DM44" s="15">
         <v>11708</v>
       </c>
-      <c r="DN44" s="31">
+      <c r="DN44" s="15">
         <v>60932</v>
       </c>
+      <c r="DO44" s="15">
+        <v>7126</v>
+      </c>
     </row>
-    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -14374,47 +14462,50 @@
       <c r="DA45" s="2">
         <v>37730</v>
       </c>
-      <c r="DB45" s="31">
+      <c r="DB45" s="15">
         <v>3193</v>
       </c>
-      <c r="DC45" s="31">
+      <c r="DC45" s="15">
         <v>4223</v>
       </c>
-      <c r="DD45" s="31">
+      <c r="DD45" s="15">
         <v>2943</v>
       </c>
-      <c r="DE45" s="31">
+      <c r="DE45" s="15">
         <v>29</v>
       </c>
-      <c r="DF45" s="31">
+      <c r="DF45" s="15">
         <v>658</v>
       </c>
-      <c r="DG45" s="31">
+      <c r="DG45" s="15">
         <v>2081</v>
       </c>
-      <c r="DH45" s="31">
+      <c r="DH45" s="15">
         <v>583</v>
       </c>
-      <c r="DI45" s="31">
+      <c r="DI45" s="15">
         <v>844</v>
       </c>
-      <c r="DJ45" s="31">
+      <c r="DJ45" s="15">
         <v>1012</v>
       </c>
-      <c r="DK45" s="31">
+      <c r="DK45" s="15">
         <v>1469</v>
       </c>
-      <c r="DL45" s="31">
+      <c r="DL45" s="15">
         <v>1869</v>
       </c>
-      <c r="DM45" s="31">
+      <c r="DM45" s="15">
         <v>2545</v>
       </c>
-      <c r="DN45" s="31">
+      <c r="DN45" s="15">
         <v>21449</v>
       </c>
+      <c r="DO45" s="15">
+        <v>1408</v>
+      </c>
     </row>
-    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -14682,47 +14773,50 @@
       <c r="DA46" s="2">
         <v>229</v>
       </c>
-      <c r="DB46" s="31">
+      <c r="DB46" s="15">
         <v>29</v>
       </c>
-      <c r="DC46" s="31">
+      <c r="DC46" s="15">
         <v>24</v>
       </c>
-      <c r="DD46" s="31">
+      <c r="DD46" s="15">
         <v>15</v>
       </c>
-      <c r="DE46" s="31">
+      <c r="DE46" s="15">
         <v>1</v>
       </c>
-      <c r="DF46" s="31">
+      <c r="DF46" s="15">
         <v>4</v>
       </c>
-      <c r="DG46" s="31">
+      <c r="DG46" s="15">
         <v>3</v>
       </c>
-      <c r="DH46" s="31">
+      <c r="DH46" s="15">
         <v>1</v>
       </c>
-      <c r="DI46" s="31">
+      <c r="DI46" s="15">
         <v>13</v>
       </c>
-      <c r="DJ46" s="31">
+      <c r="DJ46" s="15">
         <v>11</v>
       </c>
-      <c r="DK46" s="31">
+      <c r="DK46" s="15">
         <v>28</v>
       </c>
-      <c r="DL46" s="31">
+      <c r="DL46" s="15">
         <v>29</v>
       </c>
-      <c r="DM46" s="31">
+      <c r="DM46" s="15">
         <v>29</v>
       </c>
-      <c r="DN46" s="31">
+      <c r="DN46" s="15">
         <v>187</v>
       </c>
+      <c r="DO46" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
@@ -15028,45 +15122,48 @@
       <c r="DA47" s="2">
         <v>171</v>
       </c>
-      <c r="DB47" s="31">
+      <c r="DB47" s="15">
         <v>15</v>
       </c>
-      <c r="DC47" s="31">
+      <c r="DC47" s="15">
         <v>14</v>
       </c>
-      <c r="DD47" s="31">
+      <c r="DD47" s="15">
         <v>8</v>
       </c>
-      <c r="DE47" s="31"/>
-      <c r="DF47" s="31">
+      <c r="DE47" s="15"/>
+      <c r="DF47" s="15">
         <v>1</v>
       </c>
-      <c r="DG47" s="31">
+      <c r="DG47" s="15">
         <v>3</v>
       </c>
-      <c r="DH47" s="31">
+      <c r="DH47" s="15">
         <v>5</v>
       </c>
-      <c r="DI47" s="31">
+      <c r="DI47" s="15">
         <v>9</v>
       </c>
-      <c r="DJ47" s="31">
+      <c r="DJ47" s="15">
         <v>7</v>
       </c>
-      <c r="DK47" s="31">
+      <c r="DK47" s="15">
         <v>38</v>
       </c>
-      <c r="DL47" s="31">
+      <c r="DL47" s="15">
         <v>4</v>
       </c>
-      <c r="DM47" s="31">
+      <c r="DM47" s="15">
         <v>36</v>
       </c>
-      <c r="DN47" s="31">
+      <c r="DN47" s="15">
         <v>140</v>
       </c>
+      <c r="DO47" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
@@ -15382,41 +15479,44 @@
       <c r="DA48" s="2">
         <v>36952</v>
       </c>
-      <c r="DB48" s="31">
+      <c r="DB48" s="15">
         <v>4012</v>
       </c>
-      <c r="DC48" s="31">
+      <c r="DC48" s="15">
         <v>3807</v>
       </c>
-      <c r="DD48" s="31">
+      <c r="DD48" s="15">
         <v>1728</v>
       </c>
-      <c r="DE48" s="31"/>
-      <c r="DF48" s="31"/>
-      <c r="DG48" s="31"/>
-      <c r="DH48" s="31">
+      <c r="DE48" s="15"/>
+      <c r="DF48" s="15"/>
+      <c r="DG48" s="15"/>
+      <c r="DH48" s="15">
         <v>6</v>
       </c>
-      <c r="DI48" s="31">
+      <c r="DI48" s="15">
         <v>482</v>
       </c>
-      <c r="DJ48" s="31">
+      <c r="DJ48" s="15">
         <v>957</v>
       </c>
-      <c r="DK48" s="31">
+      <c r="DK48" s="15">
         <v>1299</v>
       </c>
-      <c r="DL48" s="31">
+      <c r="DL48" s="15">
         <v>1305</v>
       </c>
-      <c r="DM48" s="31">
+      <c r="DM48" s="15">
         <v>2052</v>
       </c>
-      <c r="DN48" s="31">
+      <c r="DN48" s="15">
         <v>15648</v>
       </c>
+      <c r="DO48" s="15">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -15698,47 +15798,50 @@
       <c r="DA49" s="2">
         <v>747</v>
       </c>
-      <c r="DB49" s="31">
+      <c r="DB49" s="15">
         <v>34</v>
       </c>
-      <c r="DC49" s="31">
+      <c r="DC49" s="15">
         <v>69</v>
       </c>
-      <c r="DD49" s="31">
+      <c r="DD49" s="15">
         <v>19</v>
       </c>
-      <c r="DE49" s="31">
+      <c r="DE49" s="15">
         <v>6</v>
       </c>
-      <c r="DF49" s="31">
+      <c r="DF49" s="15">
         <v>2</v>
       </c>
-      <c r="DG49" s="31">
+      <c r="DG49" s="15">
         <v>11</v>
       </c>
-      <c r="DH49" s="31">
+      <c r="DH49" s="15">
         <v>7</v>
       </c>
-      <c r="DI49" s="31">
+      <c r="DI49" s="15">
         <v>10</v>
       </c>
-      <c r="DJ49" s="31">
+      <c r="DJ49" s="15">
         <v>28</v>
       </c>
-      <c r="DK49" s="31">
+      <c r="DK49" s="15">
         <v>3</v>
       </c>
-      <c r="DL49" s="31">
+      <c r="DL49" s="15">
         <v>14</v>
       </c>
-      <c r="DM49" s="31">
+      <c r="DM49" s="15">
         <v>26</v>
       </c>
-      <c r="DN49" s="31">
+      <c r="DN49" s="15">
         <v>229</v>
       </c>
+      <c r="DO49" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
@@ -16038,45 +16141,48 @@
       <c r="DA50" s="2">
         <v>10227</v>
       </c>
-      <c r="DB50" s="31">
+      <c r="DB50" s="15">
         <v>922</v>
       </c>
-      <c r="DC50" s="31">
+      <c r="DC50" s="15">
         <v>821</v>
       </c>
-      <c r="DD50" s="31">
+      <c r="DD50" s="15">
         <v>392</v>
       </c>
-      <c r="DE50" s="31"/>
-      <c r="DF50" s="31">
+      <c r="DE50" s="15"/>
+      <c r="DF50" s="15">
         <v>2</v>
       </c>
-      <c r="DG50" s="31">
+      <c r="DG50" s="15">
         <v>10</v>
       </c>
-      <c r="DH50" s="31">
+      <c r="DH50" s="15">
         <v>8</v>
       </c>
-      <c r="DI50" s="31">
+      <c r="DI50" s="15">
         <v>180</v>
       </c>
-      <c r="DJ50" s="31">
+      <c r="DJ50" s="15">
         <v>136</v>
       </c>
-      <c r="DK50" s="31">
+      <c r="DK50" s="15">
         <v>208</v>
       </c>
-      <c r="DL50" s="31">
+      <c r="DL50" s="15">
         <v>280</v>
       </c>
-      <c r="DM50" s="31">
+      <c r="DM50" s="15">
         <v>320</v>
       </c>
-      <c r="DN50" s="31">
+      <c r="DN50" s="15">
         <v>3279</v>
       </c>
+      <c r="DO50" s="15">
+        <v>107</v>
+      </c>
     </row>
-    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>62</v>
       </c>
@@ -16320,33 +16426,36 @@
       <c r="DA51" s="2">
         <v>59</v>
       </c>
-      <c r="DB51" s="31">
+      <c r="DB51" s="15">
         <v>6</v>
       </c>
-      <c r="DC51" s="31"/>
-      <c r="DD51" s="31"/>
-      <c r="DE51" s="31"/>
-      <c r="DF51" s="31"/>
-      <c r="DG51" s="31"/>
-      <c r="DH51" s="31">
+      <c r="DC51" s="15"/>
+      <c r="DD51" s="15"/>
+      <c r="DE51" s="15"/>
+      <c r="DF51" s="15"/>
+      <c r="DG51" s="15"/>
+      <c r="DH51" s="15">
         <v>1</v>
       </c>
-      <c r="DI51" s="31">
+      <c r="DI51" s="15">
         <v>3</v>
       </c>
-      <c r="DJ51" s="31">
+      <c r="DJ51" s="15">
         <v>4</v>
       </c>
-      <c r="DK51" s="31">
+      <c r="DK51" s="15">
         <v>10</v>
       </c>
-      <c r="DL51" s="31"/>
-      <c r="DM51" s="31"/>
-      <c r="DN51" s="31">
+      <c r="DL51" s="15"/>
+      <c r="DM51" s="15"/>
+      <c r="DN51" s="15">
         <v>24</v>
       </c>
+      <c r="DO51" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
@@ -16646,47 +16755,50 @@
       <c r="DA52" s="2">
         <v>871</v>
       </c>
-      <c r="DB52" s="31">
+      <c r="DB52" s="15">
         <v>57</v>
       </c>
-      <c r="DC52" s="31">
+      <c r="DC52" s="15">
         <v>56</v>
       </c>
-      <c r="DD52" s="31">
+      <c r="DD52" s="15">
         <v>39</v>
       </c>
-      <c r="DE52" s="31">
+      <c r="DE52" s="15">
         <v>3</v>
       </c>
-      <c r="DF52" s="31">
+      <c r="DF52" s="15">
         <v>7</v>
       </c>
-      <c r="DG52" s="31">
+      <c r="DG52" s="15">
         <v>24</v>
       </c>
-      <c r="DH52" s="31">
+      <c r="DH52" s="15">
         <v>14</v>
       </c>
-      <c r="DI52" s="31">
+      <c r="DI52" s="15">
         <v>28</v>
       </c>
-      <c r="DJ52" s="31">
+      <c r="DJ52" s="15">
         <v>42</v>
       </c>
-      <c r="DK52" s="31">
+      <c r="DK52" s="15">
         <v>46</v>
       </c>
-      <c r="DL52" s="31">
+      <c r="DL52" s="15">
         <v>67</v>
       </c>
-      <c r="DM52" s="31">
+      <c r="DM52" s="15">
         <v>60</v>
       </c>
-      <c r="DN52" s="31">
+      <c r="DN52" s="15">
         <v>443</v>
       </c>
+      <c r="DO52" s="15">
+        <v>94</v>
+      </c>
     </row>
-    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>64</v>
       </c>
@@ -17002,47 +17114,50 @@
       <c r="DA53" s="2">
         <v>1515681</v>
       </c>
-      <c r="DB53" s="31">
+      <c r="DB53" s="15">
         <v>196302</v>
       </c>
-      <c r="DC53" s="31">
+      <c r="DC53" s="15">
         <v>196129</v>
       </c>
-      <c r="DD53" s="31">
+      <c r="DD53" s="15">
         <v>94928</v>
       </c>
-      <c r="DE53" s="31">
+      <c r="DE53" s="15">
         <v>773</v>
       </c>
-      <c r="DF53" s="31">
+      <c r="DF53" s="15">
         <v>1827</v>
       </c>
-      <c r="DG53" s="31">
+      <c r="DG53" s="15">
         <v>6978</v>
       </c>
-      <c r="DH53" s="31">
+      <c r="DH53" s="15">
         <v>16395</v>
       </c>
-      <c r="DI53" s="31">
+      <c r="DI53" s="15">
         <v>15869</v>
       </c>
-      <c r="DJ53" s="31">
+      <c r="DJ53" s="15">
         <v>20954</v>
       </c>
-      <c r="DK53" s="31">
+      <c r="DK53" s="15">
         <v>48291</v>
       </c>
-      <c r="DL53" s="31">
+      <c r="DL53" s="15">
         <v>61860</v>
       </c>
-      <c r="DM53" s="31">
+      <c r="DM53" s="15">
         <v>74432</v>
       </c>
-      <c r="DN53" s="31">
+      <c r="DN53" s="15">
         <v>734738</v>
       </c>
+      <c r="DO53" s="15">
+        <v>47976</v>
+      </c>
     </row>
-    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
@@ -17358,47 +17473,50 @@
       <c r="DA54" s="2">
         <v>119477</v>
       </c>
-      <c r="DB54" s="31">
+      <c r="DB54" s="15">
         <v>8042</v>
       </c>
-      <c r="DC54" s="31">
+      <c r="DC54" s="15">
         <v>8619</v>
       </c>
-      <c r="DD54" s="31">
+      <c r="DD54" s="15">
         <v>4819</v>
       </c>
-      <c r="DE54" s="31">
+      <c r="DE54" s="15">
         <v>243</v>
       </c>
-      <c r="DF54" s="31">
+      <c r="DF54" s="15">
         <v>475</v>
       </c>
-      <c r="DG54" s="31">
+      <c r="DG54" s="15">
         <v>965</v>
       </c>
-      <c r="DH54" s="31">
+      <c r="DH54" s="15">
         <v>1702</v>
       </c>
-      <c r="DI54" s="31">
+      <c r="DI54" s="15">
         <v>1585</v>
       </c>
-      <c r="DJ54" s="31">
+      <c r="DJ54" s="15">
         <v>2131</v>
       </c>
-      <c r="DK54" s="31">
+      <c r="DK54" s="15">
         <v>2655</v>
       </c>
-      <c r="DL54" s="31">
+      <c r="DL54" s="15">
         <v>2948</v>
       </c>
-      <c r="DM54" s="31">
+      <c r="DM54" s="15">
         <v>5191</v>
       </c>
-      <c r="DN54" s="31">
+      <c r="DN54" s="15">
         <v>39375</v>
       </c>
+      <c r="DO54" s="15">
+        <v>2792</v>
+      </c>
     </row>
-    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>66</v>
       </c>
@@ -17714,47 +17832,50 @@
       <c r="DA55" s="2">
         <v>122</v>
       </c>
-      <c r="DB55" s="31">
+      <c r="DB55" s="15">
         <v>20</v>
       </c>
-      <c r="DC55" s="31">
+      <c r="DC55" s="15">
         <v>19</v>
       </c>
-      <c r="DD55" s="31">
+      <c r="DD55" s="15">
         <v>6</v>
       </c>
-      <c r="DE55" s="31">
+      <c r="DE55" s="15">
         <v>7</v>
       </c>
-      <c r="DF55" s="31">
+      <c r="DF55" s="15">
         <v>8</v>
       </c>
-      <c r="DG55" s="31">
+      <c r="DG55" s="15">
         <v>14</v>
       </c>
-      <c r="DH55" s="31">
+      <c r="DH55" s="15">
         <v>13</v>
       </c>
-      <c r="DI55" s="31">
+      <c r="DI55" s="15">
         <v>4</v>
       </c>
-      <c r="DJ55" s="31">
+      <c r="DJ55" s="15">
         <v>11</v>
       </c>
-      <c r="DK55" s="31">
+      <c r="DK55" s="15">
         <v>17</v>
       </c>
-      <c r="DL55" s="31">
+      <c r="DL55" s="15">
         <v>33</v>
       </c>
-      <c r="DM55" s="31">
+      <c r="DM55" s="15">
         <v>27</v>
       </c>
-      <c r="DN55" s="31">
+      <c r="DN55" s="15">
         <v>179</v>
       </c>
+      <c r="DO55" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>67</v>
       </c>
@@ -18070,47 +18191,50 @@
       <c r="DA56" s="2">
         <v>1298</v>
       </c>
-      <c r="DB56" s="31">
+      <c r="DB56" s="15">
         <v>63</v>
       </c>
-      <c r="DC56" s="31">
+      <c r="DC56" s="15">
         <v>79</v>
       </c>
-      <c r="DD56" s="31">
+      <c r="DD56" s="15">
         <v>62</v>
       </c>
-      <c r="DE56" s="31">
+      <c r="DE56" s="15">
         <v>3</v>
       </c>
-      <c r="DF56" s="31">
+      <c r="DF56" s="15">
         <v>6</v>
       </c>
-      <c r="DG56" s="31">
+      <c r="DG56" s="15">
         <v>25</v>
       </c>
-      <c r="DH56" s="31">
+      <c r="DH56" s="15">
         <v>27</v>
       </c>
-      <c r="DI56" s="31">
+      <c r="DI56" s="15">
         <v>71</v>
       </c>
-      <c r="DJ56" s="31">
+      <c r="DJ56" s="15">
         <v>105</v>
       </c>
-      <c r="DK56" s="31">
+      <c r="DK56" s="15">
         <v>153</v>
       </c>
-      <c r="DL56" s="31">
+      <c r="DL56" s="15">
         <v>177</v>
       </c>
-      <c r="DM56" s="31">
+      <c r="DM56" s="15">
         <v>221</v>
       </c>
-      <c r="DN56" s="31">
+      <c r="DN56" s="15">
         <v>992</v>
       </c>
+      <c r="DO56" s="15">
+        <v>89</v>
+      </c>
     </row>
-    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>68</v>
       </c>
@@ -18426,47 +18550,50 @@
       <c r="DA57" s="2">
         <v>2068</v>
       </c>
-      <c r="DB57" s="31">
+      <c r="DB57" s="15">
         <v>83</v>
       </c>
-      <c r="DC57" s="31">
+      <c r="DC57" s="15">
         <v>118</v>
       </c>
-      <c r="DD57" s="31">
+      <c r="DD57" s="15">
         <v>51</v>
       </c>
-      <c r="DE57" s="31">
+      <c r="DE57" s="15">
         <v>11</v>
       </c>
-      <c r="DF57" s="31">
+      <c r="DF57" s="15">
         <v>48</v>
       </c>
-      <c r="DG57" s="31">
+      <c r="DG57" s="15">
         <v>80</v>
       </c>
-      <c r="DH57" s="31">
+      <c r="DH57" s="15">
         <v>57</v>
       </c>
-      <c r="DI57" s="31">
+      <c r="DI57" s="15">
         <v>33</v>
       </c>
-      <c r="DJ57" s="31">
+      <c r="DJ57" s="15">
         <v>127</v>
       </c>
-      <c r="DK57" s="31">
+      <c r="DK57" s="15">
         <v>136</v>
       </c>
-      <c r="DL57" s="31">
+      <c r="DL57" s="15">
         <v>156</v>
       </c>
-      <c r="DM57" s="31">
+      <c r="DM57" s="15">
         <v>74</v>
       </c>
-      <c r="DN57" s="31">
+      <c r="DN57" s="15">
         <v>974</v>
       </c>
+      <c r="DO57" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>69</v>
       </c>
@@ -18782,47 +18909,50 @@
       <c r="DA58" s="2">
         <v>52092</v>
       </c>
-      <c r="DB58" s="31">
+      <c r="DB58" s="15">
         <v>3321</v>
       </c>
-      <c r="DC58" s="31">
+      <c r="DC58" s="15">
         <v>3329</v>
       </c>
-      <c r="DD58" s="31">
+      <c r="DD58" s="15">
         <v>2512</v>
       </c>
-      <c r="DE58" s="31">
+      <c r="DE58" s="15">
         <v>165</v>
       </c>
-      <c r="DF58" s="31">
+      <c r="DF58" s="15">
         <v>401</v>
       </c>
-      <c r="DG58" s="31">
+      <c r="DG58" s="15">
         <v>573</v>
       </c>
-      <c r="DH58" s="31">
+      <c r="DH58" s="15">
         <v>1581</v>
       </c>
-      <c r="DI58" s="31">
+      <c r="DI58" s="15">
         <v>1412</v>
       </c>
-      <c r="DJ58" s="31">
+      <c r="DJ58" s="15">
         <v>1667</v>
       </c>
-      <c r="DK58" s="31">
+      <c r="DK58" s="15">
         <v>2107</v>
       </c>
-      <c r="DL58" s="31">
+      <c r="DL58" s="15">
         <v>2087</v>
       </c>
-      <c r="DM58" s="31">
+      <c r="DM58" s="15">
         <v>3477</v>
       </c>
-      <c r="DN58" s="31">
+      <c r="DN58" s="15">
         <v>22632</v>
       </c>
+      <c r="DO58" s="15">
+        <v>1573</v>
+      </c>
     </row>
-    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -19138,47 +19268,50 @@
       <c r="DA59" s="2">
         <v>202001</v>
       </c>
-      <c r="DB59" s="31">
+      <c r="DB59" s="15">
         <v>14648</v>
       </c>
-      <c r="DC59" s="31">
+      <c r="DC59" s="15">
         <v>13132</v>
       </c>
-      <c r="DD59" s="31">
+      <c r="DD59" s="15">
         <v>7671</v>
       </c>
-      <c r="DE59" s="31">
+      <c r="DE59" s="15">
         <v>939</v>
       </c>
-      <c r="DF59" s="31">
+      <c r="DF59" s="15">
         <v>1470</v>
       </c>
-      <c r="DG59" s="31">
+      <c r="DG59" s="15">
         <v>2431</v>
       </c>
-      <c r="DH59" s="31">
+      <c r="DH59" s="15">
         <v>5425</v>
       </c>
-      <c r="DI59" s="31">
+      <c r="DI59" s="15">
         <v>5403</v>
       </c>
-      <c r="DJ59" s="31">
+      <c r="DJ59" s="15">
         <v>6702</v>
       </c>
-      <c r="DK59" s="31">
+      <c r="DK59" s="15">
         <v>7541</v>
       </c>
-      <c r="DL59" s="31">
+      <c r="DL59" s="15">
         <v>8093</v>
       </c>
-      <c r="DM59" s="31">
+      <c r="DM59" s="15">
         <v>14640</v>
       </c>
-      <c r="DN59" s="31">
+      <c r="DN59" s="15">
         <v>88095</v>
       </c>
+      <c r="DO59" s="15">
+        <v>6536</v>
+      </c>
     </row>
-    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
@@ -19494,47 +19627,50 @@
       <c r="DA60" s="2">
         <v>9791</v>
       </c>
-      <c r="DB60" s="31">
+      <c r="DB60" s="15">
         <v>749</v>
       </c>
-      <c r="DC60" s="31">
+      <c r="DC60" s="15">
         <v>842</v>
       </c>
-      <c r="DD60" s="31">
+      <c r="DD60" s="15">
         <v>486</v>
       </c>
-      <c r="DE60" s="31">
+      <c r="DE60" s="15">
         <v>11</v>
       </c>
-      <c r="DF60" s="31">
+      <c r="DF60" s="15">
         <v>13</v>
       </c>
-      <c r="DG60" s="31">
+      <c r="DG60" s="15">
         <v>31</v>
       </c>
-      <c r="DH60" s="31">
+      <c r="DH60" s="15">
         <v>18</v>
       </c>
-      <c r="DI60" s="31">
+      <c r="DI60" s="15">
         <v>41</v>
       </c>
-      <c r="DJ60" s="31">
+      <c r="DJ60" s="15">
         <v>365</v>
       </c>
-      <c r="DK60" s="31">
+      <c r="DK60" s="15">
         <v>376</v>
       </c>
-      <c r="DL60" s="31">
+      <c r="DL60" s="15">
         <v>427</v>
       </c>
-      <c r="DM60" s="31">
+      <c r="DM60" s="15">
         <v>638</v>
       </c>
-      <c r="DN60" s="31">
+      <c r="DN60" s="15">
         <v>3997</v>
       </c>
+      <c r="DO60" s="15">
+        <v>363</v>
+      </c>
     </row>
-    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
@@ -19850,47 +19986,50 @@
       <c r="DA61" s="2">
         <v>2013</v>
       </c>
-      <c r="DB61" s="31">
+      <c r="DB61" s="15">
         <v>212</v>
       </c>
-      <c r="DC61" s="31">
+      <c r="DC61" s="15">
         <v>202</v>
       </c>
-      <c r="DD61" s="31">
+      <c r="DD61" s="15">
         <v>275</v>
       </c>
-      <c r="DE61" s="31">
+      <c r="DE61" s="15">
         <v>91</v>
       </c>
-      <c r="DF61" s="31">
+      <c r="DF61" s="15">
         <v>35</v>
       </c>
-      <c r="DG61" s="31">
+      <c r="DG61" s="15">
         <v>88</v>
       </c>
-      <c r="DH61" s="31">
+      <c r="DH61" s="15">
         <v>156</v>
       </c>
-      <c r="DI61" s="31">
+      <c r="DI61" s="15">
         <v>159</v>
       </c>
-      <c r="DJ61" s="31">
+      <c r="DJ61" s="15">
         <v>148</v>
       </c>
-      <c r="DK61" s="31">
+      <c r="DK61" s="15">
         <v>170</v>
       </c>
-      <c r="DL61" s="31">
+      <c r="DL61" s="15">
         <v>131</v>
       </c>
-      <c r="DM61" s="31">
+      <c r="DM61" s="15">
         <v>144</v>
       </c>
-      <c r="DN61" s="31">
+      <c r="DN61" s="15">
         <v>1811</v>
       </c>
+      <c r="DO61" s="15">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
@@ -20206,47 +20345,50 @@
       <c r="DA62" s="2">
         <v>20362</v>
       </c>
-      <c r="DB62" s="31">
+      <c r="DB62" s="15">
         <v>1393</v>
       </c>
-      <c r="DC62" s="31">
+      <c r="DC62" s="15">
         <v>165</v>
       </c>
-      <c r="DD62" s="31">
+      <c r="DD62" s="15">
         <v>265</v>
       </c>
-      <c r="DE62" s="31">
+      <c r="DE62" s="15">
         <v>101</v>
       </c>
-      <c r="DF62" s="31">
+      <c r="DF62" s="15">
         <v>96</v>
       </c>
-      <c r="DG62" s="31">
+      <c r="DG62" s="15">
         <v>132</v>
       </c>
-      <c r="DH62" s="31">
+      <c r="DH62" s="15">
         <v>145</v>
       </c>
-      <c r="DI62" s="31">
+      <c r="DI62" s="15">
         <v>167</v>
       </c>
-      <c r="DJ62" s="31">
+      <c r="DJ62" s="15">
         <v>171</v>
       </c>
-      <c r="DK62" s="31">
+      <c r="DK62" s="15">
         <v>204</v>
       </c>
-      <c r="DL62" s="31">
+      <c r="DL62" s="15">
         <v>163</v>
       </c>
-      <c r="DM62" s="31">
+      <c r="DM62" s="15">
         <v>171</v>
       </c>
-      <c r="DN62" s="31">
+      <c r="DN62" s="15">
         <v>3173</v>
       </c>
+      <c r="DO62" s="15">
+        <v>140</v>
+      </c>
     </row>
-    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>74</v>
       </c>
@@ -20562,47 +20704,50 @@
       <c r="DA63" s="2">
         <v>7986</v>
       </c>
-      <c r="DB63" s="31">
+      <c r="DB63" s="15">
         <v>466</v>
       </c>
-      <c r="DC63" s="31">
+      <c r="DC63" s="15">
         <v>721</v>
       </c>
-      <c r="DD63" s="31">
+      <c r="DD63" s="15">
         <v>862</v>
       </c>
-      <c r="DE63" s="31">
+      <c r="DE63" s="15">
         <v>277</v>
       </c>
-      <c r="DF63" s="31">
+      <c r="DF63" s="15">
         <v>425</v>
       </c>
-      <c r="DG63" s="31">
+      <c r="DG63" s="15">
         <v>171</v>
       </c>
-      <c r="DH63" s="31">
+      <c r="DH63" s="15">
         <v>183</v>
       </c>
-      <c r="DI63" s="31">
+      <c r="DI63" s="15">
         <v>229</v>
       </c>
-      <c r="DJ63" s="31">
+      <c r="DJ63" s="15">
         <v>1100</v>
       </c>
-      <c r="DK63" s="31">
+      <c r="DK63" s="15">
         <v>599</v>
       </c>
-      <c r="DL63" s="31">
+      <c r="DL63" s="15">
         <v>368</v>
       </c>
-      <c r="DM63" s="31">
+      <c r="DM63" s="15">
         <v>698</v>
       </c>
-      <c r="DN63" s="31">
+      <c r="DN63" s="15">
         <v>6099</v>
       </c>
+      <c r="DO63" s="15">
+        <v>356</v>
+      </c>
     </row>
-    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
@@ -20918,47 +21063,50 @@
       <c r="DA64" s="2">
         <v>13139</v>
       </c>
-      <c r="DB64" s="31">
+      <c r="DB64" s="15">
         <v>864</v>
       </c>
-      <c r="DC64" s="31">
+      <c r="DC64" s="15">
         <v>936</v>
       </c>
-      <c r="DD64" s="31">
+      <c r="DD64" s="15">
         <v>390</v>
       </c>
-      <c r="DE64" s="31">
+      <c r="DE64" s="15">
         <v>34</v>
       </c>
-      <c r="DF64" s="31">
+      <c r="DF64" s="15">
         <v>123</v>
       </c>
-      <c r="DG64" s="31">
+      <c r="DG64" s="15">
         <v>223</v>
       </c>
-      <c r="DH64" s="31">
+      <c r="DH64" s="15">
         <v>421</v>
       </c>
-      <c r="DI64" s="31">
+      <c r="DI64" s="15">
         <v>19</v>
       </c>
-      <c r="DJ64" s="31">
+      <c r="DJ64" s="15">
         <v>362</v>
       </c>
-      <c r="DK64" s="31">
+      <c r="DK64" s="15">
         <v>400</v>
       </c>
-      <c r="DL64" s="31">
+      <c r="DL64" s="15">
         <v>418</v>
       </c>
-      <c r="DM64" s="31">
+      <c r="DM64" s="15">
         <v>812</v>
       </c>
-      <c r="DN64" s="31">
+      <c r="DN64" s="15">
         <v>5002</v>
       </c>
+      <c r="DO64" s="15">
+        <v>361</v>
+      </c>
     </row>
-    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
@@ -21206,33 +21354,36 @@
       <c r="DA65" s="2">
         <v>53</v>
       </c>
-      <c r="DB65" s="31"/>
-      <c r="DC65" s="31">
+      <c r="DB65" s="15"/>
+      <c r="DC65" s="15">
         <v>2</v>
       </c>
-      <c r="DD65" s="31">
+      <c r="DD65" s="15">
         <v>2</v>
       </c>
-      <c r="DE65" s="31"/>
-      <c r="DF65" s="31">
+      <c r="DE65" s="15"/>
+      <c r="DF65" s="15">
         <v>4</v>
       </c>
-      <c r="DG65" s="31"/>
-      <c r="DH65" s="31">
+      <c r="DG65" s="15"/>
+      <c r="DH65" s="15">
         <v>1</v>
       </c>
-      <c r="DI65" s="31"/>
-      <c r="DJ65" s="31"/>
-      <c r="DK65" s="31"/>
-      <c r="DL65" s="31"/>
-      <c r="DM65" s="31">
+      <c r="DI65" s="15"/>
+      <c r="DJ65" s="15"/>
+      <c r="DK65" s="15"/>
+      <c r="DL65" s="15"/>
+      <c r="DM65" s="15">
         <v>5</v>
       </c>
-      <c r="DN65" s="31">
+      <c r="DN65" s="15">
         <v>14</v>
       </c>
+      <c r="DO65" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
@@ -21526,33 +21677,36 @@
       <c r="DA66" s="2">
         <v>2835</v>
       </c>
-      <c r="DB66" s="31">
+      <c r="DB66" s="15">
         <v>234</v>
       </c>
-      <c r="DC66" s="31">
+      <c r="DC66" s="15">
         <v>185</v>
       </c>
-      <c r="DD66" s="31">
+      <c r="DD66" s="15">
         <v>104</v>
       </c>
-      <c r="DE66" s="31"/>
-      <c r="DF66" s="31"/>
-      <c r="DG66" s="31"/>
-      <c r="DH66" s="31"/>
-      <c r="DI66" s="31"/>
-      <c r="DJ66" s="31"/>
-      <c r="DK66" s="31"/>
-      <c r="DL66" s="31">
+      <c r="DE66" s="15"/>
+      <c r="DF66" s="15"/>
+      <c r="DG66" s="15"/>
+      <c r="DH66" s="15"/>
+      <c r="DI66" s="15"/>
+      <c r="DJ66" s="15"/>
+      <c r="DK66" s="15"/>
+      <c r="DL66" s="15">
         <v>165</v>
       </c>
-      <c r="DM66" s="31">
+      <c r="DM66" s="15">
         <v>354</v>
       </c>
-      <c r="DN66" s="31">
+      <c r="DN66" s="15">
         <v>1042</v>
       </c>
+      <c r="DO66" s="15">
+        <v>117</v>
+      </c>
     </row>
-    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
@@ -21868,47 +22022,50 @@
       <c r="DA67" s="2">
         <v>9454</v>
       </c>
-      <c r="DB67" s="31">
+      <c r="DB67" s="15">
         <v>848</v>
       </c>
-      <c r="DC67" s="31">
+      <c r="DC67" s="15">
         <v>890</v>
       </c>
-      <c r="DD67" s="31">
+      <c r="DD67" s="15">
         <v>569</v>
       </c>
-      <c r="DE67" s="31">
+      <c r="DE67" s="15">
         <v>39</v>
       </c>
-      <c r="DF67" s="31">
+      <c r="DF67" s="15">
         <v>375</v>
       </c>
-      <c r="DG67" s="31">
+      <c r="DG67" s="15">
         <v>124</v>
       </c>
-      <c r="DH67" s="31">
+      <c r="DH67" s="15">
         <v>11</v>
       </c>
-      <c r="DI67" s="31">
+      <c r="DI67" s="15">
         <v>9</v>
       </c>
-      <c r="DJ67" s="31">
+      <c r="DJ67" s="15">
         <v>10</v>
       </c>
-      <c r="DK67" s="31">
+      <c r="DK67" s="15">
         <v>202</v>
       </c>
-      <c r="DL67" s="31">
+      <c r="DL67" s="15">
         <v>351</v>
       </c>
-      <c r="DM67" s="31">
+      <c r="DM67" s="15">
         <v>469</v>
       </c>
-      <c r="DN67" s="31">
+      <c r="DN67" s="15">
         <v>3897</v>
       </c>
+      <c r="DO67" s="15">
+        <v>205</v>
+      </c>
     </row>
-    <row r="68" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -22218,41 +22375,44 @@
       <c r="DA68" s="2">
         <v>113</v>
       </c>
-      <c r="DB68" s="31"/>
-      <c r="DC68" s="31">
+      <c r="DB68" s="15"/>
+      <c r="DC68" s="15">
         <v>5</v>
       </c>
-      <c r="DD68" s="31"/>
-      <c r="DE68" s="31"/>
-      <c r="DF68" s="31">
+      <c r="DD68" s="15"/>
+      <c r="DE68" s="15"/>
+      <c r="DF68" s="15">
         <v>1</v>
       </c>
-      <c r="DG68" s="31">
+      <c r="DG68" s="15">
         <v>83</v>
       </c>
-      <c r="DH68" s="31">
+      <c r="DH68" s="15">
         <v>48</v>
       </c>
-      <c r="DI68" s="31">
+      <c r="DI68" s="15">
         <v>72</v>
       </c>
-      <c r="DJ68" s="31">
+      <c r="DJ68" s="15">
         <v>40</v>
       </c>
-      <c r="DK68" s="31">
+      <c r="DK68" s="15">
         <v>44</v>
       </c>
-      <c r="DL68" s="31">
+      <c r="DL68" s="15">
         <v>33</v>
       </c>
-      <c r="DM68" s="31">
+      <c r="DM68" s="15">
         <v>28</v>
       </c>
-      <c r="DN68" s="31">
+      <c r="DN68" s="15">
         <v>354</v>
       </c>
+      <c r="DO68" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="69" spans="1:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
@@ -22568,47 +22728,50 @@
       <c r="DA69" s="2">
         <v>41153</v>
       </c>
-      <c r="DB69" s="31">
+      <c r="DB69" s="15">
         <v>2753</v>
       </c>
-      <c r="DC69" s="31">
+      <c r="DC69" s="15">
         <v>2159</v>
       </c>
-      <c r="DD69" s="31">
+      <c r="DD69" s="15">
         <v>1947</v>
       </c>
-      <c r="DE69" s="31">
+      <c r="DE69" s="15">
         <v>106</v>
       </c>
-      <c r="DF69" s="31">
+      <c r="DF69" s="15">
         <v>16</v>
       </c>
-      <c r="DG69" s="31">
+      <c r="DG69" s="15">
         <v>301</v>
       </c>
-      <c r="DH69" s="31">
+      <c r="DH69" s="15">
         <v>1342</v>
       </c>
-      <c r="DI69" s="31">
+      <c r="DI69" s="15">
         <v>1251</v>
       </c>
-      <c r="DJ69" s="31">
+      <c r="DJ69" s="15">
         <v>1470</v>
       </c>
-      <c r="DK69" s="31">
+      <c r="DK69" s="15">
         <v>1930</v>
       </c>
-      <c r="DL69" s="31">
+      <c r="DL69" s="15">
         <v>1671</v>
       </c>
-      <c r="DM69" s="31">
+      <c r="DM69" s="15">
         <v>3731</v>
       </c>
-      <c r="DN69" s="31">
+      <c r="DN69" s="15">
         <v>18677</v>
       </c>
+      <c r="DO69" s="15">
+        <v>1285</v>
+      </c>
     </row>
-    <row r="70" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>81</v>
       </c>
@@ -22924,47 +23087,50 @@
       <c r="DA70" s="2">
         <v>96842</v>
       </c>
-      <c r="DB70" s="31">
+      <c r="DB70" s="15">
         <v>19943</v>
       </c>
-      <c r="DC70" s="31">
+      <c r="DC70" s="15">
         <v>19094</v>
       </c>
-      <c r="DD70" s="31">
+      <c r="DD70" s="15">
         <v>7175</v>
       </c>
-      <c r="DE70" s="31">
+      <c r="DE70" s="15">
         <v>29</v>
       </c>
-      <c r="DF70" s="31">
+      <c r="DF70" s="15">
         <v>5</v>
       </c>
-      <c r="DG70" s="31">
+      <c r="DG70" s="15">
         <v>257</v>
       </c>
-      <c r="DH70" s="31">
+      <c r="DH70" s="15">
         <v>360</v>
       </c>
-      <c r="DI70" s="31">
+      <c r="DI70" s="15">
         <v>356</v>
       </c>
-      <c r="DJ70" s="31">
+      <c r="DJ70" s="15">
         <v>445</v>
       </c>
-      <c r="DK70" s="31">
+      <c r="DK70" s="15">
         <v>1032</v>
       </c>
-      <c r="DL70" s="31">
+      <c r="DL70" s="15">
         <v>1684</v>
       </c>
-      <c r="DM70" s="31">
+      <c r="DM70" s="15">
         <v>3201</v>
       </c>
-      <c r="DN70" s="31">
+      <c r="DN70" s="15">
         <v>53581</v>
       </c>
+      <c r="DO70" s="15">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="71" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
@@ -23318,15 +23484,13 @@
       </c>
       <c r="DN71" s="10">
         <v>7938902</v>
+      </c>
+      <c r="DO71" s="10">
+        <v>656684</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="CO6:CY6"/>
-    <mergeCell ref="DA6:DA7"/>
-    <mergeCell ref="DN6:DN7"/>
-    <mergeCell ref="DB6:DM6"/>
-    <mergeCell ref="N6:N7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="CB6:CM6"/>
     <mergeCell ref="CN6:CN7"/>
@@ -23341,6 +23505,11 @@
     <mergeCell ref="BA6:BA7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="CO6:CY6"/>
+    <mergeCell ref="DA6:DA7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="DB6:DM6"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A71">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>Total 2012</t>
   </si>
@@ -293,7 +293,10 @@
     <t>Total 2020</t>
   </si>
   <si>
-    <t>Enero de 2012 a Enero de 2021</t>
+    <t>Total 2021</t>
+  </si>
+  <si>
+    <t>Enero de 2012 a Febrero de 2021</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -571,6 +574,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,12 +598,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -932,272 +939,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO71"/>
+  <dimension ref="A1:EA71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="84" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="89" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.28515625" customWidth="1"/>
-    <col min="91" max="91" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="96" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="13.140625" customWidth="1"/>
-    <col min="105" max="105" width="18.28515625" customWidth="1"/>
-    <col min="106" max="106" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="15" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15" bestFit="1" customWidth="1"/>
+    <col min="81" max="84" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="15" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="15" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2013</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>2014</v>
+      </c>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="19">
+        <v>2015</v>
+      </c>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="19">
+        <v>2016</v>
+      </c>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO6" s="19">
+        <v>2017</v>
+      </c>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="19">
+        <v>2018</v>
+      </c>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO6" s="19">
+        <v>2019</v>
+      </c>
+      <c r="CP6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="20"/>
+      <c r="CV6" s="20"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
+      <c r="CZ6" s="12"/>
+      <c r="DA6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB6" s="19">
+        <v>2020</v>
+      </c>
+      <c r="DC6" s="20"/>
+      <c r="DD6" s="20"/>
+      <c r="DE6" s="20"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="20"/>
+      <c r="DH6" s="20"/>
+      <c r="DI6" s="20"/>
+      <c r="DJ6" s="20"/>
+      <c r="DK6" s="20"/>
+      <c r="DL6" s="20"/>
+      <c r="DM6" s="20"/>
+      <c r="DN6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="DO6" s="19">
+        <v>2021</v>
+      </c>
+      <c r="DP6" s="20"/>
+      <c r="DQ6" s="20"/>
+      <c r="DR6" s="20"/>
+      <c r="DS6" s="20"/>
+      <c r="DT6" s="20"/>
+      <c r="DU6" s="20"/>
+      <c r="DV6" s="20"/>
+      <c r="DW6" s="20"/>
+      <c r="DX6" s="20"/>
+      <c r="DY6" s="20"/>
+      <c r="DZ6" s="20"/>
+      <c r="EA6" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="16">
-        <v>2012</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>2013</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>2014</v>
-      </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="16">
-        <v>2015</v>
-      </c>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB6" s="16">
-        <v>2016</v>
-      </c>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="17"/>
-      <c r="BK6" s="17"/>
-      <c r="BL6" s="17"/>
-      <c r="BM6" s="17"/>
-      <c r="BN6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO6" s="16">
-        <v>2017</v>
-      </c>
-      <c r="BP6" s="17"/>
-      <c r="BQ6" s="17"/>
-      <c r="BR6" s="17"/>
-      <c r="BS6" s="17"/>
-      <c r="BT6" s="17"/>
-      <c r="BU6" s="17"/>
-      <c r="BV6" s="17"/>
-      <c r="BW6" s="17"/>
-      <c r="BX6" s="17"/>
-      <c r="BY6" s="17"/>
-      <c r="BZ6" s="17"/>
-      <c r="CA6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB6" s="16">
-        <v>2018</v>
-      </c>
-      <c r="CC6" s="17"/>
-      <c r="CD6" s="17"/>
-      <c r="CE6" s="17"/>
-      <c r="CF6" s="17"/>
-      <c r="CG6" s="17"/>
-      <c r="CH6" s="17"/>
-      <c r="CI6" s="17"/>
-      <c r="CJ6" s="17"/>
-      <c r="CK6" s="17"/>
-      <c r="CL6" s="17"/>
-      <c r="CM6" s="17"/>
-      <c r="CN6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO6" s="16">
-        <v>2019</v>
-      </c>
-      <c r="CP6" s="17"/>
-      <c r="CQ6" s="17"/>
-      <c r="CR6" s="17"/>
-      <c r="CS6" s="17"/>
-      <c r="CT6" s="17"/>
-      <c r="CU6" s="17"/>
-      <c r="CV6" s="17"/>
-      <c r="CW6" s="17"/>
-      <c r="CX6" s="17"/>
-      <c r="CY6" s="17"/>
-      <c r="CZ6" s="12"/>
-      <c r="DA6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="DB6" s="16">
-        <v>2020</v>
-      </c>
-      <c r="DC6" s="17"/>
-      <c r="DD6" s="17"/>
-      <c r="DE6" s="17"/>
-      <c r="DF6" s="17"/>
-      <c r="DG6" s="17"/>
-      <c r="DH6" s="17"/>
-      <c r="DI6" s="17"/>
-      <c r="DJ6" s="17"/>
-      <c r="DK6" s="17"/>
-      <c r="DL6" s="17"/>
-      <c r="DM6" s="17"/>
-      <c r="DN6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="DO6" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1270,7 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1307,7 @@
       <c r="Z7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="20"/>
+      <c r="AA7" s="23"/>
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1344,7 @@
       <c r="AM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="20"/>
+      <c r="AN7" s="23"/>
       <c r="AO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1381,7 @@
       <c r="AZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA7" s="20"/>
+      <c r="BA7" s="23"/>
       <c r="BB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1418,7 @@
       <c r="BM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN7" s="20"/>
+      <c r="BN7" s="23"/>
       <c r="BO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1455,7 @@
       <c r="BZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA7" s="20"/>
+      <c r="CA7" s="23"/>
       <c r="CB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1492,7 @@
       <c r="CM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN7" s="18"/>
+      <c r="CN7" s="21"/>
       <c r="CO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1529,7 @@
       <c r="CZ7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA7" s="18"/>
+      <c r="DA7" s="21"/>
       <c r="DB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1530,12 +1566,46 @@
       <c r="DM7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN7" s="20"/>
+      <c r="DN7" s="21"/>
       <c r="DO7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="DP7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="DQ7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DS7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="DT7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="DU7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DV7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="DX7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="DY7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="DZ7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="EA7" s="23"/>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1886,11 +1956,24 @@
       <c r="DN8" s="15">
         <v>10986</v>
       </c>
-      <c r="DO8" s="15">
+      <c r="DO8" s="6">
         <v>617</v>
       </c>
+      <c r="DP8" s="1">
+        <v>472</v>
+      </c>
+      <c r="DQ8" s="24"/>
+      <c r="DR8" s="24"/>
+      <c r="DS8" s="24"/>
+      <c r="DT8" s="24"/>
+      <c r="DU8" s="24"/>
+      <c r="DV8" s="24"/>
+      <c r="DW8" s="24"/>
+      <c r="DX8" s="24"/>
+      <c r="DY8" s="24"/>
+      <c r="DZ8" s="24"/>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2245,11 +2328,24 @@
       <c r="DN9" s="15">
         <v>32237</v>
       </c>
-      <c r="DO9" s="15">
+      <c r="DO9" s="6">
         <v>2907</v>
       </c>
+      <c r="DP9" s="1">
+        <v>1639</v>
+      </c>
+      <c r="DQ9" s="24"/>
+      <c r="DR9" s="24"/>
+      <c r="DS9" s="24"/>
+      <c r="DT9" s="24"/>
+      <c r="DU9" s="24"/>
+      <c r="DV9" s="24"/>
+      <c r="DW9" s="24"/>
+      <c r="DX9" s="24"/>
+      <c r="DY9" s="24"/>
+      <c r="DZ9" s="24"/>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2604,11 +2700,24 @@
       <c r="DN10" s="15">
         <v>12921</v>
       </c>
-      <c r="DO10" s="15">
+      <c r="DO10" s="6">
         <v>1578</v>
       </c>
+      <c r="DP10" s="1">
+        <v>1570</v>
+      </c>
+      <c r="DQ10" s="24"/>
+      <c r="DR10" s="24"/>
+      <c r="DS10" s="24"/>
+      <c r="DT10" s="24"/>
+      <c r="DU10" s="24"/>
+      <c r="DV10" s="24"/>
+      <c r="DW10" s="24"/>
+      <c r="DX10" s="24"/>
+      <c r="DY10" s="24"/>
+      <c r="DZ10" s="24"/>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2945,11 +3054,24 @@
       <c r="DN11" s="15">
         <v>56</v>
       </c>
-      <c r="DO11" s="15">
+      <c r="DO11" s="6">
         <v>3</v>
       </c>
+      <c r="DP11" s="1">
+        <v>6</v>
+      </c>
+      <c r="DQ11" s="24"/>
+      <c r="DR11" s="24"/>
+      <c r="DS11" s="24"/>
+      <c r="DT11" s="24"/>
+      <c r="DU11" s="24"/>
+      <c r="DV11" s="24"/>
+      <c r="DW11" s="24"/>
+      <c r="DX11" s="24"/>
+      <c r="DY11" s="24"/>
+      <c r="DZ11" s="24"/>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -3304,11 +3426,24 @@
       <c r="DN12" s="15">
         <v>3238106</v>
       </c>
-      <c r="DO12" s="15">
+      <c r="DO12" s="6">
         <v>305516</v>
       </c>
+      <c r="DP12" s="1">
+        <v>274097</v>
+      </c>
+      <c r="DQ12" s="24"/>
+      <c r="DR12" s="24"/>
+      <c r="DS12" s="24"/>
+      <c r="DT12" s="24"/>
+      <c r="DU12" s="24"/>
+      <c r="DV12" s="24"/>
+      <c r="DW12" s="24"/>
+      <c r="DX12" s="24"/>
+      <c r="DY12" s="24"/>
+      <c r="DZ12" s="24"/>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -3565,11 +3700,22 @@
       <c r="DN13" s="15">
         <v>31</v>
       </c>
-      <c r="DO13" s="15">
+      <c r="DO13" s="6">
         <v>9</v>
       </c>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="24"/>
+      <c r="DR13" s="24"/>
+      <c r="DS13" s="24"/>
+      <c r="DT13" s="24"/>
+      <c r="DU13" s="24"/>
+      <c r="DV13" s="24"/>
+      <c r="DW13" s="24"/>
+      <c r="DX13" s="24"/>
+      <c r="DY13" s="24"/>
+      <c r="DZ13" s="24"/>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3742,9 +3888,20 @@
       <c r="DN14" s="15">
         <v>1178</v>
       </c>
-      <c r="DO14" s="15"/>
+      <c r="DO14" s="6"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="24"/>
+      <c r="DR14" s="24"/>
+      <c r="DS14" s="24"/>
+      <c r="DT14" s="24"/>
+      <c r="DU14" s="24"/>
+      <c r="DV14" s="24"/>
+      <c r="DW14" s="24"/>
+      <c r="DX14" s="24"/>
+      <c r="DY14" s="24"/>
+      <c r="DZ14" s="24"/>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -4099,11 +4256,24 @@
       <c r="DN15" s="15">
         <v>15336</v>
       </c>
-      <c r="DO15" s="15">
+      <c r="DO15" s="6">
         <v>1424</v>
       </c>
+      <c r="DP15" s="1">
+        <v>960</v>
+      </c>
+      <c r="DQ15" s="24"/>
+      <c r="DR15" s="24"/>
+      <c r="DS15" s="24"/>
+      <c r="DT15" s="24"/>
+      <c r="DU15" s="24"/>
+      <c r="DV15" s="24"/>
+      <c r="DW15" s="24"/>
+      <c r="DX15" s="24"/>
+      <c r="DY15" s="24"/>
+      <c r="DZ15" s="24"/>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -4430,11 +4600,22 @@
       <c r="DN16" s="15">
         <v>49</v>
       </c>
-      <c r="DO16" s="15">
+      <c r="DO16" s="6">
         <v>14</v>
       </c>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="24"/>
+      <c r="DR16" s="24"/>
+      <c r="DS16" s="24"/>
+      <c r="DT16" s="24"/>
+      <c r="DU16" s="24"/>
+      <c r="DV16" s="24"/>
+      <c r="DW16" s="24"/>
+      <c r="DX16" s="24"/>
+      <c r="DY16" s="24"/>
+      <c r="DZ16" s="24"/>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -4789,11 +4970,24 @@
       <c r="DN17" s="15">
         <v>1634322</v>
       </c>
-      <c r="DO17" s="15">
+      <c r="DO17" s="6">
         <v>124134</v>
       </c>
+      <c r="DP17" s="1">
+        <v>89099</v>
+      </c>
+      <c r="DQ17" s="24"/>
+      <c r="DR17" s="24"/>
+      <c r="DS17" s="24"/>
+      <c r="DT17" s="24"/>
+      <c r="DU17" s="24"/>
+      <c r="DV17" s="24"/>
+      <c r="DW17" s="24"/>
+      <c r="DX17" s="24"/>
+      <c r="DY17" s="24"/>
+      <c r="DZ17" s="24"/>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -5126,11 +5320,24 @@
       <c r="DN18" s="15">
         <v>462</v>
       </c>
-      <c r="DO18" s="15">
+      <c r="DO18" s="6">
         <v>51</v>
       </c>
+      <c r="DP18" s="1">
+        <v>53</v>
+      </c>
+      <c r="DQ18" s="24"/>
+      <c r="DR18" s="24"/>
+      <c r="DS18" s="24"/>
+      <c r="DT18" s="24"/>
+      <c r="DU18" s="24"/>
+      <c r="DV18" s="24"/>
+      <c r="DW18" s="24"/>
+      <c r="DX18" s="24"/>
+      <c r="DY18" s="24"/>
+      <c r="DZ18" s="24"/>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -5485,11 +5692,24 @@
       <c r="DN19" s="15">
         <v>287</v>
       </c>
-      <c r="DO19" s="15">
+      <c r="DO19" s="6">
         <v>29</v>
       </c>
+      <c r="DP19" s="1">
+        <v>29</v>
+      </c>
+      <c r="DQ19" s="24"/>
+      <c r="DR19" s="24"/>
+      <c r="DS19" s="24"/>
+      <c r="DT19" s="24"/>
+      <c r="DU19" s="24"/>
+      <c r="DV19" s="24"/>
+      <c r="DW19" s="24"/>
+      <c r="DX19" s="24"/>
+      <c r="DY19" s="24"/>
+      <c r="DZ19" s="24"/>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -5842,11 +6062,24 @@
       <c r="DN20" s="15">
         <v>748</v>
       </c>
-      <c r="DO20" s="15">
+      <c r="DO20" s="6">
         <v>95</v>
       </c>
+      <c r="DP20" s="1">
+        <v>151</v>
+      </c>
+      <c r="DQ20" s="24"/>
+      <c r="DR20" s="24"/>
+      <c r="DS20" s="24"/>
+      <c r="DT20" s="24"/>
+      <c r="DU20" s="24"/>
+      <c r="DV20" s="24"/>
+      <c r="DW20" s="24"/>
+      <c r="DX20" s="24"/>
+      <c r="DY20" s="24"/>
+      <c r="DZ20" s="24"/>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -6201,11 +6434,24 @@
       <c r="DN21" s="15">
         <v>129</v>
       </c>
-      <c r="DO21" s="15">
+      <c r="DO21" s="6">
         <v>9</v>
       </c>
+      <c r="DP21" s="1">
+        <v>9</v>
+      </c>
+      <c r="DQ21" s="24"/>
+      <c r="DR21" s="24"/>
+      <c r="DS21" s="24"/>
+      <c r="DT21" s="24"/>
+      <c r="DU21" s="24"/>
+      <c r="DV21" s="24"/>
+      <c r="DW21" s="24"/>
+      <c r="DX21" s="24"/>
+      <c r="DY21" s="24"/>
+      <c r="DZ21" s="24"/>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -6560,11 +6806,24 @@
       <c r="DN22" s="15">
         <v>99313</v>
       </c>
-      <c r="DO22" s="15">
+      <c r="DO22" s="6">
         <v>7281</v>
       </c>
+      <c r="DP22" s="1">
+        <v>8153</v>
+      </c>
+      <c r="DQ22" s="24"/>
+      <c r="DR22" s="24"/>
+      <c r="DS22" s="24"/>
+      <c r="DT22" s="24"/>
+      <c r="DU22" s="24"/>
+      <c r="DV22" s="24"/>
+      <c r="DW22" s="24"/>
+      <c r="DX22" s="24"/>
+      <c r="DY22" s="24"/>
+      <c r="DZ22" s="24"/>
     </row>
-    <row r="23" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -6885,11 +7144,24 @@
       <c r="DN23" s="15">
         <v>94</v>
       </c>
-      <c r="DO23" s="15">
+      <c r="DO23" s="6">
         <v>18</v>
       </c>
+      <c r="DP23" s="1">
+        <v>6</v>
+      </c>
+      <c r="DQ23" s="24"/>
+      <c r="DR23" s="24"/>
+      <c r="DS23" s="24"/>
+      <c r="DT23" s="24"/>
+      <c r="DU23" s="24"/>
+      <c r="DV23" s="24"/>
+      <c r="DW23" s="24"/>
+      <c r="DX23" s="24"/>
+      <c r="DY23" s="24"/>
+      <c r="DZ23" s="24"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -7224,11 +7496,24 @@
       <c r="DN24" s="15">
         <v>916</v>
       </c>
-      <c r="DO24" s="15">
+      <c r="DO24" s="6">
         <v>123</v>
       </c>
+      <c r="DP24" s="1">
+        <v>90</v>
+      </c>
+      <c r="DQ24" s="24"/>
+      <c r="DR24" s="24"/>
+      <c r="DS24" s="24"/>
+      <c r="DT24" s="24"/>
+      <c r="DU24" s="24"/>
+      <c r="DV24" s="24"/>
+      <c r="DW24" s="24"/>
+      <c r="DX24" s="24"/>
+      <c r="DY24" s="24"/>
+      <c r="DZ24" s="24"/>
     </row>
-    <row r="25" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -7583,11 +7868,24 @@
       <c r="DN25" s="15">
         <v>1647</v>
       </c>
-      <c r="DO25" s="15">
+      <c r="DO25" s="6">
         <v>177</v>
       </c>
+      <c r="DP25" s="1">
+        <v>150</v>
+      </c>
+      <c r="DQ25" s="24"/>
+      <c r="DR25" s="24"/>
+      <c r="DS25" s="24"/>
+      <c r="DT25" s="24"/>
+      <c r="DU25" s="24"/>
+      <c r="DV25" s="24"/>
+      <c r="DW25" s="24"/>
+      <c r="DX25" s="24"/>
+      <c r="DY25" s="24"/>
+      <c r="DZ25" s="24"/>
     </row>
-    <row r="26" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -7942,11 +8240,24 @@
       <c r="DN26" s="15">
         <v>13719</v>
       </c>
-      <c r="DO26" s="15">
+      <c r="DO26" s="6">
         <v>1008</v>
       </c>
+      <c r="DP26" s="1">
+        <v>694</v>
+      </c>
+      <c r="DQ26" s="24"/>
+      <c r="DR26" s="24"/>
+      <c r="DS26" s="24"/>
+      <c r="DT26" s="24"/>
+      <c r="DU26" s="24"/>
+      <c r="DV26" s="24"/>
+      <c r="DW26" s="24"/>
+      <c r="DX26" s="24"/>
+      <c r="DY26" s="24"/>
+      <c r="DZ26" s="24"/>
     </row>
-    <row r="27" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -8261,11 +8572,24 @@
       <c r="DN27" s="15">
         <v>594</v>
       </c>
-      <c r="DO27" s="15">
+      <c r="DO27" s="6">
         <v>107</v>
       </c>
+      <c r="DP27" s="1">
+        <v>72</v>
+      </c>
+      <c r="DQ27" s="24"/>
+      <c r="DR27" s="24"/>
+      <c r="DS27" s="24"/>
+      <c r="DT27" s="24"/>
+      <c r="DU27" s="24"/>
+      <c r="DV27" s="24"/>
+      <c r="DW27" s="24"/>
+      <c r="DX27" s="24"/>
+      <c r="DY27" s="24"/>
+      <c r="DZ27" s="24"/>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -8620,11 +8944,24 @@
       <c r="DN28" s="15">
         <v>620329</v>
       </c>
-      <c r="DO28" s="15">
+      <c r="DO28" s="6">
         <v>48323</v>
       </c>
+      <c r="DP28" s="1">
+        <v>30370</v>
+      </c>
+      <c r="DQ28" s="24"/>
+      <c r="DR28" s="24"/>
+      <c r="DS28" s="24"/>
+      <c r="DT28" s="24"/>
+      <c r="DU28" s="24"/>
+      <c r="DV28" s="24"/>
+      <c r="DW28" s="24"/>
+      <c r="DX28" s="24"/>
+      <c r="DY28" s="24"/>
+      <c r="DZ28" s="24"/>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -8979,11 +9316,24 @@
       <c r="DN29" s="15">
         <v>762</v>
       </c>
-      <c r="DO29" s="15">
+      <c r="DO29" s="6">
         <v>60</v>
       </c>
+      <c r="DP29" s="1">
+        <v>36</v>
+      </c>
+      <c r="DQ29" s="24"/>
+      <c r="DR29" s="24"/>
+      <c r="DS29" s="24"/>
+      <c r="DT29" s="24"/>
+      <c r="DU29" s="24"/>
+      <c r="DV29" s="24"/>
+      <c r="DW29" s="24"/>
+      <c r="DX29" s="24"/>
+      <c r="DY29" s="24"/>
+      <c r="DZ29" s="24"/>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -9338,11 +9688,24 @@
       <c r="DN30" s="15">
         <v>8566</v>
       </c>
-      <c r="DO30" s="15">
+      <c r="DO30" s="6">
         <v>1308</v>
       </c>
+      <c r="DP30" s="1">
+        <v>609</v>
+      </c>
+      <c r="DQ30" s="24"/>
+      <c r="DR30" s="24"/>
+      <c r="DS30" s="24"/>
+      <c r="DT30" s="24"/>
+      <c r="DU30" s="24"/>
+      <c r="DV30" s="24"/>
+      <c r="DW30" s="24"/>
+      <c r="DX30" s="24"/>
+      <c r="DY30" s="24"/>
+      <c r="DZ30" s="24"/>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -9693,11 +10056,24 @@
       <c r="DN31" s="15">
         <v>34474</v>
       </c>
-      <c r="DO31" s="15">
+      <c r="DO31" s="6">
         <v>906</v>
       </c>
+      <c r="DP31" s="1">
+        <v>388</v>
+      </c>
+      <c r="DQ31" s="24"/>
+      <c r="DR31" s="24"/>
+      <c r="DS31" s="24"/>
+      <c r="DT31" s="24"/>
+      <c r="DU31" s="24"/>
+      <c r="DV31" s="24"/>
+      <c r="DW31" s="24"/>
+      <c r="DX31" s="24"/>
+      <c r="DY31" s="24"/>
+      <c r="DZ31" s="24"/>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -10052,11 +10428,24 @@
       <c r="DN32" s="15">
         <v>1521</v>
       </c>
-      <c r="DO32" s="15">
+      <c r="DO32" s="6">
         <v>488</v>
       </c>
+      <c r="DP32" s="1">
+        <v>424</v>
+      </c>
+      <c r="DQ32" s="24"/>
+      <c r="DR32" s="24"/>
+      <c r="DS32" s="24"/>
+      <c r="DT32" s="24"/>
+      <c r="DU32" s="24"/>
+      <c r="DV32" s="24"/>
+      <c r="DW32" s="24"/>
+      <c r="DX32" s="24"/>
+      <c r="DY32" s="24"/>
+      <c r="DZ32" s="24"/>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -10411,11 +10800,24 @@
       <c r="DN33" s="15">
         <v>18008</v>
       </c>
-      <c r="DO33" s="15">
+      <c r="DO33" s="6">
         <v>1026</v>
       </c>
+      <c r="DP33" s="1">
+        <v>1193</v>
+      </c>
+      <c r="DQ33" s="24"/>
+      <c r="DR33" s="24"/>
+      <c r="DS33" s="24"/>
+      <c r="DT33" s="24"/>
+      <c r="DU33" s="24"/>
+      <c r="DV33" s="24"/>
+      <c r="DW33" s="24"/>
+      <c r="DX33" s="24"/>
+      <c r="DY33" s="24"/>
+      <c r="DZ33" s="24"/>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
@@ -10770,11 +11172,24 @@
       <c r="DN34" s="15">
         <v>900621</v>
       </c>
-      <c r="DO34" s="15">
+      <c r="DO34" s="6">
         <v>72204</v>
       </c>
+      <c r="DP34" s="1">
+        <v>67287</v>
+      </c>
+      <c r="DQ34" s="24"/>
+      <c r="DR34" s="24"/>
+      <c r="DS34" s="24"/>
+      <c r="DT34" s="24"/>
+      <c r="DU34" s="24"/>
+      <c r="DV34" s="24"/>
+      <c r="DW34" s="24"/>
+      <c r="DX34" s="24"/>
+      <c r="DY34" s="24"/>
+      <c r="DZ34" s="24"/>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
@@ -11063,11 +11478,24 @@
       <c r="DN35" s="15">
         <v>98</v>
       </c>
-      <c r="DO35" s="15">
+      <c r="DO35" s="6">
         <v>17</v>
       </c>
+      <c r="DP35" s="1">
+        <v>19</v>
+      </c>
+      <c r="DQ35" s="24"/>
+      <c r="DR35" s="24"/>
+      <c r="DS35" s="24"/>
+      <c r="DT35" s="24"/>
+      <c r="DU35" s="24"/>
+      <c r="DV35" s="24"/>
+      <c r="DW35" s="24"/>
+      <c r="DX35" s="24"/>
+      <c r="DY35" s="24"/>
+      <c r="DZ35" s="24"/>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -11422,11 +11850,24 @@
       <c r="DN36" s="15">
         <v>12680</v>
       </c>
-      <c r="DO36" s="15">
+      <c r="DO36" s="6">
         <v>1079</v>
       </c>
+      <c r="DP36" s="1">
+        <v>733</v>
+      </c>
+      <c r="DQ36" s="24"/>
+      <c r="DR36" s="24"/>
+      <c r="DS36" s="24"/>
+      <c r="DT36" s="24"/>
+      <c r="DU36" s="24"/>
+      <c r="DV36" s="24"/>
+      <c r="DW36" s="24"/>
+      <c r="DX36" s="24"/>
+      <c r="DY36" s="24"/>
+      <c r="DZ36" s="24"/>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>48</v>
       </c>
@@ -11775,11 +12216,24 @@
       <c r="DN37" s="15">
         <v>304</v>
       </c>
-      <c r="DO37" s="15">
+      <c r="DO37" s="6">
         <v>46</v>
       </c>
+      <c r="DP37" s="1">
+        <v>29</v>
+      </c>
+      <c r="DQ37" s="24"/>
+      <c r="DR37" s="24"/>
+      <c r="DS37" s="24"/>
+      <c r="DT37" s="24"/>
+      <c r="DU37" s="24"/>
+      <c r="DV37" s="24"/>
+      <c r="DW37" s="24"/>
+      <c r="DX37" s="24"/>
+      <c r="DY37" s="24"/>
+      <c r="DZ37" s="24"/>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -12134,11 +12588,24 @@
       <c r="DN38" s="15">
         <v>72729</v>
       </c>
-      <c r="DO38" s="15">
+      <c r="DO38" s="6">
         <v>4451</v>
       </c>
+      <c r="DP38" s="1">
+        <v>3712</v>
+      </c>
+      <c r="DQ38" s="24"/>
+      <c r="DR38" s="24"/>
+      <c r="DS38" s="24"/>
+      <c r="DT38" s="24"/>
+      <c r="DU38" s="24"/>
+      <c r="DV38" s="24"/>
+      <c r="DW38" s="24"/>
+      <c r="DX38" s="24"/>
+      <c r="DY38" s="24"/>
+      <c r="DZ38" s="24"/>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
@@ -12493,11 +12960,24 @@
       <c r="DN39" s="15">
         <v>22896</v>
       </c>
-      <c r="DO39" s="15">
+      <c r="DO39" s="6">
         <v>1583</v>
       </c>
+      <c r="DP39" s="1">
+        <v>1377</v>
+      </c>
+      <c r="DQ39" s="24"/>
+      <c r="DR39" s="24"/>
+      <c r="DS39" s="24"/>
+      <c r="DT39" s="24"/>
+      <c r="DU39" s="24"/>
+      <c r="DV39" s="24"/>
+      <c r="DW39" s="24"/>
+      <c r="DX39" s="24"/>
+      <c r="DY39" s="24"/>
+      <c r="DZ39" s="24"/>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
@@ -12852,11 +13332,24 @@
       <c r="DN40" s="15">
         <v>532</v>
       </c>
-      <c r="DO40" s="15">
+      <c r="DO40" s="6">
         <v>24</v>
       </c>
+      <c r="DP40" s="1">
+        <v>31</v>
+      </c>
+      <c r="DQ40" s="24"/>
+      <c r="DR40" s="24"/>
+      <c r="DS40" s="24"/>
+      <c r="DT40" s="24"/>
+      <c r="DU40" s="24"/>
+      <c r="DV40" s="24"/>
+      <c r="DW40" s="24"/>
+      <c r="DX40" s="24"/>
+      <c r="DY40" s="24"/>
+      <c r="DZ40" s="24"/>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
@@ -13073,9 +13566,22 @@
       <c r="DL41" s="15"/>
       <c r="DM41" s="15"/>
       <c r="DN41" s="15"/>
-      <c r="DO41" s="15"/>
+      <c r="DO41" s="6"/>
+      <c r="DP41" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ41" s="24"/>
+      <c r="DR41" s="24"/>
+      <c r="DS41" s="24"/>
+      <c r="DT41" s="24"/>
+      <c r="DU41" s="24"/>
+      <c r="DV41" s="24"/>
+      <c r="DW41" s="24"/>
+      <c r="DX41" s="24"/>
+      <c r="DY41" s="24"/>
+      <c r="DZ41" s="24"/>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -13424,11 +13930,22 @@
       <c r="DN42" s="15">
         <v>187</v>
       </c>
-      <c r="DO42" s="15">
+      <c r="DO42" s="6">
         <v>16</v>
       </c>
+      <c r="DP42" s="1"/>
+      <c r="DQ42" s="24"/>
+      <c r="DR42" s="24"/>
+      <c r="DS42" s="24"/>
+      <c r="DT42" s="24"/>
+      <c r="DU42" s="24"/>
+      <c r="DV42" s="24"/>
+      <c r="DW42" s="24"/>
+      <c r="DX42" s="24"/>
+      <c r="DY42" s="24"/>
+      <c r="DZ42" s="24"/>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
@@ -13783,11 +14300,24 @@
       <c r="DN43" s="15">
         <v>95101</v>
       </c>
-      <c r="DO43" s="15">
+      <c r="DO43" s="6">
         <v>5224</v>
       </c>
+      <c r="DP43" s="1">
+        <v>3837</v>
+      </c>
+      <c r="DQ43" s="24"/>
+      <c r="DR43" s="24"/>
+      <c r="DS43" s="24"/>
+      <c r="DT43" s="24"/>
+      <c r="DU43" s="24"/>
+      <c r="DV43" s="24"/>
+      <c r="DW43" s="24"/>
+      <c r="DX43" s="24"/>
+      <c r="DY43" s="24"/>
+      <c r="DZ43" s="24"/>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
@@ -14142,11 +14672,24 @@
       <c r="DN44" s="15">
         <v>60932</v>
       </c>
-      <c r="DO44" s="15">
+      <c r="DO44" s="6">
         <v>7126</v>
       </c>
+      <c r="DP44" s="1">
+        <v>3917</v>
+      </c>
+      <c r="DQ44" s="24"/>
+      <c r="DR44" s="24"/>
+      <c r="DS44" s="24"/>
+      <c r="DT44" s="24"/>
+      <c r="DU44" s="24"/>
+      <c r="DV44" s="24"/>
+      <c r="DW44" s="24"/>
+      <c r="DX44" s="24"/>
+      <c r="DY44" s="24"/>
+      <c r="DZ44" s="24"/>
     </row>
-    <row r="45" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -14501,11 +15044,24 @@
       <c r="DN45" s="15">
         <v>21449</v>
       </c>
-      <c r="DO45" s="15">
+      <c r="DO45" s="6">
         <v>1408</v>
       </c>
+      <c r="DP45" s="1">
+        <v>1280</v>
+      </c>
+      <c r="DQ45" s="24"/>
+      <c r="DR45" s="24"/>
+      <c r="DS45" s="24"/>
+      <c r="DT45" s="24"/>
+      <c r="DU45" s="24"/>
+      <c r="DV45" s="24"/>
+      <c r="DW45" s="24"/>
+      <c r="DX45" s="24"/>
+      <c r="DY45" s="24"/>
+      <c r="DZ45" s="24"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -14812,11 +15368,24 @@
       <c r="DN46" s="15">
         <v>187</v>
       </c>
-      <c r="DO46" s="15">
+      <c r="DO46" s="6">
         <v>8</v>
       </c>
+      <c r="DP46" s="1">
+        <v>5</v>
+      </c>
+      <c r="DQ46" s="24"/>
+      <c r="DR46" s="24"/>
+      <c r="DS46" s="24"/>
+      <c r="DT46" s="24"/>
+      <c r="DU46" s="24"/>
+      <c r="DV46" s="24"/>
+      <c r="DW46" s="24"/>
+      <c r="DX46" s="24"/>
+      <c r="DY46" s="24"/>
+      <c r="DZ46" s="24"/>
     </row>
-    <row r="47" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
@@ -15159,11 +15728,24 @@
       <c r="DN47" s="15">
         <v>140</v>
       </c>
-      <c r="DO47" s="15">
+      <c r="DO47" s="6">
         <v>19</v>
       </c>
+      <c r="DP47" s="1">
+        <v>8</v>
+      </c>
+      <c r="DQ47" s="24"/>
+      <c r="DR47" s="24"/>
+      <c r="DS47" s="24"/>
+      <c r="DT47" s="24"/>
+      <c r="DU47" s="24"/>
+      <c r="DV47" s="24"/>
+      <c r="DW47" s="24"/>
+      <c r="DX47" s="24"/>
+      <c r="DY47" s="24"/>
+      <c r="DZ47" s="24"/>
     </row>
-    <row r="48" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
@@ -15512,11 +16094,24 @@
       <c r="DN48" s="15">
         <v>15648</v>
       </c>
-      <c r="DO48" s="15">
+      <c r="DO48" s="6">
         <v>1185</v>
       </c>
+      <c r="DP48" s="1">
+        <v>754</v>
+      </c>
+      <c r="DQ48" s="24"/>
+      <c r="DR48" s="24"/>
+      <c r="DS48" s="24"/>
+      <c r="DT48" s="24"/>
+      <c r="DU48" s="24"/>
+      <c r="DV48" s="24"/>
+      <c r="DW48" s="24"/>
+      <c r="DX48" s="24"/>
+      <c r="DY48" s="24"/>
+      <c r="DZ48" s="24"/>
     </row>
-    <row r="49" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -15837,11 +16432,24 @@
       <c r="DN49" s="15">
         <v>229</v>
       </c>
-      <c r="DO49" s="15">
+      <c r="DO49" s="6">
         <v>15</v>
       </c>
+      <c r="DP49" s="1">
+        <v>8</v>
+      </c>
+      <c r="DQ49" s="24"/>
+      <c r="DR49" s="24"/>
+      <c r="DS49" s="24"/>
+      <c r="DT49" s="24"/>
+      <c r="DU49" s="24"/>
+      <c r="DV49" s="24"/>
+      <c r="DW49" s="24"/>
+      <c r="DX49" s="24"/>
+      <c r="DY49" s="24"/>
+      <c r="DZ49" s="24"/>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
@@ -16178,11 +16786,24 @@
       <c r="DN50" s="15">
         <v>3279</v>
       </c>
-      <c r="DO50" s="15">
+      <c r="DO50" s="6">
         <v>107</v>
       </c>
+      <c r="DP50" s="1">
+        <v>100</v>
+      </c>
+      <c r="DQ50" s="24"/>
+      <c r="DR50" s="24"/>
+      <c r="DS50" s="24"/>
+      <c r="DT50" s="24"/>
+      <c r="DU50" s="24"/>
+      <c r="DV50" s="24"/>
+      <c r="DW50" s="24"/>
+      <c r="DX50" s="24"/>
+      <c r="DY50" s="24"/>
+      <c r="DZ50" s="24"/>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>62</v>
       </c>
@@ -16451,11 +17072,22 @@
       <c r="DN51" s="15">
         <v>24</v>
       </c>
-      <c r="DO51" s="15">
+      <c r="DO51" s="6">
         <v>2</v>
       </c>
+      <c r="DP51" s="1"/>
+      <c r="DQ51" s="24"/>
+      <c r="DR51" s="24"/>
+      <c r="DS51" s="24"/>
+      <c r="DT51" s="24"/>
+      <c r="DU51" s="24"/>
+      <c r="DV51" s="24"/>
+      <c r="DW51" s="24"/>
+      <c r="DX51" s="24"/>
+      <c r="DY51" s="24"/>
+      <c r="DZ51" s="24"/>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
@@ -16794,11 +17426,24 @@
       <c r="DN52" s="15">
         <v>443</v>
       </c>
-      <c r="DO52" s="15">
+      <c r="DO52" s="6">
         <v>94</v>
       </c>
+      <c r="DP52" s="1">
+        <v>78</v>
+      </c>
+      <c r="DQ52" s="24"/>
+      <c r="DR52" s="24"/>
+      <c r="DS52" s="24"/>
+      <c r="DT52" s="24"/>
+      <c r="DU52" s="24"/>
+      <c r="DV52" s="24"/>
+      <c r="DW52" s="24"/>
+      <c r="DX52" s="24"/>
+      <c r="DY52" s="24"/>
+      <c r="DZ52" s="24"/>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>64</v>
       </c>
@@ -17153,11 +17798,24 @@
       <c r="DN53" s="15">
         <v>734738</v>
       </c>
-      <c r="DO53" s="15">
+      <c r="DO53" s="6">
         <v>47976</v>
       </c>
+      <c r="DP53" s="1">
+        <v>39919</v>
+      </c>
+      <c r="DQ53" s="24"/>
+      <c r="DR53" s="24"/>
+      <c r="DS53" s="24"/>
+      <c r="DT53" s="24"/>
+      <c r="DU53" s="24"/>
+      <c r="DV53" s="24"/>
+      <c r="DW53" s="24"/>
+      <c r="DX53" s="24"/>
+      <c r="DY53" s="24"/>
+      <c r="DZ53" s="24"/>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
@@ -17512,11 +18170,24 @@
       <c r="DN54" s="15">
         <v>39375</v>
       </c>
-      <c r="DO54" s="15">
+      <c r="DO54" s="6">
         <v>2792</v>
       </c>
+      <c r="DP54" s="1">
+        <v>2156</v>
+      </c>
+      <c r="DQ54" s="24"/>
+      <c r="DR54" s="24"/>
+      <c r="DS54" s="24"/>
+      <c r="DT54" s="24"/>
+      <c r="DU54" s="24"/>
+      <c r="DV54" s="24"/>
+      <c r="DW54" s="24"/>
+      <c r="DX54" s="24"/>
+      <c r="DY54" s="24"/>
+      <c r="DZ54" s="24"/>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>66</v>
       </c>
@@ -17871,11 +18542,24 @@
       <c r="DN55" s="15">
         <v>179</v>
       </c>
-      <c r="DO55" s="15">
+      <c r="DO55" s="6">
         <v>17</v>
       </c>
+      <c r="DP55" s="1">
+        <v>16</v>
+      </c>
+      <c r="DQ55" s="24"/>
+      <c r="DR55" s="24"/>
+      <c r="DS55" s="24"/>
+      <c r="DT55" s="24"/>
+      <c r="DU55" s="24"/>
+      <c r="DV55" s="24"/>
+      <c r="DW55" s="24"/>
+      <c r="DX55" s="24"/>
+      <c r="DY55" s="24"/>
+      <c r="DZ55" s="24"/>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>67</v>
       </c>
@@ -18230,11 +18914,24 @@
       <c r="DN56" s="15">
         <v>992</v>
       </c>
-      <c r="DO56" s="15">
+      <c r="DO56" s="6">
         <v>89</v>
       </c>
+      <c r="DP56" s="1">
+        <v>62</v>
+      </c>
+      <c r="DQ56" s="24"/>
+      <c r="DR56" s="24"/>
+      <c r="DS56" s="24"/>
+      <c r="DT56" s="24"/>
+      <c r="DU56" s="24"/>
+      <c r="DV56" s="24"/>
+      <c r="DW56" s="24"/>
+      <c r="DX56" s="24"/>
+      <c r="DY56" s="24"/>
+      <c r="DZ56" s="24"/>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>68</v>
       </c>
@@ -18589,11 +19286,24 @@
       <c r="DN57" s="15">
         <v>974</v>
       </c>
-      <c r="DO57" s="15">
+      <c r="DO57" s="6">
         <v>46</v>
       </c>
+      <c r="DP57" s="1">
+        <v>53</v>
+      </c>
+      <c r="DQ57" s="24"/>
+      <c r="DR57" s="24"/>
+      <c r="DS57" s="24"/>
+      <c r="DT57" s="24"/>
+      <c r="DU57" s="24"/>
+      <c r="DV57" s="24"/>
+      <c r="DW57" s="24"/>
+      <c r="DX57" s="24"/>
+      <c r="DY57" s="24"/>
+      <c r="DZ57" s="24"/>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>69</v>
       </c>
@@ -18948,11 +19658,24 @@
       <c r="DN58" s="15">
         <v>22632</v>
       </c>
-      <c r="DO58" s="15">
+      <c r="DO58" s="6">
         <v>1573</v>
       </c>
+      <c r="DP58" s="1">
+        <v>1029</v>
+      </c>
+      <c r="DQ58" s="24"/>
+      <c r="DR58" s="24"/>
+      <c r="DS58" s="24"/>
+      <c r="DT58" s="24"/>
+      <c r="DU58" s="24"/>
+      <c r="DV58" s="24"/>
+      <c r="DW58" s="24"/>
+      <c r="DX58" s="24"/>
+      <c r="DY58" s="24"/>
+      <c r="DZ58" s="24"/>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -19307,11 +20030,24 @@
       <c r="DN59" s="15">
         <v>88095</v>
       </c>
-      <c r="DO59" s="15">
+      <c r="DO59" s="6">
         <v>6536</v>
       </c>
+      <c r="DP59" s="1">
+        <v>3907</v>
+      </c>
+      <c r="DQ59" s="24"/>
+      <c r="DR59" s="24"/>
+      <c r="DS59" s="24"/>
+      <c r="DT59" s="24"/>
+      <c r="DU59" s="24"/>
+      <c r="DV59" s="24"/>
+      <c r="DW59" s="24"/>
+      <c r="DX59" s="24"/>
+      <c r="DY59" s="24"/>
+      <c r="DZ59" s="24"/>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
@@ -19666,11 +20402,24 @@
       <c r="DN60" s="15">
         <v>3997</v>
       </c>
-      <c r="DO60" s="15">
+      <c r="DO60" s="6">
         <v>363</v>
       </c>
+      <c r="DP60" s="1">
+        <v>322</v>
+      </c>
+      <c r="DQ60" s="24"/>
+      <c r="DR60" s="24"/>
+      <c r="DS60" s="24"/>
+      <c r="DT60" s="24"/>
+      <c r="DU60" s="24"/>
+      <c r="DV60" s="24"/>
+      <c r="DW60" s="24"/>
+      <c r="DX60" s="24"/>
+      <c r="DY60" s="24"/>
+      <c r="DZ60" s="24"/>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
@@ -20025,11 +20774,24 @@
       <c r="DN61" s="15">
         <v>1811</v>
       </c>
-      <c r="DO61" s="15">
+      <c r="DO61" s="6">
         <v>131</v>
       </c>
+      <c r="DP61" s="1">
+        <v>88</v>
+      </c>
+      <c r="DQ61" s="24"/>
+      <c r="DR61" s="24"/>
+      <c r="DS61" s="24"/>
+      <c r="DT61" s="24"/>
+      <c r="DU61" s="24"/>
+      <c r="DV61" s="24"/>
+      <c r="DW61" s="24"/>
+      <c r="DX61" s="24"/>
+      <c r="DY61" s="24"/>
+      <c r="DZ61" s="24"/>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
@@ -20384,11 +21146,24 @@
       <c r="DN62" s="15">
         <v>3173</v>
       </c>
-      <c r="DO62" s="15">
+      <c r="DO62" s="6">
         <v>140</v>
       </c>
+      <c r="DP62" s="1">
+        <v>169</v>
+      </c>
+      <c r="DQ62" s="24"/>
+      <c r="DR62" s="24"/>
+      <c r="DS62" s="24"/>
+      <c r="DT62" s="24"/>
+      <c r="DU62" s="24"/>
+      <c r="DV62" s="24"/>
+      <c r="DW62" s="24"/>
+      <c r="DX62" s="24"/>
+      <c r="DY62" s="24"/>
+      <c r="DZ62" s="24"/>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>74</v>
       </c>
@@ -20743,11 +21518,24 @@
       <c r="DN63" s="15">
         <v>6099</v>
       </c>
-      <c r="DO63" s="15">
+      <c r="DO63" s="6">
         <v>356</v>
       </c>
+      <c r="DP63" s="1">
+        <v>257</v>
+      </c>
+      <c r="DQ63" s="24"/>
+      <c r="DR63" s="24"/>
+      <c r="DS63" s="24"/>
+      <c r="DT63" s="24"/>
+      <c r="DU63" s="24"/>
+      <c r="DV63" s="24"/>
+      <c r="DW63" s="24"/>
+      <c r="DX63" s="24"/>
+      <c r="DY63" s="24"/>
+      <c r="DZ63" s="24"/>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
@@ -21102,11 +21890,24 @@
       <c r="DN64" s="15">
         <v>5002</v>
       </c>
-      <c r="DO64" s="15">
+      <c r="DO64" s="6">
         <v>361</v>
       </c>
+      <c r="DP64" s="1">
+        <v>248</v>
+      </c>
+      <c r="DQ64" s="24"/>
+      <c r="DR64" s="24"/>
+      <c r="DS64" s="24"/>
+      <c r="DT64" s="24"/>
+      <c r="DU64" s="24"/>
+      <c r="DV64" s="24"/>
+      <c r="DW64" s="24"/>
+      <c r="DX64" s="24"/>
+      <c r="DY64" s="24"/>
+      <c r="DZ64" s="24"/>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
@@ -21379,11 +22180,22 @@
       <c r="DN65" s="15">
         <v>14</v>
       </c>
-      <c r="DO65" s="15">
+      <c r="DO65" s="6">
         <v>5</v>
       </c>
+      <c r="DP65" s="1"/>
+      <c r="DQ65" s="24"/>
+      <c r="DR65" s="24"/>
+      <c r="DS65" s="24"/>
+      <c r="DT65" s="24"/>
+      <c r="DU65" s="24"/>
+      <c r="DV65" s="24"/>
+      <c r="DW65" s="24"/>
+      <c r="DX65" s="24"/>
+      <c r="DY65" s="24"/>
+      <c r="DZ65" s="24"/>
     </row>
-    <row r="66" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
@@ -21702,11 +22514,22 @@
       <c r="DN66" s="15">
         <v>1042</v>
       </c>
-      <c r="DO66" s="15">
+      <c r="DO66" s="6">
         <v>117</v>
       </c>
+      <c r="DP66" s="1"/>
+      <c r="DQ66" s="24"/>
+      <c r="DR66" s="24"/>
+      <c r="DS66" s="24"/>
+      <c r="DT66" s="24"/>
+      <c r="DU66" s="24"/>
+      <c r="DV66" s="24"/>
+      <c r="DW66" s="24"/>
+      <c r="DX66" s="24"/>
+      <c r="DY66" s="24"/>
+      <c r="DZ66" s="24"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
@@ -22061,11 +22884,24 @@
       <c r="DN67" s="15">
         <v>3897</v>
       </c>
-      <c r="DO67" s="15">
+      <c r="DO67" s="6">
         <v>205</v>
       </c>
+      <c r="DP67" s="1">
+        <v>307</v>
+      </c>
+      <c r="DQ67" s="24"/>
+      <c r="DR67" s="24"/>
+      <c r="DS67" s="24"/>
+      <c r="DT67" s="24"/>
+      <c r="DU67" s="24"/>
+      <c r="DV67" s="24"/>
+      <c r="DW67" s="24"/>
+      <c r="DX67" s="24"/>
+      <c r="DY67" s="24"/>
+      <c r="DZ67" s="24"/>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -22408,11 +23244,24 @@
       <c r="DN68" s="15">
         <v>354</v>
       </c>
-      <c r="DO68" s="15">
+      <c r="DO68" s="6">
         <v>30</v>
       </c>
+      <c r="DP68" s="1">
+        <v>28</v>
+      </c>
+      <c r="DQ68" s="24"/>
+      <c r="DR68" s="24"/>
+      <c r="DS68" s="24"/>
+      <c r="DT68" s="24"/>
+      <c r="DU68" s="24"/>
+      <c r="DV68" s="24"/>
+      <c r="DW68" s="24"/>
+      <c r="DX68" s="24"/>
+      <c r="DY68" s="24"/>
+      <c r="DZ68" s="24"/>
     </row>
-    <row r="69" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
@@ -22767,11 +23616,24 @@
       <c r="DN69" s="15">
         <v>18677</v>
       </c>
-      <c r="DO69" s="15">
+      <c r="DO69" s="6">
         <v>1285</v>
       </c>
+      <c r="DP69" s="1">
+        <v>825</v>
+      </c>
+      <c r="DQ69" s="24"/>
+      <c r="DR69" s="24"/>
+      <c r="DS69" s="24"/>
+      <c r="DT69" s="24"/>
+      <c r="DU69" s="24"/>
+      <c r="DV69" s="24"/>
+      <c r="DW69" s="24"/>
+      <c r="DX69" s="24"/>
+      <c r="DY69" s="24"/>
+      <c r="DZ69" s="24"/>
     </row>
-    <row r="70" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>81</v>
       </c>
@@ -23126,11 +23988,24 @@
       <c r="DN70" s="15">
         <v>53581</v>
       </c>
-      <c r="DO70" s="15">
+      <c r="DO70" s="6">
         <v>2843</v>
       </c>
+      <c r="DP70" s="1">
+        <v>2360</v>
+      </c>
+      <c r="DQ70" s="24"/>
+      <c r="DR70" s="24"/>
+      <c r="DS70" s="24"/>
+      <c r="DT70" s="24"/>
+      <c r="DU70" s="24"/>
+      <c r="DV70" s="24"/>
+      <c r="DW70" s="24"/>
+      <c r="DX70" s="24"/>
+      <c r="DY70" s="24"/>
+      <c r="DZ70" s="24"/>
     </row>
-    <row r="71" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
@@ -23485,12 +24360,32 @@
       <c r="DN71" s="10">
         <v>7938902</v>
       </c>
-      <c r="DO71" s="10">
+      <c r="DO71" s="9">
         <v>656684</v>
       </c>
+      <c r="DP71" s="10">
+        <v>545194</v>
+      </c>
+      <c r="DQ71" s="24"/>
+      <c r="DR71" s="24"/>
+      <c r="DS71" s="24"/>
+      <c r="DT71" s="24"/>
+      <c r="DU71" s="24"/>
+      <c r="DV71" s="24"/>
+      <c r="DW71" s="24"/>
+      <c r="DX71" s="24"/>
+      <c r="DY71" s="24"/>
+      <c r="DZ71" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="DO6:DZ6"/>
+    <mergeCell ref="EA6:EA7"/>
+    <mergeCell ref="CO6:CY6"/>
+    <mergeCell ref="DA6:DA7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="DB6:DM6"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="CB6:CM6"/>
     <mergeCell ref="CN6:CN7"/>
@@ -23505,11 +24400,6 @@
     <mergeCell ref="BA6:BA7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="CO6:CY6"/>
-    <mergeCell ref="DA6:DA7"/>
-    <mergeCell ref="DN6:DN7"/>
-    <mergeCell ref="DB6:DM6"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A71">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 a Febrero de 2021</t>
+    <t>Enero de 2012 a Marzo de 2021</t>
   </si>
 </sst>
 </file>
@@ -577,19 +577,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,7 +590,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -941,7 +941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EA71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1029,7 +1031,7 @@
     <col min="118" max="118" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1058,182 +1060,182 @@
       </c>
     </row>
     <row r="6" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>2012</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="22" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>2013</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="22" t="s">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="18">
         <v>2014</v>
       </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="22" t="s">
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="18">
         <v>2015</v>
       </c>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="22" t="s">
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="19">
+      <c r="BB6" s="18">
         <v>2016</v>
       </c>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="20"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="20"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="22" t="s">
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BO6" s="19">
+      <c r="BO6" s="18">
         <v>2017</v>
       </c>
-      <c r="BP6" s="20"/>
-      <c r="BQ6" s="20"/>
-      <c r="BR6" s="20"/>
-      <c r="BS6" s="20"/>
-      <c r="BT6" s="20"/>
-      <c r="BU6" s="20"/>
-      <c r="BV6" s="20"/>
-      <c r="BW6" s="20"/>
-      <c r="BX6" s="20"/>
-      <c r="BY6" s="20"/>
-      <c r="BZ6" s="20"/>
-      <c r="CA6" s="22" t="s">
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="CB6" s="19">
+      <c r="CB6" s="18">
         <v>2018</v>
       </c>
-      <c r="CC6" s="20"/>
-      <c r="CD6" s="20"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="20"/>
-      <c r="CG6" s="20"/>
-      <c r="CH6" s="20"/>
-      <c r="CI6" s="20"/>
-      <c r="CJ6" s="20"/>
-      <c r="CK6" s="20"/>
-      <c r="CL6" s="20"/>
-      <c r="CM6" s="20"/>
-      <c r="CN6" s="20" t="s">
+      <c r="CC6" s="19"/>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="19"/>
+      <c r="CF6" s="19"/>
+      <c r="CG6" s="19"/>
+      <c r="CH6" s="19"/>
+      <c r="CI6" s="19"/>
+      <c r="CJ6" s="19"/>
+      <c r="CK6" s="19"/>
+      <c r="CL6" s="19"/>
+      <c r="CM6" s="19"/>
+      <c r="CN6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CO6" s="19">
+      <c r="CO6" s="18">
         <v>2019</v>
       </c>
-      <c r="CP6" s="20"/>
-      <c r="CQ6" s="20"/>
-      <c r="CR6" s="20"/>
-      <c r="CS6" s="20"/>
-      <c r="CT6" s="20"/>
-      <c r="CU6" s="20"/>
-      <c r="CV6" s="20"/>
-      <c r="CW6" s="20"/>
-      <c r="CX6" s="20"/>
-      <c r="CY6" s="20"/>
+      <c r="CP6" s="19"/>
+      <c r="CQ6" s="19"/>
+      <c r="CR6" s="19"/>
+      <c r="CS6" s="19"/>
+      <c r="CT6" s="19"/>
+      <c r="CU6" s="19"/>
+      <c r="CV6" s="19"/>
+      <c r="CW6" s="19"/>
+      <c r="CX6" s="19"/>
+      <c r="CY6" s="19"/>
       <c r="CZ6" s="12"/>
-      <c r="DA6" s="20" t="s">
+      <c r="DA6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="DB6" s="19">
+      <c r="DB6" s="18">
         <v>2020</v>
       </c>
-      <c r="DC6" s="20"/>
-      <c r="DD6" s="20"/>
-      <c r="DE6" s="20"/>
-      <c r="DF6" s="20"/>
-      <c r="DG6" s="20"/>
-      <c r="DH6" s="20"/>
-      <c r="DI6" s="20"/>
-      <c r="DJ6" s="20"/>
-      <c r="DK6" s="20"/>
-      <c r="DL6" s="20"/>
-      <c r="DM6" s="20"/>
-      <c r="DN6" s="20" t="s">
+      <c r="DC6" s="19"/>
+      <c r="DD6" s="19"/>
+      <c r="DE6" s="19"/>
+      <c r="DF6" s="19"/>
+      <c r="DG6" s="19"/>
+      <c r="DH6" s="19"/>
+      <c r="DI6" s="19"/>
+      <c r="DJ6" s="19"/>
+      <c r="DK6" s="19"/>
+      <c r="DL6" s="19"/>
+      <c r="DM6" s="19"/>
+      <c r="DN6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="DO6" s="19">
+      <c r="DO6" s="18">
         <v>2021</v>
       </c>
-      <c r="DP6" s="20"/>
-      <c r="DQ6" s="20"/>
-      <c r="DR6" s="20"/>
-      <c r="DS6" s="20"/>
-      <c r="DT6" s="20"/>
-      <c r="DU6" s="20"/>
-      <c r="DV6" s="20"/>
-      <c r="DW6" s="20"/>
-      <c r="DX6" s="20"/>
-      <c r="DY6" s="20"/>
-      <c r="DZ6" s="20"/>
-      <c r="EA6" s="22" t="s">
+      <c r="DP6" s="19"/>
+      <c r="DQ6" s="19"/>
+      <c r="DR6" s="19"/>
+      <c r="DS6" s="19"/>
+      <c r="DT6" s="19"/>
+      <c r="DU6" s="19"/>
+      <c r="DV6" s="19"/>
+      <c r="DW6" s="19"/>
+      <c r="DX6" s="19"/>
+      <c r="DY6" s="19"/>
+      <c r="DZ6" s="19"/>
+      <c r="EA6" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1272,7 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1309,7 @@
       <c r="Z7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="23"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1346,7 @@
       <c r="AM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="23"/>
+      <c r="AN7" s="21"/>
       <c r="AO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1383,7 @@
       <c r="AZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA7" s="23"/>
+      <c r="BA7" s="21"/>
       <c r="BB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1420,7 @@
       <c r="BM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN7" s="23"/>
+      <c r="BN7" s="21"/>
       <c r="BO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1457,7 @@
       <c r="BZ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA7" s="23"/>
+      <c r="CA7" s="21"/>
       <c r="CB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1494,7 @@
       <c r="CM7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN7" s="21"/>
+      <c r="CN7" s="22"/>
       <c r="CO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1531,7 @@
       <c r="CZ7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA7" s="21"/>
+      <c r="DA7" s="22"/>
       <c r="DB7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1568,7 @@
       <c r="DM7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN7" s="21"/>
+      <c r="DN7" s="22"/>
       <c r="DO7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1605,7 @@
       <c r="DZ7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA7" s="23"/>
+      <c r="EA7" s="21"/>
     </row>
     <row r="8" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1962,16 +1964,18 @@
       <c r="DP8" s="1">
         <v>472</v>
       </c>
-      <c r="DQ8" s="24"/>
-      <c r="DR8" s="24"/>
-      <c r="DS8" s="24"/>
-      <c r="DT8" s="24"/>
-      <c r="DU8" s="24"/>
-      <c r="DV8" s="24"/>
-      <c r="DW8" s="24"/>
-      <c r="DX8" s="24"/>
-      <c r="DY8" s="24"/>
-      <c r="DZ8" s="24"/>
+      <c r="DQ8" s="1">
+        <v>1039</v>
+      </c>
+      <c r="DR8" s="17"/>
+      <c r="DS8" s="17"/>
+      <c r="DT8" s="17"/>
+      <c r="DU8" s="17"/>
+      <c r="DV8" s="17"/>
+      <c r="DW8" s="17"/>
+      <c r="DX8" s="17"/>
+      <c r="DY8" s="17"/>
+      <c r="DZ8" s="17"/>
     </row>
     <row r="9" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2334,16 +2338,18 @@
       <c r="DP9" s="1">
         <v>1639</v>
       </c>
-      <c r="DQ9" s="24"/>
-      <c r="DR9" s="24"/>
-      <c r="DS9" s="24"/>
-      <c r="DT9" s="24"/>
-      <c r="DU9" s="24"/>
-      <c r="DV9" s="24"/>
-      <c r="DW9" s="24"/>
-      <c r="DX9" s="24"/>
-      <c r="DY9" s="24"/>
-      <c r="DZ9" s="24"/>
+      <c r="DQ9" s="1">
+        <v>2880</v>
+      </c>
+      <c r="DR9" s="17"/>
+      <c r="DS9" s="17"/>
+      <c r="DT9" s="17"/>
+      <c r="DU9" s="17"/>
+      <c r="DV9" s="17"/>
+      <c r="DW9" s="17"/>
+      <c r="DX9" s="17"/>
+      <c r="DY9" s="17"/>
+      <c r="DZ9" s="17"/>
     </row>
     <row r="10" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2706,16 +2712,18 @@
       <c r="DP10" s="1">
         <v>1570</v>
       </c>
-      <c r="DQ10" s="24"/>
-      <c r="DR10" s="24"/>
-      <c r="DS10" s="24"/>
-      <c r="DT10" s="24"/>
-      <c r="DU10" s="24"/>
-      <c r="DV10" s="24"/>
-      <c r="DW10" s="24"/>
-      <c r="DX10" s="24"/>
-      <c r="DY10" s="24"/>
-      <c r="DZ10" s="24"/>
+      <c r="DQ10" s="1">
+        <v>2304</v>
+      </c>
+      <c r="DR10" s="17"/>
+      <c r="DS10" s="17"/>
+      <c r="DT10" s="17"/>
+      <c r="DU10" s="17"/>
+      <c r="DV10" s="17"/>
+      <c r="DW10" s="17"/>
+      <c r="DX10" s="17"/>
+      <c r="DY10" s="17"/>
+      <c r="DZ10" s="17"/>
     </row>
     <row r="11" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3060,16 +3068,18 @@
       <c r="DP11" s="1">
         <v>6</v>
       </c>
-      <c r="DQ11" s="24"/>
-      <c r="DR11" s="24"/>
-      <c r="DS11" s="24"/>
-      <c r="DT11" s="24"/>
-      <c r="DU11" s="24"/>
-      <c r="DV11" s="24"/>
-      <c r="DW11" s="24"/>
-      <c r="DX11" s="24"/>
-      <c r="DY11" s="24"/>
-      <c r="DZ11" s="24"/>
+      <c r="DQ11" s="1">
+        <v>16</v>
+      </c>
+      <c r="DR11" s="17"/>
+      <c r="DS11" s="17"/>
+      <c r="DT11" s="17"/>
+      <c r="DU11" s="17"/>
+      <c r="DV11" s="17"/>
+      <c r="DW11" s="17"/>
+      <c r="DX11" s="17"/>
+      <c r="DY11" s="17"/>
+      <c r="DZ11" s="17"/>
     </row>
     <row r="12" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3432,16 +3442,18 @@
       <c r="DP12" s="1">
         <v>274097</v>
       </c>
-      <c r="DQ12" s="24"/>
-      <c r="DR12" s="24"/>
-      <c r="DS12" s="24"/>
-      <c r="DT12" s="24"/>
-      <c r="DU12" s="24"/>
-      <c r="DV12" s="24"/>
-      <c r="DW12" s="24"/>
-      <c r="DX12" s="24"/>
-      <c r="DY12" s="24"/>
-      <c r="DZ12" s="24"/>
+      <c r="DQ12" s="1">
+        <v>445655</v>
+      </c>
+      <c r="DR12" s="17"/>
+      <c r="DS12" s="17"/>
+      <c r="DT12" s="17"/>
+      <c r="DU12" s="17"/>
+      <c r="DV12" s="17"/>
+      <c r="DW12" s="17"/>
+      <c r="DX12" s="17"/>
+      <c r="DY12" s="17"/>
+      <c r="DZ12" s="17"/>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3704,16 +3716,18 @@
         <v>9</v>
       </c>
       <c r="DP13" s="1"/>
-      <c r="DQ13" s="24"/>
-      <c r="DR13" s="24"/>
-      <c r="DS13" s="24"/>
-      <c r="DT13" s="24"/>
-      <c r="DU13" s="24"/>
-      <c r="DV13" s="24"/>
-      <c r="DW13" s="24"/>
-      <c r="DX13" s="24"/>
-      <c r="DY13" s="24"/>
-      <c r="DZ13" s="24"/>
+      <c r="DQ13" s="1">
+        <v>6</v>
+      </c>
+      <c r="DR13" s="17"/>
+      <c r="DS13" s="17"/>
+      <c r="DT13" s="17"/>
+      <c r="DU13" s="17"/>
+      <c r="DV13" s="17"/>
+      <c r="DW13" s="17"/>
+      <c r="DX13" s="17"/>
+      <c r="DY13" s="17"/>
+      <c r="DZ13" s="17"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3890,16 +3904,16 @@
       </c>
       <c r="DO14" s="6"/>
       <c r="DP14" s="1"/>
-      <c r="DQ14" s="24"/>
-      <c r="DR14" s="24"/>
-      <c r="DS14" s="24"/>
-      <c r="DT14" s="24"/>
-      <c r="DU14" s="24"/>
-      <c r="DV14" s="24"/>
-      <c r="DW14" s="24"/>
-      <c r="DX14" s="24"/>
-      <c r="DY14" s="24"/>
-      <c r="DZ14" s="24"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="17"/>
+      <c r="DS14" s="17"/>
+      <c r="DT14" s="17"/>
+      <c r="DU14" s="17"/>
+      <c r="DV14" s="17"/>
+      <c r="DW14" s="17"/>
+      <c r="DX14" s="17"/>
+      <c r="DY14" s="17"/>
+      <c r="DZ14" s="17"/>
     </row>
     <row r="15" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -4262,16 +4276,18 @@
       <c r="DP15" s="1">
         <v>960</v>
       </c>
-      <c r="DQ15" s="24"/>
-      <c r="DR15" s="24"/>
-      <c r="DS15" s="24"/>
-      <c r="DT15" s="24"/>
-      <c r="DU15" s="24"/>
-      <c r="DV15" s="24"/>
-      <c r="DW15" s="24"/>
-      <c r="DX15" s="24"/>
-      <c r="DY15" s="24"/>
-      <c r="DZ15" s="24"/>
+      <c r="DQ15" s="1">
+        <v>1535</v>
+      </c>
+      <c r="DR15" s="17"/>
+      <c r="DS15" s="17"/>
+      <c r="DT15" s="17"/>
+      <c r="DU15" s="17"/>
+      <c r="DV15" s="17"/>
+      <c r="DW15" s="17"/>
+      <c r="DX15" s="17"/>
+      <c r="DY15" s="17"/>
+      <c r="DZ15" s="17"/>
     </row>
     <row r="16" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -4604,16 +4620,18 @@
         <v>14</v>
       </c>
       <c r="DP16" s="1"/>
-      <c r="DQ16" s="24"/>
-      <c r="DR16" s="24"/>
-      <c r="DS16" s="24"/>
-      <c r="DT16" s="24"/>
-      <c r="DU16" s="24"/>
-      <c r="DV16" s="24"/>
-      <c r="DW16" s="24"/>
-      <c r="DX16" s="24"/>
-      <c r="DY16" s="24"/>
-      <c r="DZ16" s="24"/>
+      <c r="DQ16" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR16" s="17"/>
+      <c r="DS16" s="17"/>
+      <c r="DT16" s="17"/>
+      <c r="DU16" s="17"/>
+      <c r="DV16" s="17"/>
+      <c r="DW16" s="17"/>
+      <c r="DX16" s="17"/>
+      <c r="DY16" s="17"/>
+      <c r="DZ16" s="17"/>
     </row>
     <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -4976,16 +4994,18 @@
       <c r="DP17" s="1">
         <v>89099</v>
       </c>
-      <c r="DQ17" s="24"/>
-      <c r="DR17" s="24"/>
-      <c r="DS17" s="24"/>
-      <c r="DT17" s="24"/>
-      <c r="DU17" s="24"/>
-      <c r="DV17" s="24"/>
-      <c r="DW17" s="24"/>
-      <c r="DX17" s="24"/>
-      <c r="DY17" s="24"/>
-      <c r="DZ17" s="24"/>
+      <c r="DQ17" s="1">
+        <v>132091</v>
+      </c>
+      <c r="DR17" s="17"/>
+      <c r="DS17" s="17"/>
+      <c r="DT17" s="17"/>
+      <c r="DU17" s="17"/>
+      <c r="DV17" s="17"/>
+      <c r="DW17" s="17"/>
+      <c r="DX17" s="17"/>
+      <c r="DY17" s="17"/>
+      <c r="DZ17" s="17"/>
     </row>
     <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5326,16 +5346,18 @@
       <c r="DP18" s="1">
         <v>53</v>
       </c>
-      <c r="DQ18" s="24"/>
-      <c r="DR18" s="24"/>
-      <c r="DS18" s="24"/>
-      <c r="DT18" s="24"/>
-      <c r="DU18" s="24"/>
-      <c r="DV18" s="24"/>
-      <c r="DW18" s="24"/>
-      <c r="DX18" s="24"/>
-      <c r="DY18" s="24"/>
-      <c r="DZ18" s="24"/>
+      <c r="DQ18" s="1">
+        <v>54</v>
+      </c>
+      <c r="DR18" s="17"/>
+      <c r="DS18" s="17"/>
+      <c r="DT18" s="17"/>
+      <c r="DU18" s="17"/>
+      <c r="DV18" s="17"/>
+      <c r="DW18" s="17"/>
+      <c r="DX18" s="17"/>
+      <c r="DY18" s="17"/>
+      <c r="DZ18" s="17"/>
     </row>
     <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -5698,16 +5720,18 @@
       <c r="DP19" s="1">
         <v>29</v>
       </c>
-      <c r="DQ19" s="24"/>
-      <c r="DR19" s="24"/>
-      <c r="DS19" s="24"/>
-      <c r="DT19" s="24"/>
-      <c r="DU19" s="24"/>
-      <c r="DV19" s="24"/>
-      <c r="DW19" s="24"/>
-      <c r="DX19" s="24"/>
-      <c r="DY19" s="24"/>
-      <c r="DZ19" s="24"/>
+      <c r="DQ19" s="1">
+        <v>58</v>
+      </c>
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17"/>
+      <c r="DU19" s="17"/>
+      <c r="DV19" s="17"/>
+      <c r="DW19" s="17"/>
+      <c r="DX19" s="17"/>
+      <c r="DY19" s="17"/>
+      <c r="DZ19" s="17"/>
     </row>
     <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -6068,16 +6092,18 @@
       <c r="DP20" s="1">
         <v>151</v>
       </c>
-      <c r="DQ20" s="24"/>
-      <c r="DR20" s="24"/>
-      <c r="DS20" s="24"/>
-      <c r="DT20" s="24"/>
-      <c r="DU20" s="24"/>
-      <c r="DV20" s="24"/>
-      <c r="DW20" s="24"/>
-      <c r="DX20" s="24"/>
-      <c r="DY20" s="24"/>
-      <c r="DZ20" s="24"/>
+      <c r="DQ20" s="1">
+        <v>88</v>
+      </c>
+      <c r="DR20" s="17"/>
+      <c r="DS20" s="17"/>
+      <c r="DT20" s="17"/>
+      <c r="DU20" s="17"/>
+      <c r="DV20" s="17"/>
+      <c r="DW20" s="17"/>
+      <c r="DX20" s="17"/>
+      <c r="DY20" s="17"/>
+      <c r="DZ20" s="17"/>
     </row>
     <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -6440,16 +6466,18 @@
       <c r="DP21" s="1">
         <v>9</v>
       </c>
-      <c r="DQ21" s="24"/>
-      <c r="DR21" s="24"/>
-      <c r="DS21" s="24"/>
-      <c r="DT21" s="24"/>
-      <c r="DU21" s="24"/>
-      <c r="DV21" s="24"/>
-      <c r="DW21" s="24"/>
-      <c r="DX21" s="24"/>
-      <c r="DY21" s="24"/>
-      <c r="DZ21" s="24"/>
+      <c r="DQ21" s="1">
+        <v>16</v>
+      </c>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
     </row>
     <row r="22" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6812,16 +6840,18 @@
       <c r="DP22" s="1">
         <v>8153</v>
       </c>
-      <c r="DQ22" s="24"/>
-      <c r="DR22" s="24"/>
-      <c r="DS22" s="24"/>
-      <c r="DT22" s="24"/>
-      <c r="DU22" s="24"/>
-      <c r="DV22" s="24"/>
-      <c r="DW22" s="24"/>
-      <c r="DX22" s="24"/>
-      <c r="DY22" s="24"/>
-      <c r="DZ22" s="24"/>
+      <c r="DQ22" s="1">
+        <v>17295</v>
+      </c>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
     </row>
     <row r="23" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -7150,16 +7180,16 @@
       <c r="DP23" s="1">
         <v>6</v>
       </c>
-      <c r="DQ23" s="24"/>
-      <c r="DR23" s="24"/>
-      <c r="DS23" s="24"/>
-      <c r="DT23" s="24"/>
-      <c r="DU23" s="24"/>
-      <c r="DV23" s="24"/>
-      <c r="DW23" s="24"/>
-      <c r="DX23" s="24"/>
-      <c r="DY23" s="24"/>
-      <c r="DZ23" s="24"/>
+      <c r="DQ23" s="1"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
     </row>
     <row r="24" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -7502,16 +7532,18 @@
       <c r="DP24" s="1">
         <v>90</v>
       </c>
-      <c r="DQ24" s="24"/>
-      <c r="DR24" s="24"/>
-      <c r="DS24" s="24"/>
-      <c r="DT24" s="24"/>
-      <c r="DU24" s="24"/>
-      <c r="DV24" s="24"/>
-      <c r="DW24" s="24"/>
-      <c r="DX24" s="24"/>
-      <c r="DY24" s="24"/>
-      <c r="DZ24" s="24"/>
+      <c r="DQ24" s="1">
+        <v>132</v>
+      </c>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
     </row>
     <row r="25" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -7874,16 +7906,18 @@
       <c r="DP25" s="1">
         <v>150</v>
       </c>
-      <c r="DQ25" s="24"/>
-      <c r="DR25" s="24"/>
-      <c r="DS25" s="24"/>
-      <c r="DT25" s="24"/>
-      <c r="DU25" s="24"/>
-      <c r="DV25" s="24"/>
-      <c r="DW25" s="24"/>
-      <c r="DX25" s="24"/>
-      <c r="DY25" s="24"/>
-      <c r="DZ25" s="24"/>
+      <c r="DQ25" s="1">
+        <v>254</v>
+      </c>
+      <c r="DR25" s="17"/>
+      <c r="DS25" s="17"/>
+      <c r="DT25" s="17"/>
+      <c r="DU25" s="17"/>
+      <c r="DV25" s="17"/>
+      <c r="DW25" s="17"/>
+      <c r="DX25" s="17"/>
+      <c r="DY25" s="17"/>
+      <c r="DZ25" s="17"/>
     </row>
     <row r="26" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -8246,16 +8280,18 @@
       <c r="DP26" s="1">
         <v>694</v>
       </c>
-      <c r="DQ26" s="24"/>
-      <c r="DR26" s="24"/>
-      <c r="DS26" s="24"/>
-      <c r="DT26" s="24"/>
-      <c r="DU26" s="24"/>
-      <c r="DV26" s="24"/>
-      <c r="DW26" s="24"/>
-      <c r="DX26" s="24"/>
-      <c r="DY26" s="24"/>
-      <c r="DZ26" s="24"/>
+      <c r="DQ26" s="1">
+        <v>1580</v>
+      </c>
+      <c r="DR26" s="17"/>
+      <c r="DS26" s="17"/>
+      <c r="DT26" s="17"/>
+      <c r="DU26" s="17"/>
+      <c r="DV26" s="17"/>
+      <c r="DW26" s="17"/>
+      <c r="DX26" s="17"/>
+      <c r="DY26" s="17"/>
+      <c r="DZ26" s="17"/>
     </row>
     <row r="27" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -8578,16 +8614,18 @@
       <c r="DP27" s="1">
         <v>72</v>
       </c>
-      <c r="DQ27" s="24"/>
-      <c r="DR27" s="24"/>
-      <c r="DS27" s="24"/>
-      <c r="DT27" s="24"/>
-      <c r="DU27" s="24"/>
-      <c r="DV27" s="24"/>
-      <c r="DW27" s="24"/>
-      <c r="DX27" s="24"/>
-      <c r="DY27" s="24"/>
-      <c r="DZ27" s="24"/>
+      <c r="DQ27" s="1">
+        <v>49</v>
+      </c>
+      <c r="DR27" s="17"/>
+      <c r="DS27" s="17"/>
+      <c r="DT27" s="17"/>
+      <c r="DU27" s="17"/>
+      <c r="DV27" s="17"/>
+      <c r="DW27" s="17"/>
+      <c r="DX27" s="17"/>
+      <c r="DY27" s="17"/>
+      <c r="DZ27" s="17"/>
     </row>
     <row r="28" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8950,16 +8988,18 @@
       <c r="DP28" s="1">
         <v>30370</v>
       </c>
-      <c r="DQ28" s="24"/>
-      <c r="DR28" s="24"/>
-      <c r="DS28" s="24"/>
-      <c r="DT28" s="24"/>
-      <c r="DU28" s="24"/>
-      <c r="DV28" s="24"/>
-      <c r="DW28" s="24"/>
-      <c r="DX28" s="24"/>
-      <c r="DY28" s="24"/>
-      <c r="DZ28" s="24"/>
+      <c r="DQ28" s="1">
+        <v>51495</v>
+      </c>
+      <c r="DR28" s="17"/>
+      <c r="DS28" s="17"/>
+      <c r="DT28" s="17"/>
+      <c r="DU28" s="17"/>
+      <c r="DV28" s="17"/>
+      <c r="DW28" s="17"/>
+      <c r="DX28" s="17"/>
+      <c r="DY28" s="17"/>
+      <c r="DZ28" s="17"/>
     </row>
     <row r="29" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -9322,16 +9362,18 @@
       <c r="DP29" s="1">
         <v>36</v>
       </c>
-      <c r="DQ29" s="24"/>
-      <c r="DR29" s="24"/>
-      <c r="DS29" s="24"/>
-      <c r="DT29" s="24"/>
-      <c r="DU29" s="24"/>
-      <c r="DV29" s="24"/>
-      <c r="DW29" s="24"/>
-      <c r="DX29" s="24"/>
-      <c r="DY29" s="24"/>
-      <c r="DZ29" s="24"/>
+      <c r="DQ29" s="1">
+        <v>82</v>
+      </c>
+      <c r="DR29" s="17"/>
+      <c r="DS29" s="17"/>
+      <c r="DT29" s="17"/>
+      <c r="DU29" s="17"/>
+      <c r="DV29" s="17"/>
+      <c r="DW29" s="17"/>
+      <c r="DX29" s="17"/>
+      <c r="DY29" s="17"/>
+      <c r="DZ29" s="17"/>
     </row>
     <row r="30" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -9694,16 +9736,18 @@
       <c r="DP30" s="1">
         <v>609</v>
       </c>
-      <c r="DQ30" s="24"/>
-      <c r="DR30" s="24"/>
-      <c r="DS30" s="24"/>
-      <c r="DT30" s="24"/>
-      <c r="DU30" s="24"/>
-      <c r="DV30" s="24"/>
-      <c r="DW30" s="24"/>
-      <c r="DX30" s="24"/>
-      <c r="DY30" s="24"/>
-      <c r="DZ30" s="24"/>
+      <c r="DQ30" s="1">
+        <v>678</v>
+      </c>
+      <c r="DR30" s="17"/>
+      <c r="DS30" s="17"/>
+      <c r="DT30" s="17"/>
+      <c r="DU30" s="17"/>
+      <c r="DV30" s="17"/>
+      <c r="DW30" s="17"/>
+      <c r="DX30" s="17"/>
+      <c r="DY30" s="17"/>
+      <c r="DZ30" s="17"/>
     </row>
     <row r="31" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -10062,16 +10106,18 @@
       <c r="DP31" s="1">
         <v>388</v>
       </c>
-      <c r="DQ31" s="24"/>
-      <c r="DR31" s="24"/>
-      <c r="DS31" s="24"/>
-      <c r="DT31" s="24"/>
-      <c r="DU31" s="24"/>
-      <c r="DV31" s="24"/>
-      <c r="DW31" s="24"/>
-      <c r="DX31" s="24"/>
-      <c r="DY31" s="24"/>
-      <c r="DZ31" s="24"/>
+      <c r="DQ31" s="1">
+        <v>546</v>
+      </c>
+      <c r="DR31" s="17"/>
+      <c r="DS31" s="17"/>
+      <c r="DT31" s="17"/>
+      <c r="DU31" s="17"/>
+      <c r="DV31" s="17"/>
+      <c r="DW31" s="17"/>
+      <c r="DX31" s="17"/>
+      <c r="DY31" s="17"/>
+      <c r="DZ31" s="17"/>
     </row>
     <row r="32" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -10434,16 +10480,18 @@
       <c r="DP32" s="1">
         <v>424</v>
       </c>
-      <c r="DQ32" s="24"/>
-      <c r="DR32" s="24"/>
-      <c r="DS32" s="24"/>
-      <c r="DT32" s="24"/>
-      <c r="DU32" s="24"/>
-      <c r="DV32" s="24"/>
-      <c r="DW32" s="24"/>
-      <c r="DX32" s="24"/>
-      <c r="DY32" s="24"/>
-      <c r="DZ32" s="24"/>
+      <c r="DQ32" s="1">
+        <v>788</v>
+      </c>
+      <c r="DR32" s="17"/>
+      <c r="DS32" s="17"/>
+      <c r="DT32" s="17"/>
+      <c r="DU32" s="17"/>
+      <c r="DV32" s="17"/>
+      <c r="DW32" s="17"/>
+      <c r="DX32" s="17"/>
+      <c r="DY32" s="17"/>
+      <c r="DZ32" s="17"/>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -10806,16 +10854,18 @@
       <c r="DP33" s="1">
         <v>1193</v>
       </c>
-      <c r="DQ33" s="24"/>
-      <c r="DR33" s="24"/>
-      <c r="DS33" s="24"/>
-      <c r="DT33" s="24"/>
-      <c r="DU33" s="24"/>
-      <c r="DV33" s="24"/>
-      <c r="DW33" s="24"/>
-      <c r="DX33" s="24"/>
-      <c r="DY33" s="24"/>
-      <c r="DZ33" s="24"/>
+      <c r="DQ33" s="1">
+        <v>2164</v>
+      </c>
+      <c r="DR33" s="17"/>
+      <c r="DS33" s="17"/>
+      <c r="DT33" s="17"/>
+      <c r="DU33" s="17"/>
+      <c r="DV33" s="17"/>
+      <c r="DW33" s="17"/>
+      <c r="DX33" s="17"/>
+      <c r="DY33" s="17"/>
+      <c r="DZ33" s="17"/>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -11178,16 +11228,18 @@
       <c r="DP34" s="1">
         <v>67287</v>
       </c>
-      <c r="DQ34" s="24"/>
-      <c r="DR34" s="24"/>
-      <c r="DS34" s="24"/>
-      <c r="DT34" s="24"/>
-      <c r="DU34" s="24"/>
-      <c r="DV34" s="24"/>
-      <c r="DW34" s="24"/>
-      <c r="DX34" s="24"/>
-      <c r="DY34" s="24"/>
-      <c r="DZ34" s="24"/>
+      <c r="DQ34" s="1">
+        <v>121962</v>
+      </c>
+      <c r="DR34" s="17"/>
+      <c r="DS34" s="17"/>
+      <c r="DT34" s="17"/>
+      <c r="DU34" s="17"/>
+      <c r="DV34" s="17"/>
+      <c r="DW34" s="17"/>
+      <c r="DX34" s="17"/>
+      <c r="DY34" s="17"/>
+      <c r="DZ34" s="17"/>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -11484,16 +11536,18 @@
       <c r="DP35" s="1">
         <v>19</v>
       </c>
-      <c r="DQ35" s="24"/>
-      <c r="DR35" s="24"/>
-      <c r="DS35" s="24"/>
-      <c r="DT35" s="24"/>
-      <c r="DU35" s="24"/>
-      <c r="DV35" s="24"/>
-      <c r="DW35" s="24"/>
-      <c r="DX35" s="24"/>
-      <c r="DY35" s="24"/>
-      <c r="DZ35" s="24"/>
+      <c r="DQ35" s="1">
+        <v>16</v>
+      </c>
+      <c r="DR35" s="17"/>
+      <c r="DS35" s="17"/>
+      <c r="DT35" s="17"/>
+      <c r="DU35" s="17"/>
+      <c r="DV35" s="17"/>
+      <c r="DW35" s="17"/>
+      <c r="DX35" s="17"/>
+      <c r="DY35" s="17"/>
+      <c r="DZ35" s="17"/>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -11856,16 +11910,18 @@
       <c r="DP36" s="1">
         <v>733</v>
       </c>
-      <c r="DQ36" s="24"/>
-      <c r="DR36" s="24"/>
-      <c r="DS36" s="24"/>
-      <c r="DT36" s="24"/>
-      <c r="DU36" s="24"/>
-      <c r="DV36" s="24"/>
-      <c r="DW36" s="24"/>
-      <c r="DX36" s="24"/>
-      <c r="DY36" s="24"/>
-      <c r="DZ36" s="24"/>
+      <c r="DQ36" s="1">
+        <v>1480</v>
+      </c>
+      <c r="DR36" s="17"/>
+      <c r="DS36" s="17"/>
+      <c r="DT36" s="17"/>
+      <c r="DU36" s="17"/>
+      <c r="DV36" s="17"/>
+      <c r="DW36" s="17"/>
+      <c r="DX36" s="17"/>
+      <c r="DY36" s="17"/>
+      <c r="DZ36" s="17"/>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -12222,16 +12278,18 @@
       <c r="DP37" s="1">
         <v>29</v>
       </c>
-      <c r="DQ37" s="24"/>
-      <c r="DR37" s="24"/>
-      <c r="DS37" s="24"/>
-      <c r="DT37" s="24"/>
-      <c r="DU37" s="24"/>
-      <c r="DV37" s="24"/>
-      <c r="DW37" s="24"/>
-      <c r="DX37" s="24"/>
-      <c r="DY37" s="24"/>
-      <c r="DZ37" s="24"/>
+      <c r="DQ37" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR37" s="17"/>
+      <c r="DS37" s="17"/>
+      <c r="DT37" s="17"/>
+      <c r="DU37" s="17"/>
+      <c r="DV37" s="17"/>
+      <c r="DW37" s="17"/>
+      <c r="DX37" s="17"/>
+      <c r="DY37" s="17"/>
+      <c r="DZ37" s="17"/>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -12594,16 +12652,18 @@
       <c r="DP38" s="1">
         <v>3712</v>
       </c>
-      <c r="DQ38" s="24"/>
-      <c r="DR38" s="24"/>
-      <c r="DS38" s="24"/>
-      <c r="DT38" s="24"/>
-      <c r="DU38" s="24"/>
-      <c r="DV38" s="24"/>
-      <c r="DW38" s="24"/>
-      <c r="DX38" s="24"/>
-      <c r="DY38" s="24"/>
-      <c r="DZ38" s="24"/>
+      <c r="DQ38" s="1">
+        <v>5743</v>
+      </c>
+      <c r="DR38" s="17"/>
+      <c r="DS38" s="17"/>
+      <c r="DT38" s="17"/>
+      <c r="DU38" s="17"/>
+      <c r="DV38" s="17"/>
+      <c r="DW38" s="17"/>
+      <c r="DX38" s="17"/>
+      <c r="DY38" s="17"/>
+      <c r="DZ38" s="17"/>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -12966,16 +13026,18 @@
       <c r="DP39" s="1">
         <v>1377</v>
       </c>
-      <c r="DQ39" s="24"/>
-      <c r="DR39" s="24"/>
-      <c r="DS39" s="24"/>
-      <c r="DT39" s="24"/>
-      <c r="DU39" s="24"/>
-      <c r="DV39" s="24"/>
-      <c r="DW39" s="24"/>
-      <c r="DX39" s="24"/>
-      <c r="DY39" s="24"/>
-      <c r="DZ39" s="24"/>
+      <c r="DQ39" s="1">
+        <v>2234</v>
+      </c>
+      <c r="DR39" s="17"/>
+      <c r="DS39" s="17"/>
+      <c r="DT39" s="17"/>
+      <c r="DU39" s="17"/>
+      <c r="DV39" s="17"/>
+      <c r="DW39" s="17"/>
+      <c r="DX39" s="17"/>
+      <c r="DY39" s="17"/>
+      <c r="DZ39" s="17"/>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -13338,16 +13400,18 @@
       <c r="DP40" s="1">
         <v>31</v>
       </c>
-      <c r="DQ40" s="24"/>
-      <c r="DR40" s="24"/>
-      <c r="DS40" s="24"/>
-      <c r="DT40" s="24"/>
-      <c r="DU40" s="24"/>
-      <c r="DV40" s="24"/>
-      <c r="DW40" s="24"/>
-      <c r="DX40" s="24"/>
-      <c r="DY40" s="24"/>
-      <c r="DZ40" s="24"/>
+      <c r="DQ40" s="1">
+        <v>65</v>
+      </c>
+      <c r="DR40" s="17"/>
+      <c r="DS40" s="17"/>
+      <c r="DT40" s="17"/>
+      <c r="DU40" s="17"/>
+      <c r="DV40" s="17"/>
+      <c r="DW40" s="17"/>
+      <c r="DX40" s="17"/>
+      <c r="DY40" s="17"/>
+      <c r="DZ40" s="17"/>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -13570,16 +13634,16 @@
       <c r="DP41" s="1">
         <v>3</v>
       </c>
-      <c r="DQ41" s="24"/>
-      <c r="DR41" s="24"/>
-      <c r="DS41" s="24"/>
-      <c r="DT41" s="24"/>
-      <c r="DU41" s="24"/>
-      <c r="DV41" s="24"/>
-      <c r="DW41" s="24"/>
-      <c r="DX41" s="24"/>
-      <c r="DY41" s="24"/>
-      <c r="DZ41" s="24"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="17"/>
+      <c r="DS41" s="17"/>
+      <c r="DT41" s="17"/>
+      <c r="DU41" s="17"/>
+      <c r="DV41" s="17"/>
+      <c r="DW41" s="17"/>
+      <c r="DX41" s="17"/>
+      <c r="DY41" s="17"/>
+      <c r="DZ41" s="17"/>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -13934,16 +13998,18 @@
         <v>16</v>
       </c>
       <c r="DP42" s="1"/>
-      <c r="DQ42" s="24"/>
-      <c r="DR42" s="24"/>
-      <c r="DS42" s="24"/>
-      <c r="DT42" s="24"/>
-      <c r="DU42" s="24"/>
-      <c r="DV42" s="24"/>
-      <c r="DW42" s="24"/>
-      <c r="DX42" s="24"/>
-      <c r="DY42" s="24"/>
-      <c r="DZ42" s="24"/>
+      <c r="DQ42" s="1">
+        <v>18</v>
+      </c>
+      <c r="DR42" s="17"/>
+      <c r="DS42" s="17"/>
+      <c r="DT42" s="17"/>
+      <c r="DU42" s="17"/>
+      <c r="DV42" s="17"/>
+      <c r="DW42" s="17"/>
+      <c r="DX42" s="17"/>
+      <c r="DY42" s="17"/>
+      <c r="DZ42" s="17"/>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -14306,16 +14372,18 @@
       <c r="DP43" s="1">
         <v>3837</v>
       </c>
-      <c r="DQ43" s="24"/>
-      <c r="DR43" s="24"/>
-      <c r="DS43" s="24"/>
-      <c r="DT43" s="24"/>
-      <c r="DU43" s="24"/>
-      <c r="DV43" s="24"/>
-      <c r="DW43" s="24"/>
-      <c r="DX43" s="24"/>
-      <c r="DY43" s="24"/>
-      <c r="DZ43" s="24"/>
+      <c r="DQ43" s="1">
+        <v>6490</v>
+      </c>
+      <c r="DR43" s="17"/>
+      <c r="DS43" s="17"/>
+      <c r="DT43" s="17"/>
+      <c r="DU43" s="17"/>
+      <c r="DV43" s="17"/>
+      <c r="DW43" s="17"/>
+      <c r="DX43" s="17"/>
+      <c r="DY43" s="17"/>
+      <c r="DZ43" s="17"/>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -14678,16 +14746,18 @@
       <c r="DP44" s="1">
         <v>3917</v>
       </c>
-      <c r="DQ44" s="24"/>
-      <c r="DR44" s="24"/>
-      <c r="DS44" s="24"/>
-      <c r="DT44" s="24"/>
-      <c r="DU44" s="24"/>
-      <c r="DV44" s="24"/>
-      <c r="DW44" s="24"/>
-      <c r="DX44" s="24"/>
-      <c r="DY44" s="24"/>
-      <c r="DZ44" s="24"/>
+      <c r="DQ44" s="1">
+        <v>5628</v>
+      </c>
+      <c r="DR44" s="17"/>
+      <c r="DS44" s="17"/>
+      <c r="DT44" s="17"/>
+      <c r="DU44" s="17"/>
+      <c r="DV44" s="17"/>
+      <c r="DW44" s="17"/>
+      <c r="DX44" s="17"/>
+      <c r="DY44" s="17"/>
+      <c r="DZ44" s="17"/>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -15050,16 +15120,18 @@
       <c r="DP45" s="1">
         <v>1280</v>
       </c>
-      <c r="DQ45" s="24"/>
-      <c r="DR45" s="24"/>
-      <c r="DS45" s="24"/>
-      <c r="DT45" s="24"/>
-      <c r="DU45" s="24"/>
-      <c r="DV45" s="24"/>
-      <c r="DW45" s="24"/>
-      <c r="DX45" s="24"/>
-      <c r="DY45" s="24"/>
-      <c r="DZ45" s="24"/>
+      <c r="DQ45" s="1">
+        <v>2823</v>
+      </c>
+      <c r="DR45" s="17"/>
+      <c r="DS45" s="17"/>
+      <c r="DT45" s="17"/>
+      <c r="DU45" s="17"/>
+      <c r="DV45" s="17"/>
+      <c r="DW45" s="17"/>
+      <c r="DX45" s="17"/>
+      <c r="DY45" s="17"/>
+      <c r="DZ45" s="17"/>
     </row>
     <row r="46" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -15374,16 +15446,18 @@
       <c r="DP46" s="1">
         <v>5</v>
       </c>
-      <c r="DQ46" s="24"/>
-      <c r="DR46" s="24"/>
-      <c r="DS46" s="24"/>
-      <c r="DT46" s="24"/>
-      <c r="DU46" s="24"/>
-      <c r="DV46" s="24"/>
-      <c r="DW46" s="24"/>
-      <c r="DX46" s="24"/>
-      <c r="DY46" s="24"/>
-      <c r="DZ46" s="24"/>
+      <c r="DQ46" s="1">
+        <v>5</v>
+      </c>
+      <c r="DR46" s="17"/>
+      <c r="DS46" s="17"/>
+      <c r="DT46" s="17"/>
+      <c r="DU46" s="17"/>
+      <c r="DV46" s="17"/>
+      <c r="DW46" s="17"/>
+      <c r="DX46" s="17"/>
+      <c r="DY46" s="17"/>
+      <c r="DZ46" s="17"/>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -15734,16 +15808,18 @@
       <c r="DP47" s="1">
         <v>8</v>
       </c>
-      <c r="DQ47" s="24"/>
-      <c r="DR47" s="24"/>
-      <c r="DS47" s="24"/>
-      <c r="DT47" s="24"/>
-      <c r="DU47" s="24"/>
-      <c r="DV47" s="24"/>
-      <c r="DW47" s="24"/>
-      <c r="DX47" s="24"/>
-      <c r="DY47" s="24"/>
-      <c r="DZ47" s="24"/>
+      <c r="DQ47" s="1">
+        <v>20</v>
+      </c>
+      <c r="DR47" s="17"/>
+      <c r="DS47" s="17"/>
+      <c r="DT47" s="17"/>
+      <c r="DU47" s="17"/>
+      <c r="DV47" s="17"/>
+      <c r="DW47" s="17"/>
+      <c r="DX47" s="17"/>
+      <c r="DY47" s="17"/>
+      <c r="DZ47" s="17"/>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -16100,16 +16176,18 @@
       <c r="DP48" s="1">
         <v>754</v>
       </c>
-      <c r="DQ48" s="24"/>
-      <c r="DR48" s="24"/>
-      <c r="DS48" s="24"/>
-      <c r="DT48" s="24"/>
-      <c r="DU48" s="24"/>
-      <c r="DV48" s="24"/>
-      <c r="DW48" s="24"/>
-      <c r="DX48" s="24"/>
-      <c r="DY48" s="24"/>
-      <c r="DZ48" s="24"/>
+      <c r="DQ48" s="1">
+        <v>1502</v>
+      </c>
+      <c r="DR48" s="17"/>
+      <c r="DS48" s="17"/>
+      <c r="DT48" s="17"/>
+      <c r="DU48" s="17"/>
+      <c r="DV48" s="17"/>
+      <c r="DW48" s="17"/>
+      <c r="DX48" s="17"/>
+      <c r="DY48" s="17"/>
+      <c r="DZ48" s="17"/>
     </row>
     <row r="49" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -16438,16 +16516,18 @@
       <c r="DP49" s="1">
         <v>8</v>
       </c>
-      <c r="DQ49" s="24"/>
-      <c r="DR49" s="24"/>
-      <c r="DS49" s="24"/>
-      <c r="DT49" s="24"/>
-      <c r="DU49" s="24"/>
-      <c r="DV49" s="24"/>
-      <c r="DW49" s="24"/>
-      <c r="DX49" s="24"/>
-      <c r="DY49" s="24"/>
-      <c r="DZ49" s="24"/>
+      <c r="DQ49" s="1">
+        <v>49</v>
+      </c>
+      <c r="DR49" s="17"/>
+      <c r="DS49" s="17"/>
+      <c r="DT49" s="17"/>
+      <c r="DU49" s="17"/>
+      <c r="DV49" s="17"/>
+      <c r="DW49" s="17"/>
+      <c r="DX49" s="17"/>
+      <c r="DY49" s="17"/>
+      <c r="DZ49" s="17"/>
     </row>
     <row r="50" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -16792,16 +16872,18 @@
       <c r="DP50" s="1">
         <v>100</v>
       </c>
-      <c r="DQ50" s="24"/>
-      <c r="DR50" s="24"/>
-      <c r="DS50" s="24"/>
-      <c r="DT50" s="24"/>
-      <c r="DU50" s="24"/>
-      <c r="DV50" s="24"/>
-      <c r="DW50" s="24"/>
-      <c r="DX50" s="24"/>
-      <c r="DY50" s="24"/>
-      <c r="DZ50" s="24"/>
+      <c r="DQ50" s="1">
+        <v>204</v>
+      </c>
+      <c r="DR50" s="17"/>
+      <c r="DS50" s="17"/>
+      <c r="DT50" s="17"/>
+      <c r="DU50" s="17"/>
+      <c r="DV50" s="17"/>
+      <c r="DW50" s="17"/>
+      <c r="DX50" s="17"/>
+      <c r="DY50" s="17"/>
+      <c r="DZ50" s="17"/>
     </row>
     <row r="51" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -17076,16 +17158,18 @@
         <v>2</v>
       </c>
       <c r="DP51" s="1"/>
-      <c r="DQ51" s="24"/>
-      <c r="DR51" s="24"/>
-      <c r="DS51" s="24"/>
-      <c r="DT51" s="24"/>
-      <c r="DU51" s="24"/>
-      <c r="DV51" s="24"/>
-      <c r="DW51" s="24"/>
-      <c r="DX51" s="24"/>
-      <c r="DY51" s="24"/>
-      <c r="DZ51" s="24"/>
+      <c r="DQ51" s="1">
+        <v>18</v>
+      </c>
+      <c r="DR51" s="17"/>
+      <c r="DS51" s="17"/>
+      <c r="DT51" s="17"/>
+      <c r="DU51" s="17"/>
+      <c r="DV51" s="17"/>
+      <c r="DW51" s="17"/>
+      <c r="DX51" s="17"/>
+      <c r="DY51" s="17"/>
+      <c r="DZ51" s="17"/>
     </row>
     <row r="52" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -17432,16 +17516,18 @@
       <c r="DP52" s="1">
         <v>78</v>
       </c>
-      <c r="DQ52" s="24"/>
-      <c r="DR52" s="24"/>
-      <c r="DS52" s="24"/>
-      <c r="DT52" s="24"/>
-      <c r="DU52" s="24"/>
-      <c r="DV52" s="24"/>
-      <c r="DW52" s="24"/>
-      <c r="DX52" s="24"/>
-      <c r="DY52" s="24"/>
-      <c r="DZ52" s="24"/>
+      <c r="DQ52" s="1">
+        <v>88</v>
+      </c>
+      <c r="DR52" s="17"/>
+      <c r="DS52" s="17"/>
+      <c r="DT52" s="17"/>
+      <c r="DU52" s="17"/>
+      <c r="DV52" s="17"/>
+      <c r="DW52" s="17"/>
+      <c r="DX52" s="17"/>
+      <c r="DY52" s="17"/>
+      <c r="DZ52" s="17"/>
     </row>
     <row r="53" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -17804,16 +17890,18 @@
       <c r="DP53" s="1">
         <v>39919</v>
       </c>
-      <c r="DQ53" s="24"/>
-      <c r="DR53" s="24"/>
-      <c r="DS53" s="24"/>
-      <c r="DT53" s="24"/>
-      <c r="DU53" s="24"/>
-      <c r="DV53" s="24"/>
-      <c r="DW53" s="24"/>
-      <c r="DX53" s="24"/>
-      <c r="DY53" s="24"/>
-      <c r="DZ53" s="24"/>
+      <c r="DQ53" s="1">
+        <v>74455</v>
+      </c>
+      <c r="DR53" s="17"/>
+      <c r="DS53" s="17"/>
+      <c r="DT53" s="17"/>
+      <c r="DU53" s="17"/>
+      <c r="DV53" s="17"/>
+      <c r="DW53" s="17"/>
+      <c r="DX53" s="17"/>
+      <c r="DY53" s="17"/>
+      <c r="DZ53" s="17"/>
     </row>
     <row r="54" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -18176,16 +18264,18 @@
       <c r="DP54" s="1">
         <v>2156</v>
       </c>
-      <c r="DQ54" s="24"/>
-      <c r="DR54" s="24"/>
-      <c r="DS54" s="24"/>
-      <c r="DT54" s="24"/>
-      <c r="DU54" s="24"/>
-      <c r="DV54" s="24"/>
-      <c r="DW54" s="24"/>
-      <c r="DX54" s="24"/>
-      <c r="DY54" s="24"/>
-      <c r="DZ54" s="24"/>
+      <c r="DQ54" s="1">
+        <v>3688</v>
+      </c>
+      <c r="DR54" s="17"/>
+      <c r="DS54" s="17"/>
+      <c r="DT54" s="17"/>
+      <c r="DU54" s="17"/>
+      <c r="DV54" s="17"/>
+      <c r="DW54" s="17"/>
+      <c r="DX54" s="17"/>
+      <c r="DY54" s="17"/>
+      <c r="DZ54" s="17"/>
     </row>
     <row r="55" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -18548,16 +18638,18 @@
       <c r="DP55" s="1">
         <v>16</v>
       </c>
-      <c r="DQ55" s="24"/>
-      <c r="DR55" s="24"/>
-      <c r="DS55" s="24"/>
-      <c r="DT55" s="24"/>
-      <c r="DU55" s="24"/>
-      <c r="DV55" s="24"/>
-      <c r="DW55" s="24"/>
-      <c r="DX55" s="24"/>
-      <c r="DY55" s="24"/>
-      <c r="DZ55" s="24"/>
+      <c r="DQ55" s="1">
+        <v>30</v>
+      </c>
+      <c r="DR55" s="17"/>
+      <c r="DS55" s="17"/>
+      <c r="DT55" s="17"/>
+      <c r="DU55" s="17"/>
+      <c r="DV55" s="17"/>
+      <c r="DW55" s="17"/>
+      <c r="DX55" s="17"/>
+      <c r="DY55" s="17"/>
+      <c r="DZ55" s="17"/>
     </row>
     <row r="56" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -18920,16 +19012,18 @@
       <c r="DP56" s="1">
         <v>62</v>
       </c>
-      <c r="DQ56" s="24"/>
-      <c r="DR56" s="24"/>
-      <c r="DS56" s="24"/>
-      <c r="DT56" s="24"/>
-      <c r="DU56" s="24"/>
-      <c r="DV56" s="24"/>
-      <c r="DW56" s="24"/>
-      <c r="DX56" s="24"/>
-      <c r="DY56" s="24"/>
-      <c r="DZ56" s="24"/>
+      <c r="DQ56" s="1">
+        <v>127</v>
+      </c>
+      <c r="DR56" s="17"/>
+      <c r="DS56" s="17"/>
+      <c r="DT56" s="17"/>
+      <c r="DU56" s="17"/>
+      <c r="DV56" s="17"/>
+      <c r="DW56" s="17"/>
+      <c r="DX56" s="17"/>
+      <c r="DY56" s="17"/>
+      <c r="DZ56" s="17"/>
     </row>
     <row r="57" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -19292,16 +19386,18 @@
       <c r="DP57" s="1">
         <v>53</v>
       </c>
-      <c r="DQ57" s="24"/>
-      <c r="DR57" s="24"/>
-      <c r="DS57" s="24"/>
-      <c r="DT57" s="24"/>
-      <c r="DU57" s="24"/>
-      <c r="DV57" s="24"/>
-      <c r="DW57" s="24"/>
-      <c r="DX57" s="24"/>
-      <c r="DY57" s="24"/>
-      <c r="DZ57" s="24"/>
+      <c r="DQ57" s="1">
+        <v>91</v>
+      </c>
+      <c r="DR57" s="17"/>
+      <c r="DS57" s="17"/>
+      <c r="DT57" s="17"/>
+      <c r="DU57" s="17"/>
+      <c r="DV57" s="17"/>
+      <c r="DW57" s="17"/>
+      <c r="DX57" s="17"/>
+      <c r="DY57" s="17"/>
+      <c r="DZ57" s="17"/>
     </row>
     <row r="58" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -19664,16 +19760,18 @@
       <c r="DP58" s="1">
         <v>1029</v>
       </c>
-      <c r="DQ58" s="24"/>
-      <c r="DR58" s="24"/>
-      <c r="DS58" s="24"/>
-      <c r="DT58" s="24"/>
-      <c r="DU58" s="24"/>
-      <c r="DV58" s="24"/>
-      <c r="DW58" s="24"/>
-      <c r="DX58" s="24"/>
-      <c r="DY58" s="24"/>
-      <c r="DZ58" s="24"/>
+      <c r="DQ58" s="1">
+        <v>2023</v>
+      </c>
+      <c r="DR58" s="17"/>
+      <c r="DS58" s="17"/>
+      <c r="DT58" s="17"/>
+      <c r="DU58" s="17"/>
+      <c r="DV58" s="17"/>
+      <c r="DW58" s="17"/>
+      <c r="DX58" s="17"/>
+      <c r="DY58" s="17"/>
+      <c r="DZ58" s="17"/>
     </row>
     <row r="59" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -20036,16 +20134,18 @@
       <c r="DP59" s="1">
         <v>3907</v>
       </c>
-      <c r="DQ59" s="24"/>
-      <c r="DR59" s="24"/>
-      <c r="DS59" s="24"/>
-      <c r="DT59" s="24"/>
-      <c r="DU59" s="24"/>
-      <c r="DV59" s="24"/>
-      <c r="DW59" s="24"/>
-      <c r="DX59" s="24"/>
-      <c r="DY59" s="24"/>
-      <c r="DZ59" s="24"/>
+      <c r="DQ59" s="1">
+        <v>7091</v>
+      </c>
+      <c r="DR59" s="17"/>
+      <c r="DS59" s="17"/>
+      <c r="DT59" s="17"/>
+      <c r="DU59" s="17"/>
+      <c r="DV59" s="17"/>
+      <c r="DW59" s="17"/>
+      <c r="DX59" s="17"/>
+      <c r="DY59" s="17"/>
+      <c r="DZ59" s="17"/>
     </row>
     <row r="60" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -20408,16 +20508,18 @@
       <c r="DP60" s="1">
         <v>322</v>
       </c>
-      <c r="DQ60" s="24"/>
-      <c r="DR60" s="24"/>
-      <c r="DS60" s="24"/>
-      <c r="DT60" s="24"/>
-      <c r="DU60" s="24"/>
-      <c r="DV60" s="24"/>
-      <c r="DW60" s="24"/>
-      <c r="DX60" s="24"/>
-      <c r="DY60" s="24"/>
-      <c r="DZ60" s="24"/>
+      <c r="DQ60" s="1">
+        <v>598</v>
+      </c>
+      <c r="DR60" s="17"/>
+      <c r="DS60" s="17"/>
+      <c r="DT60" s="17"/>
+      <c r="DU60" s="17"/>
+      <c r="DV60" s="17"/>
+      <c r="DW60" s="17"/>
+      <c r="DX60" s="17"/>
+      <c r="DY60" s="17"/>
+      <c r="DZ60" s="17"/>
     </row>
     <row r="61" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -20780,16 +20882,18 @@
       <c r="DP61" s="1">
         <v>88</v>
       </c>
-      <c r="DQ61" s="24"/>
-      <c r="DR61" s="24"/>
-      <c r="DS61" s="24"/>
-      <c r="DT61" s="24"/>
-      <c r="DU61" s="24"/>
-      <c r="DV61" s="24"/>
-      <c r="DW61" s="24"/>
-      <c r="DX61" s="24"/>
-      <c r="DY61" s="24"/>
-      <c r="DZ61" s="24"/>
+      <c r="DQ61" s="1">
+        <v>168</v>
+      </c>
+      <c r="DR61" s="17"/>
+      <c r="DS61" s="17"/>
+      <c r="DT61" s="17"/>
+      <c r="DU61" s="17"/>
+      <c r="DV61" s="17"/>
+      <c r="DW61" s="17"/>
+      <c r="DX61" s="17"/>
+      <c r="DY61" s="17"/>
+      <c r="DZ61" s="17"/>
     </row>
     <row r="62" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -21152,16 +21256,18 @@
       <c r="DP62" s="1">
         <v>169</v>
       </c>
-      <c r="DQ62" s="24"/>
-      <c r="DR62" s="24"/>
-      <c r="DS62" s="24"/>
-      <c r="DT62" s="24"/>
-      <c r="DU62" s="24"/>
-      <c r="DV62" s="24"/>
-      <c r="DW62" s="24"/>
-      <c r="DX62" s="24"/>
-      <c r="DY62" s="24"/>
-      <c r="DZ62" s="24"/>
+      <c r="DQ62" s="1">
+        <v>236</v>
+      </c>
+      <c r="DR62" s="17"/>
+      <c r="DS62" s="17"/>
+      <c r="DT62" s="17"/>
+      <c r="DU62" s="17"/>
+      <c r="DV62" s="17"/>
+      <c r="DW62" s="17"/>
+      <c r="DX62" s="17"/>
+      <c r="DY62" s="17"/>
+      <c r="DZ62" s="17"/>
     </row>
     <row r="63" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -21524,16 +21630,18 @@
       <c r="DP63" s="1">
         <v>257</v>
       </c>
-      <c r="DQ63" s="24"/>
-      <c r="DR63" s="24"/>
-      <c r="DS63" s="24"/>
-      <c r="DT63" s="24"/>
-      <c r="DU63" s="24"/>
-      <c r="DV63" s="24"/>
-      <c r="DW63" s="24"/>
-      <c r="DX63" s="24"/>
-      <c r="DY63" s="24"/>
-      <c r="DZ63" s="24"/>
+      <c r="DQ63" s="1">
+        <v>425</v>
+      </c>
+      <c r="DR63" s="17"/>
+      <c r="DS63" s="17"/>
+      <c r="DT63" s="17"/>
+      <c r="DU63" s="17"/>
+      <c r="DV63" s="17"/>
+      <c r="DW63" s="17"/>
+      <c r="DX63" s="17"/>
+      <c r="DY63" s="17"/>
+      <c r="DZ63" s="17"/>
     </row>
     <row r="64" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -21896,16 +22004,18 @@
       <c r="DP64" s="1">
         <v>248</v>
       </c>
-      <c r="DQ64" s="24"/>
-      <c r="DR64" s="24"/>
-      <c r="DS64" s="24"/>
-      <c r="DT64" s="24"/>
-      <c r="DU64" s="24"/>
-      <c r="DV64" s="24"/>
-      <c r="DW64" s="24"/>
-      <c r="DX64" s="24"/>
-      <c r="DY64" s="24"/>
-      <c r="DZ64" s="24"/>
+      <c r="DQ64" s="1">
+        <v>472</v>
+      </c>
+      <c r="DR64" s="17"/>
+      <c r="DS64" s="17"/>
+      <c r="DT64" s="17"/>
+      <c r="DU64" s="17"/>
+      <c r="DV64" s="17"/>
+      <c r="DW64" s="17"/>
+      <c r="DX64" s="17"/>
+      <c r="DY64" s="17"/>
+      <c r="DZ64" s="17"/>
     </row>
     <row r="65" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -22184,16 +22294,18 @@
         <v>5</v>
       </c>
       <c r="DP65" s="1"/>
-      <c r="DQ65" s="24"/>
-      <c r="DR65" s="24"/>
-      <c r="DS65" s="24"/>
-      <c r="DT65" s="24"/>
-      <c r="DU65" s="24"/>
-      <c r="DV65" s="24"/>
-      <c r="DW65" s="24"/>
-      <c r="DX65" s="24"/>
-      <c r="DY65" s="24"/>
-      <c r="DZ65" s="24"/>
+      <c r="DQ65" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR65" s="17"/>
+      <c r="DS65" s="17"/>
+      <c r="DT65" s="17"/>
+      <c r="DU65" s="17"/>
+      <c r="DV65" s="17"/>
+      <c r="DW65" s="17"/>
+      <c r="DX65" s="17"/>
+      <c r="DY65" s="17"/>
+      <c r="DZ65" s="17"/>
     </row>
     <row r="66" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -22518,16 +22630,16 @@
         <v>117</v>
       </c>
       <c r="DP66" s="1"/>
-      <c r="DQ66" s="24"/>
-      <c r="DR66" s="24"/>
-      <c r="DS66" s="24"/>
-      <c r="DT66" s="24"/>
-      <c r="DU66" s="24"/>
-      <c r="DV66" s="24"/>
-      <c r="DW66" s="24"/>
-      <c r="DX66" s="24"/>
-      <c r="DY66" s="24"/>
-      <c r="DZ66" s="24"/>
+      <c r="DQ66" s="1"/>
+      <c r="DR66" s="17"/>
+      <c r="DS66" s="17"/>
+      <c r="DT66" s="17"/>
+      <c r="DU66" s="17"/>
+      <c r="DV66" s="17"/>
+      <c r="DW66" s="17"/>
+      <c r="DX66" s="17"/>
+      <c r="DY66" s="17"/>
+      <c r="DZ66" s="17"/>
     </row>
     <row r="67" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -22890,16 +23002,18 @@
       <c r="DP67" s="1">
         <v>307</v>
       </c>
-      <c r="DQ67" s="24"/>
-      <c r="DR67" s="24"/>
-      <c r="DS67" s="24"/>
-      <c r="DT67" s="24"/>
-      <c r="DU67" s="24"/>
-      <c r="DV67" s="24"/>
-      <c r="DW67" s="24"/>
-      <c r="DX67" s="24"/>
-      <c r="DY67" s="24"/>
-      <c r="DZ67" s="24"/>
+      <c r="DQ67" s="1">
+        <v>610</v>
+      </c>
+      <c r="DR67" s="17"/>
+      <c r="DS67" s="17"/>
+      <c r="DT67" s="17"/>
+      <c r="DU67" s="17"/>
+      <c r="DV67" s="17"/>
+      <c r="DW67" s="17"/>
+      <c r="DX67" s="17"/>
+      <c r="DY67" s="17"/>
+      <c r="DZ67" s="17"/>
     </row>
     <row r="68" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -23250,16 +23364,18 @@
       <c r="DP68" s="1">
         <v>28</v>
       </c>
-      <c r="DQ68" s="24"/>
-      <c r="DR68" s="24"/>
-      <c r="DS68" s="24"/>
-      <c r="DT68" s="24"/>
-      <c r="DU68" s="24"/>
-      <c r="DV68" s="24"/>
-      <c r="DW68" s="24"/>
-      <c r="DX68" s="24"/>
-      <c r="DY68" s="24"/>
-      <c r="DZ68" s="24"/>
+      <c r="DQ68" s="1">
+        <v>39</v>
+      </c>
+      <c r="DR68" s="17"/>
+      <c r="DS68" s="17"/>
+      <c r="DT68" s="17"/>
+      <c r="DU68" s="17"/>
+      <c r="DV68" s="17"/>
+      <c r="DW68" s="17"/>
+      <c r="DX68" s="17"/>
+      <c r="DY68" s="17"/>
+      <c r="DZ68" s="17"/>
     </row>
     <row r="69" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -23622,16 +23738,18 @@
       <c r="DP69" s="1">
         <v>825</v>
       </c>
-      <c r="DQ69" s="24"/>
-      <c r="DR69" s="24"/>
-      <c r="DS69" s="24"/>
-      <c r="DT69" s="24"/>
-      <c r="DU69" s="24"/>
-      <c r="DV69" s="24"/>
-      <c r="DW69" s="24"/>
-      <c r="DX69" s="24"/>
-      <c r="DY69" s="24"/>
-      <c r="DZ69" s="24"/>
+      <c r="DQ69" s="1">
+        <v>1294</v>
+      </c>
+      <c r="DR69" s="17"/>
+      <c r="DS69" s="17"/>
+      <c r="DT69" s="17"/>
+      <c r="DU69" s="17"/>
+      <c r="DV69" s="17"/>
+      <c r="DW69" s="17"/>
+      <c r="DX69" s="17"/>
+      <c r="DY69" s="17"/>
+      <c r="DZ69" s="17"/>
     </row>
     <row r="70" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -23994,16 +24112,18 @@
       <c r="DP70" s="1">
         <v>2360</v>
       </c>
-      <c r="DQ70" s="24"/>
-      <c r="DR70" s="24"/>
-      <c r="DS70" s="24"/>
-      <c r="DT70" s="24"/>
-      <c r="DU70" s="24"/>
-      <c r="DV70" s="24"/>
-      <c r="DW70" s="24"/>
-      <c r="DX70" s="24"/>
-      <c r="DY70" s="24"/>
-      <c r="DZ70" s="24"/>
+      <c r="DQ70" s="1">
+        <v>3544</v>
+      </c>
+      <c r="DR70" s="17"/>
+      <c r="DS70" s="17"/>
+      <c r="DT70" s="17"/>
+      <c r="DU70" s="17"/>
+      <c r="DV70" s="17"/>
+      <c r="DW70" s="17"/>
+      <c r="DX70" s="17"/>
+      <c r="DY70" s="17"/>
+      <c r="DZ70" s="17"/>
     </row>
     <row r="71" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -24366,25 +24486,21 @@
       <c r="DP71" s="10">
         <v>545194</v>
       </c>
-      <c r="DQ71" s="24"/>
-      <c r="DR71" s="24"/>
-      <c r="DS71" s="24"/>
-      <c r="DT71" s="24"/>
-      <c r="DU71" s="24"/>
-      <c r="DV71" s="24"/>
-      <c r="DW71" s="24"/>
-      <c r="DX71" s="24"/>
-      <c r="DY71" s="24"/>
-      <c r="DZ71" s="24"/>
+      <c r="DQ71" s="10">
+        <v>904046</v>
+      </c>
+      <c r="DR71" s="17"/>
+      <c r="DS71" s="17"/>
+      <c r="DT71" s="17"/>
+      <c r="DU71" s="17"/>
+      <c r="DV71" s="17"/>
+      <c r="DW71" s="17"/>
+      <c r="DX71" s="17"/>
+      <c r="DY71" s="17"/>
+      <c r="DZ71" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DO6:DZ6"/>
-    <mergeCell ref="EA6:EA7"/>
-    <mergeCell ref="CO6:CY6"/>
-    <mergeCell ref="DA6:DA7"/>
-    <mergeCell ref="DN6:DN7"/>
-    <mergeCell ref="DB6:DM6"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="CB6:CM6"/>
@@ -24400,6 +24516,12 @@
     <mergeCell ref="BA6:BA7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="DO6:DZ6"/>
+    <mergeCell ref="EA6:EA7"/>
+    <mergeCell ref="CO6:CY6"/>
+    <mergeCell ref="DA6:DA7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="DB6:DM6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A71">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 - Abril de 2021</t>
+    <t>Enero de 2012 - Mayo de 2021</t>
   </si>
 </sst>
 </file>
@@ -578,19 +578,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +589,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,9 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1082,7 +1080,7 @@
     <col min="120" max="120" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1109,182 +1107,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="22">
         <v>2012</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="22">
         <v>2013</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="22">
         <v>2014</v>
       </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20" t="s">
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12" s="22">
         <v>2015</v>
       </c>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="20" t="s">
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="18">
+      <c r="BB12" s="22">
         <v>2016</v>
       </c>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="20" t="s">
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="23"/>
+      <c r="BK12" s="23"/>
+      <c r="BL12" s="23"/>
+      <c r="BM12" s="23"/>
+      <c r="BN12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="18">
+      <c r="BO12" s="22">
         <v>2017</v>
       </c>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
-      <c r="BS12" s="19"/>
-      <c r="BT12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="BZ12" s="19"/>
-      <c r="CA12" s="20" t="s">
+      <c r="BP12" s="23"/>
+      <c r="BQ12" s="23"/>
+      <c r="BR12" s="23"/>
+      <c r="BS12" s="23"/>
+      <c r="BT12" s="23"/>
+      <c r="BU12" s="23"/>
+      <c r="BV12" s="23"/>
+      <c r="BW12" s="23"/>
+      <c r="BX12" s="23"/>
+      <c r="BY12" s="23"/>
+      <c r="BZ12" s="23"/>
+      <c r="CA12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="18">
+      <c r="CB12" s="22">
         <v>2018</v>
       </c>
-      <c r="CC12" s="19"/>
-      <c r="CD12" s="19"/>
-      <c r="CE12" s="19"/>
-      <c r="CF12" s="19"/>
-      <c r="CG12" s="19"/>
-      <c r="CH12" s="19"/>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19" t="s">
+      <c r="CC12" s="23"/>
+      <c r="CD12" s="23"/>
+      <c r="CE12" s="23"/>
+      <c r="CF12" s="23"/>
+      <c r="CG12" s="23"/>
+      <c r="CH12" s="23"/>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="22">
         <v>2019</v>
       </c>
-      <c r="CP12" s="19"/>
-      <c r="CQ12" s="19"/>
-      <c r="CR12" s="19"/>
-      <c r="CS12" s="19"/>
-      <c r="CT12" s="19"/>
-      <c r="CU12" s="19"/>
-      <c r="CV12" s="19"/>
-      <c r="CW12" s="19"/>
-      <c r="CX12" s="19"/>
-      <c r="CY12" s="19"/>
+      <c r="CP12" s="23"/>
+      <c r="CQ12" s="23"/>
+      <c r="CR12" s="23"/>
+      <c r="CS12" s="23"/>
+      <c r="CT12" s="23"/>
+      <c r="CU12" s="23"/>
+      <c r="CV12" s="23"/>
+      <c r="CW12" s="23"/>
+      <c r="CX12" s="23"/>
+      <c r="CY12" s="23"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="19" t="s">
+      <c r="DA12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="18">
+      <c r="DB12" s="22">
         <v>2020</v>
       </c>
-      <c r="DC12" s="19"/>
-      <c r="DD12" s="19"/>
-      <c r="DE12" s="19"/>
-      <c r="DF12" s="19"/>
-      <c r="DG12" s="19"/>
-      <c r="DH12" s="19"/>
-      <c r="DI12" s="19"/>
-      <c r="DJ12" s="19"/>
-      <c r="DK12" s="19"/>
-      <c r="DL12" s="19"/>
-      <c r="DM12" s="19"/>
-      <c r="DN12" s="19" t="s">
+      <c r="DC12" s="23"/>
+      <c r="DD12" s="23"/>
+      <c r="DE12" s="23"/>
+      <c r="DF12" s="23"/>
+      <c r="DG12" s="23"/>
+      <c r="DH12" s="23"/>
+      <c r="DI12" s="23"/>
+      <c r="DJ12" s="23"/>
+      <c r="DK12" s="23"/>
+      <c r="DL12" s="23"/>
+      <c r="DM12" s="23"/>
+      <c r="DN12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="18">
+      <c r="DO12" s="22">
         <v>2021</v>
       </c>
-      <c r="DP12" s="19"/>
-      <c r="DQ12" s="19"/>
-      <c r="DR12" s="19"/>
-      <c r="DS12" s="19"/>
-      <c r="DT12" s="19"/>
-      <c r="DU12" s="19"/>
-      <c r="DV12" s="19"/>
-      <c r="DW12" s="19"/>
-      <c r="DX12" s="19"/>
-      <c r="DY12" s="19"/>
-      <c r="DZ12" s="19"/>
-      <c r="EA12" s="20" t="s">
+      <c r="DP12" s="23"/>
+      <c r="DQ12" s="23"/>
+      <c r="DR12" s="23"/>
+      <c r="DS12" s="23"/>
+      <c r="DT12" s="23"/>
+      <c r="DU12" s="23"/>
+      <c r="DV12" s="23"/>
+      <c r="DW12" s="23"/>
+      <c r="DX12" s="23"/>
+      <c r="DY12" s="23"/>
+      <c r="DZ12" s="23"/>
+      <c r="EA12" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +1319,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1356,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1393,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="21"/>
+      <c r="AN13" s="19"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1432,7 +1430,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="21"/>
+      <c r="BA13" s="19"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1467,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="21"/>
+      <c r="BN13" s="19"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1504,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="21"/>
+      <c r="CA13" s="19"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1541,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="22"/>
+      <c r="CN13" s="24"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1578,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="22"/>
+      <c r="DA13" s="24"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1615,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="22"/>
+      <c r="DN13" s="24"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1652,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="21"/>
+      <c r="EA13" s="19"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2019,7 +2017,9 @@
       <c r="DR14" s="1">
         <v>522</v>
       </c>
-      <c r="DS14" s="17"/>
+      <c r="DS14" s="1">
+        <v>754</v>
+      </c>
       <c r="DT14" s="17"/>
       <c r="DU14" s="17"/>
       <c r="DV14" s="17"/>
@@ -2378,10 +2378,10 @@
         <v>3449</v>
       </c>
       <c r="DM15" s="15">
-        <v>6293</v>
+        <v>6294</v>
       </c>
       <c r="DN15" s="15">
-        <v>32237</v>
+        <v>32238</v>
       </c>
       <c r="DO15" s="6">
         <v>2907</v>
@@ -2395,7 +2395,9 @@
       <c r="DR15" s="1">
         <v>3322</v>
       </c>
-      <c r="DS15" s="17"/>
+      <c r="DS15" s="1">
+        <v>4664</v>
+      </c>
       <c r="DT15" s="17"/>
       <c r="DU15" s="17"/>
       <c r="DV15" s="17"/>
@@ -2771,7 +2773,9 @@
       <c r="DR16" s="1">
         <v>2317</v>
       </c>
-      <c r="DS16" s="17"/>
+      <c r="DS16" s="1">
+        <v>2243</v>
+      </c>
       <c r="DT16" s="17"/>
       <c r="DU16" s="17"/>
       <c r="DV16" s="17"/>
@@ -3129,7 +3133,9 @@
       <c r="DR17" s="1">
         <v>21</v>
       </c>
-      <c r="DS17" s="17"/>
+      <c r="DS17" s="1">
+        <v>8</v>
+      </c>
       <c r="DT17" s="17"/>
       <c r="DU17" s="17"/>
       <c r="DV17" s="17"/>
@@ -3505,7 +3511,9 @@
       <c r="DR18" s="1">
         <v>434430</v>
       </c>
-      <c r="DS18" s="17"/>
+      <c r="DS18" s="1">
+        <v>537402</v>
+      </c>
       <c r="DT18" s="17"/>
       <c r="DU18" s="17"/>
       <c r="DV18" s="17"/>
@@ -3781,7 +3789,9 @@
       <c r="DR19" s="1">
         <v>6</v>
       </c>
-      <c r="DS19" s="17"/>
+      <c r="DS19" s="1">
+        <v>34</v>
+      </c>
       <c r="DT19" s="17"/>
       <c r="DU19" s="17"/>
       <c r="DV19" s="17"/>
@@ -3969,7 +3979,9 @@
       <c r="DR20" s="1">
         <v>276</v>
       </c>
-      <c r="DS20" s="17"/>
+      <c r="DS20" s="1">
+        <v>195</v>
+      </c>
       <c r="DT20" s="17"/>
       <c r="DU20" s="17"/>
       <c r="DV20" s="17"/>
@@ -4295,7 +4307,7 @@
         <v>32016</v>
       </c>
       <c r="DB21" s="15">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="DC21" s="15">
         <v>2534</v>
@@ -4316,7 +4328,7 @@
         <v>763</v>
       </c>
       <c r="DI21" s="15">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="DJ21" s="15">
         <v>1096</v>
@@ -4325,13 +4337,13 @@
         <v>1549</v>
       </c>
       <c r="DL21" s="15">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="DM21" s="15">
         <v>2107</v>
       </c>
       <c r="DN21" s="15">
-        <v>15336</v>
+        <v>15333</v>
       </c>
       <c r="DO21" s="6">
         <v>1424</v>
@@ -4345,7 +4357,9 @@
       <c r="DR21" s="1">
         <v>1439</v>
       </c>
-      <c r="DS21" s="17"/>
+      <c r="DS21" s="1">
+        <v>1891</v>
+      </c>
       <c r="DT21" s="17"/>
       <c r="DU21" s="17"/>
       <c r="DV21" s="17"/>
@@ -4691,7 +4705,7 @@
       <c r="DR22" s="1">
         <v>2</v>
       </c>
-      <c r="DS22" s="17"/>
+      <c r="DS22" s="1"/>
       <c r="DT22" s="17"/>
       <c r="DU22" s="17"/>
       <c r="DV22" s="17"/>
@@ -5067,7 +5081,9 @@
       <c r="DR23" s="1">
         <v>143841</v>
       </c>
-      <c r="DS23" s="17"/>
+      <c r="DS23" s="1">
+        <v>199435</v>
+      </c>
       <c r="DT23" s="17"/>
       <c r="DU23" s="17"/>
       <c r="DV23" s="17"/>
@@ -5421,7 +5437,9 @@
       <c r="DR24" s="1">
         <v>65</v>
       </c>
-      <c r="DS24" s="17"/>
+      <c r="DS24" s="1">
+        <v>45</v>
+      </c>
       <c r="DT24" s="17"/>
       <c r="DU24" s="17"/>
       <c r="DV24" s="17"/>
@@ -5797,7 +5815,9 @@
       <c r="DR25" s="1">
         <v>19</v>
       </c>
-      <c r="DS25" s="17"/>
+      <c r="DS25" s="1">
+        <v>37</v>
+      </c>
       <c r="DT25" s="17"/>
       <c r="DU25" s="17"/>
       <c r="DV25" s="17"/>
@@ -6171,7 +6191,9 @@
       <c r="DR26" s="1">
         <v>33</v>
       </c>
-      <c r="DS26" s="17"/>
+      <c r="DS26" s="1">
+        <v>64</v>
+      </c>
       <c r="DT26" s="17"/>
       <c r="DU26" s="17"/>
       <c r="DV26" s="17"/>
@@ -6547,7 +6569,9 @@
       <c r="DR27" s="1">
         <v>9</v>
       </c>
-      <c r="DS27" s="17"/>
+      <c r="DS27" s="1">
+        <v>12</v>
+      </c>
       <c r="DT27" s="17"/>
       <c r="DU27" s="17"/>
       <c r="DV27" s="17"/>
@@ -6923,7 +6947,9 @@
       <c r="DR28" s="1">
         <v>13795</v>
       </c>
-      <c r="DS28" s="17"/>
+      <c r="DS28" s="1">
+        <v>18370</v>
+      </c>
       <c r="DT28" s="17"/>
       <c r="DU28" s="17"/>
       <c r="DV28" s="17"/>
@@ -7263,7 +7289,9 @@
       <c r="DR29" s="1">
         <v>25</v>
       </c>
-      <c r="DS29" s="17"/>
+      <c r="DS29" s="1">
+        <v>11</v>
+      </c>
       <c r="DT29" s="17"/>
       <c r="DU29" s="17"/>
       <c r="DV29" s="17"/>
@@ -7619,7 +7647,9 @@
       <c r="DR30" s="1">
         <v>158</v>
       </c>
-      <c r="DS30" s="17"/>
+      <c r="DS30" s="1">
+        <v>209</v>
+      </c>
       <c r="DT30" s="17"/>
       <c r="DU30" s="17"/>
       <c r="DV30" s="17"/>
@@ -7995,7 +8025,9 @@
       <c r="DR31" s="1">
         <v>193</v>
       </c>
-      <c r="DS31" s="17"/>
+      <c r="DS31" s="1">
+        <v>196</v>
+      </c>
       <c r="DT31" s="17"/>
       <c r="DU31" s="17"/>
       <c r="DV31" s="17"/>
@@ -8371,7 +8403,9 @@
       <c r="DR32" s="1">
         <v>1442</v>
       </c>
-      <c r="DS32" s="17"/>
+      <c r="DS32" s="1">
+        <v>1877</v>
+      </c>
       <c r="DT32" s="17"/>
       <c r="DU32" s="17"/>
       <c r="DV32" s="17"/>
@@ -8707,7 +8741,9 @@
       <c r="DR33" s="1">
         <v>78</v>
       </c>
-      <c r="DS33" s="17"/>
+      <c r="DS33" s="1">
+        <v>82</v>
+      </c>
       <c r="DT33" s="17"/>
       <c r="DU33" s="17"/>
       <c r="DV33" s="17"/>
@@ -9083,7 +9119,9 @@
       <c r="DR34" s="1">
         <v>57148</v>
       </c>
-      <c r="DS34" s="17"/>
+      <c r="DS34" s="1">
+        <v>83711</v>
+      </c>
       <c r="DT34" s="17"/>
       <c r="DU34" s="17"/>
       <c r="DV34" s="17"/>
@@ -9459,7 +9497,9 @@
       <c r="DR35" s="1">
         <v>73</v>
       </c>
-      <c r="DS35" s="17"/>
+      <c r="DS35" s="1">
+        <v>109</v>
+      </c>
       <c r="DT35" s="17"/>
       <c r="DU35" s="17"/>
       <c r="DV35" s="17"/>
@@ -9835,7 +9875,9 @@
       <c r="DR36" s="1">
         <v>718</v>
       </c>
-      <c r="DS36" s="17"/>
+      <c r="DS36" s="1">
+        <v>752</v>
+      </c>
       <c r="DT36" s="17"/>
       <c r="DU36" s="17"/>
       <c r="DV36" s="17"/>
@@ -10207,7 +10249,9 @@
       <c r="DR37" s="1">
         <v>13</v>
       </c>
-      <c r="DS37" s="17"/>
+      <c r="DS37" s="1">
+        <v>20</v>
+      </c>
       <c r="DT37" s="17"/>
       <c r="DU37" s="17"/>
       <c r="DV37" s="17"/>
@@ -10583,7 +10627,9 @@
       <c r="DR38" s="1">
         <v>287</v>
       </c>
-      <c r="DS38" s="17"/>
+      <c r="DS38" s="1">
+        <v>208</v>
+      </c>
       <c r="DT38" s="17"/>
       <c r="DU38" s="17"/>
       <c r="DV38" s="17"/>
@@ -10959,7 +11005,9 @@
       <c r="DR39" s="1">
         <v>2697</v>
       </c>
-      <c r="DS39" s="17"/>
+      <c r="DS39" s="1">
+        <v>3121</v>
+      </c>
       <c r="DT39" s="17"/>
       <c r="DU39" s="17"/>
       <c r="DV39" s="17"/>
@@ -11335,7 +11383,9 @@
       <c r="DR40" s="1">
         <v>133294</v>
       </c>
-      <c r="DS40" s="17"/>
+      <c r="DS40" s="1">
+        <v>159534</v>
+      </c>
       <c r="DT40" s="17"/>
       <c r="DU40" s="17"/>
       <c r="DV40" s="17"/>
@@ -11645,7 +11695,9 @@
       <c r="DR41" s="1">
         <v>29</v>
       </c>
-      <c r="DS41" s="17"/>
+      <c r="DS41" s="1">
+        <v>5</v>
+      </c>
       <c r="DT41" s="17"/>
       <c r="DU41" s="17"/>
       <c r="DV41" s="17"/>
@@ -12021,7 +12073,9 @@
       <c r="DR42" s="1">
         <v>1130</v>
       </c>
-      <c r="DS42" s="17"/>
+      <c r="DS42" s="1">
+        <v>1391</v>
+      </c>
       <c r="DT42" s="17"/>
       <c r="DU42" s="17"/>
       <c r="DV42" s="17"/>
@@ -12391,7 +12445,9 @@
       <c r="DR43" s="1">
         <v>10</v>
       </c>
-      <c r="DS43" s="17"/>
+      <c r="DS43" s="1">
+        <v>9</v>
+      </c>
       <c r="DT43" s="17"/>
       <c r="DU43" s="17"/>
       <c r="DV43" s="17"/>
@@ -12767,7 +12823,9 @@
       <c r="DR44" s="1">
         <v>4231</v>
       </c>
-      <c r="DS44" s="17"/>
+      <c r="DS44" s="1">
+        <v>4296</v>
+      </c>
       <c r="DT44" s="17"/>
       <c r="DU44" s="17"/>
       <c r="DV44" s="17"/>
@@ -13143,7 +13201,9 @@
       <c r="DR45" s="1">
         <v>2233</v>
       </c>
-      <c r="DS45" s="17"/>
+      <c r="DS45" s="1">
+        <v>3206</v>
+      </c>
       <c r="DT45" s="17"/>
       <c r="DU45" s="17"/>
       <c r="DV45" s="17"/>
@@ -13519,7 +13579,9 @@
       <c r="DR46" s="1">
         <v>49</v>
       </c>
-      <c r="DS46" s="17"/>
+      <c r="DS46" s="1">
+        <v>79</v>
+      </c>
       <c r="DT46" s="17"/>
       <c r="DU46" s="17"/>
       <c r="DV46" s="17"/>
@@ -13753,7 +13815,7 @@
       <c r="DR47" s="1">
         <v>11</v>
       </c>
-      <c r="DS47" s="17"/>
+      <c r="DS47" s="1"/>
       <c r="DT47" s="17"/>
       <c r="DU47" s="17"/>
       <c r="DV47" s="17"/>
@@ -14121,7 +14183,9 @@
       <c r="DR48" s="1">
         <v>28</v>
       </c>
-      <c r="DS48" s="17"/>
+      <c r="DS48" s="1">
+        <v>3</v>
+      </c>
       <c r="DT48" s="17"/>
       <c r="DU48" s="17"/>
       <c r="DV48" s="17"/>
@@ -14465,7 +14529,7 @@
         <v>2476</v>
       </c>
       <c r="DH49" s="15">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="DI49" s="15">
         <v>3667</v>
@@ -14483,7 +14547,7 @@
         <v>10073</v>
       </c>
       <c r="DN49" s="15">
-        <v>95101</v>
+        <v>95100</v>
       </c>
       <c r="DO49" s="6">
         <v>5224</v>
@@ -14497,7 +14561,9 @@
       <c r="DR49" s="1">
         <v>8043</v>
       </c>
-      <c r="DS49" s="17"/>
+      <c r="DS49" s="1">
+        <v>11869</v>
+      </c>
       <c r="DT49" s="17"/>
       <c r="DU49" s="17"/>
       <c r="DV49" s="17"/>
@@ -14873,7 +14939,9 @@
       <c r="DR50" s="1">
         <v>6361</v>
       </c>
-      <c r="DS50" s="17"/>
+      <c r="DS50" s="1">
+        <v>9646</v>
+      </c>
       <c r="DT50" s="17"/>
       <c r="DU50" s="17"/>
       <c r="DV50" s="17"/>
@@ -15199,43 +15267,43 @@
         <v>37730</v>
       </c>
       <c r="DB51" s="15">
-        <v>3193</v>
+        <v>3179</v>
       </c>
       <c r="DC51" s="15">
-        <v>4223</v>
+        <v>3441</v>
       </c>
       <c r="DD51" s="15">
-        <v>2943</v>
+        <v>2181</v>
       </c>
       <c r="DE51" s="15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="DF51" s="15">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="DG51" s="15">
-        <v>2081</v>
+        <v>1888</v>
       </c>
       <c r="DH51" s="15">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="DI51" s="15">
-        <v>844</v>
+        <v>608</v>
       </c>
       <c r="DJ51" s="15">
-        <v>1012</v>
+        <v>737</v>
       </c>
       <c r="DK51" s="15">
-        <v>1469</v>
+        <v>1073</v>
       </c>
       <c r="DL51" s="15">
-        <v>1869</v>
+        <v>1690</v>
       </c>
       <c r="DM51" s="15">
-        <v>2545</v>
+        <v>2032</v>
       </c>
       <c r="DN51" s="15">
-        <v>21449</v>
+        <v>18069</v>
       </c>
       <c r="DO51" s="6">
         <v>1408</v>
@@ -15249,7 +15317,9 @@
       <c r="DR51" s="1">
         <v>2408</v>
       </c>
-      <c r="DS51" s="17"/>
+      <c r="DS51" s="1">
+        <v>6901</v>
+      </c>
       <c r="DT51" s="17"/>
       <c r="DU51" s="17"/>
       <c r="DV51" s="17"/>
@@ -15577,7 +15647,9 @@
       <c r="DR52" s="1">
         <v>41</v>
       </c>
-      <c r="DS52" s="17"/>
+      <c r="DS52" s="1">
+        <v>28</v>
+      </c>
       <c r="DT52" s="17"/>
       <c r="DU52" s="17"/>
       <c r="DV52" s="17"/>
@@ -15941,7 +16013,7 @@
       <c r="DR53" s="1">
         <v>7</v>
       </c>
-      <c r="DS53" s="17"/>
+      <c r="DS53" s="1"/>
       <c r="DT53" s="17"/>
       <c r="DU53" s="17"/>
       <c r="DV53" s="17"/>
@@ -16311,7 +16383,9 @@
       <c r="DR54" s="1">
         <v>1679</v>
       </c>
-      <c r="DS54" s="17"/>
+      <c r="DS54" s="1">
+        <v>2646</v>
+      </c>
       <c r="DT54" s="17"/>
       <c r="DU54" s="17"/>
       <c r="DV54" s="17"/>
@@ -16653,7 +16727,9 @@
       <c r="DR55" s="1">
         <v>43</v>
       </c>
-      <c r="DS55" s="17"/>
+      <c r="DS55" s="1">
+        <v>44</v>
+      </c>
       <c r="DT55" s="17"/>
       <c r="DU55" s="17"/>
       <c r="DV55" s="17"/>
@@ -17011,7 +17087,9 @@
       <c r="DR56" s="1">
         <v>355</v>
       </c>
-      <c r="DS56" s="17"/>
+      <c r="DS56" s="1">
+        <v>463</v>
+      </c>
       <c r="DT56" s="17"/>
       <c r="DU56" s="17"/>
       <c r="DV56" s="17"/>
@@ -17299,7 +17377,9 @@
       <c r="DR57" s="1">
         <v>6</v>
       </c>
-      <c r="DS57" s="17"/>
+      <c r="DS57" s="1">
+        <v>12</v>
+      </c>
       <c r="DT57" s="17"/>
       <c r="DU57" s="17"/>
       <c r="DV57" s="17"/>
@@ -17659,7 +17739,9 @@
       <c r="DR58" s="1">
         <v>73</v>
       </c>
-      <c r="DS58" s="17"/>
+      <c r="DS58" s="1">
+        <v>68</v>
+      </c>
       <c r="DT58" s="17"/>
       <c r="DU58" s="17"/>
       <c r="DV58" s="17"/>
@@ -18035,7 +18117,9 @@
       <c r="DR59" s="1">
         <v>77303</v>
       </c>
-      <c r="DS59" s="17"/>
+      <c r="DS59" s="1">
+        <v>88123</v>
+      </c>
       <c r="DT59" s="17"/>
       <c r="DU59" s="17"/>
       <c r="DV59" s="17"/>
@@ -18411,7 +18495,9 @@
       <c r="DR60" s="1">
         <v>4316</v>
       </c>
-      <c r="DS60" s="17"/>
+      <c r="DS60" s="1">
+        <v>5941</v>
+      </c>
       <c r="DT60" s="17"/>
       <c r="DU60" s="17"/>
       <c r="DV60" s="17"/>
@@ -18787,7 +18873,9 @@
       <c r="DR61" s="1">
         <v>15</v>
       </c>
-      <c r="DS61" s="17"/>
+      <c r="DS61" s="1">
+        <v>25</v>
+      </c>
       <c r="DT61" s="17"/>
       <c r="DU61" s="17"/>
       <c r="DV61" s="17"/>
@@ -19163,7 +19251,9 @@
       <c r="DR62" s="1">
         <v>81</v>
       </c>
-      <c r="DS62" s="17"/>
+      <c r="DS62" s="1">
+        <v>53</v>
+      </c>
       <c r="DT62" s="17"/>
       <c r="DU62" s="17"/>
       <c r="DV62" s="17"/>
@@ -19539,7 +19629,9 @@
       <c r="DR63" s="1">
         <v>238</v>
       </c>
-      <c r="DS63" s="17"/>
+      <c r="DS63" s="1">
+        <v>196</v>
+      </c>
       <c r="DT63" s="17"/>
       <c r="DU63" s="17"/>
       <c r="DV63" s="17"/>
@@ -19915,7 +20007,9 @@
       <c r="DR64" s="1">
         <v>2113</v>
       </c>
-      <c r="DS64" s="17"/>
+      <c r="DS64" s="1">
+        <v>3343</v>
+      </c>
       <c r="DT64" s="17"/>
       <c r="DU64" s="17"/>
       <c r="DV64" s="17"/>
@@ -20291,7 +20385,9 @@
       <c r="DR65" s="1">
         <v>7675</v>
       </c>
-      <c r="DS65" s="17"/>
+      <c r="DS65" s="1">
+        <v>12602</v>
+      </c>
       <c r="DT65" s="17"/>
       <c r="DU65" s="17"/>
       <c r="DV65" s="17"/>
@@ -20667,7 +20763,9 @@
       <c r="DR66" s="1">
         <v>610</v>
       </c>
-      <c r="DS66" s="17"/>
+      <c r="DS66" s="1">
+        <v>869</v>
+      </c>
       <c r="DT66" s="17"/>
       <c r="DU66" s="17"/>
       <c r="DV66" s="17"/>
@@ -21043,7 +21141,9 @@
       <c r="DR67" s="1">
         <v>112</v>
       </c>
-      <c r="DS67" s="17"/>
+      <c r="DS67" s="1">
+        <v>171</v>
+      </c>
       <c r="DT67" s="17"/>
       <c r="DU67" s="17"/>
       <c r="DV67" s="17"/>
@@ -21419,7 +21519,9 @@
       <c r="DR68" s="1">
         <v>215</v>
       </c>
-      <c r="DS68" s="17"/>
+      <c r="DS68" s="1">
+        <v>177</v>
+      </c>
       <c r="DT68" s="17"/>
       <c r="DU68" s="17"/>
       <c r="DV68" s="17"/>
@@ -21795,7 +21897,9 @@
       <c r="DR69" s="1">
         <v>490</v>
       </c>
-      <c r="DS69" s="17"/>
+      <c r="DS69" s="1">
+        <v>411</v>
+      </c>
       <c r="DT69" s="17"/>
       <c r="DU69" s="17"/>
       <c r="DV69" s="17"/>
@@ -22171,7 +22275,9 @@
       <c r="DR70" s="1">
         <v>492</v>
       </c>
-      <c r="DS70" s="17"/>
+      <c r="DS70" s="1">
+        <v>664</v>
+      </c>
       <c r="DT70" s="17"/>
       <c r="DU70" s="17"/>
       <c r="DV70" s="17"/>
@@ -22463,7 +22569,9 @@
       <c r="DR71" s="1">
         <v>30</v>
       </c>
-      <c r="DS71" s="17"/>
+      <c r="DS71" s="1">
+        <v>4</v>
+      </c>
       <c r="DT71" s="17"/>
       <c r="DU71" s="17"/>
       <c r="DV71" s="17"/>
@@ -22797,7 +22905,9 @@
       <c r="DP72" s="1"/>
       <c r="DQ72" s="1"/>
       <c r="DR72" s="1"/>
-      <c r="DS72" s="17"/>
+      <c r="DS72" s="1">
+        <v>271</v>
+      </c>
       <c r="DT72" s="17"/>
       <c r="DU72" s="17"/>
       <c r="DV72" s="17"/>
@@ -23126,7 +23236,7 @@
         <v>848</v>
       </c>
       <c r="DC73" s="15">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="DD73" s="15">
         <v>569</v>
@@ -23159,7 +23269,7 @@
         <v>469</v>
       </c>
       <c r="DN73" s="15">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="DO73" s="6">
         <v>205</v>
@@ -23173,7 +23283,9 @@
       <c r="DR73" s="1">
         <v>574</v>
       </c>
-      <c r="DS73" s="17"/>
+      <c r="DS73" s="1">
+        <v>835</v>
+      </c>
       <c r="DT73" s="17"/>
       <c r="DU73" s="17"/>
       <c r="DV73" s="17"/>
@@ -23537,7 +23649,9 @@
       <c r="DR74" s="1">
         <v>36</v>
       </c>
-      <c r="DS74" s="17"/>
+      <c r="DS74" s="1">
+        <v>36</v>
+      </c>
       <c r="DT74" s="17"/>
       <c r="DU74" s="17"/>
       <c r="DV74" s="17"/>
@@ -23913,7 +24027,9 @@
       <c r="DR75" s="1">
         <v>1896</v>
       </c>
-      <c r="DS75" s="17"/>
+      <c r="DS75" s="1">
+        <v>2902</v>
+      </c>
       <c r="DT75" s="17"/>
       <c r="DU75" s="17"/>
       <c r="DV75" s="17"/>
@@ -24289,7 +24405,9 @@
       <c r="DR76" s="1">
         <v>2525</v>
       </c>
-      <c r="DS76" s="17"/>
+      <c r="DS76" s="1">
+        <v>2924</v>
+      </c>
       <c r="DT76" s="17"/>
       <c r="DU76" s="17"/>
       <c r="DV76" s="17"/>
@@ -24615,43 +24733,43 @@
         <v>19039437</v>
       </c>
       <c r="DB77" s="10">
-        <v>1784198</v>
+        <v>1784182</v>
       </c>
       <c r="DC77" s="10">
-        <v>1811725</v>
+        <v>1810942</v>
       </c>
       <c r="DD77" s="10">
-        <v>946472</v>
+        <v>945710</v>
       </c>
       <c r="DE77" s="10">
-        <v>21636</v>
+        <v>21621</v>
       </c>
       <c r="DF77" s="10">
-        <v>30412</v>
+        <v>30396</v>
       </c>
       <c r="DG77" s="10">
-        <v>117257</v>
+        <v>117064</v>
       </c>
       <c r="DH77" s="10">
         <v>295207</v>
       </c>
       <c r="DI77" s="10">
-        <v>337656</v>
+        <v>337421</v>
       </c>
       <c r="DJ77" s="10">
-        <v>374503</v>
+        <v>374228</v>
       </c>
       <c r="DK77" s="10">
-        <v>564461</v>
+        <v>564065</v>
       </c>
       <c r="DL77" s="10">
-        <v>680400</v>
+        <v>680219</v>
       </c>
       <c r="DM77" s="10">
-        <v>974975</v>
+        <v>974463</v>
       </c>
       <c r="DN77" s="10">
-        <v>7938902</v>
+        <v>7935518</v>
       </c>
       <c r="DO77" s="9">
         <v>656684</v>
@@ -24665,7 +24783,9 @@
       <c r="DR77" s="10">
         <v>921681</v>
       </c>
-      <c r="DS77" s="17"/>
+      <c r="DS77" s="10">
+        <v>1175197</v>
+      </c>
       <c r="DT77" s="17"/>
       <c r="DU77" s="17"/>
       <c r="DV77" s="17"/>
@@ -24676,6 +24796,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -24691,12 +24817,6 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -578,10 +578,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,15 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DE58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DT77" sqref="DT77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1080,8 +1082,7 @@
     <col min="120" max="120" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1107,182 +1108,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="18">
         <v>2012</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="18">
         <v>2013</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="18" t="s">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="18">
         <v>2014</v>
       </c>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="18" t="s">
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="22">
+      <c r="AO12" s="18">
         <v>2015</v>
       </c>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="18" t="s">
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="22">
+      <c r="BB12" s="18">
         <v>2016</v>
       </c>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="23"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="23"/>
-      <c r="BH12" s="23"/>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="18" t="s">
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="22">
+      <c r="BO12" s="18">
         <v>2017</v>
       </c>
-      <c r="BP12" s="23"/>
-      <c r="BQ12" s="23"/>
-      <c r="BR12" s="23"/>
-      <c r="BS12" s="23"/>
-      <c r="BT12" s="23"/>
-      <c r="BU12" s="23"/>
-      <c r="BV12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12" s="23"/>
-      <c r="BY12" s="23"/>
-      <c r="BZ12" s="23"/>
-      <c r="CA12" s="18" t="s">
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="19"/>
+      <c r="BT12" s="19"/>
+      <c r="BU12" s="19"/>
+      <c r="BV12" s="19"/>
+      <c r="BW12" s="19"/>
+      <c r="BX12" s="19"/>
+      <c r="BY12" s="19"/>
+      <c r="BZ12" s="19"/>
+      <c r="CA12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="22">
+      <c r="CB12" s="18">
         <v>2018</v>
       </c>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="23"/>
-      <c r="CE12" s="23"/>
-      <c r="CF12" s="23"/>
-      <c r="CG12" s="23"/>
-      <c r="CH12" s="23"/>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="23" t="s">
+      <c r="CC12" s="19"/>
+      <c r="CD12" s="19"/>
+      <c r="CE12" s="19"/>
+      <c r="CF12" s="19"/>
+      <c r="CG12" s="19"/>
+      <c r="CH12" s="19"/>
+      <c r="CI12" s="19"/>
+      <c r="CJ12" s="19"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
+      <c r="CM12" s="19"/>
+      <c r="CN12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="18">
         <v>2019</v>
       </c>
-      <c r="CP12" s="23"/>
-      <c r="CQ12" s="23"/>
-      <c r="CR12" s="23"/>
-      <c r="CS12" s="23"/>
-      <c r="CT12" s="23"/>
-      <c r="CU12" s="23"/>
-      <c r="CV12" s="23"/>
-      <c r="CW12" s="23"/>
-      <c r="CX12" s="23"/>
-      <c r="CY12" s="23"/>
+      <c r="CP12" s="19"/>
+      <c r="CQ12" s="19"/>
+      <c r="CR12" s="19"/>
+      <c r="CS12" s="19"/>
+      <c r="CT12" s="19"/>
+      <c r="CU12" s="19"/>
+      <c r="CV12" s="19"/>
+      <c r="CW12" s="19"/>
+      <c r="CX12" s="19"/>
+      <c r="CY12" s="19"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="23" t="s">
+      <c r="DA12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="22">
+      <c r="DB12" s="18">
         <v>2020</v>
       </c>
-      <c r="DC12" s="23"/>
-      <c r="DD12" s="23"/>
-      <c r="DE12" s="23"/>
-      <c r="DF12" s="23"/>
-      <c r="DG12" s="23"/>
-      <c r="DH12" s="23"/>
-      <c r="DI12" s="23"/>
-      <c r="DJ12" s="23"/>
-      <c r="DK12" s="23"/>
-      <c r="DL12" s="23"/>
-      <c r="DM12" s="23"/>
-      <c r="DN12" s="23" t="s">
+      <c r="DC12" s="19"/>
+      <c r="DD12" s="19"/>
+      <c r="DE12" s="19"/>
+      <c r="DF12" s="19"/>
+      <c r="DG12" s="19"/>
+      <c r="DH12" s="19"/>
+      <c r="DI12" s="19"/>
+      <c r="DJ12" s="19"/>
+      <c r="DK12" s="19"/>
+      <c r="DL12" s="19"/>
+      <c r="DM12" s="19"/>
+      <c r="DN12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="22">
+      <c r="DO12" s="18">
         <v>2021</v>
       </c>
-      <c r="DP12" s="23"/>
-      <c r="DQ12" s="23"/>
-      <c r="DR12" s="23"/>
-      <c r="DS12" s="23"/>
-      <c r="DT12" s="23"/>
-      <c r="DU12" s="23"/>
-      <c r="DV12" s="23"/>
-      <c r="DW12" s="23"/>
-      <c r="DX12" s="23"/>
-      <c r="DY12" s="23"/>
-      <c r="DZ12" s="23"/>
-      <c r="EA12" s="18" t="s">
+      <c r="DP12" s="19"/>
+      <c r="DQ12" s="19"/>
+      <c r="DR12" s="19"/>
+      <c r="DS12" s="19"/>
+      <c r="DT12" s="19"/>
+      <c r="DU12" s="19"/>
+      <c r="DV12" s="19"/>
+      <c r="DW12" s="19"/>
+      <c r="DX12" s="19"/>
+      <c r="DY12" s="19"/>
+      <c r="DZ12" s="19"/>
+      <c r="EA12" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1320,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1357,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1394,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="19"/>
+      <c r="AN13" s="21"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="19"/>
+      <c r="BA13" s="21"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="19"/>
+      <c r="BN13" s="21"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1505,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="19"/>
+      <c r="CA13" s="21"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1542,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="24"/>
+      <c r="CN13" s="22"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="24"/>
+      <c r="DA13" s="22"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1616,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="24"/>
+      <c r="DN13" s="22"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1653,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="19"/>
+      <c r="EA13" s="21"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2020,7 +2021,9 @@
       <c r="DS14" s="1">
         <v>754</v>
       </c>
-      <c r="DT14" s="17"/>
+      <c r="DT14" s="17">
+        <v>1261</v>
+      </c>
       <c r="DU14" s="17"/>
       <c r="DV14" s="17"/>
       <c r="DW14" s="17"/>
@@ -2398,7 +2401,9 @@
       <c r="DS15" s="1">
         <v>4664</v>
       </c>
-      <c r="DT15" s="17"/>
+      <c r="DT15" s="17">
+        <v>6392</v>
+      </c>
       <c r="DU15" s="17"/>
       <c r="DV15" s="17"/>
       <c r="DW15" s="17"/>
@@ -2776,7 +2781,9 @@
       <c r="DS16" s="1">
         <v>2243</v>
       </c>
-      <c r="DT16" s="17"/>
+      <c r="DT16" s="17">
+        <v>1900</v>
+      </c>
       <c r="DU16" s="17"/>
       <c r="DV16" s="17"/>
       <c r="DW16" s="17"/>
@@ -3136,7 +3143,9 @@
       <c r="DS17" s="1">
         <v>8</v>
       </c>
-      <c r="DT17" s="17"/>
+      <c r="DT17" s="17">
+        <v>6</v>
+      </c>
       <c r="DU17" s="17"/>
       <c r="DV17" s="17"/>
       <c r="DW17" s="17"/>
@@ -3514,7 +3523,9 @@
       <c r="DS18" s="1">
         <v>537402</v>
       </c>
-      <c r="DT18" s="17"/>
+      <c r="DT18" s="17">
+        <v>627283</v>
+      </c>
       <c r="DU18" s="17"/>
       <c r="DV18" s="17"/>
       <c r="DW18" s="17"/>
@@ -3792,7 +3803,9 @@
       <c r="DS19" s="1">
         <v>34</v>
       </c>
-      <c r="DT19" s="17"/>
+      <c r="DT19" s="17">
+        <v>4</v>
+      </c>
       <c r="DU19" s="17"/>
       <c r="DV19" s="17"/>
       <c r="DW19" s="17"/>
@@ -3982,7 +3995,9 @@
       <c r="DS20" s="1">
         <v>195</v>
       </c>
-      <c r="DT20" s="17"/>
+      <c r="DT20" s="17">
+        <v>652</v>
+      </c>
       <c r="DU20" s="17"/>
       <c r="DV20" s="17"/>
       <c r="DW20" s="17"/>
@@ -4360,7 +4375,9 @@
       <c r="DS21" s="1">
         <v>1891</v>
       </c>
-      <c r="DT21" s="17"/>
+      <c r="DT21" s="17">
+        <v>1827</v>
+      </c>
       <c r="DU21" s="17"/>
       <c r="DV21" s="17"/>
       <c r="DW21" s="17"/>
@@ -5084,7 +5101,9 @@
       <c r="DS23" s="1">
         <v>199435</v>
       </c>
-      <c r="DT23" s="17"/>
+      <c r="DT23" s="17">
+        <v>245821</v>
+      </c>
       <c r="DU23" s="17"/>
       <c r="DV23" s="17"/>
       <c r="DW23" s="17"/>
@@ -5440,7 +5459,9 @@
       <c r="DS24" s="1">
         <v>45</v>
       </c>
-      <c r="DT24" s="17"/>
+      <c r="DT24" s="17">
+        <v>47</v>
+      </c>
       <c r="DU24" s="17"/>
       <c r="DV24" s="17"/>
       <c r="DW24" s="17"/>
@@ -5818,7 +5839,9 @@
       <c r="DS25" s="1">
         <v>37</v>
       </c>
-      <c r="DT25" s="17"/>
+      <c r="DT25" s="17">
+        <v>13</v>
+      </c>
       <c r="DU25" s="17"/>
       <c r="DV25" s="17"/>
       <c r="DW25" s="17"/>
@@ -6194,7 +6217,9 @@
       <c r="DS26" s="1">
         <v>64</v>
       </c>
-      <c r="DT26" s="17"/>
+      <c r="DT26" s="17">
+        <v>38</v>
+      </c>
       <c r="DU26" s="17"/>
       <c r="DV26" s="17"/>
       <c r="DW26" s="17"/>
@@ -6572,7 +6597,9 @@
       <c r="DS27" s="1">
         <v>12</v>
       </c>
-      <c r="DT27" s="17"/>
+      <c r="DT27" s="17">
+        <v>19</v>
+      </c>
       <c r="DU27" s="17"/>
       <c r="DV27" s="17"/>
       <c r="DW27" s="17"/>
@@ -6950,7 +6977,9 @@
       <c r="DS28" s="1">
         <v>18370</v>
       </c>
-      <c r="DT28" s="17"/>
+      <c r="DT28" s="17">
+        <v>21642</v>
+      </c>
       <c r="DU28" s="17"/>
       <c r="DV28" s="17"/>
       <c r="DW28" s="17"/>
@@ -7292,7 +7321,9 @@
       <c r="DS29" s="1">
         <v>11</v>
       </c>
-      <c r="DT29" s="17"/>
+      <c r="DT29" s="17">
+        <v>19</v>
+      </c>
       <c r="DU29" s="17"/>
       <c r="DV29" s="17"/>
       <c r="DW29" s="17"/>
@@ -7650,7 +7681,9 @@
       <c r="DS30" s="1">
         <v>209</v>
       </c>
-      <c r="DT30" s="17"/>
+      <c r="DT30" s="17">
+        <v>254</v>
+      </c>
       <c r="DU30" s="17"/>
       <c r="DV30" s="17"/>
       <c r="DW30" s="17"/>
@@ -8028,7 +8061,9 @@
       <c r="DS31" s="1">
         <v>196</v>
       </c>
-      <c r="DT31" s="17"/>
+      <c r="DT31" s="17">
+        <v>131</v>
+      </c>
       <c r="DU31" s="17"/>
       <c r="DV31" s="17"/>
       <c r="DW31" s="17"/>
@@ -8406,7 +8441,9 @@
       <c r="DS32" s="1">
         <v>1877</v>
       </c>
-      <c r="DT32" s="17"/>
+      <c r="DT32" s="17">
+        <v>3182</v>
+      </c>
       <c r="DU32" s="17"/>
       <c r="DV32" s="17"/>
       <c r="DW32" s="17"/>
@@ -8744,7 +8781,9 @@
       <c r="DS33" s="1">
         <v>82</v>
       </c>
-      <c r="DT33" s="17"/>
+      <c r="DT33" s="17">
+        <v>186</v>
+      </c>
       <c r="DU33" s="17"/>
       <c r="DV33" s="17"/>
       <c r="DW33" s="17"/>
@@ -9122,7 +9161,9 @@
       <c r="DS34" s="1">
         <v>83711</v>
       </c>
-      <c r="DT34" s="17"/>
+      <c r="DT34" s="17">
+        <v>104794</v>
+      </c>
       <c r="DU34" s="17"/>
       <c r="DV34" s="17"/>
       <c r="DW34" s="17"/>
@@ -9500,7 +9541,9 @@
       <c r="DS35" s="1">
         <v>109</v>
       </c>
-      <c r="DT35" s="17"/>
+      <c r="DT35" s="17">
+        <v>93</v>
+      </c>
       <c r="DU35" s="17"/>
       <c r="DV35" s="17"/>
       <c r="DW35" s="17"/>
@@ -9878,7 +9921,9 @@
       <c r="DS36" s="1">
         <v>752</v>
       </c>
-      <c r="DT36" s="17"/>
+      <c r="DT36" s="17">
+        <v>1254</v>
+      </c>
       <c r="DU36" s="17"/>
       <c r="DV36" s="17"/>
       <c r="DW36" s="17"/>
@@ -10252,7 +10297,9 @@
       <c r="DS37" s="1">
         <v>20</v>
       </c>
-      <c r="DT37" s="17"/>
+      <c r="DT37" s="17">
+        <v>1168</v>
+      </c>
       <c r="DU37" s="17"/>
       <c r="DV37" s="17"/>
       <c r="DW37" s="17"/>
@@ -10630,7 +10677,9 @@
       <c r="DS38" s="1">
         <v>208</v>
       </c>
-      <c r="DT38" s="17"/>
+      <c r="DT38" s="17">
+        <v>838</v>
+      </c>
       <c r="DU38" s="17"/>
       <c r="DV38" s="17"/>
       <c r="DW38" s="17"/>
@@ -11008,7 +11057,9 @@
       <c r="DS39" s="1">
         <v>3121</v>
       </c>
-      <c r="DT39" s="17"/>
+      <c r="DT39" s="17">
+        <v>2470</v>
+      </c>
       <c r="DU39" s="17"/>
       <c r="DV39" s="17"/>
       <c r="DW39" s="17"/>
@@ -11386,7 +11437,9 @@
       <c r="DS40" s="1">
         <v>159534</v>
       </c>
-      <c r="DT40" s="17"/>
+      <c r="DT40" s="17">
+        <v>187576</v>
+      </c>
       <c r="DU40" s="17"/>
       <c r="DV40" s="17"/>
       <c r="DW40" s="17"/>
@@ -11698,7 +11751,9 @@
       <c r="DS41" s="1">
         <v>5</v>
       </c>
-      <c r="DT41" s="17"/>
+      <c r="DT41" s="17">
+        <v>6</v>
+      </c>
       <c r="DU41" s="17"/>
       <c r="DV41" s="17"/>
       <c r="DW41" s="17"/>
@@ -12076,7 +12131,9 @@
       <c r="DS42" s="1">
         <v>1391</v>
       </c>
-      <c r="DT42" s="17"/>
+      <c r="DT42" s="17">
+        <v>1505</v>
+      </c>
       <c r="DU42" s="17"/>
       <c r="DV42" s="17"/>
       <c r="DW42" s="17"/>
@@ -12448,7 +12505,9 @@
       <c r="DS43" s="1">
         <v>9</v>
       </c>
-      <c r="DT43" s="17"/>
+      <c r="DT43" s="17">
+        <v>3</v>
+      </c>
       <c r="DU43" s="17"/>
       <c r="DV43" s="17"/>
       <c r="DW43" s="17"/>
@@ -12826,7 +12885,9 @@
       <c r="DS44" s="1">
         <v>4296</v>
       </c>
-      <c r="DT44" s="17"/>
+      <c r="DT44" s="17">
+        <v>4597</v>
+      </c>
       <c r="DU44" s="17"/>
       <c r="DV44" s="17"/>
       <c r="DW44" s="17"/>
@@ -13204,7 +13265,9 @@
       <c r="DS45" s="1">
         <v>3206</v>
       </c>
-      <c r="DT45" s="17"/>
+      <c r="DT45" s="17">
+        <v>5273</v>
+      </c>
       <c r="DU45" s="17"/>
       <c r="DV45" s="17"/>
       <c r="DW45" s="17"/>
@@ -13582,7 +13645,9 @@
       <c r="DS46" s="1">
         <v>79</v>
       </c>
-      <c r="DT46" s="17"/>
+      <c r="DT46" s="17">
+        <v>57</v>
+      </c>
       <c r="DU46" s="17"/>
       <c r="DV46" s="17"/>
       <c r="DW46" s="17"/>
@@ -14186,7 +14251,9 @@
       <c r="DS48" s="1">
         <v>3</v>
       </c>
-      <c r="DT48" s="17"/>
+      <c r="DT48" s="17">
+        <v>20</v>
+      </c>
       <c r="DU48" s="17"/>
       <c r="DV48" s="17"/>
       <c r="DW48" s="17"/>
@@ -14564,7 +14631,9 @@
       <c r="DS49" s="1">
         <v>11869</v>
       </c>
-      <c r="DT49" s="17"/>
+      <c r="DT49" s="17">
+        <v>15568</v>
+      </c>
       <c r="DU49" s="17"/>
       <c r="DV49" s="17"/>
       <c r="DW49" s="17"/>
@@ -14942,7 +15011,9 @@
       <c r="DS50" s="1">
         <v>9646</v>
       </c>
-      <c r="DT50" s="17"/>
+      <c r="DT50" s="17">
+        <v>11861</v>
+      </c>
       <c r="DU50" s="17"/>
       <c r="DV50" s="17"/>
       <c r="DW50" s="17"/>
@@ -15320,7 +15391,9 @@
       <c r="DS51" s="1">
         <v>6901</v>
       </c>
-      <c r="DT51" s="17"/>
+      <c r="DT51" s="17">
+        <v>8143</v>
+      </c>
       <c r="DU51" s="17"/>
       <c r="DV51" s="17"/>
       <c r="DW51" s="17"/>
@@ -15650,7 +15723,9 @@
       <c r="DS52" s="1">
         <v>28</v>
       </c>
-      <c r="DT52" s="17"/>
+      <c r="DT52" s="17">
+        <v>18</v>
+      </c>
       <c r="DU52" s="17"/>
       <c r="DV52" s="17"/>
       <c r="DW52" s="17"/>
@@ -16014,7 +16089,9 @@
         <v>7</v>
       </c>
       <c r="DS53" s="1"/>
-      <c r="DT53" s="17"/>
+      <c r="DT53" s="17">
+        <v>24</v>
+      </c>
       <c r="DU53" s="17"/>
       <c r="DV53" s="17"/>
       <c r="DW53" s="17"/>
@@ -16386,7 +16463,9 @@
       <c r="DS54" s="1">
         <v>2646</v>
       </c>
-      <c r="DT54" s="17"/>
+      <c r="DT54" s="17">
+        <v>3596</v>
+      </c>
       <c r="DU54" s="17"/>
       <c r="DV54" s="17"/>
       <c r="DW54" s="17"/>
@@ -16730,7 +16809,9 @@
       <c r="DS55" s="1">
         <v>44</v>
       </c>
-      <c r="DT55" s="17"/>
+      <c r="DT55" s="17">
+        <v>74</v>
+      </c>
       <c r="DU55" s="17"/>
       <c r="DV55" s="17"/>
       <c r="DW55" s="17"/>
@@ -17090,7 +17171,9 @@
       <c r="DS56" s="1">
         <v>463</v>
       </c>
-      <c r="DT56" s="17"/>
+      <c r="DT56" s="17">
+        <v>533</v>
+      </c>
       <c r="DU56" s="17"/>
       <c r="DV56" s="17"/>
       <c r="DW56" s="17"/>
@@ -17380,7 +17463,9 @@
       <c r="DS57" s="1">
         <v>12</v>
       </c>
-      <c r="DT57" s="17"/>
+      <c r="DT57" s="17">
+        <v>29</v>
+      </c>
       <c r="DU57" s="17"/>
       <c r="DV57" s="17"/>
       <c r="DW57" s="17"/>
@@ -17742,7 +17827,9 @@
       <c r="DS58" s="1">
         <v>68</v>
       </c>
-      <c r="DT58" s="17"/>
+      <c r="DT58" s="17">
+        <v>74</v>
+      </c>
       <c r="DU58" s="17"/>
       <c r="DV58" s="17"/>
       <c r="DW58" s="17"/>
@@ -18120,7 +18207,9 @@
       <c r="DS59" s="1">
         <v>88123</v>
       </c>
-      <c r="DT59" s="17"/>
+      <c r="DT59" s="17">
+        <v>105025</v>
+      </c>
       <c r="DU59" s="17"/>
       <c r="DV59" s="17"/>
       <c r="DW59" s="17"/>
@@ -18498,7 +18587,9 @@
       <c r="DS60" s="1">
         <v>5941</v>
       </c>
-      <c r="DT60" s="17"/>
+      <c r="DT60" s="17">
+        <v>8318</v>
+      </c>
       <c r="DU60" s="17"/>
       <c r="DV60" s="17"/>
       <c r="DW60" s="17"/>
@@ -18876,7 +18967,9 @@
       <c r="DS61" s="1">
         <v>25</v>
       </c>
-      <c r="DT61" s="17"/>
+      <c r="DT61" s="17">
+        <v>30</v>
+      </c>
       <c r="DU61" s="17"/>
       <c r="DV61" s="17"/>
       <c r="DW61" s="17"/>
@@ -19254,7 +19347,9 @@
       <c r="DS62" s="1">
         <v>53</v>
       </c>
-      <c r="DT62" s="17"/>
+      <c r="DT62" s="17">
+        <v>239</v>
+      </c>
       <c r="DU62" s="17"/>
       <c r="DV62" s="17"/>
       <c r="DW62" s="17"/>
@@ -19632,7 +19727,9 @@
       <c r="DS63" s="1">
         <v>196</v>
       </c>
-      <c r="DT63" s="17"/>
+      <c r="DT63" s="17">
+        <v>136</v>
+      </c>
       <c r="DU63" s="17"/>
       <c r="DV63" s="17"/>
       <c r="DW63" s="17"/>
@@ -20010,7 +20107,9 @@
       <c r="DS64" s="1">
         <v>3343</v>
       </c>
-      <c r="DT64" s="17"/>
+      <c r="DT64" s="17">
+        <v>4383</v>
+      </c>
       <c r="DU64" s="17"/>
       <c r="DV64" s="17"/>
       <c r="DW64" s="17"/>
@@ -20388,7 +20487,9 @@
       <c r="DS65" s="1">
         <v>12602</v>
       </c>
-      <c r="DT65" s="17"/>
+      <c r="DT65" s="17">
+        <v>20570</v>
+      </c>
       <c r="DU65" s="17"/>
       <c r="DV65" s="17"/>
       <c r="DW65" s="17"/>
@@ -20766,7 +20867,9 @@
       <c r="DS66" s="1">
         <v>869</v>
       </c>
-      <c r="DT66" s="17"/>
+      <c r="DT66" s="17">
+        <v>789</v>
+      </c>
       <c r="DU66" s="17"/>
       <c r="DV66" s="17"/>
       <c r="DW66" s="17"/>
@@ -21144,7 +21247,9 @@
       <c r="DS67" s="1">
         <v>171</v>
       </c>
-      <c r="DT67" s="17"/>
+      <c r="DT67" s="17">
+        <v>104</v>
+      </c>
       <c r="DU67" s="17"/>
       <c r="DV67" s="17"/>
       <c r="DW67" s="17"/>
@@ -21522,7 +21627,9 @@
       <c r="DS68" s="1">
         <v>177</v>
       </c>
-      <c r="DT68" s="17"/>
+      <c r="DT68" s="17">
+        <v>207</v>
+      </c>
       <c r="DU68" s="17"/>
       <c r="DV68" s="17"/>
       <c r="DW68" s="17"/>
@@ -21900,7 +22007,9 @@
       <c r="DS69" s="1">
         <v>411</v>
       </c>
-      <c r="DT69" s="17"/>
+      <c r="DT69" s="17">
+        <v>403</v>
+      </c>
       <c r="DU69" s="17"/>
       <c r="DV69" s="17"/>
       <c r="DW69" s="17"/>
@@ -22278,7 +22387,9 @@
       <c r="DS70" s="1">
         <v>664</v>
       </c>
-      <c r="DT70" s="17"/>
+      <c r="DT70" s="17">
+        <v>1042</v>
+      </c>
       <c r="DU70" s="17"/>
       <c r="DV70" s="17"/>
       <c r="DW70" s="17"/>
@@ -22572,7 +22683,9 @@
       <c r="DS71" s="1">
         <v>4</v>
       </c>
-      <c r="DT71" s="17"/>
+      <c r="DT71" s="17">
+        <v>4</v>
+      </c>
       <c r="DU71" s="17"/>
       <c r="DV71" s="17"/>
       <c r="DW71" s="17"/>
@@ -22908,7 +23021,9 @@
       <c r="DS72" s="1">
         <v>271</v>
       </c>
-      <c r="DT72" s="17"/>
+      <c r="DT72" s="17">
+        <v>290</v>
+      </c>
       <c r="DU72" s="17"/>
       <c r="DV72" s="17"/>
       <c r="DW72" s="17"/>
@@ -23286,7 +23401,9 @@
       <c r="DS73" s="1">
         <v>835</v>
       </c>
-      <c r="DT73" s="17"/>
+      <c r="DT73" s="17">
+        <v>1131</v>
+      </c>
       <c r="DU73" s="17"/>
       <c r="DV73" s="17"/>
       <c r="DW73" s="17"/>
@@ -23652,7 +23769,9 @@
       <c r="DS74" s="1">
         <v>36</v>
       </c>
-      <c r="DT74" s="17"/>
+      <c r="DT74" s="17">
+        <v>35</v>
+      </c>
       <c r="DU74" s="17"/>
       <c r="DV74" s="17"/>
       <c r="DW74" s="17"/>
@@ -24030,7 +24149,9 @@
       <c r="DS75" s="1">
         <v>2902</v>
       </c>
-      <c r="DT75" s="17"/>
+      <c r="DT75" s="17">
+        <v>4818</v>
+      </c>
       <c r="DU75" s="17"/>
       <c r="DV75" s="17"/>
       <c r="DW75" s="17"/>
@@ -24408,7 +24529,9 @@
       <c r="DS76" s="1">
         <v>2924</v>
       </c>
-      <c r="DT76" s="17"/>
+      <c r="DT76" s="17">
+        <v>3228</v>
+      </c>
       <c r="DU76" s="17"/>
       <c r="DV76" s="17"/>
       <c r="DW76" s="17"/>
@@ -24786,7 +24909,9 @@
       <c r="DS77" s="10">
         <v>1175197</v>
       </c>
-      <c r="DT77" s="17"/>
+      <c r="DT77" s="10">
+        <v>1411003</v>
+      </c>
       <c r="DU77" s="17"/>
       <c r="DV77" s="17"/>
       <c r="DW77" s="17"/>
@@ -24796,12 +24921,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -24817,6 +24936,12 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 - Mayo de 2021</t>
+    <t>Enero de 2012 - Agosto de 2021</t>
   </si>
 </sst>
 </file>
@@ -578,19 +578,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +589,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DE58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DT77" sqref="DT77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,8 +1083,8 @@
     <col min="121" max="121" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="123" max="124" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="11" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1108,182 +1108,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="22">
         <v>2012</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="22">
         <v>2013</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="22">
         <v>2014</v>
       </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20" t="s">
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12" s="22">
         <v>2015</v>
       </c>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="20" t="s">
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="18">
+      <c r="BB12" s="22">
         <v>2016</v>
       </c>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="20" t="s">
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="23"/>
+      <c r="BK12" s="23"/>
+      <c r="BL12" s="23"/>
+      <c r="BM12" s="23"/>
+      <c r="BN12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="18">
+      <c r="BO12" s="22">
         <v>2017</v>
       </c>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
-      <c r="BS12" s="19"/>
-      <c r="BT12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="BZ12" s="19"/>
-      <c r="CA12" s="20" t="s">
+      <c r="BP12" s="23"/>
+      <c r="BQ12" s="23"/>
+      <c r="BR12" s="23"/>
+      <c r="BS12" s="23"/>
+      <c r="BT12" s="23"/>
+      <c r="BU12" s="23"/>
+      <c r="BV12" s="23"/>
+      <c r="BW12" s="23"/>
+      <c r="BX12" s="23"/>
+      <c r="BY12" s="23"/>
+      <c r="BZ12" s="23"/>
+      <c r="CA12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="18">
+      <c r="CB12" s="22">
         <v>2018</v>
       </c>
-      <c r="CC12" s="19"/>
-      <c r="CD12" s="19"/>
-      <c r="CE12" s="19"/>
-      <c r="CF12" s="19"/>
-      <c r="CG12" s="19"/>
-      <c r="CH12" s="19"/>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19" t="s">
+      <c r="CC12" s="23"/>
+      <c r="CD12" s="23"/>
+      <c r="CE12" s="23"/>
+      <c r="CF12" s="23"/>
+      <c r="CG12" s="23"/>
+      <c r="CH12" s="23"/>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="22">
         <v>2019</v>
       </c>
-      <c r="CP12" s="19"/>
-      <c r="CQ12" s="19"/>
-      <c r="CR12" s="19"/>
-      <c r="CS12" s="19"/>
-      <c r="CT12" s="19"/>
-      <c r="CU12" s="19"/>
-      <c r="CV12" s="19"/>
-      <c r="CW12" s="19"/>
-      <c r="CX12" s="19"/>
-      <c r="CY12" s="19"/>
+      <c r="CP12" s="23"/>
+      <c r="CQ12" s="23"/>
+      <c r="CR12" s="23"/>
+      <c r="CS12" s="23"/>
+      <c r="CT12" s="23"/>
+      <c r="CU12" s="23"/>
+      <c r="CV12" s="23"/>
+      <c r="CW12" s="23"/>
+      <c r="CX12" s="23"/>
+      <c r="CY12" s="23"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="19" t="s">
+      <c r="DA12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="18">
+      <c r="DB12" s="22">
         <v>2020</v>
       </c>
-      <c r="DC12" s="19"/>
-      <c r="DD12" s="19"/>
-      <c r="DE12" s="19"/>
-      <c r="DF12" s="19"/>
-      <c r="DG12" s="19"/>
-      <c r="DH12" s="19"/>
-      <c r="DI12" s="19"/>
-      <c r="DJ12" s="19"/>
-      <c r="DK12" s="19"/>
-      <c r="DL12" s="19"/>
-      <c r="DM12" s="19"/>
-      <c r="DN12" s="19" t="s">
+      <c r="DC12" s="23"/>
+      <c r="DD12" s="23"/>
+      <c r="DE12" s="23"/>
+      <c r="DF12" s="23"/>
+      <c r="DG12" s="23"/>
+      <c r="DH12" s="23"/>
+      <c r="DI12" s="23"/>
+      <c r="DJ12" s="23"/>
+      <c r="DK12" s="23"/>
+      <c r="DL12" s="23"/>
+      <c r="DM12" s="23"/>
+      <c r="DN12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="18">
+      <c r="DO12" s="22">
         <v>2021</v>
       </c>
-      <c r="DP12" s="19"/>
-      <c r="DQ12" s="19"/>
-      <c r="DR12" s="19"/>
-      <c r="DS12" s="19"/>
-      <c r="DT12" s="19"/>
-      <c r="DU12" s="19"/>
-      <c r="DV12" s="19"/>
-      <c r="DW12" s="19"/>
-      <c r="DX12" s="19"/>
-      <c r="DY12" s="19"/>
-      <c r="DZ12" s="19"/>
-      <c r="EA12" s="20" t="s">
+      <c r="DP12" s="23"/>
+      <c r="DQ12" s="23"/>
+      <c r="DR12" s="23"/>
+      <c r="DS12" s="23"/>
+      <c r="DT12" s="23"/>
+      <c r="DU12" s="23"/>
+      <c r="DV12" s="23"/>
+      <c r="DW12" s="23"/>
+      <c r="DX12" s="23"/>
+      <c r="DY12" s="23"/>
+      <c r="DZ12" s="23"/>
+      <c r="EA12" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="21"/>
+      <c r="AN13" s="19"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="21"/>
+      <c r="BA13" s="19"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="21"/>
+      <c r="BN13" s="19"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="21"/>
+      <c r="CA13" s="19"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="22"/>
+      <c r="CN13" s="24"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="22"/>
+      <c r="DA13" s="24"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="22"/>
+      <c r="DN13" s="24"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="21"/>
+      <c r="EA13" s="19"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2024,8 +2024,12 @@
       <c r="DT14" s="17">
         <v>1261</v>
       </c>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
+      <c r="DU14" s="17">
+        <v>1135</v>
+      </c>
+      <c r="DV14" s="17">
+        <v>473</v>
+      </c>
       <c r="DW14" s="17"/>
       <c r="DX14" s="17"/>
       <c r="DY14" s="17"/>
@@ -2404,8 +2408,12 @@
       <c r="DT15" s="17">
         <v>6392</v>
       </c>
-      <c r="DU15" s="17"/>
-      <c r="DV15" s="17"/>
+      <c r="DU15" s="17">
+        <v>6947</v>
+      </c>
+      <c r="DV15" s="17">
+        <v>4415</v>
+      </c>
       <c r="DW15" s="17"/>
       <c r="DX15" s="17"/>
       <c r="DY15" s="17"/>
@@ -2784,8 +2792,12 @@
       <c r="DT16" s="17">
         <v>1900</v>
       </c>
-      <c r="DU16" s="17"/>
-      <c r="DV16" s="17"/>
+      <c r="DU16" s="17">
+        <v>1537</v>
+      </c>
+      <c r="DV16" s="17">
+        <v>713</v>
+      </c>
       <c r="DW16" s="17"/>
       <c r="DX16" s="17"/>
       <c r="DY16" s="17"/>
@@ -3146,8 +3158,12 @@
       <c r="DT17" s="17">
         <v>6</v>
       </c>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
+      <c r="DU17" s="17">
+        <v>12</v>
+      </c>
+      <c r="DV17" s="17">
+        <v>6</v>
+      </c>
       <c r="DW17" s="17"/>
       <c r="DX17" s="17"/>
       <c r="DY17" s="17"/>
@@ -3526,8 +3542,12 @@
       <c r="DT18" s="17">
         <v>627283</v>
       </c>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
+      <c r="DU18" s="17">
+        <v>697808</v>
+      </c>
+      <c r="DV18" s="17">
+        <v>562517</v>
+      </c>
       <c r="DW18" s="17"/>
       <c r="DX18" s="17"/>
       <c r="DY18" s="17"/>
@@ -3806,7 +3826,9 @@
       <c r="DT19" s="17">
         <v>4</v>
       </c>
-      <c r="DU19" s="17"/>
+      <c r="DU19" s="17">
+        <v>2</v>
+      </c>
       <c r="DV19" s="17"/>
       <c r="DW19" s="17"/>
       <c r="DX19" s="17"/>
@@ -3998,8 +4020,12 @@
       <c r="DT20" s="17">
         <v>652</v>
       </c>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
+      <c r="DU20" s="17">
+        <v>902</v>
+      </c>
+      <c r="DV20" s="17">
+        <v>434</v>
+      </c>
       <c r="DW20" s="17"/>
       <c r="DX20" s="17"/>
       <c r="DY20" s="17"/>
@@ -4378,8 +4404,12 @@
       <c r="DT21" s="17">
         <v>1827</v>
       </c>
-      <c r="DU21" s="17"/>
-      <c r="DV21" s="17"/>
+      <c r="DU21" s="17">
+        <v>1947</v>
+      </c>
+      <c r="DV21" s="17">
+        <v>1501</v>
+      </c>
       <c r="DW21" s="17"/>
       <c r="DX21" s="17"/>
       <c r="DY21" s="17"/>
@@ -4724,7 +4754,9 @@
       </c>
       <c r="DS22" s="1"/>
       <c r="DT22" s="17"/>
-      <c r="DU22" s="17"/>
+      <c r="DU22" s="17">
+        <v>1</v>
+      </c>
       <c r="DV22" s="17"/>
       <c r="DW22" s="17"/>
       <c r="DX22" s="17"/>
@@ -5104,8 +5136,12 @@
       <c r="DT23" s="17">
         <v>245821</v>
       </c>
-      <c r="DU23" s="17"/>
-      <c r="DV23" s="17"/>
+      <c r="DU23" s="17">
+        <v>293043</v>
+      </c>
+      <c r="DV23" s="17">
+        <v>255952</v>
+      </c>
       <c r="DW23" s="17"/>
       <c r="DX23" s="17"/>
       <c r="DY23" s="17"/>
@@ -5462,7 +5498,9 @@
       <c r="DT24" s="17">
         <v>47</v>
       </c>
-      <c r="DU24" s="17"/>
+      <c r="DU24" s="17">
+        <v>42</v>
+      </c>
       <c r="DV24" s="17"/>
       <c r="DW24" s="17"/>
       <c r="DX24" s="17"/>
@@ -5842,8 +5880,12 @@
       <c r="DT25" s="17">
         <v>13</v>
       </c>
-      <c r="DU25" s="17"/>
-      <c r="DV25" s="17"/>
+      <c r="DU25" s="17">
+        <v>11</v>
+      </c>
+      <c r="DV25" s="17">
+        <v>23</v>
+      </c>
       <c r="DW25" s="17"/>
       <c r="DX25" s="17"/>
       <c r="DY25" s="17"/>
@@ -6220,8 +6262,12 @@
       <c r="DT26" s="17">
         <v>38</v>
       </c>
-      <c r="DU26" s="17"/>
-      <c r="DV26" s="17"/>
+      <c r="DU26" s="17">
+        <v>42</v>
+      </c>
+      <c r="DV26" s="17">
+        <v>29</v>
+      </c>
       <c r="DW26" s="17"/>
       <c r="DX26" s="17"/>
       <c r="DY26" s="17"/>
@@ -6600,8 +6646,12 @@
       <c r="DT27" s="17">
         <v>19</v>
       </c>
-      <c r="DU27" s="17"/>
-      <c r="DV27" s="17"/>
+      <c r="DU27" s="17">
+        <v>28</v>
+      </c>
+      <c r="DV27" s="17">
+        <v>50</v>
+      </c>
       <c r="DW27" s="17"/>
       <c r="DX27" s="17"/>
       <c r="DY27" s="17"/>
@@ -6980,8 +7030,12 @@
       <c r="DT28" s="17">
         <v>21642</v>
       </c>
-      <c r="DU28" s="17"/>
-      <c r="DV28" s="17"/>
+      <c r="DU28" s="17">
+        <v>22392</v>
+      </c>
+      <c r="DV28" s="17">
+        <v>12788</v>
+      </c>
       <c r="DW28" s="17"/>
       <c r="DX28" s="17"/>
       <c r="DY28" s="17"/>
@@ -7324,8 +7378,12 @@
       <c r="DT29" s="17">
         <v>19</v>
       </c>
-      <c r="DU29" s="17"/>
-      <c r="DV29" s="17"/>
+      <c r="DU29" s="17">
+        <v>5</v>
+      </c>
+      <c r="DV29" s="17">
+        <v>7</v>
+      </c>
       <c r="DW29" s="17"/>
       <c r="DX29" s="17"/>
       <c r="DY29" s="17"/>
@@ -7684,8 +7742,12 @@
       <c r="DT30" s="17">
         <v>254</v>
       </c>
-      <c r="DU30" s="17"/>
-      <c r="DV30" s="17"/>
+      <c r="DU30" s="17">
+        <v>161</v>
+      </c>
+      <c r="DV30" s="17">
+        <v>118</v>
+      </c>
       <c r="DW30" s="17"/>
       <c r="DX30" s="17"/>
       <c r="DY30" s="17"/>
@@ -8064,8 +8126,12 @@
       <c r="DT31" s="17">
         <v>131</v>
       </c>
-      <c r="DU31" s="17"/>
-      <c r="DV31" s="17"/>
+      <c r="DU31" s="17">
+        <v>221</v>
+      </c>
+      <c r="DV31" s="17">
+        <v>188</v>
+      </c>
       <c r="DW31" s="17"/>
       <c r="DX31" s="17"/>
       <c r="DY31" s="17"/>
@@ -8444,8 +8510,12 @@
       <c r="DT32" s="17">
         <v>3182</v>
       </c>
-      <c r="DU32" s="17"/>
-      <c r="DV32" s="17"/>
+      <c r="DU32" s="17">
+        <v>3592</v>
+      </c>
+      <c r="DV32" s="17">
+        <v>2117</v>
+      </c>
       <c r="DW32" s="17"/>
       <c r="DX32" s="17"/>
       <c r="DY32" s="17"/>
@@ -8784,8 +8854,12 @@
       <c r="DT33" s="17">
         <v>186</v>
       </c>
-      <c r="DU33" s="17"/>
-      <c r="DV33" s="17"/>
+      <c r="DU33" s="17">
+        <v>71</v>
+      </c>
+      <c r="DV33" s="17">
+        <v>122</v>
+      </c>
       <c r="DW33" s="17"/>
       <c r="DX33" s="17"/>
       <c r="DY33" s="17"/>
@@ -9164,8 +9238,12 @@
       <c r="DT34" s="17">
         <v>104794</v>
       </c>
-      <c r="DU34" s="17"/>
-      <c r="DV34" s="17"/>
+      <c r="DU34" s="17">
+        <v>113833</v>
+      </c>
+      <c r="DV34" s="17">
+        <v>68193</v>
+      </c>
       <c r="DW34" s="17"/>
       <c r="DX34" s="17"/>
       <c r="DY34" s="17"/>
@@ -9544,8 +9622,12 @@
       <c r="DT35" s="17">
         <v>93</v>
       </c>
-      <c r="DU35" s="17"/>
-      <c r="DV35" s="17"/>
+      <c r="DU35" s="17">
+        <v>74</v>
+      </c>
+      <c r="DV35" s="17">
+        <v>22</v>
+      </c>
       <c r="DW35" s="17"/>
       <c r="DX35" s="17"/>
       <c r="DY35" s="17"/>
@@ -9924,8 +10006,12 @@
       <c r="DT36" s="17">
         <v>1254</v>
       </c>
-      <c r="DU36" s="17"/>
-      <c r="DV36" s="17"/>
+      <c r="DU36" s="17">
+        <v>1123</v>
+      </c>
+      <c r="DV36" s="17">
+        <v>776</v>
+      </c>
       <c r="DW36" s="17"/>
       <c r="DX36" s="17"/>
       <c r="DY36" s="17"/>
@@ -10300,8 +10386,12 @@
       <c r="DT37" s="17">
         <v>1168</v>
       </c>
-      <c r="DU37" s="17"/>
-      <c r="DV37" s="17"/>
+      <c r="DU37" s="17">
+        <v>1155</v>
+      </c>
+      <c r="DV37" s="17">
+        <v>417</v>
+      </c>
       <c r="DW37" s="17"/>
       <c r="DX37" s="17"/>
       <c r="DY37" s="17"/>
@@ -10680,8 +10770,12 @@
       <c r="DT38" s="17">
         <v>838</v>
       </c>
-      <c r="DU38" s="17"/>
-      <c r="DV38" s="17"/>
+      <c r="DU38" s="17">
+        <v>783</v>
+      </c>
+      <c r="DV38" s="17">
+        <v>447</v>
+      </c>
       <c r="DW38" s="17"/>
       <c r="DX38" s="17"/>
       <c r="DY38" s="17"/>
@@ -11060,8 +11154,12 @@
       <c r="DT39" s="17">
         <v>2470</v>
       </c>
-      <c r="DU39" s="17"/>
-      <c r="DV39" s="17"/>
+      <c r="DU39" s="17">
+        <v>2246</v>
+      </c>
+      <c r="DV39" s="17">
+        <v>1321</v>
+      </c>
       <c r="DW39" s="17"/>
       <c r="DX39" s="17"/>
       <c r="DY39" s="17"/>
@@ -11440,8 +11538,12 @@
       <c r="DT40" s="17">
         <v>187576</v>
       </c>
-      <c r="DU40" s="17"/>
-      <c r="DV40" s="17"/>
+      <c r="DU40" s="17">
+        <v>190017</v>
+      </c>
+      <c r="DV40" s="17">
+        <v>137960</v>
+      </c>
       <c r="DW40" s="17"/>
       <c r="DX40" s="17"/>
       <c r="DY40" s="17"/>
@@ -11754,8 +11856,12 @@
       <c r="DT41" s="17">
         <v>6</v>
       </c>
-      <c r="DU41" s="17"/>
-      <c r="DV41" s="17"/>
+      <c r="DU41" s="17">
+        <v>12</v>
+      </c>
+      <c r="DV41" s="17">
+        <v>5</v>
+      </c>
       <c r="DW41" s="17"/>
       <c r="DX41" s="17"/>
       <c r="DY41" s="17"/>
@@ -12134,8 +12240,12 @@
       <c r="DT42" s="17">
         <v>1505</v>
       </c>
-      <c r="DU42" s="17"/>
-      <c r="DV42" s="17"/>
+      <c r="DU42" s="17">
+        <v>1241</v>
+      </c>
+      <c r="DV42" s="17">
+        <v>486</v>
+      </c>
       <c r="DW42" s="17"/>
       <c r="DX42" s="17"/>
       <c r="DY42" s="17"/>
@@ -12508,8 +12618,12 @@
       <c r="DT43" s="17">
         <v>3</v>
       </c>
-      <c r="DU43" s="17"/>
-      <c r="DV43" s="17"/>
+      <c r="DU43" s="17">
+        <v>18</v>
+      </c>
+      <c r="DV43" s="17">
+        <v>65</v>
+      </c>
       <c r="DW43" s="17"/>
       <c r="DX43" s="17"/>
       <c r="DY43" s="17"/>
@@ -12888,8 +13002,12 @@
       <c r="DT44" s="17">
         <v>4597</v>
       </c>
-      <c r="DU44" s="17"/>
-      <c r="DV44" s="17"/>
+      <c r="DU44" s="17">
+        <v>3773</v>
+      </c>
+      <c r="DV44" s="17">
+        <v>2134</v>
+      </c>
       <c r="DW44" s="17"/>
       <c r="DX44" s="17"/>
       <c r="DY44" s="17"/>
@@ -13268,8 +13386,12 @@
       <c r="DT45" s="17">
         <v>5273</v>
       </c>
-      <c r="DU45" s="17"/>
-      <c r="DV45" s="17"/>
+      <c r="DU45" s="17">
+        <v>5664</v>
+      </c>
+      <c r="DV45" s="17">
+        <v>3990</v>
+      </c>
       <c r="DW45" s="17"/>
       <c r="DX45" s="17"/>
       <c r="DY45" s="17"/>
@@ -13648,8 +13770,12 @@
       <c r="DT46" s="17">
         <v>57</v>
       </c>
-      <c r="DU46" s="17"/>
-      <c r="DV46" s="17"/>
+      <c r="DU46" s="17">
+        <v>27</v>
+      </c>
+      <c r="DV46" s="17">
+        <v>41</v>
+      </c>
       <c r="DW46" s="17"/>
       <c r="DX46" s="17"/>
       <c r="DY46" s="17"/>
@@ -13882,8 +14008,12 @@
       </c>
       <c r="DS47" s="1"/>
       <c r="DT47" s="17"/>
-      <c r="DU47" s="17"/>
-      <c r="DV47" s="17"/>
+      <c r="DU47" s="17">
+        <v>3</v>
+      </c>
+      <c r="DV47" s="17">
+        <v>1</v>
+      </c>
       <c r="DW47" s="17"/>
       <c r="DX47" s="17"/>
       <c r="DY47" s="17"/>
@@ -14254,8 +14384,12 @@
       <c r="DT48" s="17">
         <v>20</v>
       </c>
-      <c r="DU48" s="17"/>
-      <c r="DV48" s="17"/>
+      <c r="DU48" s="17">
+        <v>3</v>
+      </c>
+      <c r="DV48" s="17">
+        <v>19</v>
+      </c>
       <c r="DW48" s="17"/>
       <c r="DX48" s="17"/>
       <c r="DY48" s="17"/>
@@ -14634,8 +14768,12 @@
       <c r="DT49" s="17">
         <v>15568</v>
       </c>
-      <c r="DU49" s="17"/>
-      <c r="DV49" s="17"/>
+      <c r="DU49" s="17">
+        <v>16599</v>
+      </c>
+      <c r="DV49" s="17">
+        <v>12070</v>
+      </c>
       <c r="DW49" s="17"/>
       <c r="DX49" s="17"/>
       <c r="DY49" s="17"/>
@@ -15014,8 +15152,12 @@
       <c r="DT50" s="17">
         <v>11861</v>
       </c>
-      <c r="DU50" s="17"/>
-      <c r="DV50" s="17"/>
+      <c r="DU50" s="17">
+        <v>11900</v>
+      </c>
+      <c r="DV50" s="17">
+        <v>7654</v>
+      </c>
       <c r="DW50" s="17"/>
       <c r="DX50" s="17"/>
       <c r="DY50" s="17"/>
@@ -15392,10 +15534,14 @@
         <v>6901</v>
       </c>
       <c r="DT51" s="17">
-        <v>8143</v>
-      </c>
-      <c r="DU51" s="17"/>
-      <c r="DV51" s="17"/>
+        <v>8142</v>
+      </c>
+      <c r="DU51" s="17">
+        <v>9986</v>
+      </c>
+      <c r="DV51" s="17">
+        <v>7377</v>
+      </c>
       <c r="DW51" s="17"/>
       <c r="DX51" s="17"/>
       <c r="DY51" s="17"/>
@@ -15726,8 +15872,12 @@
       <c r="DT52" s="17">
         <v>18</v>
       </c>
-      <c r="DU52" s="17"/>
-      <c r="DV52" s="17"/>
+      <c r="DU52" s="17">
+        <v>13</v>
+      </c>
+      <c r="DV52" s="17">
+        <v>12</v>
+      </c>
       <c r="DW52" s="17"/>
       <c r="DX52" s="17"/>
       <c r="DY52" s="17"/>
@@ -16092,8 +16242,12 @@
       <c r="DT53" s="17">
         <v>24</v>
       </c>
-      <c r="DU53" s="17"/>
-      <c r="DV53" s="17"/>
+      <c r="DU53" s="17">
+        <v>19</v>
+      </c>
+      <c r="DV53" s="17">
+        <v>25</v>
+      </c>
       <c r="DW53" s="17"/>
       <c r="DX53" s="17"/>
       <c r="DY53" s="17"/>
@@ -16466,8 +16620,12 @@
       <c r="DT54" s="17">
         <v>3596</v>
       </c>
-      <c r="DU54" s="17"/>
-      <c r="DV54" s="17"/>
+      <c r="DU54" s="17">
+        <v>4504</v>
+      </c>
+      <c r="DV54" s="17">
+        <v>2655</v>
+      </c>
       <c r="DW54" s="17"/>
       <c r="DX54" s="17"/>
       <c r="DY54" s="17"/>
@@ -16812,8 +16970,12 @@
       <c r="DT55" s="17">
         <v>74</v>
       </c>
-      <c r="DU55" s="17"/>
-      <c r="DV55" s="17"/>
+      <c r="DU55" s="17">
+        <v>52</v>
+      </c>
+      <c r="DV55" s="17">
+        <v>67</v>
+      </c>
       <c r="DW55" s="17"/>
       <c r="DX55" s="17"/>
       <c r="DY55" s="17"/>
@@ -17174,8 +17336,12 @@
       <c r="DT56" s="17">
         <v>533</v>
       </c>
-      <c r="DU56" s="17"/>
-      <c r="DV56" s="17"/>
+      <c r="DU56" s="17">
+        <v>676</v>
+      </c>
+      <c r="DV56" s="17">
+        <v>593</v>
+      </c>
       <c r="DW56" s="17"/>
       <c r="DX56" s="17"/>
       <c r="DY56" s="17"/>
@@ -17830,8 +17996,12 @@
       <c r="DT58" s="17">
         <v>74</v>
       </c>
-      <c r="DU58" s="17"/>
-      <c r="DV58" s="17"/>
+      <c r="DU58" s="17">
+        <v>46</v>
+      </c>
+      <c r="DV58" s="17">
+        <v>29</v>
+      </c>
       <c r="DW58" s="17"/>
       <c r="DX58" s="17"/>
       <c r="DY58" s="17"/>
@@ -18210,8 +18380,12 @@
       <c r="DT59" s="17">
         <v>105025</v>
       </c>
-      <c r="DU59" s="17"/>
-      <c r="DV59" s="17"/>
+      <c r="DU59" s="17">
+        <v>111481</v>
+      </c>
+      <c r="DV59" s="17">
+        <v>69591</v>
+      </c>
       <c r="DW59" s="17"/>
       <c r="DX59" s="17"/>
       <c r="DY59" s="17"/>
@@ -18590,8 +18764,12 @@
       <c r="DT60" s="17">
         <v>8318</v>
       </c>
-      <c r="DU60" s="17"/>
-      <c r="DV60" s="17"/>
+      <c r="DU60" s="17">
+        <v>8686</v>
+      </c>
+      <c r="DV60" s="17">
+        <v>6128</v>
+      </c>
       <c r="DW60" s="17"/>
       <c r="DX60" s="17"/>
       <c r="DY60" s="17"/>
@@ -18970,8 +19148,12 @@
       <c r="DT61" s="17">
         <v>30</v>
       </c>
-      <c r="DU61" s="17"/>
-      <c r="DV61" s="17"/>
+      <c r="DU61" s="17">
+        <v>25</v>
+      </c>
+      <c r="DV61" s="17">
+        <v>21</v>
+      </c>
       <c r="DW61" s="17"/>
       <c r="DX61" s="17"/>
       <c r="DY61" s="17"/>
@@ -19350,8 +19532,12 @@
       <c r="DT62" s="17">
         <v>239</v>
       </c>
-      <c r="DU62" s="17"/>
-      <c r="DV62" s="17"/>
+      <c r="DU62" s="17">
+        <v>175</v>
+      </c>
+      <c r="DV62" s="17">
+        <v>194</v>
+      </c>
       <c r="DW62" s="17"/>
       <c r="DX62" s="17"/>
       <c r="DY62" s="17"/>
@@ -19730,8 +19916,12 @@
       <c r="DT63" s="17">
         <v>136</v>
       </c>
-      <c r="DU63" s="17"/>
-      <c r="DV63" s="17"/>
+      <c r="DU63" s="17">
+        <v>62</v>
+      </c>
+      <c r="DV63" s="17">
+        <v>39</v>
+      </c>
       <c r="DW63" s="17"/>
       <c r="DX63" s="17"/>
       <c r="DY63" s="17"/>
@@ -20110,8 +20300,12 @@
       <c r="DT64" s="17">
         <v>4383</v>
       </c>
-      <c r="DU64" s="17"/>
-      <c r="DV64" s="17"/>
+      <c r="DU64" s="17">
+        <v>5871</v>
+      </c>
+      <c r="DV64" s="17">
+        <v>3376</v>
+      </c>
       <c r="DW64" s="17"/>
       <c r="DX64" s="17"/>
       <c r="DY64" s="17"/>
@@ -20490,8 +20684,12 @@
       <c r="DT65" s="17">
         <v>20570</v>
       </c>
-      <c r="DU65" s="17"/>
-      <c r="DV65" s="17"/>
+      <c r="DU65" s="17">
+        <v>21263</v>
+      </c>
+      <c r="DV65" s="17">
+        <v>12283</v>
+      </c>
       <c r="DW65" s="17"/>
       <c r="DX65" s="17"/>
       <c r="DY65" s="17"/>
@@ -20870,8 +21068,12 @@
       <c r="DT66" s="17">
         <v>789</v>
       </c>
-      <c r="DU66" s="17"/>
-      <c r="DV66" s="17"/>
+      <c r="DU66" s="17">
+        <v>716</v>
+      </c>
+      <c r="DV66" s="17">
+        <v>560</v>
+      </c>
       <c r="DW66" s="17"/>
       <c r="DX66" s="17"/>
       <c r="DY66" s="17"/>
@@ -21250,8 +21452,12 @@
       <c r="DT67" s="17">
         <v>104</v>
       </c>
-      <c r="DU67" s="17"/>
-      <c r="DV67" s="17"/>
+      <c r="DU67" s="17">
+        <v>176</v>
+      </c>
+      <c r="DV67" s="17">
+        <v>209</v>
+      </c>
       <c r="DW67" s="17"/>
       <c r="DX67" s="17"/>
       <c r="DY67" s="17"/>
@@ -21630,8 +21836,12 @@
       <c r="DT68" s="17">
         <v>207</v>
       </c>
-      <c r="DU68" s="17"/>
-      <c r="DV68" s="17"/>
+      <c r="DU68" s="17">
+        <v>189</v>
+      </c>
+      <c r="DV68" s="17">
+        <v>316</v>
+      </c>
       <c r="DW68" s="17"/>
       <c r="DX68" s="17"/>
       <c r="DY68" s="17"/>
@@ -22010,8 +22220,12 @@
       <c r="DT69" s="17">
         <v>403</v>
       </c>
-      <c r="DU69" s="17"/>
-      <c r="DV69" s="17"/>
+      <c r="DU69" s="17">
+        <v>406</v>
+      </c>
+      <c r="DV69" s="17">
+        <v>449</v>
+      </c>
       <c r="DW69" s="17"/>
       <c r="DX69" s="17"/>
       <c r="DY69" s="17"/>
@@ -22390,8 +22604,12 @@
       <c r="DT70" s="17">
         <v>1042</v>
       </c>
-      <c r="DU70" s="17"/>
-      <c r="DV70" s="17"/>
+      <c r="DU70" s="17">
+        <v>1134</v>
+      </c>
+      <c r="DV70" s="17">
+        <v>737</v>
+      </c>
       <c r="DW70" s="17"/>
       <c r="DX70" s="17"/>
       <c r="DY70" s="17"/>
@@ -23024,8 +23242,12 @@
       <c r="DT72" s="17">
         <v>290</v>
       </c>
-      <c r="DU72" s="17"/>
-      <c r="DV72" s="17"/>
+      <c r="DU72" s="17">
+        <v>389</v>
+      </c>
+      <c r="DV72" s="17">
+        <v>199</v>
+      </c>
       <c r="DW72" s="17"/>
       <c r="DX72" s="17"/>
       <c r="DY72" s="17"/>
@@ -23404,8 +23626,12 @@
       <c r="DT73" s="17">
         <v>1131</v>
       </c>
-      <c r="DU73" s="17"/>
-      <c r="DV73" s="17"/>
+      <c r="DU73" s="17">
+        <v>1903</v>
+      </c>
+      <c r="DV73" s="17">
+        <v>1270</v>
+      </c>
       <c r="DW73" s="17"/>
       <c r="DX73" s="17"/>
       <c r="DY73" s="17"/>
@@ -23772,8 +23998,12 @@
       <c r="DT74" s="17">
         <v>35</v>
       </c>
-      <c r="DU74" s="17"/>
-      <c r="DV74" s="17"/>
+      <c r="DU74" s="17">
+        <v>35</v>
+      </c>
+      <c r="DV74" s="17">
+        <v>145</v>
+      </c>
       <c r="DW74" s="17"/>
       <c r="DX74" s="17"/>
       <c r="DY74" s="17"/>
@@ -24152,8 +24382,12 @@
       <c r="DT75" s="17">
         <v>4818</v>
       </c>
-      <c r="DU75" s="17"/>
-      <c r="DV75" s="17"/>
+      <c r="DU75" s="17">
+        <v>5319</v>
+      </c>
+      <c r="DV75" s="17">
+        <v>3125</v>
+      </c>
       <c r="DW75" s="17"/>
       <c r="DX75" s="17"/>
       <c r="DY75" s="17"/>
@@ -24532,8 +24766,12 @@
       <c r="DT76" s="17">
         <v>3228</v>
       </c>
-      <c r="DU76" s="17"/>
-      <c r="DV76" s="17"/>
+      <c r="DU76" s="17">
+        <v>3363</v>
+      </c>
+      <c r="DV76" s="17">
+        <v>1644</v>
+      </c>
       <c r="DW76" s="17"/>
       <c r="DX76" s="17"/>
       <c r="DY76" s="17"/>
@@ -24910,10 +25148,14 @@
         <v>1175197</v>
       </c>
       <c r="DT77" s="10">
-        <v>1411003</v>
-      </c>
-      <c r="DU77" s="17"/>
-      <c r="DV77" s="17"/>
+        <v>1411002</v>
+      </c>
+      <c r="DU77" s="10">
+        <v>1554859</v>
+      </c>
+      <c r="DV77" s="10">
+        <v>1188098</v>
+      </c>
       <c r="DW77" s="17"/>
       <c r="DX77" s="17"/>
       <c r="DY77" s="17"/>
@@ -24921,6 +25163,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -24936,12 +25184,6 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 - Agosto de 2021</t>
+    <t>Enero de 2012 - Septiembre de 2021</t>
   </si>
 </sst>
 </file>
@@ -578,10 +578,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,15 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1108,182 +1108,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="18">
         <v>2012</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="18">
         <v>2013</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="18" t="s">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="18">
         <v>2014</v>
       </c>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="18" t="s">
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="22">
+      <c r="AO12" s="18">
         <v>2015</v>
       </c>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="18" t="s">
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="22">
+      <c r="BB12" s="18">
         <v>2016</v>
       </c>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="23"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="23"/>
-      <c r="BH12" s="23"/>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="18" t="s">
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="22">
+      <c r="BO12" s="18">
         <v>2017</v>
       </c>
-      <c r="BP12" s="23"/>
-      <c r="BQ12" s="23"/>
-      <c r="BR12" s="23"/>
-      <c r="BS12" s="23"/>
-      <c r="BT12" s="23"/>
-      <c r="BU12" s="23"/>
-      <c r="BV12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12" s="23"/>
-      <c r="BY12" s="23"/>
-      <c r="BZ12" s="23"/>
-      <c r="CA12" s="18" t="s">
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="19"/>
+      <c r="BT12" s="19"/>
+      <c r="BU12" s="19"/>
+      <c r="BV12" s="19"/>
+      <c r="BW12" s="19"/>
+      <c r="BX12" s="19"/>
+      <c r="BY12" s="19"/>
+      <c r="BZ12" s="19"/>
+      <c r="CA12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="22">
+      <c r="CB12" s="18">
         <v>2018</v>
       </c>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="23"/>
-      <c r="CE12" s="23"/>
-      <c r="CF12" s="23"/>
-      <c r="CG12" s="23"/>
-      <c r="CH12" s="23"/>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="23" t="s">
+      <c r="CC12" s="19"/>
+      <c r="CD12" s="19"/>
+      <c r="CE12" s="19"/>
+      <c r="CF12" s="19"/>
+      <c r="CG12" s="19"/>
+      <c r="CH12" s="19"/>
+      <c r="CI12" s="19"/>
+      <c r="CJ12" s="19"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
+      <c r="CM12" s="19"/>
+      <c r="CN12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="18">
         <v>2019</v>
       </c>
-      <c r="CP12" s="23"/>
-      <c r="CQ12" s="23"/>
-      <c r="CR12" s="23"/>
-      <c r="CS12" s="23"/>
-      <c r="CT12" s="23"/>
-      <c r="CU12" s="23"/>
-      <c r="CV12" s="23"/>
-      <c r="CW12" s="23"/>
-      <c r="CX12" s="23"/>
-      <c r="CY12" s="23"/>
+      <c r="CP12" s="19"/>
+      <c r="CQ12" s="19"/>
+      <c r="CR12" s="19"/>
+      <c r="CS12" s="19"/>
+      <c r="CT12" s="19"/>
+      <c r="CU12" s="19"/>
+      <c r="CV12" s="19"/>
+      <c r="CW12" s="19"/>
+      <c r="CX12" s="19"/>
+      <c r="CY12" s="19"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="23" t="s">
+      <c r="DA12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="22">
+      <c r="DB12" s="18">
         <v>2020</v>
       </c>
-      <c r="DC12" s="23"/>
-      <c r="DD12" s="23"/>
-      <c r="DE12" s="23"/>
-      <c r="DF12" s="23"/>
-      <c r="DG12" s="23"/>
-      <c r="DH12" s="23"/>
-      <c r="DI12" s="23"/>
-      <c r="DJ12" s="23"/>
-      <c r="DK12" s="23"/>
-      <c r="DL12" s="23"/>
-      <c r="DM12" s="23"/>
-      <c r="DN12" s="23" t="s">
+      <c r="DC12" s="19"/>
+      <c r="DD12" s="19"/>
+      <c r="DE12" s="19"/>
+      <c r="DF12" s="19"/>
+      <c r="DG12" s="19"/>
+      <c r="DH12" s="19"/>
+      <c r="DI12" s="19"/>
+      <c r="DJ12" s="19"/>
+      <c r="DK12" s="19"/>
+      <c r="DL12" s="19"/>
+      <c r="DM12" s="19"/>
+      <c r="DN12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="22">
+      <c r="DO12" s="18">
         <v>2021</v>
       </c>
-      <c r="DP12" s="23"/>
-      <c r="DQ12" s="23"/>
-      <c r="DR12" s="23"/>
-      <c r="DS12" s="23"/>
-      <c r="DT12" s="23"/>
-      <c r="DU12" s="23"/>
-      <c r="DV12" s="23"/>
-      <c r="DW12" s="23"/>
-      <c r="DX12" s="23"/>
-      <c r="DY12" s="23"/>
-      <c r="DZ12" s="23"/>
-      <c r="EA12" s="18" t="s">
+      <c r="DP12" s="19"/>
+      <c r="DQ12" s="19"/>
+      <c r="DR12" s="19"/>
+      <c r="DS12" s="19"/>
+      <c r="DT12" s="19"/>
+      <c r="DU12" s="19"/>
+      <c r="DV12" s="19"/>
+      <c r="DW12" s="19"/>
+      <c r="DX12" s="19"/>
+      <c r="DY12" s="19"/>
+      <c r="DZ12" s="19"/>
+      <c r="EA12" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="19"/>
+      <c r="AN13" s="21"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="19"/>
+      <c r="BA13" s="21"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="19"/>
+      <c r="BN13" s="21"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="19"/>
+      <c r="CA13" s="21"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="24"/>
+      <c r="CN13" s="22"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="24"/>
+      <c r="DA13" s="22"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="24"/>
+      <c r="DN13" s="22"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="19"/>
+      <c r="EA13" s="21"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2021,16 +2021,18 @@
       <c r="DS14" s="1">
         <v>754</v>
       </c>
-      <c r="DT14" s="17">
+      <c r="DT14" s="1">
         <v>1261</v>
       </c>
-      <c r="DU14" s="17">
+      <c r="DU14" s="1">
         <v>1135</v>
       </c>
-      <c r="DV14" s="17">
+      <c r="DV14" s="1">
         <v>473</v>
       </c>
-      <c r="DW14" s="17"/>
+      <c r="DW14" s="1">
+        <v>194</v>
+      </c>
       <c r="DX14" s="17"/>
       <c r="DY14" s="17"/>
       <c r="DZ14" s="17"/>
@@ -2405,16 +2407,18 @@
       <c r="DS15" s="1">
         <v>4664</v>
       </c>
-      <c r="DT15" s="17">
+      <c r="DT15" s="1">
         <v>6392</v>
       </c>
-      <c r="DU15" s="17">
+      <c r="DU15" s="1">
         <v>6947</v>
       </c>
-      <c r="DV15" s="17">
+      <c r="DV15" s="1">
         <v>4415</v>
       </c>
-      <c r="DW15" s="17"/>
+      <c r="DW15" s="1">
+        <v>3927</v>
+      </c>
       <c r="DX15" s="17"/>
       <c r="DY15" s="17"/>
       <c r="DZ15" s="17"/>
@@ -2789,16 +2793,18 @@
       <c r="DS16" s="1">
         <v>2243</v>
       </c>
-      <c r="DT16" s="17">
+      <c r="DT16" s="1">
         <v>1900</v>
       </c>
-      <c r="DU16" s="17">
+      <c r="DU16" s="1">
         <v>1537</v>
       </c>
-      <c r="DV16" s="17">
+      <c r="DV16" s="1">
         <v>713</v>
       </c>
-      <c r="DW16" s="17"/>
+      <c r="DW16" s="1">
+        <v>878</v>
+      </c>
       <c r="DX16" s="17"/>
       <c r="DY16" s="17"/>
       <c r="DZ16" s="17"/>
@@ -3155,16 +3161,18 @@
       <c r="DS17" s="1">
         <v>8</v>
       </c>
-      <c r="DT17" s="17">
+      <c r="DT17" s="1">
         <v>6</v>
       </c>
-      <c r="DU17" s="17">
+      <c r="DU17" s="1">
         <v>12</v>
       </c>
-      <c r="DV17" s="17">
+      <c r="DV17" s="1">
         <v>6</v>
       </c>
-      <c r="DW17" s="17"/>
+      <c r="DW17" s="1">
+        <v>88</v>
+      </c>
       <c r="DX17" s="17"/>
       <c r="DY17" s="17"/>
       <c r="DZ17" s="17"/>
@@ -3539,16 +3547,18 @@
       <c r="DS18" s="1">
         <v>537402</v>
       </c>
-      <c r="DT18" s="17">
+      <c r="DT18" s="1">
         <v>627283</v>
       </c>
-      <c r="DU18" s="17">
+      <c r="DU18" s="1">
         <v>697808</v>
       </c>
-      <c r="DV18" s="17">
+      <c r="DV18" s="1">
         <v>562517</v>
       </c>
-      <c r="DW18" s="17"/>
+      <c r="DW18" s="1">
+        <v>446842</v>
+      </c>
       <c r="DX18" s="17"/>
       <c r="DY18" s="17"/>
       <c r="DZ18" s="17"/>
@@ -3823,14 +3833,16 @@
       <c r="DS19" s="1">
         <v>34</v>
       </c>
-      <c r="DT19" s="17">
+      <c r="DT19" s="1">
         <v>4</v>
       </c>
-      <c r="DU19" s="17">
+      <c r="DU19" s="1">
         <v>2</v>
       </c>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1">
+        <v>4</v>
+      </c>
       <c r="DX19" s="17"/>
       <c r="DY19" s="17"/>
       <c r="DZ19" s="17"/>
@@ -4017,16 +4029,16 @@
       <c r="DS20" s="1">
         <v>195</v>
       </c>
-      <c r="DT20" s="17">
+      <c r="DT20" s="1">
         <v>652</v>
       </c>
-      <c r="DU20" s="17">
+      <c r="DU20" s="1">
         <v>902</v>
       </c>
-      <c r="DV20" s="17">
+      <c r="DV20" s="1">
         <v>434</v>
       </c>
-      <c r="DW20" s="17"/>
+      <c r="DW20" s="1"/>
       <c r="DX20" s="17"/>
       <c r="DY20" s="17"/>
       <c r="DZ20" s="17"/>
@@ -4401,16 +4413,18 @@
       <c r="DS21" s="1">
         <v>1891</v>
       </c>
-      <c r="DT21" s="17">
+      <c r="DT21" s="1">
         <v>1827</v>
       </c>
-      <c r="DU21" s="17">
+      <c r="DU21" s="1">
         <v>1947</v>
       </c>
-      <c r="DV21" s="17">
+      <c r="DV21" s="1">
         <v>1501</v>
       </c>
-      <c r="DW21" s="17"/>
+      <c r="DW21" s="1">
+        <v>1395</v>
+      </c>
       <c r="DX21" s="17"/>
       <c r="DY21" s="17"/>
       <c r="DZ21" s="17"/>
@@ -4753,12 +4767,12 @@
         <v>2</v>
       </c>
       <c r="DS22" s="1"/>
-      <c r="DT22" s="17"/>
-      <c r="DU22" s="17">
+      <c r="DT22" s="1"/>
+      <c r="DU22" s="1">
         <v>1</v>
       </c>
-      <c r="DV22" s="17"/>
-      <c r="DW22" s="17"/>
+      <c r="DV22" s="1"/>
+      <c r="DW22" s="1"/>
       <c r="DX22" s="17"/>
       <c r="DY22" s="17"/>
       <c r="DZ22" s="17"/>
@@ -5133,16 +5147,18 @@
       <c r="DS23" s="1">
         <v>199435</v>
       </c>
-      <c r="DT23" s="17">
+      <c r="DT23" s="1">
         <v>245821</v>
       </c>
-      <c r="DU23" s="17">
+      <c r="DU23" s="1">
         <v>293043</v>
       </c>
-      <c r="DV23" s="17">
+      <c r="DV23" s="1">
         <v>255952</v>
       </c>
-      <c r="DW23" s="17"/>
+      <c r="DW23" s="1">
+        <v>235313</v>
+      </c>
       <c r="DX23" s="17"/>
       <c r="DY23" s="17"/>
       <c r="DZ23" s="17"/>
@@ -5495,14 +5511,14 @@
       <c r="DS24" s="1">
         <v>45</v>
       </c>
-      <c r="DT24" s="17">
+      <c r="DT24" s="1">
         <v>47</v>
       </c>
-      <c r="DU24" s="17">
+      <c r="DU24" s="1">
         <v>42</v>
       </c>
-      <c r="DV24" s="17"/>
-      <c r="DW24" s="17"/>
+      <c r="DV24" s="1"/>
+      <c r="DW24" s="1"/>
       <c r="DX24" s="17"/>
       <c r="DY24" s="17"/>
       <c r="DZ24" s="17"/>
@@ -5877,16 +5893,18 @@
       <c r="DS25" s="1">
         <v>37</v>
       </c>
-      <c r="DT25" s="17">
+      <c r="DT25" s="1">
         <v>13</v>
       </c>
-      <c r="DU25" s="17">
+      <c r="DU25" s="1">
         <v>11</v>
       </c>
-      <c r="DV25" s="17">
+      <c r="DV25" s="1">
         <v>23</v>
       </c>
-      <c r="DW25" s="17"/>
+      <c r="DW25" s="1">
+        <v>52</v>
+      </c>
       <c r="DX25" s="17"/>
       <c r="DY25" s="17"/>
       <c r="DZ25" s="17"/>
@@ -6259,16 +6277,18 @@
       <c r="DS26" s="1">
         <v>64</v>
       </c>
-      <c r="DT26" s="17">
+      <c r="DT26" s="1">
         <v>38</v>
       </c>
-      <c r="DU26" s="17">
+      <c r="DU26" s="1">
         <v>42</v>
       </c>
-      <c r="DV26" s="17">
+      <c r="DV26" s="1">
         <v>29</v>
       </c>
-      <c r="DW26" s="17"/>
+      <c r="DW26" s="1">
+        <v>59</v>
+      </c>
       <c r="DX26" s="17"/>
       <c r="DY26" s="17"/>
       <c r="DZ26" s="17"/>
@@ -6643,16 +6663,18 @@
       <c r="DS27" s="1">
         <v>12</v>
       </c>
-      <c r="DT27" s="17">
+      <c r="DT27" s="1">
         <v>19</v>
       </c>
-      <c r="DU27" s="17">
+      <c r="DU27" s="1">
         <v>28</v>
       </c>
-      <c r="DV27" s="17">
+      <c r="DV27" s="1">
         <v>50</v>
       </c>
-      <c r="DW27" s="17"/>
+      <c r="DW27" s="1">
+        <v>17</v>
+      </c>
       <c r="DX27" s="17"/>
       <c r="DY27" s="17"/>
       <c r="DZ27" s="17"/>
@@ -7027,16 +7049,18 @@
       <c r="DS28" s="1">
         <v>18370</v>
       </c>
-      <c r="DT28" s="17">
+      <c r="DT28" s="1">
         <v>21642</v>
       </c>
-      <c r="DU28" s="17">
+      <c r="DU28" s="1">
         <v>22392</v>
       </c>
-      <c r="DV28" s="17">
+      <c r="DV28" s="1">
         <v>12788</v>
       </c>
-      <c r="DW28" s="17"/>
+      <c r="DW28" s="1">
+        <v>7709</v>
+      </c>
       <c r="DX28" s="17"/>
       <c r="DY28" s="17"/>
       <c r="DZ28" s="17"/>
@@ -7375,16 +7399,18 @@
       <c r="DS29" s="1">
         <v>11</v>
       </c>
-      <c r="DT29" s="17">
+      <c r="DT29" s="1">
         <v>19</v>
       </c>
-      <c r="DU29" s="17">
+      <c r="DU29" s="1">
         <v>5</v>
       </c>
-      <c r="DV29" s="17">
+      <c r="DV29" s="1">
         <v>7</v>
       </c>
-      <c r="DW29" s="17"/>
+      <c r="DW29" s="1">
+        <v>37</v>
+      </c>
       <c r="DX29" s="17"/>
       <c r="DY29" s="17"/>
       <c r="DZ29" s="17"/>
@@ -7739,16 +7765,18 @@
       <c r="DS30" s="1">
         <v>209</v>
       </c>
-      <c r="DT30" s="17">
+      <c r="DT30" s="1">
         <v>254</v>
       </c>
-      <c r="DU30" s="17">
+      <c r="DU30" s="1">
         <v>161</v>
       </c>
-      <c r="DV30" s="17">
+      <c r="DV30" s="1">
         <v>118</v>
       </c>
-      <c r="DW30" s="17"/>
+      <c r="DW30" s="1">
+        <v>155</v>
+      </c>
       <c r="DX30" s="17"/>
       <c r="DY30" s="17"/>
       <c r="DZ30" s="17"/>
@@ -8123,16 +8151,18 @@
       <c r="DS31" s="1">
         <v>196</v>
       </c>
-      <c r="DT31" s="17">
+      <c r="DT31" s="1">
         <v>131</v>
       </c>
-      <c r="DU31" s="17">
+      <c r="DU31" s="1">
         <v>221</v>
       </c>
-      <c r="DV31" s="17">
+      <c r="DV31" s="1">
         <v>188</v>
       </c>
-      <c r="DW31" s="17"/>
+      <c r="DW31" s="1">
+        <v>175</v>
+      </c>
       <c r="DX31" s="17"/>
       <c r="DY31" s="17"/>
       <c r="DZ31" s="17"/>
@@ -8507,16 +8537,18 @@
       <c r="DS32" s="1">
         <v>1877</v>
       </c>
-      <c r="DT32" s="17">
+      <c r="DT32" s="1">
         <v>3182</v>
       </c>
-      <c r="DU32" s="17">
+      <c r="DU32" s="1">
         <v>3592</v>
       </c>
-      <c r="DV32" s="17">
+      <c r="DV32" s="1">
         <v>2117</v>
       </c>
-      <c r="DW32" s="17"/>
+      <c r="DW32" s="1">
+        <v>1615</v>
+      </c>
       <c r="DX32" s="17"/>
       <c r="DY32" s="17"/>
       <c r="DZ32" s="17"/>
@@ -8851,16 +8883,18 @@
       <c r="DS33" s="1">
         <v>82</v>
       </c>
-      <c r="DT33" s="17">
+      <c r="DT33" s="1">
         <v>186</v>
       </c>
-      <c r="DU33" s="17">
+      <c r="DU33" s="1">
         <v>71</v>
       </c>
-      <c r="DV33" s="17">
+      <c r="DV33" s="1">
         <v>122</v>
       </c>
-      <c r="DW33" s="17"/>
+      <c r="DW33" s="1">
+        <v>182</v>
+      </c>
       <c r="DX33" s="17"/>
       <c r="DY33" s="17"/>
       <c r="DZ33" s="17"/>
@@ -9235,16 +9269,18 @@
       <c r="DS34" s="1">
         <v>83711</v>
       </c>
-      <c r="DT34" s="17">
+      <c r="DT34" s="1">
         <v>104794</v>
       </c>
-      <c r="DU34" s="17">
+      <c r="DU34" s="1">
         <v>113833</v>
       </c>
-      <c r="DV34" s="17">
+      <c r="DV34" s="1">
         <v>68193</v>
       </c>
-      <c r="DW34" s="17"/>
+      <c r="DW34" s="1">
+        <v>68533</v>
+      </c>
       <c r="DX34" s="17"/>
       <c r="DY34" s="17"/>
       <c r="DZ34" s="17"/>
@@ -9619,16 +9655,18 @@
       <c r="DS35" s="1">
         <v>109</v>
       </c>
-      <c r="DT35" s="17">
+      <c r="DT35" s="1">
         <v>93</v>
       </c>
-      <c r="DU35" s="17">
+      <c r="DU35" s="1">
         <v>74</v>
       </c>
-      <c r="DV35" s="17">
+      <c r="DV35" s="1">
         <v>22</v>
       </c>
-      <c r="DW35" s="17"/>
+      <c r="DW35" s="1">
+        <v>75</v>
+      </c>
       <c r="DX35" s="17"/>
       <c r="DY35" s="17"/>
       <c r="DZ35" s="17"/>
@@ -10003,16 +10041,18 @@
       <c r="DS36" s="1">
         <v>752</v>
       </c>
-      <c r="DT36" s="17">
+      <c r="DT36" s="1">
         <v>1254</v>
       </c>
-      <c r="DU36" s="17">
+      <c r="DU36" s="1">
         <v>1123</v>
       </c>
-      <c r="DV36" s="17">
+      <c r="DV36" s="1">
         <v>776</v>
       </c>
-      <c r="DW36" s="17"/>
+      <c r="DW36" s="1">
+        <v>663</v>
+      </c>
       <c r="DX36" s="17"/>
       <c r="DY36" s="17"/>
       <c r="DZ36" s="17"/>
@@ -10383,16 +10423,18 @@
       <c r="DS37" s="1">
         <v>20</v>
       </c>
-      <c r="DT37" s="17">
+      <c r="DT37" s="1">
         <v>1168</v>
       </c>
-      <c r="DU37" s="17">
+      <c r="DU37" s="1">
         <v>1155</v>
       </c>
-      <c r="DV37" s="17">
+      <c r="DV37" s="1">
         <v>417</v>
       </c>
-      <c r="DW37" s="17"/>
+      <c r="DW37" s="1">
+        <v>7</v>
+      </c>
       <c r="DX37" s="17"/>
       <c r="DY37" s="17"/>
       <c r="DZ37" s="17"/>
@@ -10767,16 +10809,18 @@
       <c r="DS38" s="1">
         <v>208</v>
       </c>
-      <c r="DT38" s="17">
+      <c r="DT38" s="1">
         <v>838</v>
       </c>
-      <c r="DU38" s="17">
+      <c r="DU38" s="1">
         <v>783</v>
       </c>
-      <c r="DV38" s="17">
+      <c r="DV38" s="1">
         <v>447</v>
       </c>
-      <c r="DW38" s="17"/>
+      <c r="DW38" s="1">
+        <v>172</v>
+      </c>
       <c r="DX38" s="17"/>
       <c r="DY38" s="17"/>
       <c r="DZ38" s="17"/>
@@ -11151,16 +11195,18 @@
       <c r="DS39" s="1">
         <v>3121</v>
       </c>
-      <c r="DT39" s="17">
+      <c r="DT39" s="1">
         <v>2470</v>
       </c>
-      <c r="DU39" s="17">
+      <c r="DU39" s="1">
         <v>2246</v>
       </c>
-      <c r="DV39" s="17">
+      <c r="DV39" s="1">
         <v>1321</v>
       </c>
-      <c r="DW39" s="17"/>
+      <c r="DW39" s="1">
+        <v>1301</v>
+      </c>
       <c r="DX39" s="17"/>
       <c r="DY39" s="17"/>
       <c r="DZ39" s="17"/>
@@ -11535,16 +11581,18 @@
       <c r="DS40" s="1">
         <v>159534</v>
       </c>
-      <c r="DT40" s="17">
+      <c r="DT40" s="1">
         <v>187576</v>
       </c>
-      <c r="DU40" s="17">
+      <c r="DU40" s="1">
         <v>190017</v>
       </c>
-      <c r="DV40" s="17">
+      <c r="DV40" s="1">
         <v>137960</v>
       </c>
-      <c r="DW40" s="17"/>
+      <c r="DW40" s="1">
+        <v>117205</v>
+      </c>
       <c r="DX40" s="17"/>
       <c r="DY40" s="17"/>
       <c r="DZ40" s="17"/>
@@ -11853,16 +11901,18 @@
       <c r="DS41" s="1">
         <v>5</v>
       </c>
-      <c r="DT41" s="17">
+      <c r="DT41" s="1">
         <v>6</v>
       </c>
-      <c r="DU41" s="17">
+      <c r="DU41" s="1">
         <v>12</v>
       </c>
-      <c r="DV41" s="17">
+      <c r="DV41" s="1">
         <v>5</v>
       </c>
-      <c r="DW41" s="17"/>
+      <c r="DW41" s="1">
+        <v>15</v>
+      </c>
       <c r="DX41" s="17"/>
       <c r="DY41" s="17"/>
       <c r="DZ41" s="17"/>
@@ -12237,16 +12287,18 @@
       <c r="DS42" s="1">
         <v>1391</v>
       </c>
-      <c r="DT42" s="17">
+      <c r="DT42" s="1">
         <v>1505</v>
       </c>
-      <c r="DU42" s="17">
+      <c r="DU42" s="1">
         <v>1241</v>
       </c>
-      <c r="DV42" s="17">
+      <c r="DV42" s="1">
         <v>486</v>
       </c>
-      <c r="DW42" s="17"/>
+      <c r="DW42" s="1">
+        <v>431</v>
+      </c>
       <c r="DX42" s="17"/>
       <c r="DY42" s="17"/>
       <c r="DZ42" s="17"/>
@@ -12615,16 +12667,18 @@
       <c r="DS43" s="1">
         <v>9</v>
       </c>
-      <c r="DT43" s="17">
+      <c r="DT43" s="1">
         <v>3</v>
       </c>
-      <c r="DU43" s="17">
+      <c r="DU43" s="1">
         <v>18</v>
       </c>
-      <c r="DV43" s="17">
+      <c r="DV43" s="1">
         <v>65</v>
       </c>
-      <c r="DW43" s="17"/>
+      <c r="DW43" s="1">
+        <v>39</v>
+      </c>
       <c r="DX43" s="17"/>
       <c r="DY43" s="17"/>
       <c r="DZ43" s="17"/>
@@ -12999,16 +13053,18 @@
       <c r="DS44" s="1">
         <v>4296</v>
       </c>
-      <c r="DT44" s="17">
+      <c r="DT44" s="1">
         <v>4597</v>
       </c>
-      <c r="DU44" s="17">
+      <c r="DU44" s="1">
         <v>3773</v>
       </c>
-      <c r="DV44" s="17">
+      <c r="DV44" s="1">
         <v>2134</v>
       </c>
-      <c r="DW44" s="17"/>
+      <c r="DW44" s="1">
+        <v>2518</v>
+      </c>
       <c r="DX44" s="17"/>
       <c r="DY44" s="17"/>
       <c r="DZ44" s="17"/>
@@ -13383,16 +13439,18 @@
       <c r="DS45" s="1">
         <v>3206</v>
       </c>
-      <c r="DT45" s="17">
+      <c r="DT45" s="1">
         <v>5273</v>
       </c>
-      <c r="DU45" s="17">
+      <c r="DU45" s="1">
         <v>5664</v>
       </c>
-      <c r="DV45" s="17">
+      <c r="DV45" s="1">
         <v>3990</v>
       </c>
-      <c r="DW45" s="17"/>
+      <c r="DW45" s="1">
+        <v>3352</v>
+      </c>
       <c r="DX45" s="17"/>
       <c r="DY45" s="17"/>
       <c r="DZ45" s="17"/>
@@ -13767,16 +13825,18 @@
       <c r="DS46" s="1">
         <v>79</v>
       </c>
-      <c r="DT46" s="17">
+      <c r="DT46" s="1">
         <v>57</v>
       </c>
-      <c r="DU46" s="17">
+      <c r="DU46" s="1">
         <v>27</v>
       </c>
-      <c r="DV46" s="17">
+      <c r="DV46" s="1">
         <v>41</v>
       </c>
-      <c r="DW46" s="17"/>
+      <c r="DW46" s="1">
+        <v>44</v>
+      </c>
       <c r="DX46" s="17"/>
       <c r="DY46" s="17"/>
       <c r="DZ46" s="17"/>
@@ -14007,14 +14067,16 @@
         <v>11</v>
       </c>
       <c r="DS47" s="1"/>
-      <c r="DT47" s="17"/>
-      <c r="DU47" s="17">
+      <c r="DT47" s="1"/>
+      <c r="DU47" s="1">
         <v>3</v>
       </c>
-      <c r="DV47" s="17">
+      <c r="DV47" s="1">
         <v>1</v>
       </c>
-      <c r="DW47" s="17"/>
+      <c r="DW47" s="1">
+        <v>5</v>
+      </c>
       <c r="DX47" s="17"/>
       <c r="DY47" s="17"/>
       <c r="DZ47" s="17"/>
@@ -14381,16 +14443,18 @@
       <c r="DS48" s="1">
         <v>3</v>
       </c>
-      <c r="DT48" s="17">
+      <c r="DT48" s="1">
         <v>20</v>
       </c>
-      <c r="DU48" s="17">
+      <c r="DU48" s="1">
         <v>3</v>
       </c>
-      <c r="DV48" s="17">
+      <c r="DV48" s="1">
         <v>19</v>
       </c>
-      <c r="DW48" s="17"/>
+      <c r="DW48" s="1">
+        <v>17</v>
+      </c>
       <c r="DX48" s="17"/>
       <c r="DY48" s="17"/>
       <c r="DZ48" s="17"/>
@@ -14765,16 +14829,18 @@
       <c r="DS49" s="1">
         <v>11869</v>
       </c>
-      <c r="DT49" s="17">
+      <c r="DT49" s="1">
         <v>15568</v>
       </c>
-      <c r="DU49" s="17">
+      <c r="DU49" s="1">
         <v>16599</v>
       </c>
-      <c r="DV49" s="17">
+      <c r="DV49" s="1">
         <v>12070</v>
       </c>
-      <c r="DW49" s="17"/>
+      <c r="DW49" s="1">
+        <v>12224</v>
+      </c>
       <c r="DX49" s="17"/>
       <c r="DY49" s="17"/>
       <c r="DZ49" s="17"/>
@@ -15149,16 +15215,18 @@
       <c r="DS50" s="1">
         <v>9646</v>
       </c>
-      <c r="DT50" s="17">
+      <c r="DT50" s="1">
         <v>11861</v>
       </c>
-      <c r="DU50" s="17">
+      <c r="DU50" s="1">
         <v>11900</v>
       </c>
-      <c r="DV50" s="17">
+      <c r="DV50" s="1">
         <v>7654</v>
       </c>
-      <c r="DW50" s="17"/>
+      <c r="DW50" s="1">
+        <v>7409</v>
+      </c>
       <c r="DX50" s="17"/>
       <c r="DY50" s="17"/>
       <c r="DZ50" s="17"/>
@@ -15533,16 +15601,18 @@
       <c r="DS51" s="1">
         <v>6901</v>
       </c>
-      <c r="DT51" s="17">
+      <c r="DT51" s="1">
         <v>8142</v>
       </c>
-      <c r="DU51" s="17">
+      <c r="DU51" s="1">
         <v>9986</v>
       </c>
-      <c r="DV51" s="17">
+      <c r="DV51" s="1">
         <v>7377</v>
       </c>
-      <c r="DW51" s="17"/>
+      <c r="DW51" s="1">
+        <v>4925</v>
+      </c>
       <c r="DX51" s="17"/>
       <c r="DY51" s="17"/>
       <c r="DZ51" s="17"/>
@@ -15869,16 +15939,18 @@
       <c r="DS52" s="1">
         <v>28</v>
       </c>
-      <c r="DT52" s="17">
+      <c r="DT52" s="1">
         <v>18</v>
       </c>
-      <c r="DU52" s="17">
+      <c r="DU52" s="1">
         <v>13</v>
       </c>
-      <c r="DV52" s="17">
+      <c r="DV52" s="1">
         <v>12</v>
       </c>
-      <c r="DW52" s="17"/>
+      <c r="DW52" s="1">
+        <v>15</v>
+      </c>
       <c r="DX52" s="17"/>
       <c r="DY52" s="17"/>
       <c r="DZ52" s="17"/>
@@ -16239,16 +16311,18 @@
         <v>7</v>
       </c>
       <c r="DS53" s="1"/>
-      <c r="DT53" s="17">
+      <c r="DT53" s="1">
         <v>24</v>
       </c>
-      <c r="DU53" s="17">
+      <c r="DU53" s="1">
         <v>19</v>
       </c>
-      <c r="DV53" s="17">
+      <c r="DV53" s="1">
         <v>25</v>
       </c>
-      <c r="DW53" s="17"/>
+      <c r="DW53" s="1">
+        <v>4</v>
+      </c>
       <c r="DX53" s="17"/>
       <c r="DY53" s="17"/>
       <c r="DZ53" s="17"/>
@@ -16617,16 +16691,18 @@
       <c r="DS54" s="1">
         <v>2646</v>
       </c>
-      <c r="DT54" s="17">
+      <c r="DT54" s="1">
         <v>3596</v>
       </c>
-      <c r="DU54" s="17">
+      <c r="DU54" s="1">
         <v>4504</v>
       </c>
-      <c r="DV54" s="17">
+      <c r="DV54" s="1">
         <v>2655</v>
       </c>
-      <c r="DW54" s="17"/>
+      <c r="DW54" s="1">
+        <v>2296</v>
+      </c>
       <c r="DX54" s="17"/>
       <c r="DY54" s="17"/>
       <c r="DZ54" s="17"/>
@@ -16967,16 +17043,18 @@
       <c r="DS55" s="1">
         <v>44</v>
       </c>
-      <c r="DT55" s="17">
+      <c r="DT55" s="1">
         <v>74</v>
       </c>
-      <c r="DU55" s="17">
+      <c r="DU55" s="1">
         <v>52</v>
       </c>
-      <c r="DV55" s="17">
+      <c r="DV55" s="1">
         <v>67</v>
       </c>
-      <c r="DW55" s="17"/>
+      <c r="DW55" s="1">
+        <v>46</v>
+      </c>
       <c r="DX55" s="17"/>
       <c r="DY55" s="17"/>
       <c r="DZ55" s="17"/>
@@ -17333,16 +17411,18 @@
       <c r="DS56" s="1">
         <v>463</v>
       </c>
-      <c r="DT56" s="17">
+      <c r="DT56" s="1">
         <v>533</v>
       </c>
-      <c r="DU56" s="17">
+      <c r="DU56" s="1">
         <v>676</v>
       </c>
-      <c r="DV56" s="17">
+      <c r="DV56" s="1">
         <v>593</v>
       </c>
-      <c r="DW56" s="17"/>
+      <c r="DW56" s="1">
+        <v>446</v>
+      </c>
       <c r="DX56" s="17"/>
       <c r="DY56" s="17"/>
       <c r="DZ56" s="17"/>
@@ -17629,12 +17709,12 @@
       <c r="DS57" s="1">
         <v>12</v>
       </c>
-      <c r="DT57" s="17">
+      <c r="DT57" s="1">
         <v>29</v>
       </c>
-      <c r="DU57" s="17"/>
-      <c r="DV57" s="17"/>
-      <c r="DW57" s="17"/>
+      <c r="DU57" s="1"/>
+      <c r="DV57" s="1"/>
+      <c r="DW57" s="1"/>
       <c r="DX57" s="17"/>
       <c r="DY57" s="17"/>
       <c r="DZ57" s="17"/>
@@ -17993,16 +18073,18 @@
       <c r="DS58" s="1">
         <v>68</v>
       </c>
-      <c r="DT58" s="17">
+      <c r="DT58" s="1">
         <v>74</v>
       </c>
-      <c r="DU58" s="17">
+      <c r="DU58" s="1">
         <v>46</v>
       </c>
-      <c r="DV58" s="17">
+      <c r="DV58" s="1">
         <v>29</v>
       </c>
-      <c r="DW58" s="17"/>
+      <c r="DW58" s="1">
+        <v>43</v>
+      </c>
       <c r="DX58" s="17"/>
       <c r="DY58" s="17"/>
       <c r="DZ58" s="17"/>
@@ -18377,16 +18459,18 @@
       <c r="DS59" s="1">
         <v>88123</v>
       </c>
-      <c r="DT59" s="17">
+      <c r="DT59" s="1">
         <v>105025</v>
       </c>
-      <c r="DU59" s="17">
+      <c r="DU59" s="1">
         <v>111481</v>
       </c>
-      <c r="DV59" s="17">
+      <c r="DV59" s="1">
         <v>69591</v>
       </c>
-      <c r="DW59" s="17"/>
+      <c r="DW59" s="1">
+        <v>54608</v>
+      </c>
       <c r="DX59" s="17"/>
       <c r="DY59" s="17"/>
       <c r="DZ59" s="17"/>
@@ -18761,16 +18845,18 @@
       <c r="DS60" s="1">
         <v>5941</v>
       </c>
-      <c r="DT60" s="17">
+      <c r="DT60" s="1">
         <v>8318</v>
       </c>
-      <c r="DU60" s="17">
+      <c r="DU60" s="1">
         <v>8686</v>
       </c>
-      <c r="DV60" s="17">
+      <c r="DV60" s="1">
         <v>6128</v>
       </c>
-      <c r="DW60" s="17"/>
+      <c r="DW60" s="1">
+        <v>5971</v>
+      </c>
       <c r="DX60" s="17"/>
       <c r="DY60" s="17"/>
       <c r="DZ60" s="17"/>
@@ -19145,16 +19231,18 @@
       <c r="DS61" s="1">
         <v>25</v>
       </c>
-      <c r="DT61" s="17">
+      <c r="DT61" s="1">
         <v>30</v>
       </c>
-      <c r="DU61" s="17">
+      <c r="DU61" s="1">
         <v>25</v>
       </c>
-      <c r="DV61" s="17">
+      <c r="DV61" s="1">
         <v>21</v>
       </c>
-      <c r="DW61" s="17"/>
+      <c r="DW61" s="1">
+        <v>28</v>
+      </c>
       <c r="DX61" s="17"/>
       <c r="DY61" s="17"/>
       <c r="DZ61" s="17"/>
@@ -19529,16 +19617,18 @@
       <c r="DS62" s="1">
         <v>53</v>
       </c>
-      <c r="DT62" s="17">
+      <c r="DT62" s="1">
         <v>239</v>
       </c>
-      <c r="DU62" s="17">
+      <c r="DU62" s="1">
         <v>175</v>
       </c>
-      <c r="DV62" s="17">
+      <c r="DV62" s="1">
         <v>194</v>
       </c>
-      <c r="DW62" s="17"/>
+      <c r="DW62" s="1">
+        <v>108</v>
+      </c>
       <c r="DX62" s="17"/>
       <c r="DY62" s="17"/>
       <c r="DZ62" s="17"/>
@@ -19913,16 +20003,18 @@
       <c r="DS63" s="1">
         <v>196</v>
       </c>
-      <c r="DT63" s="17">
+      <c r="DT63" s="1">
         <v>136</v>
       </c>
-      <c r="DU63" s="17">
+      <c r="DU63" s="1">
         <v>62</v>
       </c>
-      <c r="DV63" s="17">
+      <c r="DV63" s="1">
         <v>39</v>
       </c>
-      <c r="DW63" s="17"/>
+      <c r="DW63" s="1">
+        <v>85</v>
+      </c>
       <c r="DX63" s="17"/>
       <c r="DY63" s="17"/>
       <c r="DZ63" s="17"/>
@@ -20297,16 +20389,18 @@
       <c r="DS64" s="1">
         <v>3343</v>
       </c>
-      <c r="DT64" s="17">
+      <c r="DT64" s="1">
         <v>4383</v>
       </c>
-      <c r="DU64" s="17">
+      <c r="DU64" s="1">
         <v>5871</v>
       </c>
-      <c r="DV64" s="17">
+      <c r="DV64" s="1">
         <v>3376</v>
       </c>
-      <c r="DW64" s="17"/>
+      <c r="DW64" s="1">
+        <v>2977</v>
+      </c>
       <c r="DX64" s="17"/>
       <c r="DY64" s="17"/>
       <c r="DZ64" s="17"/>
@@ -20681,16 +20775,18 @@
       <c r="DS65" s="1">
         <v>12602</v>
       </c>
-      <c r="DT65" s="17">
+      <c r="DT65" s="1">
         <v>20570</v>
       </c>
-      <c r="DU65" s="17">
+      <c r="DU65" s="1">
         <v>21263</v>
       </c>
-      <c r="DV65" s="17">
+      <c r="DV65" s="1">
         <v>12283</v>
       </c>
-      <c r="DW65" s="17"/>
+      <c r="DW65" s="1">
+        <v>11528</v>
+      </c>
       <c r="DX65" s="17"/>
       <c r="DY65" s="17"/>
       <c r="DZ65" s="17"/>
@@ -21065,16 +21161,18 @@
       <c r="DS66" s="1">
         <v>869</v>
       </c>
-      <c r="DT66" s="17">
+      <c r="DT66" s="1">
         <v>789</v>
       </c>
-      <c r="DU66" s="17">
+      <c r="DU66" s="1">
         <v>716</v>
       </c>
-      <c r="DV66" s="17">
+      <c r="DV66" s="1">
         <v>560</v>
       </c>
-      <c r="DW66" s="17"/>
+      <c r="DW66" s="1">
+        <v>630</v>
+      </c>
       <c r="DX66" s="17"/>
       <c r="DY66" s="17"/>
       <c r="DZ66" s="17"/>
@@ -21449,16 +21547,18 @@
       <c r="DS67" s="1">
         <v>171</v>
       </c>
-      <c r="DT67" s="17">
+      <c r="DT67" s="1">
         <v>104</v>
       </c>
-      <c r="DU67" s="17">
+      <c r="DU67" s="1">
         <v>176</v>
       </c>
-      <c r="DV67" s="17">
+      <c r="DV67" s="1">
         <v>209</v>
       </c>
-      <c r="DW67" s="17"/>
+      <c r="DW67" s="1">
+        <v>225</v>
+      </c>
       <c r="DX67" s="17"/>
       <c r="DY67" s="17"/>
       <c r="DZ67" s="17"/>
@@ -21833,16 +21933,18 @@
       <c r="DS68" s="1">
         <v>177</v>
       </c>
-      <c r="DT68" s="17">
+      <c r="DT68" s="1">
         <v>207</v>
       </c>
-      <c r="DU68" s="17">
+      <c r="DU68" s="1">
         <v>189</v>
       </c>
-      <c r="DV68" s="17">
+      <c r="DV68" s="1">
         <v>316</v>
       </c>
-      <c r="DW68" s="17"/>
+      <c r="DW68" s="1">
+        <v>206</v>
+      </c>
       <c r="DX68" s="17"/>
       <c r="DY68" s="17"/>
       <c r="DZ68" s="17"/>
@@ -22217,16 +22319,18 @@
       <c r="DS69" s="1">
         <v>411</v>
       </c>
-      <c r="DT69" s="17">
+      <c r="DT69" s="1">
         <v>403</v>
       </c>
-      <c r="DU69" s="17">
+      <c r="DU69" s="1">
         <v>406</v>
       </c>
-      <c r="DV69" s="17">
+      <c r="DV69" s="1">
         <v>449</v>
       </c>
-      <c r="DW69" s="17"/>
+      <c r="DW69" s="1">
+        <v>653</v>
+      </c>
       <c r="DX69" s="17"/>
       <c r="DY69" s="17"/>
       <c r="DZ69" s="17"/>
@@ -22601,16 +22705,18 @@
       <c r="DS70" s="1">
         <v>664</v>
       </c>
-      <c r="DT70" s="17">
+      <c r="DT70" s="1">
         <v>1042</v>
       </c>
-      <c r="DU70" s="17">
+      <c r="DU70" s="1">
         <v>1134</v>
       </c>
-      <c r="DV70" s="17">
+      <c r="DV70" s="1">
         <v>737</v>
       </c>
-      <c r="DW70" s="17"/>
+      <c r="DW70" s="1">
+        <v>734</v>
+      </c>
       <c r="DX70" s="17"/>
       <c r="DY70" s="17"/>
       <c r="DZ70" s="17"/>
@@ -22901,12 +23007,14 @@
       <c r="DS71" s="1">
         <v>4</v>
       </c>
-      <c r="DT71" s="17">
+      <c r="DT71" s="1">
         <v>4</v>
       </c>
-      <c r="DU71" s="17"/>
-      <c r="DV71" s="17"/>
-      <c r="DW71" s="17"/>
+      <c r="DU71" s="1"/>
+      <c r="DV71" s="1"/>
+      <c r="DW71" s="1">
+        <v>4</v>
+      </c>
       <c r="DX71" s="17"/>
       <c r="DY71" s="17"/>
       <c r="DZ71" s="17"/>
@@ -23239,16 +23347,18 @@
       <c r="DS72" s="1">
         <v>271</v>
       </c>
-      <c r="DT72" s="17">
+      <c r="DT72" s="1">
         <v>290</v>
       </c>
-      <c r="DU72" s="17">
+      <c r="DU72" s="1">
         <v>389</v>
       </c>
-      <c r="DV72" s="17">
+      <c r="DV72" s="1">
         <v>199</v>
       </c>
-      <c r="DW72" s="17"/>
+      <c r="DW72" s="1">
+        <v>162</v>
+      </c>
       <c r="DX72" s="17"/>
       <c r="DY72" s="17"/>
       <c r="DZ72" s="17"/>
@@ -23623,16 +23733,18 @@
       <c r="DS73" s="1">
         <v>835</v>
       </c>
-      <c r="DT73" s="17">
+      <c r="DT73" s="1">
         <v>1131</v>
       </c>
-      <c r="DU73" s="17">
+      <c r="DU73" s="1">
         <v>1903</v>
       </c>
-      <c r="DV73" s="17">
+      <c r="DV73" s="1">
         <v>1270</v>
       </c>
-      <c r="DW73" s="17"/>
+      <c r="DW73" s="1">
+        <v>918</v>
+      </c>
       <c r="DX73" s="17"/>
       <c r="DY73" s="17"/>
       <c r="DZ73" s="17"/>
@@ -23995,16 +24107,18 @@
       <c r="DS74" s="1">
         <v>36</v>
       </c>
-      <c r="DT74" s="17">
+      <c r="DT74" s="1">
         <v>35</v>
       </c>
-      <c r="DU74" s="17">
+      <c r="DU74" s="1">
         <v>35</v>
       </c>
-      <c r="DV74" s="17">
+      <c r="DV74" s="1">
         <v>145</v>
       </c>
-      <c r="DW74" s="17"/>
+      <c r="DW74" s="1">
+        <v>156</v>
+      </c>
       <c r="DX74" s="17"/>
       <c r="DY74" s="17"/>
       <c r="DZ74" s="17"/>
@@ -24379,16 +24493,18 @@
       <c r="DS75" s="1">
         <v>2902</v>
       </c>
-      <c r="DT75" s="17">
+      <c r="DT75" s="1">
         <v>4818</v>
       </c>
-      <c r="DU75" s="17">
+      <c r="DU75" s="1">
         <v>5319</v>
       </c>
-      <c r="DV75" s="17">
+      <c r="DV75" s="1">
         <v>3125</v>
       </c>
-      <c r="DW75" s="17"/>
+      <c r="DW75" s="1">
+        <v>2823</v>
+      </c>
       <c r="DX75" s="17"/>
       <c r="DY75" s="17"/>
       <c r="DZ75" s="17"/>
@@ -24763,16 +24879,18 @@
       <c r="DS76" s="1">
         <v>2924</v>
       </c>
-      <c r="DT76" s="17">
+      <c r="DT76" s="1">
         <v>3228</v>
       </c>
-      <c r="DU76" s="17">
+      <c r="DU76" s="1">
         <v>3363</v>
       </c>
-      <c r="DV76" s="17">
+      <c r="DV76" s="1">
         <v>1644</v>
       </c>
-      <c r="DW76" s="17"/>
+      <c r="DW76" s="1">
+        <v>838</v>
+      </c>
       <c r="DX76" s="17"/>
       <c r="DY76" s="17"/>
       <c r="DZ76" s="17"/>
@@ -25156,19 +25274,15 @@
       <c r="DV77" s="10">
         <v>1188098</v>
       </c>
-      <c r="DW77" s="17"/>
+      <c r="DW77" s="10">
+        <v>1003081</v>
+      </c>
       <c r="DX77" s="17"/>
       <c r="DY77" s="17"/>
       <c r="DZ77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -25184,6 +25298,12 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 - Septiembre de 2021</t>
+    <t>Enero de 2012 - Octubre de 2021</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -577,20 +577,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +588,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,9 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1086,7 +1083,7 @@
     <col min="125" max="125" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="15" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="11" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="13" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1108,182 +1105,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="21">
         <v>2012</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="21">
         <v>2013</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20" t="s">
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="21">
         <v>2014</v>
       </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20" t="s">
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12" s="21">
         <v>2015</v>
       </c>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="20" t="s">
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="18">
+      <c r="BB12" s="21">
         <v>2016</v>
       </c>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="20" t="s">
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BL12" s="22"/>
+      <c r="BM12" s="22"/>
+      <c r="BN12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="18">
+      <c r="BO12" s="21">
         <v>2017</v>
       </c>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
-      <c r="BS12" s="19"/>
-      <c r="BT12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="BZ12" s="19"/>
-      <c r="CA12" s="20" t="s">
+      <c r="BP12" s="22"/>
+      <c r="BQ12" s="22"/>
+      <c r="BR12" s="22"/>
+      <c r="BS12" s="22"/>
+      <c r="BT12" s="22"/>
+      <c r="BU12" s="22"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22"/>
+      <c r="BX12" s="22"/>
+      <c r="BY12" s="22"/>
+      <c r="BZ12" s="22"/>
+      <c r="CA12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="18">
+      <c r="CB12" s="21">
         <v>2018</v>
       </c>
-      <c r="CC12" s="19"/>
-      <c r="CD12" s="19"/>
-      <c r="CE12" s="19"/>
-      <c r="CF12" s="19"/>
-      <c r="CG12" s="19"/>
-      <c r="CH12" s="19"/>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19" t="s">
+      <c r="CC12" s="22"/>
+      <c r="CD12" s="22"/>
+      <c r="CE12" s="22"/>
+      <c r="CF12" s="22"/>
+      <c r="CG12" s="22"/>
+      <c r="CH12" s="22"/>
+      <c r="CI12" s="22"/>
+      <c r="CJ12" s="22"/>
+      <c r="CK12" s="22"/>
+      <c r="CL12" s="22"/>
+      <c r="CM12" s="22"/>
+      <c r="CN12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="21">
         <v>2019</v>
       </c>
-      <c r="CP12" s="19"/>
-      <c r="CQ12" s="19"/>
-      <c r="CR12" s="19"/>
-      <c r="CS12" s="19"/>
-      <c r="CT12" s="19"/>
-      <c r="CU12" s="19"/>
-      <c r="CV12" s="19"/>
-      <c r="CW12" s="19"/>
-      <c r="CX12" s="19"/>
-      <c r="CY12" s="19"/>
+      <c r="CP12" s="22"/>
+      <c r="CQ12" s="22"/>
+      <c r="CR12" s="22"/>
+      <c r="CS12" s="22"/>
+      <c r="CT12" s="22"/>
+      <c r="CU12" s="22"/>
+      <c r="CV12" s="22"/>
+      <c r="CW12" s="22"/>
+      <c r="CX12" s="22"/>
+      <c r="CY12" s="22"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="19" t="s">
+      <c r="DA12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="18">
+      <c r="DB12" s="21">
         <v>2020</v>
       </c>
-      <c r="DC12" s="19"/>
-      <c r="DD12" s="19"/>
-      <c r="DE12" s="19"/>
-      <c r="DF12" s="19"/>
-      <c r="DG12" s="19"/>
-      <c r="DH12" s="19"/>
-      <c r="DI12" s="19"/>
-      <c r="DJ12" s="19"/>
-      <c r="DK12" s="19"/>
-      <c r="DL12" s="19"/>
-      <c r="DM12" s="19"/>
-      <c r="DN12" s="19" t="s">
+      <c r="DC12" s="22"/>
+      <c r="DD12" s="22"/>
+      <c r="DE12" s="22"/>
+      <c r="DF12" s="22"/>
+      <c r="DG12" s="22"/>
+      <c r="DH12" s="22"/>
+      <c r="DI12" s="22"/>
+      <c r="DJ12" s="22"/>
+      <c r="DK12" s="22"/>
+      <c r="DL12" s="22"/>
+      <c r="DM12" s="22"/>
+      <c r="DN12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="18">
+      <c r="DO12" s="21">
         <v>2021</v>
       </c>
-      <c r="DP12" s="19"/>
-      <c r="DQ12" s="19"/>
-      <c r="DR12" s="19"/>
-      <c r="DS12" s="19"/>
-      <c r="DT12" s="19"/>
-      <c r="DU12" s="19"/>
-      <c r="DV12" s="19"/>
-      <c r="DW12" s="19"/>
-      <c r="DX12" s="19"/>
-      <c r="DY12" s="19"/>
-      <c r="DZ12" s="19"/>
-      <c r="EA12" s="20" t="s">
+      <c r="DP12" s="22"/>
+      <c r="DQ12" s="22"/>
+      <c r="DR12" s="22"/>
+      <c r="DS12" s="22"/>
+      <c r="DT12" s="22"/>
+      <c r="DU12" s="22"/>
+      <c r="DV12" s="22"/>
+      <c r="DW12" s="22"/>
+      <c r="DX12" s="22"/>
+      <c r="DY12" s="22"/>
+      <c r="DZ12" s="22"/>
+      <c r="EA12" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1317,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1354,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1391,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="21"/>
+      <c r="AN13" s="18"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1428,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="21"/>
+      <c r="BA13" s="18"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1465,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="21"/>
+      <c r="BN13" s="18"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1502,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="21"/>
+      <c r="CA13" s="18"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1539,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="22"/>
+      <c r="CN13" s="23"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1576,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="22"/>
+      <c r="DA13" s="23"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1613,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="22"/>
+      <c r="DN13" s="23"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1650,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="21"/>
+      <c r="EA13" s="18"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2033,9 +2030,11 @@
       <c r="DW14" s="1">
         <v>194</v>
       </c>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17"/>
+      <c r="DX14" s="1">
+        <v>383</v>
+      </c>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
     </row>
     <row r="15" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2419,9 +2418,11 @@
       <c r="DW15" s="1">
         <v>3927</v>
       </c>
-      <c r="DX15" s="17"/>
-      <c r="DY15" s="17"/>
-      <c r="DZ15" s="17"/>
+      <c r="DX15" s="1">
+        <v>3899</v>
+      </c>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
     </row>
     <row r="16" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2805,9 +2806,11 @@
       <c r="DW16" s="1">
         <v>878</v>
       </c>
-      <c r="DX16" s="17"/>
-      <c r="DY16" s="17"/>
-      <c r="DZ16" s="17"/>
+      <c r="DX16" s="1">
+        <v>2040</v>
+      </c>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
     </row>
     <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3173,9 +3176,11 @@
       <c r="DW17" s="1">
         <v>88</v>
       </c>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
+      <c r="DX17" s="1">
+        <v>12</v>
+      </c>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
     </row>
     <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3559,9 +3564,11 @@
       <c r="DW18" s="1">
         <v>446842</v>
       </c>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
+      <c r="DX18" s="1">
+        <v>563824</v>
+      </c>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
     </row>
     <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -3843,9 +3850,11 @@
       <c r="DW19" s="1">
         <v>4</v>
       </c>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
+      <c r="DX19" s="1">
+        <v>4</v>
+      </c>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
     </row>
     <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -4039,9 +4048,9 @@
         <v>434</v>
       </c>
       <c r="DW20" s="1"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
     </row>
     <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -4425,9 +4434,11 @@
       <c r="DW21" s="1">
         <v>1395</v>
       </c>
-      <c r="DX21" s="17"/>
-      <c r="DY21" s="17"/>
-      <c r="DZ21" s="17"/>
+      <c r="DX21" s="1">
+        <v>1932</v>
+      </c>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
     </row>
     <row r="22" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -4773,9 +4784,11 @@
       </c>
       <c r="DV22" s="1"/>
       <c r="DW22" s="1"/>
-      <c r="DX22" s="17"/>
-      <c r="DY22" s="17"/>
-      <c r="DZ22" s="17"/>
+      <c r="DX22" s="1">
+        <v>2</v>
+      </c>
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1"/>
     </row>
     <row r="23" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5159,9 +5172,11 @@
       <c r="DW23" s="1">
         <v>235313</v>
       </c>
-      <c r="DX23" s="17"/>
-      <c r="DY23" s="17"/>
-      <c r="DZ23" s="17"/>
+      <c r="DX23" s="1">
+        <v>292279</v>
+      </c>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
     </row>
     <row r="24" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5519,9 +5534,11 @@
       </c>
       <c r="DV24" s="1"/>
       <c r="DW24" s="1"/>
-      <c r="DX24" s="17"/>
-      <c r="DY24" s="17"/>
-      <c r="DZ24" s="17"/>
+      <c r="DX24" s="1">
+        <v>10</v>
+      </c>
+      <c r="DY24" s="1"/>
+      <c r="DZ24" s="1"/>
     </row>
     <row r="25" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -5905,9 +5922,11 @@
       <c r="DW25" s="1">
         <v>52</v>
       </c>
-      <c r="DX25" s="17"/>
-      <c r="DY25" s="17"/>
-      <c r="DZ25" s="17"/>
+      <c r="DX25" s="1">
+        <v>86</v>
+      </c>
+      <c r="DY25" s="1"/>
+      <c r="DZ25" s="1"/>
     </row>
     <row r="26" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -6289,9 +6308,11 @@
       <c r="DW26" s="1">
         <v>59</v>
       </c>
-      <c r="DX26" s="17"/>
-      <c r="DY26" s="17"/>
-      <c r="DZ26" s="17"/>
+      <c r="DX26" s="1">
+        <v>129</v>
+      </c>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
     </row>
     <row r="27" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -6675,9 +6696,11 @@
       <c r="DW27" s="1">
         <v>17</v>
       </c>
-      <c r="DX27" s="17"/>
-      <c r="DY27" s="17"/>
-      <c r="DZ27" s="17"/>
+      <c r="DX27" s="1">
+        <v>13</v>
+      </c>
+      <c r="DY27" s="1"/>
+      <c r="DZ27" s="1"/>
     </row>
     <row r="28" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7061,9 +7084,11 @@
       <c r="DW28" s="1">
         <v>7709</v>
       </c>
-      <c r="DX28" s="17"/>
-      <c r="DY28" s="17"/>
-      <c r="DZ28" s="17"/>
+      <c r="DX28" s="1">
+        <v>11673</v>
+      </c>
+      <c r="DY28" s="1"/>
+      <c r="DZ28" s="1"/>
     </row>
     <row r="29" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -7411,9 +7436,11 @@
       <c r="DW29" s="1">
         <v>37</v>
       </c>
-      <c r="DX29" s="17"/>
-      <c r="DY29" s="17"/>
-      <c r="DZ29" s="17"/>
+      <c r="DX29" s="1">
+        <v>53</v>
+      </c>
+      <c r="DY29" s="1"/>
+      <c r="DZ29" s="1"/>
     </row>
     <row r="30" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -7777,9 +7804,11 @@
       <c r="DW30" s="1">
         <v>155</v>
       </c>
-      <c r="DX30" s="17"/>
-      <c r="DY30" s="17"/>
-      <c r="DZ30" s="17"/>
+      <c r="DX30" s="1">
+        <v>215</v>
+      </c>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
     </row>
     <row r="31" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -8163,9 +8192,11 @@
       <c r="DW31" s="1">
         <v>175</v>
       </c>
-      <c r="DX31" s="17"/>
-      <c r="DY31" s="17"/>
-      <c r="DZ31" s="17"/>
+      <c r="DX31" s="1">
+        <v>185</v>
+      </c>
+      <c r="DY31" s="1"/>
+      <c r="DZ31" s="1"/>
     </row>
     <row r="32" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -8549,9 +8580,11 @@
       <c r="DW32" s="1">
         <v>1615</v>
       </c>
-      <c r="DX32" s="17"/>
-      <c r="DY32" s="17"/>
-      <c r="DZ32" s="17"/>
+      <c r="DX32" s="1">
+        <v>1764</v>
+      </c>
+      <c r="DY32" s="1"/>
+      <c r="DZ32" s="1"/>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -8895,9 +8928,11 @@
       <c r="DW33" s="1">
         <v>182</v>
       </c>
-      <c r="DX33" s="17"/>
-      <c r="DY33" s="17"/>
-      <c r="DZ33" s="17"/>
+      <c r="DX33" s="1">
+        <v>117</v>
+      </c>
+      <c r="DY33" s="1"/>
+      <c r="DZ33" s="1"/>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -9281,9 +9316,11 @@
       <c r="DW34" s="1">
         <v>68533</v>
       </c>
-      <c r="DX34" s="17"/>
-      <c r="DY34" s="17"/>
-      <c r="DZ34" s="17"/>
+      <c r="DX34" s="1">
+        <v>76132</v>
+      </c>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -9667,9 +9704,11 @@
       <c r="DW35" s="1">
         <v>75</v>
       </c>
-      <c r="DX35" s="17"/>
-      <c r="DY35" s="17"/>
-      <c r="DZ35" s="17"/>
+      <c r="DX35" s="1">
+        <v>146</v>
+      </c>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -10053,9 +10092,11 @@
       <c r="DW36" s="1">
         <v>663</v>
       </c>
-      <c r="DX36" s="17"/>
-      <c r="DY36" s="17"/>
-      <c r="DZ36" s="17"/>
+      <c r="DX36" s="1">
+        <v>1108</v>
+      </c>
+      <c r="DY36" s="1"/>
+      <c r="DZ36" s="1"/>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -10435,9 +10476,11 @@
       <c r="DW37" s="1">
         <v>7</v>
       </c>
-      <c r="DX37" s="17"/>
-      <c r="DY37" s="17"/>
-      <c r="DZ37" s="17"/>
+      <c r="DX37" s="1">
+        <v>142</v>
+      </c>
+      <c r="DY37" s="1"/>
+      <c r="DZ37" s="1"/>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -10821,9 +10864,11 @@
       <c r="DW38" s="1">
         <v>172</v>
       </c>
-      <c r="DX38" s="17"/>
-      <c r="DY38" s="17"/>
-      <c r="DZ38" s="17"/>
+      <c r="DX38" s="1">
+        <v>134</v>
+      </c>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -11207,9 +11252,11 @@
       <c r="DW39" s="1">
         <v>1301</v>
       </c>
-      <c r="DX39" s="17"/>
-      <c r="DY39" s="17"/>
-      <c r="DZ39" s="17"/>
+      <c r="DX39" s="1">
+        <v>2886</v>
+      </c>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -11593,9 +11640,11 @@
       <c r="DW40" s="1">
         <v>117205</v>
       </c>
-      <c r="DX40" s="17"/>
-      <c r="DY40" s="17"/>
-      <c r="DZ40" s="17"/>
+      <c r="DX40" s="1">
+        <v>159202</v>
+      </c>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -11913,9 +11962,11 @@
       <c r="DW41" s="1">
         <v>15</v>
       </c>
-      <c r="DX41" s="17"/>
-      <c r="DY41" s="17"/>
-      <c r="DZ41" s="17"/>
+      <c r="DX41" s="1">
+        <v>40</v>
+      </c>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -12299,9 +12350,11 @@
       <c r="DW42" s="1">
         <v>431</v>
       </c>
-      <c r="DX42" s="17"/>
-      <c r="DY42" s="17"/>
-      <c r="DZ42" s="17"/>
+      <c r="DX42" s="1">
+        <v>999</v>
+      </c>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -12679,9 +12732,11 @@
       <c r="DW43" s="1">
         <v>39</v>
       </c>
-      <c r="DX43" s="17"/>
-      <c r="DY43" s="17"/>
-      <c r="DZ43" s="17"/>
+      <c r="DX43" s="1">
+        <v>15</v>
+      </c>
+      <c r="DY43" s="1"/>
+      <c r="DZ43" s="1"/>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -13065,9 +13120,11 @@
       <c r="DW44" s="1">
         <v>2518</v>
       </c>
-      <c r="DX44" s="17"/>
-      <c r="DY44" s="17"/>
-      <c r="DZ44" s="17"/>
+      <c r="DX44" s="1">
+        <v>6335</v>
+      </c>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -13451,9 +13508,11 @@
       <c r="DW45" s="1">
         <v>3352</v>
       </c>
-      <c r="DX45" s="17"/>
-      <c r="DY45" s="17"/>
-      <c r="DZ45" s="17"/>
+      <c r="DX45" s="1">
+        <v>3644</v>
+      </c>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
     </row>
     <row r="46" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -13837,9 +13896,11 @@
       <c r="DW46" s="1">
         <v>44</v>
       </c>
-      <c r="DX46" s="17"/>
-      <c r="DY46" s="17"/>
-      <c r="DZ46" s="17"/>
+      <c r="DX46" s="1">
+        <v>51</v>
+      </c>
+      <c r="DY46" s="1"/>
+      <c r="DZ46" s="1"/>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -14077,9 +14138,11 @@
       <c r="DW47" s="1">
         <v>5</v>
       </c>
-      <c r="DX47" s="17"/>
-      <c r="DY47" s="17"/>
-      <c r="DZ47" s="17"/>
+      <c r="DX47" s="1">
+        <v>2</v>
+      </c>
+      <c r="DY47" s="1"/>
+      <c r="DZ47" s="1"/>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -14455,9 +14518,11 @@
       <c r="DW48" s="1">
         <v>17</v>
       </c>
-      <c r="DX48" s="17"/>
-      <c r="DY48" s="17"/>
-      <c r="DZ48" s="17"/>
+      <c r="DX48" s="1">
+        <v>27</v>
+      </c>
+      <c r="DY48" s="1"/>
+      <c r="DZ48" s="1"/>
     </row>
     <row r="49" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -14841,9 +14906,11 @@
       <c r="DW49" s="1">
         <v>12224</v>
       </c>
-      <c r="DX49" s="17"/>
-      <c r="DY49" s="17"/>
-      <c r="DZ49" s="17"/>
+      <c r="DX49" s="1">
+        <v>14566</v>
+      </c>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
     </row>
     <row r="50" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -15227,9 +15294,11 @@
       <c r="DW50" s="1">
         <v>7409</v>
       </c>
-      <c r="DX50" s="17"/>
-      <c r="DY50" s="17"/>
-      <c r="DZ50" s="17"/>
+      <c r="DX50" s="1">
+        <v>8552</v>
+      </c>
+      <c r="DY50" s="1"/>
+      <c r="DZ50" s="1"/>
     </row>
     <row r="51" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -15613,9 +15682,11 @@
       <c r="DW51" s="1">
         <v>4925</v>
       </c>
-      <c r="DX51" s="17"/>
-      <c r="DY51" s="17"/>
-      <c r="DZ51" s="17"/>
+      <c r="DX51" s="1">
+        <v>6388</v>
+      </c>
+      <c r="DY51" s="1"/>
+      <c r="DZ51" s="1"/>
     </row>
     <row r="52" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -15951,9 +16022,11 @@
       <c r="DW52" s="1">
         <v>15</v>
       </c>
-      <c r="DX52" s="17"/>
-      <c r="DY52" s="17"/>
-      <c r="DZ52" s="17"/>
+      <c r="DX52" s="1">
+        <v>25</v>
+      </c>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
     </row>
     <row r="53" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -16323,9 +16396,11 @@
       <c r="DW53" s="1">
         <v>4</v>
       </c>
-      <c r="DX53" s="17"/>
-      <c r="DY53" s="17"/>
-      <c r="DZ53" s="17"/>
+      <c r="DX53" s="1">
+        <v>13</v>
+      </c>
+      <c r="DY53" s="1"/>
+      <c r="DZ53" s="1"/>
     </row>
     <row r="54" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -16703,9 +16778,11 @@
       <c r="DW54" s="1">
         <v>2296</v>
       </c>
-      <c r="DX54" s="17"/>
-      <c r="DY54" s="17"/>
-      <c r="DZ54" s="17"/>
+      <c r="DX54" s="1">
+        <v>4190</v>
+      </c>
+      <c r="DY54" s="1"/>
+      <c r="DZ54" s="1"/>
     </row>
     <row r="55" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -17055,9 +17132,11 @@
       <c r="DW55" s="1">
         <v>46</v>
       </c>
-      <c r="DX55" s="17"/>
-      <c r="DY55" s="17"/>
-      <c r="DZ55" s="17"/>
+      <c r="DX55" s="1">
+        <v>53</v>
+      </c>
+      <c r="DY55" s="1"/>
+      <c r="DZ55" s="1"/>
     </row>
     <row r="56" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -17423,9 +17502,11 @@
       <c r="DW56" s="1">
         <v>446</v>
       </c>
-      <c r="DX56" s="17"/>
-      <c r="DY56" s="17"/>
-      <c r="DZ56" s="17"/>
+      <c r="DX56" s="1">
+        <v>693</v>
+      </c>
+      <c r="DY56" s="1"/>
+      <c r="DZ56" s="1"/>
     </row>
     <row r="57" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -17715,9 +17796,9 @@
       <c r="DU57" s="1"/>
       <c r="DV57" s="1"/>
       <c r="DW57" s="1"/>
-      <c r="DX57" s="17"/>
-      <c r="DY57" s="17"/>
-      <c r="DZ57" s="17"/>
+      <c r="DX57" s="1"/>
+      <c r="DY57" s="1"/>
+      <c r="DZ57" s="1"/>
     </row>
     <row r="58" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -18085,9 +18166,11 @@
       <c r="DW58" s="1">
         <v>43</v>
       </c>
-      <c r="DX58" s="17"/>
-      <c r="DY58" s="17"/>
-      <c r="DZ58" s="17"/>
+      <c r="DX58" s="1">
+        <v>68</v>
+      </c>
+      <c r="DY58" s="1"/>
+      <c r="DZ58" s="1"/>
     </row>
     <row r="59" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -18471,9 +18554,11 @@
       <c r="DW59" s="1">
         <v>54608</v>
       </c>
-      <c r="DX59" s="17"/>
-      <c r="DY59" s="17"/>
-      <c r="DZ59" s="17"/>
+      <c r="DX59" s="1">
+        <v>94453</v>
+      </c>
+      <c r="DY59" s="1"/>
+      <c r="DZ59" s="1"/>
     </row>
     <row r="60" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -18857,9 +18942,11 @@
       <c r="DW60" s="1">
         <v>5971</v>
       </c>
-      <c r="DX60" s="17"/>
-      <c r="DY60" s="17"/>
-      <c r="DZ60" s="17"/>
+      <c r="DX60" s="1">
+        <v>7339</v>
+      </c>
+      <c r="DY60" s="1"/>
+      <c r="DZ60" s="1"/>
     </row>
     <row r="61" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -19243,9 +19330,11 @@
       <c r="DW61" s="1">
         <v>28</v>
       </c>
-      <c r="DX61" s="17"/>
-      <c r="DY61" s="17"/>
-      <c r="DZ61" s="17"/>
+      <c r="DX61" s="1">
+        <v>23</v>
+      </c>
+      <c r="DY61" s="1"/>
+      <c r="DZ61" s="1"/>
     </row>
     <row r="62" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -19629,9 +19718,11 @@
       <c r="DW62" s="1">
         <v>108</v>
       </c>
-      <c r="DX62" s="17"/>
-      <c r="DY62" s="17"/>
-      <c r="DZ62" s="17"/>
+      <c r="DX62" s="1">
+        <v>54</v>
+      </c>
+      <c r="DY62" s="1"/>
+      <c r="DZ62" s="1"/>
     </row>
     <row r="63" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -20015,9 +20106,11 @@
       <c r="DW63" s="1">
         <v>85</v>
       </c>
-      <c r="DX63" s="17"/>
-      <c r="DY63" s="17"/>
-      <c r="DZ63" s="17"/>
+      <c r="DX63" s="1">
+        <v>158</v>
+      </c>
+      <c r="DY63" s="1"/>
+      <c r="DZ63" s="1"/>
     </row>
     <row r="64" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -20401,9 +20494,11 @@
       <c r="DW64" s="1">
         <v>2977</v>
       </c>
-      <c r="DX64" s="17"/>
-      <c r="DY64" s="17"/>
-      <c r="DZ64" s="17"/>
+      <c r="DX64" s="1">
+        <v>3201</v>
+      </c>
+      <c r="DY64" s="1"/>
+      <c r="DZ64" s="1"/>
     </row>
     <row r="65" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -20787,9 +20882,11 @@
       <c r="DW65" s="1">
         <v>11528</v>
       </c>
-      <c r="DX65" s="17"/>
-      <c r="DY65" s="17"/>
-      <c r="DZ65" s="17"/>
+      <c r="DX65" s="1">
+        <v>13066</v>
+      </c>
+      <c r="DY65" s="1"/>
+      <c r="DZ65" s="1"/>
     </row>
     <row r="66" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -21173,9 +21270,11 @@
       <c r="DW66" s="1">
         <v>630</v>
       </c>
-      <c r="DX66" s="17"/>
-      <c r="DY66" s="17"/>
-      <c r="DZ66" s="17"/>
+      <c r="DX66" s="1">
+        <v>705</v>
+      </c>
+      <c r="DY66" s="1"/>
+      <c r="DZ66" s="1"/>
     </row>
     <row r="67" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -21559,9 +21658,11 @@
       <c r="DW67" s="1">
         <v>225</v>
       </c>
-      <c r="DX67" s="17"/>
-      <c r="DY67" s="17"/>
-      <c r="DZ67" s="17"/>
+      <c r="DX67" s="1">
+        <v>318</v>
+      </c>
+      <c r="DY67" s="1"/>
+      <c r="DZ67" s="1"/>
     </row>
     <row r="68" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -21945,9 +22046,11 @@
       <c r="DW68" s="1">
         <v>206</v>
       </c>
-      <c r="DX68" s="17"/>
-      <c r="DY68" s="17"/>
-      <c r="DZ68" s="17"/>
+      <c r="DX68" s="1">
+        <v>187</v>
+      </c>
+      <c r="DY68" s="1"/>
+      <c r="DZ68" s="1"/>
     </row>
     <row r="69" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -22331,9 +22434,11 @@
       <c r="DW69" s="1">
         <v>653</v>
       </c>
-      <c r="DX69" s="17"/>
-      <c r="DY69" s="17"/>
-      <c r="DZ69" s="17"/>
+      <c r="DX69" s="1">
+        <v>762</v>
+      </c>
+      <c r="DY69" s="1"/>
+      <c r="DZ69" s="1"/>
     </row>
     <row r="70" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -22717,9 +22822,11 @@
       <c r="DW70" s="1">
         <v>734</v>
       </c>
-      <c r="DX70" s="17"/>
-      <c r="DY70" s="17"/>
-      <c r="DZ70" s="17"/>
+      <c r="DX70" s="1">
+        <v>763</v>
+      </c>
+      <c r="DY70" s="1"/>
+      <c r="DZ70" s="1"/>
     </row>
     <row r="71" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -23015,9 +23122,11 @@
       <c r="DW71" s="1">
         <v>4</v>
       </c>
-      <c r="DX71" s="17"/>
-      <c r="DY71" s="17"/>
-      <c r="DZ71" s="17"/>
+      <c r="DX71" s="1">
+        <v>10</v>
+      </c>
+      <c r="DY71" s="1"/>
+      <c r="DZ71" s="1"/>
     </row>
     <row r="72" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -23359,9 +23468,11 @@
       <c r="DW72" s="1">
         <v>162</v>
       </c>
-      <c r="DX72" s="17"/>
-      <c r="DY72" s="17"/>
-      <c r="DZ72" s="17"/>
+      <c r="DX72" s="1">
+        <v>267</v>
+      </c>
+      <c r="DY72" s="1"/>
+      <c r="DZ72" s="1"/>
     </row>
     <row r="73" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -23745,9 +23856,11 @@
       <c r="DW73" s="1">
         <v>918</v>
       </c>
-      <c r="DX73" s="17"/>
-      <c r="DY73" s="17"/>
-      <c r="DZ73" s="17"/>
+      <c r="DX73" s="1">
+        <v>851</v>
+      </c>
+      <c r="DY73" s="1"/>
+      <c r="DZ73" s="1"/>
     </row>
     <row r="74" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -24119,9 +24232,11 @@
       <c r="DW74" s="1">
         <v>156</v>
       </c>
-      <c r="DX74" s="17"/>
-      <c r="DY74" s="17"/>
-      <c r="DZ74" s="17"/>
+      <c r="DX74" s="1">
+        <v>159</v>
+      </c>
+      <c r="DY74" s="1"/>
+      <c r="DZ74" s="1"/>
     </row>
     <row r="75" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -24505,9 +24620,11 @@
       <c r="DW75" s="1">
         <v>2823</v>
       </c>
-      <c r="DX75" s="17"/>
-      <c r="DY75" s="17"/>
-      <c r="DZ75" s="17"/>
+      <c r="DX75" s="1">
+        <v>2788</v>
+      </c>
+      <c r="DY75" s="1"/>
+      <c r="DZ75" s="1"/>
     </row>
     <row r="76" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -24891,9 +25008,11 @@
       <c r="DW76" s="1">
         <v>838</v>
       </c>
-      <c r="DX76" s="17"/>
-      <c r="DY76" s="17"/>
-      <c r="DZ76" s="17"/>
+      <c r="DX76" s="1">
+        <v>1846</v>
+      </c>
+      <c r="DY76" s="1"/>
+      <c r="DZ76" s="1"/>
     </row>
     <row r="77" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
@@ -25277,12 +25396,20 @@
       <c r="DW77" s="10">
         <v>1003081</v>
       </c>
-      <c r="DX77" s="17"/>
-      <c r="DY77" s="17"/>
-      <c r="DZ77" s="17"/>
+      <c r="DX77" s="10">
+        <v>1290981</v>
+      </c>
+      <c r="DY77" s="10"/>
+      <c r="DZ77" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -25298,12 +25425,6 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -577,10 +577,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,15 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,7 +989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DM55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:DY77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1105,182 +1107,182 @@
       </c>
     </row>
     <row r="12" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>2012</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="17" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="17">
         <v>2013</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="17" t="s">
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="17">
         <v>2014</v>
       </c>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="17" t="s">
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AO12" s="21">
+      <c r="AO12" s="17">
         <v>2015</v>
       </c>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="17" t="s">
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BB12" s="21">
+      <c r="BB12" s="17">
         <v>2016</v>
       </c>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="22"/>
-      <c r="BG12" s="22"/>
-      <c r="BH12" s="22"/>
-      <c r="BI12" s="22"/>
-      <c r="BJ12" s="22"/>
-      <c r="BK12" s="22"/>
-      <c r="BL12" s="22"/>
-      <c r="BM12" s="22"/>
-      <c r="BN12" s="17" t="s">
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BO12" s="21">
+      <c r="BO12" s="17">
         <v>2017</v>
       </c>
-      <c r="BP12" s="22"/>
-      <c r="BQ12" s="22"/>
-      <c r="BR12" s="22"/>
-      <c r="BS12" s="22"/>
-      <c r="BT12" s="22"/>
-      <c r="BU12" s="22"/>
-      <c r="BV12" s="22"/>
-      <c r="BW12" s="22"/>
-      <c r="BX12" s="22"/>
-      <c r="BY12" s="22"/>
-      <c r="BZ12" s="22"/>
-      <c r="CA12" s="17" t="s">
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="CB12" s="21">
+      <c r="CB12" s="17">
         <v>2018</v>
       </c>
-      <c r="CC12" s="22"/>
-      <c r="CD12" s="22"/>
-      <c r="CE12" s="22"/>
-      <c r="CF12" s="22"/>
-      <c r="CG12" s="22"/>
-      <c r="CH12" s="22"/>
-      <c r="CI12" s="22"/>
-      <c r="CJ12" s="22"/>
-      <c r="CK12" s="22"/>
-      <c r="CL12" s="22"/>
-      <c r="CM12" s="22"/>
-      <c r="CN12" s="22" t="s">
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="18"/>
+      <c r="CL12" s="18"/>
+      <c r="CM12" s="18"/>
+      <c r="CN12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="21">
+      <c r="CO12" s="17">
         <v>2019</v>
       </c>
-      <c r="CP12" s="22"/>
-      <c r="CQ12" s="22"/>
-      <c r="CR12" s="22"/>
-      <c r="CS12" s="22"/>
-      <c r="CT12" s="22"/>
-      <c r="CU12" s="22"/>
-      <c r="CV12" s="22"/>
-      <c r="CW12" s="22"/>
-      <c r="CX12" s="22"/>
-      <c r="CY12" s="22"/>
+      <c r="CP12" s="18"/>
+      <c r="CQ12" s="18"/>
+      <c r="CR12" s="18"/>
+      <c r="CS12" s="18"/>
+      <c r="CT12" s="18"/>
+      <c r="CU12" s="18"/>
+      <c r="CV12" s="18"/>
+      <c r="CW12" s="18"/>
+      <c r="CX12" s="18"/>
+      <c r="CY12" s="18"/>
       <c r="CZ12" s="12"/>
-      <c r="DA12" s="22" t="s">
+      <c r="DA12" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="DB12" s="21">
+      <c r="DB12" s="17">
         <v>2020</v>
       </c>
-      <c r="DC12" s="22"/>
-      <c r="DD12" s="22"/>
-      <c r="DE12" s="22"/>
-      <c r="DF12" s="22"/>
-      <c r="DG12" s="22"/>
-      <c r="DH12" s="22"/>
-      <c r="DI12" s="22"/>
-      <c r="DJ12" s="22"/>
-      <c r="DK12" s="22"/>
-      <c r="DL12" s="22"/>
-      <c r="DM12" s="22"/>
-      <c r="DN12" s="22" t="s">
+      <c r="DC12" s="18"/>
+      <c r="DD12" s="18"/>
+      <c r="DE12" s="18"/>
+      <c r="DF12" s="18"/>
+      <c r="DG12" s="18"/>
+      <c r="DH12" s="18"/>
+      <c r="DI12" s="18"/>
+      <c r="DJ12" s="18"/>
+      <c r="DK12" s="18"/>
+      <c r="DL12" s="18"/>
+      <c r="DM12" s="18"/>
+      <c r="DN12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="DO12" s="21">
+      <c r="DO12" s="17">
         <v>2021</v>
       </c>
-      <c r="DP12" s="22"/>
-      <c r="DQ12" s="22"/>
-      <c r="DR12" s="22"/>
-      <c r="DS12" s="22"/>
-      <c r="DT12" s="22"/>
-      <c r="DU12" s="22"/>
-      <c r="DV12" s="22"/>
-      <c r="DW12" s="22"/>
-      <c r="DX12" s="22"/>
-      <c r="DY12" s="22"/>
-      <c r="DZ12" s="22"/>
-      <c r="EA12" s="17" t="s">
+      <c r="DP12" s="18"/>
+      <c r="DQ12" s="18"/>
+      <c r="DR12" s="18"/>
+      <c r="DS12" s="18"/>
+      <c r="DT12" s="18"/>
+      <c r="DU12" s="18"/>
+      <c r="DV12" s="18"/>
+      <c r="DW12" s="18"/>
+      <c r="DX12" s="18"/>
+      <c r="DY12" s="18"/>
+      <c r="DZ12" s="18"/>
+      <c r="EA12" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1319,7 @@
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1356,7 @@
       <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="18"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1393,7 @@
       <c r="AM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="18"/>
+      <c r="AN13" s="20"/>
       <c r="AO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="AZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="18"/>
+      <c r="BA13" s="20"/>
       <c r="BB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1467,7 @@
       <c r="BM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BN13" s="18"/>
+      <c r="BN13" s="20"/>
       <c r="BO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1504,7 @@
       <c r="BZ13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CA13" s="18"/>
+      <c r="CA13" s="20"/>
       <c r="CB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1541,7 @@
       <c r="CM13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CN13" s="23"/>
+      <c r="CN13" s="21"/>
       <c r="CO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1578,7 @@
       <c r="CZ13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DA13" s="23"/>
+      <c r="DA13" s="21"/>
       <c r="DB13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1615,7 @@
       <c r="DM13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DN13" s="23"/>
+      <c r="DN13" s="21"/>
       <c r="DO13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="DZ13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="EA13" s="18"/>
+      <c r="EA13" s="20"/>
     </row>
     <row r="14" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2033,7 +2035,9 @@
       <c r="DX14" s="1">
         <v>383</v>
       </c>
-      <c r="DY14" s="1"/>
+      <c r="DY14" s="1">
+        <v>1490</v>
+      </c>
       <c r="DZ14" s="1"/>
     </row>
     <row r="15" spans="1:131" x14ac:dyDescent="0.25">
@@ -2421,7 +2425,9 @@
       <c r="DX15" s="1">
         <v>3899</v>
       </c>
-      <c r="DY15" s="1"/>
+      <c r="DY15" s="1">
+        <v>4865</v>
+      </c>
       <c r="DZ15" s="1"/>
     </row>
     <row r="16" spans="1:131" x14ac:dyDescent="0.25">
@@ -2809,7 +2815,9 @@
       <c r="DX16" s="1">
         <v>2040</v>
       </c>
-      <c r="DY16" s="1"/>
+      <c r="DY16" s="1">
+        <v>2798</v>
+      </c>
       <c r="DZ16" s="1"/>
     </row>
     <row r="17" spans="1:130" x14ac:dyDescent="0.25">
@@ -3179,7 +3187,9 @@
       <c r="DX17" s="1">
         <v>12</v>
       </c>
-      <c r="DY17" s="1"/>
+      <c r="DY17" s="1">
+        <v>6</v>
+      </c>
       <c r="DZ17" s="1"/>
     </row>
     <row r="18" spans="1:130" x14ac:dyDescent="0.25">
@@ -3567,7 +3577,9 @@
       <c r="DX18" s="1">
         <v>563824</v>
       </c>
-      <c r="DY18" s="1"/>
+      <c r="DY18" s="1">
+        <v>688475</v>
+      </c>
       <c r="DZ18" s="1"/>
     </row>
     <row r="19" spans="1:130" x14ac:dyDescent="0.25">
@@ -3853,7 +3865,9 @@
       <c r="DX19" s="1">
         <v>4</v>
       </c>
-      <c r="DY19" s="1"/>
+      <c r="DY19" s="1">
+        <v>9</v>
+      </c>
       <c r="DZ19" s="1"/>
     </row>
     <row r="20" spans="1:130" x14ac:dyDescent="0.25">
@@ -4437,7 +4451,9 @@
       <c r="DX21" s="1">
         <v>1932</v>
       </c>
-      <c r="DY21" s="1"/>
+      <c r="DY21" s="1">
+        <v>2307</v>
+      </c>
       <c r="DZ21" s="1"/>
     </row>
     <row r="22" spans="1:130" x14ac:dyDescent="0.25">
@@ -5175,7 +5191,9 @@
       <c r="DX23" s="1">
         <v>292279</v>
       </c>
-      <c r="DY23" s="1"/>
+      <c r="DY23" s="1">
+        <v>296393</v>
+      </c>
       <c r="DZ23" s="1"/>
     </row>
     <row r="24" spans="1:130" x14ac:dyDescent="0.25">
@@ -5925,7 +5943,9 @@
       <c r="DX25" s="1">
         <v>86</v>
       </c>
-      <c r="DY25" s="1"/>
+      <c r="DY25" s="1">
+        <v>40</v>
+      </c>
       <c r="DZ25" s="1"/>
     </row>
     <row r="26" spans="1:130" x14ac:dyDescent="0.25">
@@ -6311,7 +6331,9 @@
       <c r="DX26" s="1">
         <v>129</v>
       </c>
-      <c r="DY26" s="1"/>
+      <c r="DY26" s="1">
+        <v>84</v>
+      </c>
       <c r="DZ26" s="1"/>
     </row>
     <row r="27" spans="1:130" x14ac:dyDescent="0.25">
@@ -6699,7 +6721,9 @@
       <c r="DX27" s="1">
         <v>13</v>
       </c>
-      <c r="DY27" s="1"/>
+      <c r="DY27" s="1">
+        <v>22</v>
+      </c>
       <c r="DZ27" s="1"/>
     </row>
     <row r="28" spans="1:130" x14ac:dyDescent="0.25">
@@ -7087,7 +7111,9 @@
       <c r="DX28" s="1">
         <v>11673</v>
       </c>
-      <c r="DY28" s="1"/>
+      <c r="DY28" s="1">
+        <v>17428</v>
+      </c>
       <c r="DZ28" s="1"/>
     </row>
     <row r="29" spans="1:130" x14ac:dyDescent="0.25">
@@ -7439,7 +7465,9 @@
       <c r="DX29" s="1">
         <v>53</v>
       </c>
-      <c r="DY29" s="1"/>
+      <c r="DY29" s="1">
+        <v>5</v>
+      </c>
       <c r="DZ29" s="1"/>
     </row>
     <row r="30" spans="1:130" x14ac:dyDescent="0.25">
@@ -7807,7 +7835,9 @@
       <c r="DX30" s="1">
         <v>215</v>
       </c>
-      <c r="DY30" s="1"/>
+      <c r="DY30" s="1">
+        <v>239</v>
+      </c>
       <c r="DZ30" s="1"/>
     </row>
     <row r="31" spans="1:130" x14ac:dyDescent="0.25">
@@ -8195,7 +8225,9 @@
       <c r="DX31" s="1">
         <v>185</v>
       </c>
-      <c r="DY31" s="1"/>
+      <c r="DY31" s="1">
+        <v>266</v>
+      </c>
       <c r="DZ31" s="1"/>
     </row>
     <row r="32" spans="1:130" x14ac:dyDescent="0.25">
@@ -8583,7 +8615,9 @@
       <c r="DX32" s="1">
         <v>1764</v>
       </c>
-      <c r="DY32" s="1"/>
+      <c r="DY32" s="1">
+        <v>1635</v>
+      </c>
       <c r="DZ32" s="1"/>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.25">
@@ -8931,7 +8965,9 @@
       <c r="DX33" s="1">
         <v>117</v>
       </c>
-      <c r="DY33" s="1"/>
+      <c r="DY33" s="1">
+        <v>203</v>
+      </c>
       <c r="DZ33" s="1"/>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.25">
@@ -9319,7 +9355,9 @@
       <c r="DX34" s="1">
         <v>76132</v>
       </c>
-      <c r="DY34" s="1"/>
+      <c r="DY34" s="1">
+        <v>80834</v>
+      </c>
       <c r="DZ34" s="1"/>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.25">
@@ -9707,7 +9745,9 @@
       <c r="DX35" s="1">
         <v>146</v>
       </c>
-      <c r="DY35" s="1"/>
+      <c r="DY35" s="1">
+        <v>85</v>
+      </c>
       <c r="DZ35" s="1"/>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.25">
@@ -10095,7 +10135,9 @@
       <c r="DX36" s="1">
         <v>1108</v>
       </c>
-      <c r="DY36" s="1"/>
+      <c r="DY36" s="1">
+        <v>1075</v>
+      </c>
       <c r="DZ36" s="1"/>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.25">
@@ -10479,7 +10521,9 @@
       <c r="DX37" s="1">
         <v>142</v>
       </c>
-      <c r="DY37" s="1"/>
+      <c r="DY37" s="1">
+        <v>3209</v>
+      </c>
       <c r="DZ37" s="1"/>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.25">
@@ -10867,7 +10911,9 @@
       <c r="DX38" s="1">
         <v>134</v>
       </c>
-      <c r="DY38" s="1"/>
+      <c r="DY38" s="1">
+        <v>390</v>
+      </c>
       <c r="DZ38" s="1"/>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.25">
@@ -11255,7 +11301,9 @@
       <c r="DX39" s="1">
         <v>2886</v>
       </c>
-      <c r="DY39" s="1"/>
+      <c r="DY39" s="1">
+        <v>3563</v>
+      </c>
       <c r="DZ39" s="1"/>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.25">
@@ -11643,7 +11691,9 @@
       <c r="DX40" s="1">
         <v>159202</v>
       </c>
-      <c r="DY40" s="1"/>
+      <c r="DY40" s="1">
+        <v>176893</v>
+      </c>
       <c r="DZ40" s="1"/>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.25">
@@ -11965,7 +12015,9 @@
       <c r="DX41" s="1">
         <v>40</v>
       </c>
-      <c r="DY41" s="1"/>
+      <c r="DY41" s="1">
+        <v>17</v>
+      </c>
       <c r="DZ41" s="1"/>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.25">
@@ -12353,7 +12405,9 @@
       <c r="DX42" s="1">
         <v>999</v>
       </c>
-      <c r="DY42" s="1"/>
+      <c r="DY42" s="1">
+        <v>2587</v>
+      </c>
       <c r="DZ42" s="1"/>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.25">
@@ -12735,7 +12789,9 @@
       <c r="DX43" s="1">
         <v>15</v>
       </c>
-      <c r="DY43" s="1"/>
+      <c r="DY43" s="1">
+        <v>41</v>
+      </c>
       <c r="DZ43" s="1"/>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.25">
@@ -13123,7 +13179,9 @@
       <c r="DX44" s="1">
         <v>6335</v>
       </c>
-      <c r="DY44" s="1"/>
+      <c r="DY44" s="1">
+        <v>10176</v>
+      </c>
       <c r="DZ44" s="1"/>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.25">
@@ -13511,7 +13569,9 @@
       <c r="DX45" s="1">
         <v>3644</v>
       </c>
-      <c r="DY45" s="1"/>
+      <c r="DY45" s="1">
+        <v>4582</v>
+      </c>
       <c r="DZ45" s="1"/>
     </row>
     <row r="46" spans="1:130" x14ac:dyDescent="0.25">
@@ -13899,7 +13959,9 @@
       <c r="DX46" s="1">
         <v>51</v>
       </c>
-      <c r="DY46" s="1"/>
+      <c r="DY46" s="1">
+        <v>80</v>
+      </c>
       <c r="DZ46" s="1"/>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.25">
@@ -14521,7 +14583,9 @@
       <c r="DX48" s="1">
         <v>27</v>
       </c>
-      <c r="DY48" s="1"/>
+      <c r="DY48" s="1">
+        <v>31</v>
+      </c>
       <c r="DZ48" s="1"/>
     </row>
     <row r="49" spans="1:130" x14ac:dyDescent="0.25">
@@ -14909,7 +14973,9 @@
       <c r="DX49" s="1">
         <v>14566</v>
       </c>
-      <c r="DY49" s="1"/>
+      <c r="DY49" s="1">
+        <v>18082</v>
+      </c>
       <c r="DZ49" s="1"/>
     </row>
     <row r="50" spans="1:130" x14ac:dyDescent="0.25">
@@ -15297,7 +15363,9 @@
       <c r="DX50" s="1">
         <v>8552</v>
       </c>
-      <c r="DY50" s="1"/>
+      <c r="DY50" s="1">
+        <v>8514</v>
+      </c>
       <c r="DZ50" s="1"/>
     </row>
     <row r="51" spans="1:130" x14ac:dyDescent="0.25">
@@ -15685,7 +15753,9 @@
       <c r="DX51" s="1">
         <v>6388</v>
       </c>
-      <c r="DY51" s="1"/>
+      <c r="DY51" s="1">
+        <v>8605</v>
+      </c>
       <c r="DZ51" s="1"/>
     </row>
     <row r="52" spans="1:130" x14ac:dyDescent="0.25">
@@ -16025,7 +16095,9 @@
       <c r="DX52" s="1">
         <v>25</v>
       </c>
-      <c r="DY52" s="1"/>
+      <c r="DY52" s="1">
+        <v>35</v>
+      </c>
       <c r="DZ52" s="1"/>
     </row>
     <row r="53" spans="1:130" x14ac:dyDescent="0.25">
@@ -16399,7 +16471,9 @@
       <c r="DX53" s="1">
         <v>13</v>
       </c>
-      <c r="DY53" s="1"/>
+      <c r="DY53" s="1">
+        <v>16</v>
+      </c>
       <c r="DZ53" s="1"/>
     </row>
     <row r="54" spans="1:130" x14ac:dyDescent="0.25">
@@ -16781,7 +16855,9 @@
       <c r="DX54" s="1">
         <v>4190</v>
       </c>
-      <c r="DY54" s="1"/>
+      <c r="DY54" s="1">
+        <v>4471</v>
+      </c>
       <c r="DZ54" s="1"/>
     </row>
     <row r="55" spans="1:130" x14ac:dyDescent="0.25">
@@ -17135,7 +17211,9 @@
       <c r="DX55" s="1">
         <v>53</v>
       </c>
-      <c r="DY55" s="1"/>
+      <c r="DY55" s="1">
+        <v>25</v>
+      </c>
       <c r="DZ55" s="1"/>
     </row>
     <row r="56" spans="1:130" x14ac:dyDescent="0.25">
@@ -17505,7 +17583,9 @@
       <c r="DX56" s="1">
         <v>693</v>
       </c>
-      <c r="DY56" s="1"/>
+      <c r="DY56" s="1">
+        <v>613</v>
+      </c>
       <c r="DZ56" s="1"/>
     </row>
     <row r="57" spans="1:130" x14ac:dyDescent="0.25">
@@ -17797,7 +17877,9 @@
       <c r="DV57" s="1"/>
       <c r="DW57" s="1"/>
       <c r="DX57" s="1"/>
-      <c r="DY57" s="1"/>
+      <c r="DY57" s="1">
+        <v>19</v>
+      </c>
       <c r="DZ57" s="1"/>
     </row>
     <row r="58" spans="1:130" x14ac:dyDescent="0.25">
@@ -18169,7 +18251,9 @@
       <c r="DX58" s="1">
         <v>68</v>
       </c>
-      <c r="DY58" s="1"/>
+      <c r="DY58" s="1">
+        <v>77</v>
+      </c>
       <c r="DZ58" s="1"/>
     </row>
     <row r="59" spans="1:130" x14ac:dyDescent="0.25">
@@ -18557,7 +18641,9 @@
       <c r="DX59" s="1">
         <v>94453</v>
       </c>
-      <c r="DY59" s="1"/>
+      <c r="DY59" s="1">
+        <v>142957</v>
+      </c>
       <c r="DZ59" s="1"/>
     </row>
     <row r="60" spans="1:130" x14ac:dyDescent="0.25">
@@ -18945,7 +19031,9 @@
       <c r="DX60" s="1">
         <v>7339</v>
       </c>
-      <c r="DY60" s="1"/>
+      <c r="DY60" s="1">
+        <v>7419</v>
+      </c>
       <c r="DZ60" s="1"/>
     </row>
     <row r="61" spans="1:130" x14ac:dyDescent="0.25">
@@ -19333,7 +19421,9 @@
       <c r="DX61" s="1">
         <v>23</v>
       </c>
-      <c r="DY61" s="1"/>
+      <c r="DY61" s="1">
+        <v>15</v>
+      </c>
       <c r="DZ61" s="1"/>
     </row>
     <row r="62" spans="1:130" x14ac:dyDescent="0.25">
@@ -19721,7 +19811,9 @@
       <c r="DX62" s="1">
         <v>54</v>
       </c>
-      <c r="DY62" s="1"/>
+      <c r="DY62" s="1">
+        <v>78</v>
+      </c>
       <c r="DZ62" s="1"/>
     </row>
     <row r="63" spans="1:130" x14ac:dyDescent="0.25">
@@ -20109,7 +20201,9 @@
       <c r="DX63" s="1">
         <v>158</v>
       </c>
-      <c r="DY63" s="1"/>
+      <c r="DY63" s="1">
+        <v>158</v>
+      </c>
       <c r="DZ63" s="1"/>
     </row>
     <row r="64" spans="1:130" x14ac:dyDescent="0.25">
@@ -20497,7 +20591,9 @@
       <c r="DX64" s="1">
         <v>3201</v>
       </c>
-      <c r="DY64" s="1"/>
+      <c r="DY64" s="1">
+        <v>3482</v>
+      </c>
       <c r="DZ64" s="1"/>
     </row>
     <row r="65" spans="1:130" x14ac:dyDescent="0.25">
@@ -20885,7 +20981,9 @@
       <c r="DX65" s="1">
         <v>13066</v>
       </c>
-      <c r="DY65" s="1"/>
+      <c r="DY65" s="1">
+        <v>14289</v>
+      </c>
       <c r="DZ65" s="1"/>
     </row>
     <row r="66" spans="1:130" x14ac:dyDescent="0.25">
@@ -21273,7 +21371,9 @@
       <c r="DX66" s="1">
         <v>705</v>
       </c>
-      <c r="DY66" s="1"/>
+      <c r="DY66" s="1">
+        <v>790</v>
+      </c>
       <c r="DZ66" s="1"/>
     </row>
     <row r="67" spans="1:130" x14ac:dyDescent="0.25">
@@ -21661,7 +21761,9 @@
       <c r="DX67" s="1">
         <v>318</v>
       </c>
-      <c r="DY67" s="1"/>
+      <c r="DY67" s="1">
+        <v>384</v>
+      </c>
       <c r="DZ67" s="1"/>
     </row>
     <row r="68" spans="1:130" x14ac:dyDescent="0.25">
@@ -22049,7 +22151,9 @@
       <c r="DX68" s="1">
         <v>187</v>
       </c>
-      <c r="DY68" s="1"/>
+      <c r="DY68" s="1">
+        <v>190</v>
+      </c>
       <c r="DZ68" s="1"/>
     </row>
     <row r="69" spans="1:130" x14ac:dyDescent="0.25">
@@ -22437,7 +22541,9 @@
       <c r="DX69" s="1">
         <v>762</v>
       </c>
-      <c r="DY69" s="1"/>
+      <c r="DY69" s="1">
+        <v>1013</v>
+      </c>
       <c r="DZ69" s="1"/>
     </row>
     <row r="70" spans="1:130" x14ac:dyDescent="0.25">
@@ -22825,7 +22931,9 @@
       <c r="DX70" s="1">
         <v>763</v>
       </c>
-      <c r="DY70" s="1"/>
+      <c r="DY70" s="1">
+        <v>820</v>
+      </c>
       <c r="DZ70" s="1"/>
     </row>
     <row r="71" spans="1:130" x14ac:dyDescent="0.25">
@@ -23471,7 +23579,9 @@
       <c r="DX72" s="1">
         <v>267</v>
       </c>
-      <c r="DY72" s="1"/>
+      <c r="DY72" s="1">
+        <v>229</v>
+      </c>
       <c r="DZ72" s="1"/>
     </row>
     <row r="73" spans="1:130" x14ac:dyDescent="0.25">
@@ -23859,7 +23969,9 @@
       <c r="DX73" s="1">
         <v>851</v>
       </c>
-      <c r="DY73" s="1"/>
+      <c r="DY73" s="1">
+        <v>740</v>
+      </c>
       <c r="DZ73" s="1"/>
     </row>
     <row r="74" spans="1:130" x14ac:dyDescent="0.25">
@@ -24235,7 +24347,9 @@
       <c r="DX74" s="1">
         <v>159</v>
       </c>
-      <c r="DY74" s="1"/>
+      <c r="DY74" s="1">
+        <v>121</v>
+      </c>
       <c r="DZ74" s="1"/>
     </row>
     <row r="75" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24623,7 +24737,9 @@
       <c r="DX75" s="1">
         <v>2788</v>
       </c>
-      <c r="DY75" s="1"/>
+      <c r="DY75" s="1">
+        <v>2464</v>
+      </c>
       <c r="DZ75" s="1"/>
     </row>
     <row r="76" spans="1:130" x14ac:dyDescent="0.25">
@@ -25011,7 +25127,9 @@
       <c r="DX76" s="1">
         <v>1846</v>
       </c>
-      <c r="DY76" s="1"/>
+      <c r="DY76" s="1">
+        <v>4250</v>
+      </c>
       <c r="DZ76" s="1"/>
     </row>
     <row r="77" spans="1:130" x14ac:dyDescent="0.25">
@@ -25399,17 +25517,13 @@
       <c r="DX77" s="10">
         <v>1290981</v>
       </c>
-      <c r="DY77" s="10"/>
+      <c r="DY77" s="10">
+        <v>1519684</v>
+      </c>
       <c r="DZ77" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DO12:DZ12"/>
-    <mergeCell ref="EA12:EA13"/>
-    <mergeCell ref="CO12:CY12"/>
-    <mergeCell ref="DA12:DA13"/>
-    <mergeCell ref="DN12:DN13"/>
-    <mergeCell ref="DB12:DM12"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="CB12:CM12"/>
@@ -25425,6 +25539,12 @@
     <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="DO12:DZ12"/>
+    <mergeCell ref="EA12:EA13"/>
+    <mergeCell ref="CO12:CY12"/>
+    <mergeCell ref="DA12:DA13"/>
+    <mergeCell ref="DN12:DN13"/>
+    <mergeCell ref="DB12:DM12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A77">

--- a/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
+++ b/Entrada_de_visitantes_extranjeros_por_via_aerea_historico.xlsx
@@ -296,7 +296,7 @@
     <t>Total 2021</t>
   </si>
   <si>
-    <t>Enero de 2012 - Octubre de 2021</t>
+    <t>Enero de 2012 - Diciembre de 2021</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:EA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DM55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:DY77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2038,12 @@
       <c r="DY14" s="1">
         <v>1490</v>
       </c>
-      <c r="DZ14" s="1"/>
+      <c r="DZ14" s="1">
+        <v>2638</v>
+      </c>
+      <c r="EA14" s="1">
+        <v>10978</v>
+      </c>
     </row>
     <row r="15" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2428,7 +2433,12 @@
       <c r="DY15" s="1">
         <v>4865</v>
       </c>
-      <c r="DZ15" s="1"/>
+      <c r="DZ15" s="1">
+        <v>7261</v>
+      </c>
+      <c r="EA15" s="1">
+        <v>53118</v>
+      </c>
     </row>
     <row r="16" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2818,9 +2828,14 @@
       <c r="DY16" s="1">
         <v>2798</v>
       </c>
-      <c r="DZ16" s="1"/>
+      <c r="DZ16" s="1">
+        <v>3452</v>
+      </c>
+      <c r="EA16" s="1">
+        <v>23330</v>
+      </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -3190,9 +3205,14 @@
       <c r="DY17" s="1">
         <v>6</v>
       </c>
-      <c r="DZ17" s="1"/>
+      <c r="DZ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="EA17" s="1">
+        <v>197</v>
+      </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -3580,9 +3600,14 @@
       <c r="DY18" s="1">
         <v>688475</v>
       </c>
-      <c r="DZ18" s="1"/>
+      <c r="DZ18" s="1">
+        <v>842705</v>
+      </c>
+      <c r="EA18" s="1">
+        <v>6426554</v>
+      </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -3868,9 +3893,14 @@
       <c r="DY19" s="1">
         <v>9</v>
       </c>
-      <c r="DZ19" s="1"/>
+      <c r="DZ19" s="1">
+        <v>242</v>
+      </c>
+      <c r="EA19" s="1">
+        <v>320</v>
+      </c>
     </row>
-    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -4065,8 +4095,11 @@
       <c r="DX20" s="1"/>
       <c r="DY20" s="1"/>
       <c r="DZ20" s="1"/>
+      <c r="EA20" s="1">
+        <v>2459</v>
+      </c>
     </row>
-    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -4454,9 +4487,14 @@
       <c r="DY21" s="1">
         <v>2307</v>
       </c>
-      <c r="DZ21" s="1"/>
+      <c r="DZ21" s="1">
+        <v>2809</v>
+      </c>
+      <c r="EA21" s="1">
+        <v>20967</v>
+      </c>
     </row>
-    <row r="22" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -4804,9 +4842,14 @@
         <v>2</v>
       </c>
       <c r="DY22" s="1"/>
-      <c r="DZ22" s="1"/>
+      <c r="DZ22" s="1">
+        <v>10</v>
+      </c>
+      <c r="EA22" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -5194,9 +5237,14 @@
       <c r="DY23" s="1">
         <v>296393</v>
       </c>
-      <c r="DZ23" s="1"/>
+      <c r="DZ23" s="1">
+        <v>375667</v>
+      </c>
+      <c r="EA23" s="1">
+        <v>2683068</v>
+      </c>
     </row>
-    <row r="24" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -5556,9 +5604,14 @@
         <v>10</v>
       </c>
       <c r="DY24" s="1"/>
-      <c r="DZ24" s="1"/>
+      <c r="DZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="EA24" s="1">
+        <v>369</v>
+      </c>
     </row>
-    <row r="25" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -5946,9 +5999,14 @@
       <c r="DY25" s="1">
         <v>40</v>
       </c>
-      <c r="DZ25" s="1"/>
+      <c r="DZ25" s="1">
+        <v>35</v>
+      </c>
+      <c r="EA25" s="1">
+        <v>432</v>
+      </c>
     </row>
-    <row r="26" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -6334,9 +6392,14 @@
       <c r="DY26" s="1">
         <v>84</v>
       </c>
-      <c r="DZ26" s="1"/>
+      <c r="DZ26" s="1">
+        <v>90</v>
+      </c>
+      <c r="EA26" s="1">
+        <v>902</v>
+      </c>
     </row>
-    <row r="27" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -6724,9 +6787,14 @@
       <c r="DY27" s="1">
         <v>22</v>
       </c>
-      <c r="DZ27" s="1"/>
+      <c r="DZ27" s="1">
+        <v>56</v>
+      </c>
+      <c r="EA27" s="1">
+        <v>260</v>
+      </c>
     </row>
-    <row r="28" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -7114,9 +7182,14 @@
       <c r="DY28" s="1">
         <v>17428</v>
       </c>
-      <c r="DZ28" s="1"/>
+      <c r="DZ28" s="1">
+        <v>22252</v>
+      </c>
+      <c r="EA28" s="1">
+        <v>180778</v>
+      </c>
     </row>
-    <row r="29" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -7468,9 +7541,14 @@
       <c r="DY29" s="1">
         <v>5</v>
       </c>
-      <c r="DZ29" s="1"/>
+      <c r="DZ29" s="1">
+        <v>19</v>
+      </c>
+      <c r="EA29" s="1">
+        <v>205</v>
+      </c>
     </row>
-    <row r="30" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -7838,9 +7916,14 @@
       <c r="DY30" s="1">
         <v>239</v>
       </c>
-      <c r="DZ30" s="1"/>
+      <c r="DZ30" s="1">
+        <v>445</v>
+      </c>
+      <c r="EA30" s="1">
+        <v>2299</v>
+      </c>
     </row>
-    <row r="31" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -8228,9 +8311,14 @@
       <c r="DY31" s="1">
         <v>266</v>
       </c>
-      <c r="DZ31" s="1"/>
+      <c r="DZ31" s="1">
+        <v>244</v>
+      </c>
+      <c r="EA31" s="1">
+        <v>2380</v>
+      </c>
     </row>
-    <row r="32" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -8618,9 +8706,14 @@
       <c r="DY32" s="1">
         <v>1635</v>
       </c>
-      <c r="DZ32" s="1"/>
+      <c r="DZ32" s="1">
+        <v>2881</v>
+      </c>
+      <c r="EA32" s="1">
+        <v>23387</v>
+      </c>
     </row>
-    <row r="33" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -8968,9 +9061,14 @@
       <c r="DY33" s="1">
         <v>203</v>
       </c>
-      <c r="DZ33" s="1"/>
+      <c r="DZ33" s="1">
+        <v>73</v>
+      </c>
+      <c r="EA33" s="1">
+        <v>1342</v>
+      </c>
     </row>
-    <row r="34" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -9358,9 +9456,14 @@
       <c r="DY34" s="1">
         <v>80834</v>
       </c>
-      <c r="DZ34" s="1"/>
+      <c r="DZ34" s="1">
+        <v>129157</v>
+      </c>
+      <c r="EA34" s="1">
+        <v>912523</v>
+      </c>
     </row>
-    <row r="35" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -9748,9 +9851,14 @@
       <c r="DY35" s="1">
         <v>85</v>
       </c>
-      <c r="DZ35" s="1"/>
+      <c r="DZ35" s="1">
+        <v>63</v>
+      </c>
+      <c r="EA35" s="1">
+        <v>918</v>
+      </c>
     </row>
-    <row r="36" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
@@ -10138,9 +10246,14 @@
       <c r="DY36" s="1">
         <v>1075</v>
       </c>
-      <c r="DZ36" s="1"/>
+      <c r="DZ36" s="1">
+        <v>1985</v>
+      </c>
+      <c r="EA36" s="1">
+        <v>12049</v>
+      </c>
     </row>
-    <row r="37" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
@@ -10524,9 +10637,14 @@
       <c r="DY37" s="1">
         <v>3209</v>
       </c>
-      <c r="DZ37" s="1"/>
+      <c r="DZ37" s="1">
+        <v>4863</v>
+      </c>
+      <c r="EA37" s="1">
+        <v>13003</v>
+      </c>
     </row>
-    <row r="38" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
@@ -10914,9 +11032,14 @@
       <c r="DY38" s="1">
         <v>390</v>
       </c>
-      <c r="DZ38" s="1"/>
+      <c r="DZ38" s="1">
+        <v>568</v>
+      </c>
+      <c r="EA38" s="1">
+        <v>5527</v>
+      </c>
     </row>
-    <row r="39" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -11304,9 +11427,14 @@
       <c r="DY39" s="1">
         <v>3563</v>
       </c>
-      <c r="DZ39" s="1"/>
+      <c r="DZ39" s="1">
+        <v>3452</v>
+      </c>
+      <c r="EA39" s="1">
+        <v>27440</v>
+      </c>
     </row>
-    <row r="40" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
@@ -11694,9 +11822,14 @@
       <c r="DY40" s="1">
         <v>176893</v>
       </c>
-      <c r="DZ40" s="1"/>
+      <c r="DZ40" s="1">
+        <v>200319</v>
+      </c>
+      <c r="EA40" s="1">
+        <v>1723453</v>
+      </c>
     </row>
-    <row r="41" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
@@ -12018,9 +12151,14 @@
       <c r="DY41" s="1">
         <v>17</v>
       </c>
-      <c r="DZ41" s="1"/>
+      <c r="DZ41" s="1">
+        <v>20</v>
+      </c>
+      <c r="EA41" s="1">
+        <v>201</v>
+      </c>
     </row>
-    <row r="42" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
@@ -12408,9 +12546,14 @@
       <c r="DY42" s="1">
         <v>2587</v>
       </c>
-      <c r="DZ42" s="1"/>
+      <c r="DZ42" s="1">
+        <v>4147</v>
+      </c>
+      <c r="EA42" s="1">
+        <v>17209</v>
+      </c>
     </row>
-    <row r="43" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
@@ -12792,9 +12935,14 @@
       <c r="DY43" s="1">
         <v>41</v>
       </c>
-      <c r="DZ43" s="1"/>
+      <c r="DZ43" s="1">
+        <v>38</v>
+      </c>
+      <c r="EA43" s="1">
+        <v>315</v>
+      </c>
     </row>
-    <row r="44" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
@@ -13182,9 +13330,14 @@
       <c r="DY44" s="1">
         <v>10176</v>
       </c>
-      <c r="DZ44" s="1"/>
+      <c r="DZ44" s="1">
+        <v>15084</v>
+      </c>
+      <c r="EA44" s="1">
+        <v>67050</v>
+      </c>
     </row>
-    <row r="45" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
@@ -13572,9 +13725,14 @@
       <c r="DY45" s="1">
         <v>4582</v>
       </c>
-      <c r="DZ45" s="1"/>
+      <c r="DZ45" s="1">
+        <v>6148</v>
+      </c>
+      <c r="EA45" s="1">
+        <v>43286</v>
+      </c>
     </row>
-    <row r="46" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
@@ -13962,9 +14120,14 @@
       <c r="DY46" s="1">
         <v>80</v>
       </c>
-      <c r="DZ46" s="1"/>
+      <c r="DZ46" s="1">
+        <v>44</v>
+      </c>
+      <c r="EA46" s="1">
+        <v>592</v>
+      </c>
     </row>
-    <row r="47" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
@@ -14205,8 +14368,11 @@
       </c>
       <c r="DY47" s="1"/>
       <c r="DZ47" s="1"/>
+      <c r="EA47" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>53</v>
       </c>
@@ -14586,9 +14752,14 @@
       <c r="DY48" s="1">
         <v>31</v>
       </c>
-      <c r="DZ48" s="1"/>
+      <c r="DZ48" s="1">
+        <v>31</v>
+      </c>
+      <c r="EA48" s="1">
+        <v>213</v>
+      </c>
     </row>
-    <row r="49" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>54</v>
       </c>
@@ -14976,9 +15147,14 @@
       <c r="DY49" s="1">
         <v>18082</v>
       </c>
-      <c r="DZ49" s="1"/>
+      <c r="DZ49" s="1">
+        <v>24893</v>
+      </c>
+      <c r="EA49" s="1">
+        <v>149465</v>
+      </c>
     </row>
-    <row r="50" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
@@ -15366,9 +15542,14 @@
       <c r="DY50" s="1">
         <v>8514</v>
       </c>
-      <c r="DZ50" s="1"/>
+      <c r="DZ50" s="1">
+        <v>16727</v>
+      </c>
+      <c r="EA50" s="1">
+        <v>105295</v>
+      </c>
     </row>
-    <row r="51" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
@@ -15756,9 +15937,14 @@
       <c r="DY51" s="1">
         <v>8605</v>
       </c>
-      <c r="DZ51" s="1"/>
+      <c r="DZ51" s="1">
+        <v>5021</v>
+      </c>
+      <c r="EA51" s="1">
+        <v>65100</v>
+      </c>
     </row>
-    <row r="52" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
@@ -16098,9 +16284,14 @@
       <c r="DY52" s="1">
         <v>35</v>
       </c>
-      <c r="DZ52" s="1"/>
+      <c r="DZ52" s="1">
+        <v>18</v>
+      </c>
+      <c r="EA52" s="1">
+        <v>224</v>
+      </c>
     </row>
-    <row r="53" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
@@ -16474,9 +16665,14 @@
       <c r="DY53" s="1">
         <v>16</v>
       </c>
-      <c r="DZ53" s="1"/>
+      <c r="DZ53" s="1">
+        <v>31</v>
+      </c>
+      <c r="EA53" s="1">
+        <v>186</v>
+      </c>
     </row>
-    <row r="54" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -16858,9 +17054,14 @@
       <c r="DY54" s="1">
         <v>4471</v>
       </c>
-      <c r="DZ54" s="1"/>
+      <c r="DZ54" s="1">
+        <v>5922</v>
+      </c>
+      <c r="EA54" s="1">
+        <v>35400</v>
+      </c>
     </row>
-    <row r="55" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -17214,9 +17415,14 @@
       <c r="DY55" s="1">
         <v>25</v>
       </c>
-      <c r="DZ55" s="1"/>
+      <c r="DZ55" s="1">
+        <v>49</v>
+      </c>
+      <c r="EA55" s="1">
+        <v>525</v>
+      </c>
     </row>
-    <row r="56" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
@@ -17586,9 +17792,14 @@
       <c r="DY56" s="1">
         <v>613</v>
       </c>
-      <c r="DZ56" s="1"/>
+      <c r="DZ56" s="1">
+        <v>852</v>
+      </c>
+      <c r="EA56" s="1">
+        <v>5635</v>
+      </c>
     </row>
-    <row r="57" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
@@ -17880,9 +18091,14 @@
       <c r="DY57" s="1">
         <v>19</v>
       </c>
-      <c r="DZ57" s="1"/>
+      <c r="DZ57" s="1">
+        <v>48</v>
+      </c>
+      <c r="EA57" s="1">
+        <v>134</v>
+      </c>
     </row>
-    <row r="58" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
@@ -18254,9 +18470,14 @@
       <c r="DY58" s="1">
         <v>77</v>
       </c>
-      <c r="DZ58" s="1"/>
+      <c r="DZ58" s="1">
+        <v>53</v>
+      </c>
+      <c r="EA58" s="1">
+        <v>791</v>
+      </c>
     </row>
-    <row r="59" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
@@ -18644,9 +18865,14 @@
       <c r="DY59" s="1">
         <v>142957</v>
       </c>
-      <c r="DZ59" s="1"/>
+      <c r="DZ59" s="1">
+        <v>175895</v>
+      </c>
+      <c r="EA59" s="1">
+        <v>1081786</v>
+      </c>
     </row>
-    <row r="60" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>65</v>
       </c>
@@ -19034,9 +19260,14 @@
       <c r="DY60" s="1">
         <v>7419</v>
       </c>
-      <c r="DZ60" s="1"/>
+      <c r="DZ60" s="1">
+        <v>11272</v>
+      </c>
+      <c r="EA60" s="1">
+        <v>74026</v>
+      </c>
     </row>
-    <row r="61" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
@@ -19424,9 +19655,14 @@
       <c r="DY61" s="1">
         <v>15</v>
       </c>
-      <c r="DZ61" s="1"/>
+      <c r="DZ61" s="1">
+        <v>27</v>
+      </c>
+      <c r="EA61" s="1">
+        <v>272</v>
+      </c>
     </row>
-    <row r="62" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>67</v>
       </c>
@@ -19814,9 +20050,14 @@
       <c r="DY62" s="1">
         <v>78</v>
       </c>
-      <c r="DZ62" s="1"/>
+      <c r="DZ62" s="1">
+        <v>121</v>
+      </c>
+      <c r="EA62" s="1">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="63" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>68</v>
       </c>
@@ -20204,9 +20445,14 @@
       <c r="DY63" s="1">
         <v>158</v>
       </c>
-      <c r="DZ63" s="1"/>
+      <c r="DZ63" s="1">
+        <v>59</v>
+      </c>
+      <c r="EA63" s="1">
+        <v>1321</v>
+      </c>
     </row>
-    <row r="64" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>69</v>
       </c>
@@ -20594,9 +20840,14 @@
       <c r="DY64" s="1">
         <v>3482</v>
       </c>
-      <c r="DZ64" s="1"/>
+      <c r="DZ64" s="1">
+        <v>6752</v>
+      </c>
+      <c r="EA64" s="1">
+        <v>40123</v>
+      </c>
     </row>
-    <row r="65" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
@@ -20984,9 +21235,14 @@
       <c r="DY65" s="1">
         <v>14289</v>
       </c>
-      <c r="DZ65" s="1"/>
+      <c r="DZ65" s="1">
+        <v>24668</v>
+      </c>
+      <c r="EA65" s="1">
+        <v>155478</v>
+      </c>
     </row>
-    <row r="66" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
@@ -21374,9 +21630,14 @@
       <c r="DY66" s="1">
         <v>790</v>
       </c>
-      <c r="DZ66" s="1"/>
+      <c r="DZ66" s="1">
+        <v>992</v>
+      </c>
+      <c r="EA66" s="1">
+        <v>7944</v>
+      </c>
     </row>
-    <row r="67" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>72</v>
       </c>
@@ -21764,9 +22025,14 @@
       <c r="DY67" s="1">
         <v>384</v>
       </c>
-      <c r="DZ67" s="1"/>
+      <c r="DZ67" s="1">
+        <v>358</v>
+      </c>
+      <c r="EA67" s="1">
+        <v>2444</v>
+      </c>
     </row>
-    <row r="68" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
@@ -22154,9 +22420,14 @@
       <c r="DY68" s="1">
         <v>190</v>
       </c>
-      <c r="DZ68" s="1"/>
+      <c r="DZ68" s="1">
+        <v>177</v>
+      </c>
+      <c r="EA68" s="1">
+        <v>2409</v>
+      </c>
     </row>
-    <row r="69" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>74</v>
       </c>
@@ -22544,9 +22815,14 @@
       <c r="DY69" s="1">
         <v>1013</v>
       </c>
-      <c r="DZ69" s="1"/>
+      <c r="DZ69" s="1">
+        <v>1505</v>
+      </c>
+      <c r="EA69" s="1">
+        <v>7130</v>
+      </c>
     </row>
-    <row r="70" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>75</v>
       </c>
@@ -22934,9 +23210,14 @@
       <c r="DY70" s="1">
         <v>820</v>
       </c>
-      <c r="DZ70" s="1"/>
+      <c r="DZ70" s="1">
+        <v>1079</v>
+      </c>
+      <c r="EA70" s="1">
+        <v>8546</v>
+      </c>
     </row>
-    <row r="71" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>76</v>
       </c>
@@ -23234,9 +23515,14 @@
         <v>10</v>
       </c>
       <c r="DY71" s="1"/>
-      <c r="DZ71" s="1"/>
+      <c r="DZ71" s="1">
+        <v>18</v>
+      </c>
+      <c r="EA71" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="72" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>77</v>
       </c>
@@ -23582,9 +23868,14 @@
       <c r="DY72" s="1">
         <v>229</v>
       </c>
-      <c r="DZ72" s="1"/>
+      <c r="DZ72" s="1">
+        <v>469</v>
+      </c>
+      <c r="EA72" s="1">
+        <v>2393</v>
+      </c>
     </row>
-    <row r="73" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>78</v>
       </c>
@@ -23972,9 +24263,14 @@
       <c r="DY73" s="1">
         <v>740</v>
       </c>
-      <c r="DZ73" s="1"/>
+      <c r="DZ73" s="1">
+        <v>1019</v>
+      </c>
+      <c r="EA73" s="1">
+        <v>10363</v>
+      </c>
     </row>
-    <row r="74" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
@@ -24350,9 +24646,14 @@
       <c r="DY74" s="1">
         <v>121</v>
       </c>
-      <c r="DZ74" s="1"/>
+      <c r="DZ74" s="1">
+        <v>39</v>
+      </c>
+      <c r="EA74" s="1">
+        <v>859</v>
+      </c>
     </row>
-    <row r="75" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>80</v>
       </c>
@@ -24740,9 +25041,14 @@
       <c r="DY75" s="1">
         <v>2464</v>
       </c>
-      <c r="DZ75" s="1"/>
+      <c r="DZ75" s="1">
+        <v>4874</v>
+      </c>
+      <c r="EA75" s="1">
+        <v>34413</v>
+      </c>
     </row>
-    <row r="76" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>81</v>
       </c>
@@ -25130,9 +25436,14 @@
       <c r="DY76" s="1">
         <v>4250</v>
       </c>
-      <c r="DZ76" s="1"/>
+      <c r="DZ76" s="1">
+        <v>10221</v>
+      </c>
+      <c r="EA76" s="1">
+        <v>39586</v>
+      </c>
     </row>
-    <row r="77" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>85</v>
       </c>
@@ -25520,7 +25831,12 @@
       <c r="DY77" s="10">
         <v>1519684</v>
       </c>
-      <c r="DZ77" s="10"/>
+      <c r="DZ77" s="10">
+        <v>1919972</v>
+      </c>
+      <c r="EA77" s="10">
+        <v>14090485</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
